--- a/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
+++ b/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>d [mm]</t>
-  </si>
-  <si>
-    <t>ρ [g/cm³]</t>
   </si>
   <si>
     <t>t [s]</t>
@@ -70,13 +67,50 @@
   <si>
     <t>Raumtemp. [K]</t>
   </si>
+  <si>
+    <t>Δ ρ_k [g/cm³]</t>
+  </si>
+  <si>
+    <t>ρ_k [g/cm³]</t>
+  </si>
+  <si>
+    <t>ρ_f [g/cm³]</t>
+  </si>
+  <si>
+    <t>Δ ρ_f [g/cm³]</t>
+  </si>
+  <si>
+    <t>v_sink [m/s]</t>
+  </si>
+  <si>
+    <t>Δ v_sink [m/s]</t>
+  </si>
+  <si>
+    <t>v_sink [m/s] mean</t>
+  </si>
+  <si>
+    <t>Δ v_sink [m/s] mean</t>
+  </si>
+  <si>
+    <t>Δ v_sink [m/s] Δmean</t>
+  </si>
+  <si>
+    <t>Δ t [s]</t>
+  </si>
+  <si>
+    <t>Δ s [m]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -107,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -446,72 +480,227 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,552 +1017,1490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L42"/>
+  <dimension ref="B1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="R2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="T2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="19" t="s">
+      <c r="V2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="22">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="14">
+      <c r="C3" s="24">
+        <v>1.3554999999999999</v>
+      </c>
+      <c r="D3" s="24">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E3" s="43">
         <v>6.14</v>
       </c>
-      <c r="E3" s="20">
+      <c r="F3" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="46">
         <v>0.2</v>
       </c>
-      <c r="F3" s="24">
-        <f>273.15+21.05</f>
-        <v>294.2</v>
-      </c>
-      <c r="H3" s="26">
+      <c r="H3" s="47">
+        <f>0.5*B3*10^-3</f>
+        <v>4.5000000000000005E-3</v>
+      </c>
+      <c r="I3" s="55">
+        <f>$G$3/E3</f>
+        <v>3.2573289902280131E-2</v>
+      </c>
+      <c r="J3" s="55">
+        <f>(($H$3/E3)^2+($G$3*$F$3/E3^2)^2)^(1/2)</f>
+        <v>1.7521715015226661E-3</v>
+      </c>
+      <c r="K3" s="34">
+        <f>(I3+I4+I5+I6+I7)/5</f>
+        <v>3.3077869485049816E-2</v>
+      </c>
+      <c r="L3" s="34">
+        <f>(SUMSQ(J3:J7)/25)^(1/2)</f>
+        <v>8.0798706393487478E-4</v>
+      </c>
+      <c r="M3" s="34">
+        <f>_xlfn.STDEV.S(I3:I7)</f>
+        <v>1.1538275016650245E-3</v>
+      </c>
+      <c r="N3" s="34">
+        <v>1.1482000000000001</v>
+      </c>
+      <c r="O3" s="34">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P3" s="13">
+        <f>273.15+21.5</f>
+        <v>294.64999999999998</v>
+      </c>
+      <c r="R3" s="9">
         <v>550</v>
       </c>
-      <c r="I3" s="27">
+      <c r="S3" s="10">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="T3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="32">
+      <c r="U3" s="15">
         <v>4</v>
       </c>
-      <c r="L3" s="34">
+      <c r="V3" s="17">
         <f>273.15+23.9</f>
         <v>297.04999999999995</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="10">
         <v>6.14</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="24"/>
-      <c r="H4" s="26">
+      <c r="F4" s="30"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="40">
+        <f t="shared" ref="I4:I42" si="0">$G$3/E4</f>
+        <v>3.2573289902280131E-2</v>
+      </c>
+      <c r="J4" s="40">
+        <f t="shared" ref="J4:J12" si="1">(($H$3/E4)^2+($G$3*$F$3/E4^2)^2)^(1/2)</f>
+        <v>1.7521715015226661E-3</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="13"/>
+      <c r="R4" s="9">
         <v>549.5</v>
       </c>
-      <c r="I4" s="27">
+      <c r="S4" s="10">
         <v>5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="T4" s="1">
         <v>99</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="28"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3">
+      <c r="U4" s="15"/>
+      <c r="V4" s="18"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="10">
         <v>5.7</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="24"/>
-      <c r="H5" s="26">
+      <c r="F5" s="30"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="40">
+        <f t="shared" si="0"/>
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="J5" s="40">
+        <f t="shared" si="1"/>
+        <v>2.0083951542744852E-3</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="13"/>
+      <c r="R5" s="9">
         <v>549</v>
       </c>
-      <c r="I5" s="27">
+      <c r="S5" s="10">
         <v>10</v>
       </c>
-      <c r="J5" s="2">
+      <c r="T5" s="1">
         <v>226</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="28"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3">
+      <c r="U5" s="15"/>
+      <c r="V5" s="18"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="10">
         <v>6.21</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="24"/>
-      <c r="H6" s="26">
+      <c r="F6" s="30"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="40">
+        <f t="shared" si="0"/>
+        <v>3.2206119162640906E-2</v>
+      </c>
+      <c r="J6" s="40">
+        <f t="shared" si="1"/>
+        <v>1.716325325710239E-3</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="13"/>
+      <c r="R6" s="9">
         <v>548.5</v>
       </c>
-      <c r="I6" s="27">
+      <c r="S6" s="10">
         <v>15</v>
       </c>
-      <c r="J6" s="2">
+      <c r="T6" s="1">
         <v>357</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16">
+      <c r="U6" s="15"/>
+      <c r="V6" s="18"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="44">
         <v>6.07</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="24"/>
-      <c r="H7" s="26">
+      <c r="F7" s="31"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="41">
+        <f t="shared" si="0"/>
+        <v>3.2948929159802305E-2</v>
+      </c>
+      <c r="J7" s="40">
+        <f t="shared" si="1"/>
+        <v>1.7892578702547329E-3</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="13"/>
+      <c r="R7" s="9">
         <v>548</v>
       </c>
-      <c r="I7" s="27">
+      <c r="S7" s="10">
         <v>20</v>
       </c>
-      <c r="J7" s="2">
+      <c r="T7" s="1">
         <v>485</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="U7" s="15"/>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18">
+      <c r="C8" s="27">
+        <v>1.3625</v>
+      </c>
+      <c r="D8" s="27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E8" s="45">
         <v>7.86</v>
       </c>
-      <c r="E8" s="21">
+      <c r="F8" s="32">
+        <f>F3</f>
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="48">
         <v>0.2</v>
       </c>
-      <c r="F8" s="24">
-        <v>294.25</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="H8" s="51">
+        <f>0.5*B8*10^-3</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="39">
+        <f t="shared" si="0"/>
+        <v>2.5445292620865142E-2</v>
+      </c>
+      <c r="J8" s="39">
+        <f>(($H$8/E8)^2+($G$8*$F$8/E8^2)^2)^(1/2)</f>
+        <v>1.0964504915178231E-3</v>
+      </c>
+      <c r="K8" s="37">
+        <f>(I8+I9+I10+I11+I12)/5</f>
+        <v>2.6029305829267206E-2</v>
+      </c>
+      <c r="L8" s="37">
+        <f t="shared" ref="L8" si="2">(SUMSQ(J8:J12)/25)^(1/2)</f>
+        <v>5.1104479056882763E-4</v>
+      </c>
+      <c r="M8" s="37">
+        <f t="shared" ref="M8" si="3">_xlfn.STDEV.S(I8:I12)</f>
+        <v>5.0949814262065871E-4</v>
+      </c>
+      <c r="N8" s="37">
+        <v>1.1476</v>
+      </c>
+      <c r="O8" s="37">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P8" s="13">
+        <f>P3+0.5</f>
+        <v>295.14999999999998</v>
+      </c>
+      <c r="R8" s="9">
         <v>547.5</v>
       </c>
-      <c r="I8" s="27">
+      <c r="S8" s="10">
         <v>25</v>
       </c>
-      <c r="J8" s="2">
+      <c r="T8" s="1">
         <v>616</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="28"/>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3">
+      <c r="U8" s="15"/>
+      <c r="V8" s="18"/>
+    </row>
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="10">
         <v>7.8</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="24"/>
-      <c r="H9" s="29">
+      <c r="F9" s="30"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="40">
+        <f t="shared" si="0"/>
+        <v>2.5641025641025644E-2</v>
+      </c>
+      <c r="J9" s="40">
+        <f t="shared" ref="J9:J17" si="4">(($H$8/E9)^2+($G$8*$F$8/E9^2)^2)^(1/2)</f>
+        <v>1.1115584065960846E-3</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="13"/>
+      <c r="R9" s="11">
         <v>547</v>
       </c>
-      <c r="I9" s="30">
+      <c r="S9" s="12">
         <v>30</v>
       </c>
-      <c r="J9" s="4">
+      <c r="T9" s="2">
         <v>744</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3">
+      <c r="U9" s="16"/>
+      <c r="V9" s="19"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="10">
         <v>7.7</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3">
+      <c r="F10" s="30"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="40">
+        <f t="shared" si="0"/>
+        <v>2.5974025974025976E-2</v>
+      </c>
+      <c r="J10" s="40">
+        <f t="shared" si="4"/>
+        <v>1.1375207635695094E-3</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="10">
         <v>7.56</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16">
+      <c r="F11" s="30"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="40">
+        <f t="shared" si="0"/>
+        <v>2.6455026455026457E-2</v>
+      </c>
+      <c r="J11" s="40">
+        <f t="shared" si="4"/>
+        <v>1.1755989736153413E-3</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="44">
         <v>7.51</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="F12" s="31"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="41">
+        <f t="shared" si="0"/>
+        <v>2.6631158455392812E-2</v>
+      </c>
+      <c r="J12" s="41">
+        <f t="shared" si="4"/>
+        <v>1.1897130928283149E-3</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
         <v>7.1440000000000001</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18">
+      <c r="C13" s="27">
+        <v>1.3774999999999999</v>
+      </c>
+      <c r="D13" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E13" s="45">
         <v>8.42</v>
       </c>
-      <c r="E13" s="21">
+      <c r="F13" s="32">
+        <f>F8</f>
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="48">
         <v>0.2</v>
       </c>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3">
+      <c r="H13" s="51">
+        <f t="shared" ref="H13:H42" si="5">0.5*B13*10^-3</f>
+        <v>3.5720000000000001E-3</v>
+      </c>
+      <c r="I13" s="39">
+        <f t="shared" si="0"/>
+        <v>2.3752969121140145E-2</v>
+      </c>
+      <c r="J13" s="39">
+        <f>(($H$13/E13)^2+($G$13*$F$13/E13^2)^2)^(1/2)</f>
+        <v>9.4667951449123387E-4</v>
+      </c>
+      <c r="K13" s="37">
+        <f>(I13+I14+I15+I16+I17)/5</f>
+        <v>2.3640955470984416E-2</v>
+      </c>
+      <c r="L13" s="35">
+        <f t="shared" ref="L13" si="6">(SUMSQ(J13:J17)/25)^(1/2)</f>
+        <v>4.2004945214195227E-4</v>
+      </c>
+      <c r="M13" s="35">
+        <f t="shared" ref="M13" si="7">_xlfn.STDEV.S(I13:I17)</f>
+        <v>4.1924762935458839E-4</v>
+      </c>
+      <c r="N13" s="37">
+        <v>1.1476</v>
+      </c>
+      <c r="O13" s="37">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="10">
         <v>8.6199999999999992</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3">
+      <c r="F14" s="30"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="40">
+        <f t="shared" si="0"/>
+        <v>2.3201856148491882E-2</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" ref="J14:J22" si="8">(($H$13/E14)^2+($G$13*$F$13/E14^2)^2)^(1/2)</f>
+        <v>9.0760886409929718E-4</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="10">
         <v>8.5399999999999991</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3">
+      <c r="F15" s="30"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="40">
+        <f t="shared" si="0"/>
+        <v>2.3419203747072605E-2</v>
+      </c>
+      <c r="J15" s="40">
+        <f t="shared" si="8"/>
+        <v>9.2291055402502582E-4</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="10">
         <v>8.5</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16">
+      <c r="F16" s="30"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="40">
+        <f t="shared" si="0"/>
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="J16" s="40">
+        <f t="shared" si="8"/>
+        <v>9.3072263192061364E-4</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="44">
         <v>8.23</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
+      <c r="F17" s="31"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="41">
+        <f t="shared" si="0"/>
+        <v>2.4301336573511544E-2</v>
+      </c>
+      <c r="J17" s="41">
+        <f t="shared" si="8"/>
+        <v>9.8644518067141844E-4</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
         <v>6</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18">
+      <c r="C18" s="27">
+        <v>1.3774999999999999</v>
+      </c>
+      <c r="D18" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E18" s="45">
         <v>11.62</v>
       </c>
-      <c r="E18" s="21">
+      <c r="F18" s="32">
+        <f>F13</f>
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="48">
         <v>0.2</v>
       </c>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3">
+      <c r="H18" s="51">
+        <f t="shared" ref="H18:H42" si="9">0.5*B18*10^-3</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I18" s="39">
+        <f t="shared" si="0"/>
+        <v>1.7211703958691912E-2</v>
+      </c>
+      <c r="J18" s="39">
+        <f>(($H$18/E18)^2+($G$18*$F$18/E18^2)^2)^(1/2)</f>
+        <v>5.1392032384715012E-4</v>
+      </c>
+      <c r="K18" s="64">
+        <f>(I18+I19+I20+I21+I22)/5</f>
+        <v>1.711072882678167E-2</v>
+      </c>
+      <c r="L18" s="60">
+        <f t="shared" ref="L18" si="10">(SUMSQ(J18:J22)/25)^(1/2)</f>
+        <v>2.2754630774580575E-4</v>
+      </c>
+      <c r="M18" s="60">
+        <f t="shared" ref="M18" si="11">_xlfn.STDEV.S(I18:I22)</f>
+        <v>2.0964670301082701E-4</v>
+      </c>
+      <c r="N18" s="37">
+        <v>1.1476</v>
+      </c>
+      <c r="O18" s="37">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="10">
         <v>11.62</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3">
+      <c r="F19" s="30"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7211703958691912E-2</v>
+      </c>
+      <c r="J19" s="40">
+        <f t="shared" ref="J19:J27" si="12">(($H$18/E19)^2+($G$18*$F$18/E19^2)^2)^(1/2)</f>
+        <v>5.1392032384715012E-4</v>
+      </c>
+      <c r="K19" s="64"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="10">
         <v>11.64</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3">
+      <c r="F20" s="30"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7182130584192441E-2</v>
+      </c>
+      <c r="J20" s="40">
+        <f t="shared" si="12"/>
+        <v>5.1237840142188897E-4</v>
+      </c>
+      <c r="K20" s="64"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="10">
         <v>11.62</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16">
+      <c r="F21" s="30"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7211703958691912E-2</v>
+      </c>
+      <c r="J21" s="40">
+        <f t="shared" si="12"/>
+        <v>5.1392032384715012E-4</v>
+      </c>
+      <c r="K21" s="64"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="44">
         <v>11.95</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+      <c r="F22" s="31"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="41">
+        <f t="shared" si="0"/>
+        <v>1.6736401673640169E-2</v>
+      </c>
+      <c r="J22" s="41">
+        <f t="shared" si="12"/>
+        <v>4.8944778085674683E-4</v>
+      </c>
+      <c r="K22" s="64"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="20">
         <v>5</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18">
+      <c r="C23" s="27">
+        <v>1.3774999999999999</v>
+      </c>
+      <c r="D23" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E23" s="45">
         <v>15.56</v>
       </c>
-      <c r="E23" s="21">
+      <c r="F23" s="32">
+        <f>F13</f>
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="52">
         <v>0.2</v>
       </c>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3">
+      <c r="H23" s="37">
+        <f t="shared" ref="H23:H42" si="13">0.5*B23*10^-3</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I23" s="39">
+        <f t="shared" si="0"/>
+        <v>1.2853470437017995E-2</v>
+      </c>
+      <c r="J23" s="39">
+        <f>(($H$23/E23)^2+($G$23*$F$23/E23^2)^2)^(1/2)</f>
+        <v>2.9534364435364433E-4</v>
+      </c>
+      <c r="K23" s="65">
+        <f>(I23+I24+I25+I26+I27)/5</f>
+        <v>1.2816144235262594E-2</v>
+      </c>
+      <c r="L23" s="60">
+        <f t="shared" ref="L23" si="14">(SUMSQ(J23:J27)/25)^(1/2)</f>
+        <v>1.314809588282321E-4</v>
+      </c>
+      <c r="M23" s="60">
+        <f t="shared" ref="M23" si="15">_xlfn.STDEV.S(I23:I27)</f>
+        <v>1.8897275186015511E-4</v>
+      </c>
+      <c r="N23" s="37">
+        <v>1.1476</v>
+      </c>
+      <c r="O23" s="37">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="10">
         <v>15.24</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3">
+      <c r="F24" s="30"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="40">
+        <f t="shared" si="0"/>
+        <v>1.3123359580052493E-2</v>
+      </c>
+      <c r="J24" s="40">
+        <f t="shared" ref="J24:J32" si="16">(($H$23/E24)^2+($G$23*$F$23/E24^2)^2)^(1/2)</f>
+        <v>3.0601659121382729E-4</v>
+      </c>
+      <c r="K24" s="64"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="10">
         <v>15.8</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3">
+      <c r="F25" s="30"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="40">
+        <f t="shared" si="0"/>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="J25" s="40">
+        <f t="shared" si="16"/>
+        <v>2.8775388602423501E-4</v>
+      </c>
+      <c r="K25" s="64"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="10">
         <v>15.66</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16">
+      <c r="F26" s="30"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="40">
+        <f t="shared" si="0"/>
+        <v>1.277139208173691E-2</v>
+      </c>
+      <c r="J26" s="40">
+        <f t="shared" si="16"/>
+        <v>2.9213956412965739E-4</v>
+      </c>
+      <c r="K26" s="64"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="20"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="44">
         <v>15.78</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
+      <c r="F27" s="31"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="41">
+        <f t="shared" si="0"/>
+        <v>1.2674271229404311E-2</v>
+      </c>
+      <c r="J27" s="41">
+        <f t="shared" si="16"/>
+        <v>2.8837339882458726E-4</v>
+      </c>
+      <c r="K27" s="66"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="20">
         <v>4</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18">
+      <c r="C28" s="27">
+        <v>1.3774999999999999</v>
+      </c>
+      <c r="D28" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E28" s="45">
         <v>23.43</v>
       </c>
-      <c r="E28" s="21">
+      <c r="F28" s="32">
+        <f>F13</f>
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="52">
         <v>0.2</v>
       </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3">
+      <c r="H28" s="37">
+        <f t="shared" ref="H28:H42" si="17">0.5*B28*10^-3</f>
+        <v>2E-3</v>
+      </c>
+      <c r="I28" s="56">
+        <f t="shared" si="0"/>
+        <v>8.5360648740930439E-3</v>
+      </c>
+      <c r="J28" s="56">
+        <f>(($H$28/E28)^2+($G$28*$F$28/E28^2)^2)^(1/2)</f>
+        <v>1.3868016543122825E-4</v>
+      </c>
+      <c r="K28" s="64">
+        <f>(I28+I29+I30+I31+I32)/5</f>
+        <v>8.3600294043818212E-3</v>
+      </c>
+      <c r="L28" s="60">
+        <f t="shared" ref="L28" si="18">(SUMSQ(J28:J32)/25)^(1/2)</f>
+        <v>5.9979431293701365E-5</v>
+      </c>
+      <c r="M28" s="60">
+        <f t="shared" ref="M28" si="19">_xlfn.STDEV.S(I28:I32)</f>
+        <v>9.8921847583569231E-5</v>
+      </c>
+      <c r="N28" s="37">
+        <v>1.1476</v>
+      </c>
+      <c r="O28" s="37">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="10">
         <v>24.06</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3">
+      <c r="F29" s="30"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="57">
+        <f t="shared" si="0"/>
+        <v>8.3125519534497094E-3</v>
+      </c>
+      <c r="J29" s="57">
+        <f t="shared" ref="J29:J37" si="20">(($H$28/E29)^2+($G$28*$F$28/E29^2)^2)^(1/2)</f>
+        <v>1.3286351752914206E-4</v>
+      </c>
+      <c r="K29" s="64"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="20"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="10">
         <v>24.01</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3">
+      <c r="F30" s="30"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="57">
+        <f t="shared" si="0"/>
+        <v>8.3298625572678052E-3</v>
+      </c>
+      <c r="J30" s="57">
+        <f t="shared" si="20"/>
+        <v>1.333090011901867E-4</v>
+      </c>
+      <c r="K30" s="64"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="20"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="10">
         <v>24.09</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16">
+      <c r="F31" s="30"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="57">
+        <f t="shared" si="0"/>
+        <v>8.3022000830220016E-3</v>
+      </c>
+      <c r="J31" s="57">
+        <f t="shared" si="20"/>
+        <v>1.3259751565960446E-4</v>
+      </c>
+      <c r="K31" s="64"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="20"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="44">
         <v>24.04</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="11">
+      <c r="F32" s="31"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="58">
+        <f t="shared" si="0"/>
+        <v>8.3194675540765404E-3</v>
+      </c>
+      <c r="J32" s="58">
+        <f t="shared" si="20"/>
+        <v>1.3304138801975253E-4</v>
+      </c>
+      <c r="K32" s="64"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="20">
         <v>3</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18">
+      <c r="C33" s="27">
+        <v>1.3774999999999999</v>
+      </c>
+      <c r="D33" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E33" s="45">
         <v>39.72</v>
       </c>
-      <c r="E33" s="21">
+      <c r="F33" s="32">
+        <f>F28</f>
+        <v>0.3</v>
+      </c>
+      <c r="G33" s="52">
         <v>0.2</v>
       </c>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3">
+      <c r="H33" s="37">
+        <f t="shared" ref="H33:H42" si="21">0.5*B33*10^-3</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="I33" s="56">
+        <f t="shared" si="0"/>
+        <v>5.0352467270896274E-3</v>
+      </c>
+      <c r="J33" s="56">
+        <f>(($H$33/E33)^2+($G$33*$F$33/E33^2)^2)^(1/2)</f>
+        <v>5.3595428853931334E-5</v>
+      </c>
+      <c r="K33" s="67">
+        <f>(I33+I34+I35+I36+I37)/5</f>
+        <v>5.0126521561671706E-3</v>
+      </c>
+      <c r="L33" s="62">
+        <f t="shared" ref="L33" si="22">(SUMSQ(J33:J37)/25)^(1/2)</f>
+        <v>2.3808205742172807E-5</v>
+      </c>
+      <c r="M33" s="62">
+        <f t="shared" ref="M33" si="23">_xlfn.STDEV.S(I33:I37)</f>
+        <v>2.7520590084576011E-5</v>
+      </c>
+      <c r="N33" s="37">
+        <v>1.1476</v>
+      </c>
+      <c r="O33" s="37">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="10">
         <v>40.07</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3">
+      <c r="F34" s="30"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="57">
+        <f t="shared" si="0"/>
+        <v>4.9912652857499375E-3</v>
+      </c>
+      <c r="J34" s="57">
+        <f t="shared" ref="J34:J42" si="24">(($H$33/E34)^2+($G$33*$F$33/E34^2)^2)^(1/2)</f>
+        <v>5.2894141272690634E-5</v>
+      </c>
+      <c r="K34" s="68"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="20"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="10">
         <v>39.92</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3">
+      <c r="F35" s="30"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="57">
+        <f t="shared" si="0"/>
+        <v>5.0100200400801601E-3</v>
+      </c>
+      <c r="J35" s="57">
+        <f t="shared" si="24"/>
+        <v>5.3192559591570681E-5</v>
+      </c>
+      <c r="K35" s="68"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="20"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="10">
         <v>40.15</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16">
+      <c r="F36" s="30"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="57">
+        <f t="shared" si="0"/>
+        <v>4.9813200498132013E-3</v>
+      </c>
+      <c r="J36" s="57">
+        <f t="shared" si="24"/>
+        <v>5.2736274862302553E-5</v>
+      </c>
+      <c r="K36" s="68"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="20"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="44">
         <v>39.64</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="11">
+      <c r="F37" s="31"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="58">
+        <f t="shared" si="0"/>
+        <v>5.0454086781029266E-3</v>
+      </c>
+      <c r="J37" s="58">
+        <f t="shared" si="24"/>
+        <v>5.3758192485178142E-5</v>
+      </c>
+      <c r="K37" s="69"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="20">
         <v>2</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18">
+      <c r="C38" s="27">
+        <f>C33</f>
+        <v>1.3774999999999999</v>
+      </c>
+      <c r="D38" s="27">
+        <f>D33</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E38" s="45">
         <v>74.900000000000006</v>
       </c>
-      <c r="E38" s="21">
+      <c r="F38" s="32">
+        <f>F33</f>
+        <v>0.3</v>
+      </c>
+      <c r="G38" s="52">
         <v>0.2</v>
       </c>
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3">
+      <c r="H38" s="37">
+        <f t="shared" ref="H38:H42" si="25">0.5*B38*10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I38" s="56">
+        <f t="shared" si="0"/>
+        <v>2.6702269692923898E-3</v>
+      </c>
+      <c r="J38" s="56">
+        <f>(($H$38/E38)^2+($G$38*$F$38/E38^2)^2)^(1/2)</f>
+        <v>1.7106706942119941E-5</v>
+      </c>
+      <c r="K38" s="67">
+        <f>(I38+I39+I40+I41+I42)/5</f>
+        <v>2.654035384232682E-3</v>
+      </c>
+      <c r="L38" s="62">
+        <f t="shared" ref="L38" si="26">(SUMSQ(J38:J42)/25)^(1/2)</f>
+        <v>7.5910153311779477E-6</v>
+      </c>
+      <c r="M38" s="60">
+        <f t="shared" ref="M38" si="27">_xlfn.STDEV.S(I38:I42)</f>
+        <v>6.3404518771783403E-5</v>
+      </c>
+      <c r="N38" s="37">
+        <f>N33</f>
+        <v>1.1476</v>
+      </c>
+      <c r="O38" s="37">
+        <f>O33</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="20"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="10">
         <v>78.34</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3">
+      <c r="F39" s="30"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="57">
+        <f t="shared" si="0"/>
+        <v>2.5529742149604288E-3</v>
+      </c>
+      <c r="J39" s="57">
+        <f t="shared" ref="J39:J42" si="28">(($H$38/E39)^2+($G$38*$F$38/E39^2)^2)^(1/2)</f>
+        <v>1.6078625529446875E-5</v>
+      </c>
+      <c r="K39" s="68"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="13"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="20"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="10">
         <v>75.86</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3">
+      <c r="F40" s="30"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="57">
+        <f t="shared" si="0"/>
+        <v>2.6364355391510679E-3</v>
+      </c>
+      <c r="J40" s="57">
+        <f t="shared" si="28"/>
+        <v>1.6806999019068159E-5</v>
+      </c>
+      <c r="K40" s="68"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="13"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="20"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="10">
         <v>73.8</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5">
+      <c r="F41" s="30"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="57">
+        <f t="shared" si="0"/>
+        <v>2.7100271002710031E-3</v>
+      </c>
+      <c r="J41" s="57">
+        <f t="shared" si="28"/>
+        <v>1.7463292566734726E-5</v>
+      </c>
+      <c r="K41" s="68"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="21"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="12">
         <v>74.06</v>
       </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="25"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="59">
+        <f t="shared" si="0"/>
+        <v>2.7005130974885228E-3</v>
+      </c>
+      <c r="J42" s="59">
+        <f t="shared" si="28"/>
+        <v>1.7377698907979166E-5</v>
+      </c>
+      <c r="K42" s="70"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="92">
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="M33:M37"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="M38:M42"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="L28:L32"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="M8:M12"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="H33:H37"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="K38:K42"/>
     <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F8:F42"/>
-    <mergeCell ref="K3:K9"/>
-    <mergeCell ref="L3:L9"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="N33:N37"/>
+    <mergeCell ref="O33:O37"/>
+    <mergeCell ref="N38:N42"/>
+    <mergeCell ref="O38:O42"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="O28:O32"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="O8:O12"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D38:D42"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P8:P42"/>
+    <mergeCell ref="U3:U9"/>
+    <mergeCell ref="V3:V9"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
+++ b/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>d [mm]</t>
   </si>
@@ -100,17 +101,25 @@
   <si>
     <t>Δ s [m]</t>
   </si>
+  <si>
+    <t>v_sinkmean/(ρ_k-ρ_f ) [m^4/s*kg]</t>
+  </si>
+  <si>
+    <t>Δ v_sinkmean/(ρ_k-ρ_f )  [m^4/s*kg]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -141,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -297,21 +306,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -521,11 +515,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -533,24 +555,148 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -560,147 +706,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,10 +1057,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V42"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,11 +1077,13 @@
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1096,7 @@
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -1063,7 +1108,7 @@
       <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -1081,1414 +1126,1389 @@
       <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="22">
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="69">
         <v>9</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="54">
         <v>1.3554999999999999</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="54">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="16">
         <v>6.14</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="41">
         <v>0.3</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="65">
         <v>0.2</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="46">
         <f>0.5*B3*10^-3</f>
         <v>4.5000000000000005E-3</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="20">
         <f>$G$3/E3</f>
         <v>3.2573289902280131E-2</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="20">
         <f>(($H$3/E3)^2+($G$3*$F$3/E3^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="29">
         <f>(I3+I4+I5+I6+I7)/5</f>
         <v>3.3077869485049816E-2</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="29">
         <f>(SUMSQ(J3:J7)/25)^(1/2)</f>
         <v>8.0798706393487478E-4</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="29">
         <f>_xlfn.STDEV.S(I3:I7)</f>
         <v>1.1538275016650245E-3</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="29">
         <v>1.1482000000000001</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="29">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="72">
+        <f>K3/(C3-N3)*10^(-3)</f>
+        <v>1.59565217004582E-4</v>
+      </c>
+      <c r="Q3" s="73">
+        <f>((M3/(C3-N3))^2+(K3*D3/(C3-N3)^2)^2+(K3*O3/(C3-N3)^2)^2)^(1/2)*10^-3</f>
+        <v>5.5813928390751162E-6</v>
+      </c>
+      <c r="R3" s="70">
         <f>273.15+21.5</f>
         <v>294.64999999999998</v>
       </c>
-      <c r="R3" s="9">
-        <v>550</v>
-      </c>
-      <c r="S3" s="10">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="15">
-        <v>4</v>
-      </c>
-      <c r="V3" s="17">
-        <f>273.15+23.9</f>
-        <v>297.04999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="10">
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="56"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="9">
         <v>6.14</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="40">
+      <c r="F4" s="42"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="13">
         <f t="shared" ref="I4:I42" si="0">$G$3/E4</f>
         <v>3.2573289902280131E-2</v>
       </c>
-      <c r="J4" s="40">
-        <f t="shared" ref="J4:J12" si="1">(($H$3/E4)^2+($G$3*$F$3/E4^2)^2)^(1/2)</f>
+      <c r="J4" s="13">
+        <f t="shared" ref="J4:J7" si="1">(($H$3/E4)^2+($G$3*$F$3/E4^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="13"/>
-      <c r="R4" s="9">
-        <v>549.5</v>
-      </c>
-      <c r="S4" s="10">
-        <v>5</v>
-      </c>
-      <c r="T4" s="1">
-        <v>99</v>
-      </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="18"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="10">
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="57"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="56"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="9">
         <v>5.7</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="40">
+      <c r="F5" s="42"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="13">
         <f t="shared" si="0"/>
         <v>3.5087719298245612E-2</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="13">
         <f t="shared" si="1"/>
         <v>2.0083951542744852E-3</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="13"/>
-      <c r="R5" s="9">
-        <v>549</v>
-      </c>
-      <c r="S5" s="10">
-        <v>10</v>
-      </c>
-      <c r="T5" s="1">
-        <v>226</v>
-      </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="18"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="10">
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="57"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="56"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="9">
         <v>6.21</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="40">
+      <c r="F6" s="42"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="13">
         <f t="shared" si="0"/>
         <v>3.2206119162640906E-2</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="13">
         <f t="shared" si="1"/>
         <v>1.716325325710239E-3</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="13"/>
-      <c r="R6" s="9">
-        <v>548.5</v>
-      </c>
-      <c r="S6" s="10">
-        <v>15</v>
-      </c>
-      <c r="T6" s="1">
-        <v>357</v>
-      </c>
-      <c r="U6" s="15"/>
-      <c r="V6" s="18"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="44">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="57"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="56"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="17">
         <v>6.07</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="41">
+      <c r="F7" s="43"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="14">
         <f t="shared" si="0"/>
         <v>3.2948929159802305E-2</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="13">
         <f t="shared" si="1"/>
         <v>1.7892578702547329E-3</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="13"/>
-      <c r="R7" s="9">
-        <v>548</v>
-      </c>
-      <c r="S7" s="10">
-        <v>20</v>
-      </c>
-      <c r="T7" s="1">
-        <v>485</v>
-      </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="18"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="57"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="56">
         <v>8</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="50">
         <v>1.3625</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="50">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="18">
         <v>7.86</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="44">
         <f>F3</f>
         <v>0.3</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="66">
         <v>0.2</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="49">
         <f>0.5*B8*10^-3</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="12">
         <f t="shared" si="0"/>
         <v>2.5445292620865142E-2</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="12">
         <f>(($H$8/E8)^2+($G$8*$F$8/E8^2)^2)^(1/2)</f>
         <v>1.0964504915178231E-3</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="31">
         <f>(I8+I9+I10+I11+I12)/5</f>
         <v>2.6029305829267206E-2</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="31">
         <f t="shared" ref="L8" si="2">(SUMSQ(J8:J12)/25)^(1/2)</f>
         <v>5.1104479056882763E-4</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="31">
         <f t="shared" ref="M8" si="3">_xlfn.STDEV.S(I8:I12)</f>
         <v>5.0949814262065871E-4</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="31">
         <v>1.1476</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P8" s="13">
-        <f>P3+0.5</f>
+      <c r="P8" s="27">
+        <f t="shared" ref="P8:P42" si="4">K8/(C8-N8)*10^(-3)</f>
+        <v>1.2112287496169007E-4</v>
+      </c>
+      <c r="Q8" s="74">
+        <f>((M8/(C8-N8))^2+(K8*D8/(C8-N8)^2)^2+(K8*O8/(C8-N8)^2)^2)^(1/2)*10^-3</f>
+        <v>2.3902111605678812E-6</v>
+      </c>
+      <c r="R8" s="57">
+        <f>R3+0.5</f>
         <v>295.14999999999998</v>
       </c>
-      <c r="R8" s="9">
-        <v>547.5</v>
-      </c>
-      <c r="S8" s="10">
-        <v>25</v>
-      </c>
-      <c r="T8" s="1">
-        <v>616</v>
-      </c>
-      <c r="U8" s="15"/>
-      <c r="V8" s="18"/>
-    </row>
-    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="10">
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="9">
         <v>7.8</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="40">
+      <c r="F9" s="42"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="13">
         <f t="shared" si="0"/>
         <v>2.5641025641025644E-2</v>
       </c>
-      <c r="J9" s="40">
-        <f t="shared" ref="J9:J17" si="4">(($H$8/E9)^2+($G$8*$F$8/E9^2)^2)^(1/2)</f>
+      <c r="J9" s="13">
+        <f t="shared" ref="J9:J12" si="5">(($H$8/E9)^2+($G$8*$F$8/E9^2)^2)^(1/2)</f>
         <v>1.1115584065960846E-3</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="13"/>
-      <c r="R9" s="11">
-        <v>547</v>
-      </c>
-      <c r="S9" s="12">
-        <v>30</v>
-      </c>
-      <c r="T9" s="2">
-        <v>744</v>
-      </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="19"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="10">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="57"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="56"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="9">
         <v>7.7</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="40">
+      <c r="F10" s="42"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="13">
         <f t="shared" si="0"/>
         <v>2.5974025974025976E-2</v>
       </c>
-      <c r="J10" s="40">
-        <f t="shared" si="4"/>
+      <c r="J10" s="13">
+        <f t="shared" si="5"/>
         <v>1.1375207635695094E-3</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="10">
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="57"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="56"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="9">
         <v>7.56</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="40">
+      <c r="F11" s="42"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="13">
         <f t="shared" si="0"/>
         <v>2.6455026455026457E-2</v>
       </c>
-      <c r="J11" s="40">
-        <f t="shared" si="4"/>
+      <c r="J11" s="13">
+        <f t="shared" si="5"/>
         <v>1.1755989736153413E-3</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="44">
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="57"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="56"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="17">
         <v>7.51</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="41">
+      <c r="F12" s="43"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="14">
         <f t="shared" si="0"/>
         <v>2.6631158455392812E-2</v>
       </c>
-      <c r="J12" s="41">
-        <f t="shared" si="4"/>
+      <c r="J12" s="14">
+        <f t="shared" si="5"/>
         <v>1.1897130928283149E-3</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+      <c r="K12" s="30"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="57"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="55">
         <v>7.1440000000000001</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="50">
         <v>1.3774999999999999</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="50">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="18">
         <v>8.42</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="44">
         <f>F8</f>
         <v>0.3</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="66">
         <v>0.2</v>
       </c>
-      <c r="H13" s="51">
-        <f t="shared" ref="H13:H42" si="5">0.5*B13*10^-3</f>
+      <c r="H13" s="49">
+        <f t="shared" ref="H13" si="6">0.5*B13*10^-3</f>
         <v>3.5720000000000001E-3</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="12">
         <f t="shared" si="0"/>
         <v>2.3752969121140145E-2</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="12">
         <f>(($H$13/E13)^2+($G$13*$F$13/E13^2)^2)^(1/2)</f>
         <v>9.4667951449123387E-4</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="31">
         <f>(I13+I14+I15+I16+I17)/5</f>
         <v>2.3640955470984416E-2</v>
       </c>
-      <c r="L13" s="35">
-        <f t="shared" ref="L13" si="6">(SUMSQ(J13:J17)/25)^(1/2)</f>
+      <c r="L13" s="30">
+        <f t="shared" ref="L13" si="7">(SUMSQ(J13:J17)/25)^(1/2)</f>
         <v>4.2004945214195227E-4</v>
       </c>
-      <c r="M13" s="35">
-        <f t="shared" ref="M13" si="7">_xlfn.STDEV.S(I13:I17)</f>
+      <c r="M13" s="30">
+        <f t="shared" ref="M13" si="8">_xlfn.STDEV.S(I13:I17)</f>
         <v>4.1924762935458839E-4</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="31">
         <v>1.1476</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="10">
+      <c r="P13" s="27">
+        <f t="shared" ref="P13:P42" si="9">K13/(C13-N13)*10^(-3)</f>
+        <v>1.0283147225308576E-4</v>
+      </c>
+      <c r="Q13" s="74">
+        <f>((M13/(C13-N13))^2+(K13*D13/(C13-N13)^2)^2+(K13*O13/(C13-N13)^2)^2)^(1/2)*10^-3</f>
+        <v>2.1410198964813952E-6</v>
+      </c>
+      <c r="R13" s="57"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="55"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="9">
         <v>8.6199999999999992</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="40">
+      <c r="F14" s="42"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>2.3201856148491882E-2</v>
       </c>
-      <c r="J14" s="40">
-        <f t="shared" ref="J14:J22" si="8">(($H$13/E14)^2+($G$13*$F$13/E14^2)^2)^(1/2)</f>
+      <c r="J14" s="13">
+        <f t="shared" ref="J14:J17" si="10">(($H$13/E14)^2+($G$13*$F$13/E14^2)^2)^(1/2)</f>
         <v>9.0760886409929718E-4</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="10">
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="57"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="55"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="9">
         <v>8.5399999999999991</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="40">
+      <c r="F15" s="42"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>2.3419203747072605E-2</v>
       </c>
-      <c r="J15" s="40">
-        <f t="shared" si="8"/>
+      <c r="J15" s="13">
+        <f t="shared" si="10"/>
         <v>9.2291055402502582E-4</v>
       </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="10">
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="57"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="55"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="9">
         <v>8.5</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="40">
+      <c r="F16" s="42"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="J16" s="40">
-        <f t="shared" si="8"/>
+      <c r="J16" s="13">
+        <f t="shared" si="10"/>
         <v>9.3072263192061364E-4</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="44">
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="57"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="55"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="17">
         <v>8.23</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="41">
+      <c r="F17" s="43"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="14">
         <f t="shared" si="0"/>
         <v>2.4301336573511544E-2</v>
       </c>
-      <c r="J17" s="41">
-        <f t="shared" si="8"/>
+      <c r="J17" s="14">
+        <f t="shared" si="10"/>
         <v>9.8644518067141844E-4</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="13"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="20">
+      <c r="K17" s="32"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="57"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="56">
         <v>6</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="50">
         <v>1.3774999999999999</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="50">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="18">
         <v>11.62</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="44">
         <f>F13</f>
         <v>0.3</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="66">
         <v>0.2</v>
       </c>
-      <c r="H18" s="51">
-        <f t="shared" ref="H18:H42" si="9">0.5*B18*10^-3</f>
+      <c r="H18" s="49">
+        <f t="shared" ref="H18" si="11">0.5*B18*10^-3</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="12">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="12">
         <f>(($H$18/E18)^2+($G$18*$F$18/E18^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="34">
         <f>(I18+I19+I20+I21+I22)/5</f>
         <v>1.711072882678167E-2</v>
       </c>
-      <c r="L18" s="60">
-        <f t="shared" ref="L18" si="10">(SUMSQ(J18:J22)/25)^(1/2)</f>
+      <c r="L18" s="27">
+        <f t="shared" ref="L18" si="12">(SUMSQ(J18:J22)/25)^(1/2)</f>
         <v>2.2754630774580575E-4</v>
       </c>
-      <c r="M18" s="60">
-        <f t="shared" ref="M18" si="11">_xlfn.STDEV.S(I18:I22)</f>
+      <c r="M18" s="27">
+        <f t="shared" ref="M18" si="13">_xlfn.STDEV.S(I18:I22)</f>
         <v>2.0964670301082701E-4</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="31">
         <v>1.1476</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="10">
+      <c r="P18" s="27">
+        <f t="shared" ref="P18:P42" si="14">K18/(C18-N18)*10^(-3)</f>
+        <v>7.4426832652377855E-5</v>
+      </c>
+      <c r="Q18" s="74">
+        <f>((L18/(C18-N18))^2+(K18*D18/(C18-N18)^2)^2+(K18*O18/(C18-N18)^2)^2)^(1/2)*10^-3</f>
+        <v>1.2801762190890571E-6</v>
+      </c>
+      <c r="R18" s="57"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="56"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="9">
         <v>11.62</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="40">
+      <c r="F19" s="42"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="13">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
-      <c r="J19" s="40">
-        <f t="shared" ref="J19:J27" si="12">(($H$18/E19)^2+($G$18*$F$18/E19^2)^2)^(1/2)</f>
+      <c r="J19" s="13">
+        <f t="shared" ref="J19:J22" si="15">(($H$18/E19)^2+($G$18*$F$18/E19^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="K19" s="64"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="10">
+      <c r="K19" s="34"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="57"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="56"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="9">
         <v>11.64</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="40">
+      <c r="F20" s="42"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="13">
         <f t="shared" si="0"/>
         <v>1.7182130584192441E-2</v>
       </c>
-      <c r="J20" s="40">
-        <f t="shared" si="12"/>
+      <c r="J20" s="13">
+        <f t="shared" si="15"/>
         <v>5.1237840142188897E-4</v>
       </c>
-      <c r="K20" s="64"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="10">
+      <c r="K20" s="34"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="57"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="56"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="9">
         <v>11.62</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="40">
+      <c r="F21" s="42"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="13">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
-      <c r="J21" s="40">
-        <f t="shared" si="12"/>
+      <c r="J21" s="13">
+        <f t="shared" si="15"/>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="K21" s="64"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="44">
+      <c r="K21" s="34"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="57"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="56"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="17">
         <v>11.95</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="41">
+      <c r="F22" s="43"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="14">
         <f t="shared" si="0"/>
         <v>1.6736401673640169E-2</v>
       </c>
-      <c r="J22" s="41">
-        <f t="shared" si="12"/>
+      <c r="J22" s="14">
+        <f t="shared" si="15"/>
         <v>4.8944778085674683E-4</v>
       </c>
-      <c r="K22" s="64"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="13"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="20">
+      <c r="K22" s="34"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="57"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="56">
         <v>5</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="50">
         <v>1.3774999999999999</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="50">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="18">
         <v>15.56</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="44">
         <f>F13</f>
         <v>0.3</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="67">
         <v>0.2</v>
       </c>
-      <c r="H23" s="37">
-        <f t="shared" ref="H23:H42" si="13">0.5*B23*10^-3</f>
+      <c r="H23" s="31">
+        <f t="shared" ref="H23" si="16">0.5*B23*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="12">
         <f t="shared" si="0"/>
         <v>1.2853470437017995E-2</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="12">
         <f>(($H$23/E23)^2+($G$23*$F$23/E23^2)^2)^(1/2)</f>
         <v>2.9534364435364433E-4</v>
       </c>
-      <c r="K23" s="65">
+      <c r="K23" s="35">
         <f>(I23+I24+I25+I26+I27)/5</f>
         <v>1.2816144235262594E-2</v>
       </c>
-      <c r="L23" s="60">
-        <f t="shared" ref="L23" si="14">(SUMSQ(J23:J27)/25)^(1/2)</f>
+      <c r="L23" s="27">
+        <f t="shared" ref="L23" si="17">(SUMSQ(J23:J27)/25)^(1/2)</f>
         <v>1.314809588282321E-4</v>
       </c>
-      <c r="M23" s="60">
-        <f t="shared" ref="M23" si="15">_xlfn.STDEV.S(I23:I27)</f>
+      <c r="M23" s="27">
+        <f t="shared" ref="M23" si="18">_xlfn.STDEV.S(I23:I27)</f>
         <v>1.8897275186015511E-4</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N23" s="31">
         <v>1.1476</v>
       </c>
-      <c r="O23" s="37">
+      <c r="O23" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P23" s="13"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="10">
+      <c r="P23" s="27">
+        <f t="shared" ref="P23:P42" si="19">K23/(C23-N23)*10^(-3)</f>
+        <v>5.5746603894139167E-5</v>
+      </c>
+      <c r="Q23" s="74">
+        <f>((M23/(C23-N23))^2+(K23*D23/(C23-N23)^2)^2+(K23*O23/(C23-N23)^2)^2)^(1/2)*10^-3</f>
+        <v>1.022489217302807E-6</v>
+      </c>
+      <c r="R23" s="57"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="56"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="9">
         <v>15.24</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="40">
+      <c r="F24" s="42"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="13">
         <f t="shared" si="0"/>
         <v>1.3123359580052493E-2</v>
       </c>
-      <c r="J24" s="40">
-        <f t="shared" ref="J24:J32" si="16">(($H$23/E24)^2+($G$23*$F$23/E24^2)^2)^(1/2)</f>
+      <c r="J24" s="13">
+        <f t="shared" ref="J24:J27" si="20">(($H$23/E24)^2+($G$23*$F$23/E24^2)^2)^(1/2)</f>
         <v>3.0601659121382729E-4</v>
       </c>
-      <c r="K24" s="64"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="13"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="10">
+      <c r="K24" s="34"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="57"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="56"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="9">
         <v>15.8</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="40">
+      <c r="F25" s="42"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="13">
         <f t="shared" si="0"/>
         <v>1.2658227848101266E-2</v>
       </c>
-      <c r="J25" s="40">
-        <f t="shared" si="16"/>
+      <c r="J25" s="13">
+        <f t="shared" si="20"/>
         <v>2.8775388602423501E-4</v>
       </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="13"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="10">
+      <c r="K25" s="34"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="57"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="56"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="9">
         <v>15.66</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="40">
+      <c r="F26" s="42"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="13">
         <f t="shared" si="0"/>
         <v>1.277139208173691E-2</v>
       </c>
-      <c r="J26" s="40">
-        <f t="shared" si="16"/>
+      <c r="J26" s="13">
+        <f t="shared" si="20"/>
         <v>2.9213956412965739E-4</v>
       </c>
-      <c r="K26" s="64"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="44">
+      <c r="K26" s="34"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="57"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="56"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="17">
         <v>15.78</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="41">
+      <c r="F27" s="43"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="14">
         <f t="shared" si="0"/>
         <v>1.2674271229404311E-2</v>
       </c>
-      <c r="J27" s="41">
-        <f t="shared" si="16"/>
+      <c r="J27" s="14">
+        <f t="shared" si="20"/>
         <v>2.8837339882458726E-4</v>
       </c>
-      <c r="K27" s="66"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="20">
+      <c r="K27" s="36"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="57"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="56">
         <v>4</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="50">
         <v>1.3774999999999999</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="50">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="18">
         <v>23.43</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="44">
         <f>F13</f>
         <v>0.3</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="67">
         <v>0.2</v>
       </c>
-      <c r="H28" s="37">
-        <f t="shared" ref="H28:H42" si="17">0.5*B28*10^-3</f>
+      <c r="H28" s="31">
+        <f t="shared" ref="H28" si="21">0.5*B28*10^-3</f>
         <v>2E-3</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="21">
         <f t="shared" si="0"/>
         <v>8.5360648740930439E-3</v>
       </c>
-      <c r="J28" s="56">
+      <c r="J28" s="21">
         <f>(($H$28/E28)^2+($G$28*$F$28/E28^2)^2)^(1/2)</f>
         <v>1.3868016543122825E-4</v>
       </c>
-      <c r="K28" s="64">
+      <c r="K28" s="34">
         <f>(I28+I29+I30+I31+I32)/5</f>
         <v>8.3600294043818212E-3</v>
       </c>
-      <c r="L28" s="60">
-        <f t="shared" ref="L28" si="18">(SUMSQ(J28:J32)/25)^(1/2)</f>
+      <c r="L28" s="27">
+        <f t="shared" ref="L28" si="22">(SUMSQ(J28:J32)/25)^(1/2)</f>
         <v>5.9979431293701365E-5</v>
       </c>
-      <c r="M28" s="60">
-        <f t="shared" ref="M28" si="19">_xlfn.STDEV.S(I28:I32)</f>
+      <c r="M28" s="27">
+        <f t="shared" ref="M28" si="23">_xlfn.STDEV.S(I28:I32)</f>
         <v>9.8921847583569231E-5</v>
       </c>
-      <c r="N28" s="37">
+      <c r="N28" s="31">
         <v>1.1476</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P28" s="13"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="10">
+      <c r="P28" s="27">
+        <f t="shared" ref="P28:P42" si="24">K28/(C28-N28)*10^(-3)</f>
+        <v>3.6363764264383737E-5</v>
+      </c>
+      <c r="Q28" s="74">
+        <f>((M28/(C28-N28))^2+(K28*D28/(C28-N28)^2)^2+(K28*O28/(C28-N28)^2)^2)^(1/2)*10^-3</f>
+        <v>5.8524222723986226E-7</v>
+      </c>
+      <c r="R28" s="57"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="56"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="9">
         <v>24.06</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="57">
+      <c r="F29" s="42"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="22">
         <f t="shared" si="0"/>
         <v>8.3125519534497094E-3</v>
       </c>
-      <c r="J29" s="57">
-        <f t="shared" ref="J29:J37" si="20">(($H$28/E29)^2+($G$28*$F$28/E29^2)^2)^(1/2)</f>
+      <c r="J29" s="22">
+        <f t="shared" ref="J29:J32" si="25">(($H$28/E29)^2+($G$28*$F$28/E29^2)^2)^(1/2)</f>
         <v>1.3286351752914206E-4</v>
       </c>
-      <c r="K29" s="64"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="13"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="10">
+      <c r="K29" s="34"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="57"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="56"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="9">
         <v>24.01</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="57">
+      <c r="F30" s="42"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="22">
         <f t="shared" si="0"/>
         <v>8.3298625572678052E-3</v>
       </c>
-      <c r="J30" s="57">
-        <f t="shared" si="20"/>
+      <c r="J30" s="22">
+        <f t="shared" si="25"/>
         <v>1.333090011901867E-4</v>
       </c>
-      <c r="K30" s="64"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="13"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="10">
+      <c r="K30" s="34"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="57"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="56"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="9">
         <v>24.09</v>
       </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="57">
+      <c r="F31" s="42"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="22">
         <f t="shared" si="0"/>
         <v>8.3022000830220016E-3</v>
       </c>
-      <c r="J31" s="57">
-        <f t="shared" si="20"/>
+      <c r="J31" s="22">
+        <f t="shared" si="25"/>
         <v>1.3259751565960446E-4</v>
       </c>
-      <c r="K31" s="64"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="13"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="44">
+      <c r="K31" s="34"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="57"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="56"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="17">
         <v>24.04</v>
       </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="58">
+      <c r="F32" s="43"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="23">
         <f t="shared" si="0"/>
         <v>8.3194675540765404E-3</v>
       </c>
-      <c r="J32" s="58">
-        <f t="shared" si="20"/>
+      <c r="J32" s="23">
+        <f t="shared" si="25"/>
         <v>1.3304138801975253E-4</v>
       </c>
-      <c r="K32" s="64"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="13"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="20">
+      <c r="K32" s="34"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="57"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="56">
         <v>3</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="50">
         <v>1.3774999999999999</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="50">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="18">
         <v>39.72</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="44">
         <f>F28</f>
         <v>0.3</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="67">
         <v>0.2</v>
       </c>
-      <c r="H33" s="37">
-        <f t="shared" ref="H33:H42" si="21">0.5*B33*10^-3</f>
+      <c r="H33" s="31">
+        <f t="shared" ref="H33" si="26">0.5*B33*10^-3</f>
         <v>1.5E-3</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I33" s="21">
         <f t="shared" si="0"/>
         <v>5.0352467270896274E-3</v>
       </c>
-      <c r="J33" s="56">
+      <c r="J33" s="21">
         <f>(($H$33/E33)^2+($G$33*$F$33/E33^2)^2)^(1/2)</f>
         <v>5.3595428853931334E-5</v>
       </c>
-      <c r="K33" s="67">
+      <c r="K33" s="37">
         <f>(I33+I34+I35+I36+I37)/5</f>
         <v>5.0126521561671706E-3</v>
       </c>
-      <c r="L33" s="62">
-        <f t="shared" ref="L33" si="22">(SUMSQ(J33:J37)/25)^(1/2)</f>
+      <c r="L33" s="25">
+        <f t="shared" ref="L33" si="27">(SUMSQ(J33:J37)/25)^(1/2)</f>
         <v>2.3808205742172807E-5</v>
       </c>
-      <c r="M33" s="62">
-        <f t="shared" ref="M33" si="23">_xlfn.STDEV.S(I33:I37)</f>
+      <c r="M33" s="25">
+        <f t="shared" ref="M33" si="28">_xlfn.STDEV.S(I33:I37)</f>
         <v>2.7520590084576011E-5</v>
       </c>
-      <c r="N33" s="37">
+      <c r="N33" s="31">
         <v>1.1476</v>
       </c>
-      <c r="O33" s="37">
+      <c r="O33" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P33" s="13"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="10">
+      <c r="P33" s="25">
+        <f t="shared" ref="P33:P42" si="29">K33/(C33-N33)*10^(-3)</f>
+        <v>2.1803619644050332E-5</v>
+      </c>
+      <c r="Q33" s="75">
+        <f>((M33/(C33-N33))^2+(K33*D33/(C33-N33)^2)^2+(K33*O33/(C33-N33)^2)^2)^(1/2)*10^-3</f>
+        <v>2.6628069696087493E-7</v>
+      </c>
+      <c r="R33" s="57"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="56"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="9">
         <v>40.07</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="57">
+      <c r="F34" s="42"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="22">
         <f t="shared" si="0"/>
         <v>4.9912652857499375E-3</v>
       </c>
-      <c r="J34" s="57">
-        <f t="shared" ref="J34:J42" si="24">(($H$33/E34)^2+($G$33*$F$33/E34^2)^2)^(1/2)</f>
+      <c r="J34" s="22">
+        <f t="shared" ref="J34:J37" si="30">(($H$33/E34)^2+($G$33*$F$33/E34^2)^2)^(1/2)</f>
         <v>5.2894141272690634E-5</v>
       </c>
-      <c r="K34" s="68"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="13"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="10">
+      <c r="K34" s="38"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="57"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="56"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="9">
         <v>39.92</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="57">
+      <c r="F35" s="42"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="22">
         <f t="shared" si="0"/>
         <v>5.0100200400801601E-3</v>
       </c>
-      <c r="J35" s="57">
-        <f t="shared" si="24"/>
+      <c r="J35" s="22">
+        <f t="shared" si="30"/>
         <v>5.3192559591570681E-5</v>
       </c>
-      <c r="K35" s="68"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="13"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="20"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="10">
+      <c r="K35" s="38"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="57"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="56"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="9">
         <v>40.15</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="57">
+      <c r="F36" s="42"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="22">
         <f t="shared" si="0"/>
         <v>4.9813200498132013E-3</v>
       </c>
-      <c r="J36" s="57">
-        <f t="shared" si="24"/>
+      <c r="J36" s="22">
+        <f t="shared" si="30"/>
         <v>5.2736274862302553E-5</v>
       </c>
-      <c r="K36" s="68"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="13"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="20"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="44">
+      <c r="K36" s="38"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="57"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="56"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="17">
         <v>39.64</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="58">
+      <c r="F37" s="43"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="23">
         <f t="shared" si="0"/>
         <v>5.0454086781029266E-3</v>
       </c>
-      <c r="J37" s="58">
-        <f t="shared" si="24"/>
+      <c r="J37" s="23">
+        <f t="shared" si="30"/>
         <v>5.3758192485178142E-5</v>
       </c>
-      <c r="K37" s="69"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="13"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="20">
+      <c r="K37" s="39"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="57"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="56">
         <v>2</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="50">
         <f>C33</f>
         <v>1.3774999999999999</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="50">
         <f>D33</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="18">
         <v>74.900000000000006</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="44">
         <f>F33</f>
         <v>0.3</v>
       </c>
-      <c r="G38" s="52">
+      <c r="G38" s="67">
         <v>0.2</v>
       </c>
-      <c r="H38" s="37">
-        <f t="shared" ref="H38:H42" si="25">0.5*B38*10^-3</f>
+      <c r="H38" s="31">
+        <f t="shared" ref="H38" si="31">0.5*B38*10^-3</f>
         <v>1E-3</v>
       </c>
-      <c r="I38" s="56">
+      <c r="I38" s="21">
         <f t="shared" si="0"/>
         <v>2.6702269692923898E-3</v>
       </c>
-      <c r="J38" s="56">
+      <c r="J38" s="21">
         <f>(($H$38/E38)^2+($G$38*$F$38/E38^2)^2)^(1/2)</f>
         <v>1.7106706942119941E-5</v>
       </c>
-      <c r="K38" s="67">
+      <c r="K38" s="37">
         <f>(I38+I39+I40+I41+I42)/5</f>
         <v>2.654035384232682E-3</v>
       </c>
-      <c r="L38" s="62">
-        <f t="shared" ref="L38" si="26">(SUMSQ(J38:J42)/25)^(1/2)</f>
+      <c r="L38" s="25">
+        <f t="shared" ref="L38" si="32">(SUMSQ(J38:J42)/25)^(1/2)</f>
         <v>7.5910153311779477E-6</v>
       </c>
-      <c r="M38" s="60">
-        <f t="shared" ref="M38" si="27">_xlfn.STDEV.S(I38:I42)</f>
+      <c r="M38" s="27">
+        <f t="shared" ref="M38" si="33">_xlfn.STDEV.S(I38:I42)</f>
         <v>6.3404518771783403E-5</v>
       </c>
-      <c r="N38" s="37">
+      <c r="N38" s="31">
         <f>N33</f>
         <v>1.1476</v>
       </c>
-      <c r="O38" s="37">
+      <c r="O38" s="31">
         <f>O33</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P38" s="13"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="20"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="10">
+      <c r="P38" s="25">
+        <f t="shared" ref="P38:P42" si="34">K38/(C38-N38)*10^(-3)</f>
+        <v>1.154430354168196E-5</v>
+      </c>
+      <c r="Q38" s="75">
+        <f>((L38/(C38-N38))^2+(K38*D38/(C38-N38)^2)^2+(K38*O38/(C38-N38)^2)^2)^(1/2)*10^-3</f>
+        <v>1.3019378482831071E-7</v>
+      </c>
+      <c r="R38" s="57"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="56"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="9">
         <v>78.34</v>
       </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="57">
+      <c r="F39" s="42"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="22">
         <f t="shared" si="0"/>
         <v>2.5529742149604288E-3</v>
       </c>
-      <c r="J39" s="57">
-        <f t="shared" ref="J39:J42" si="28">(($H$38/E39)^2+($G$38*$F$38/E39^2)^2)^(1/2)</f>
+      <c r="J39" s="22">
+        <f t="shared" ref="J39:J42" si="35">(($H$38/E39)^2+($G$38*$F$38/E39^2)^2)^(1/2)</f>
         <v>1.6078625529446875E-5</v>
       </c>
-      <c r="K39" s="68"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="13"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="20"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="10">
+      <c r="K39" s="38"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="57"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="56"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="9">
         <v>75.86</v>
       </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="57">
+      <c r="F40" s="42"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="22">
         <f t="shared" si="0"/>
         <v>2.6364355391510679E-3</v>
       </c>
-      <c r="J40" s="57">
-        <f t="shared" si="28"/>
+      <c r="J40" s="22">
+        <f t="shared" si="35"/>
         <v>1.6806999019068159E-5</v>
       </c>
-      <c r="K40" s="68"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="13"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="20"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="10">
+      <c r="K40" s="38"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="57"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="56"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="9">
         <v>73.8</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="57">
+      <c r="F41" s="42"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="22">
         <f t="shared" si="0"/>
         <v>2.7100271002710031E-3</v>
       </c>
-      <c r="J41" s="57">
-        <f t="shared" si="28"/>
+      <c r="J41" s="22">
+        <f t="shared" si="35"/>
         <v>1.7463292566734726E-5</v>
       </c>
-      <c r="K41" s="68"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="13"/>
-    </row>
-    <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="21"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="12">
+      <c r="K41" s="38"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="57"/>
+    </row>
+    <row r="42" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="64"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="11">
         <v>74.06</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="59">
+      <c r="F42" s="45"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="24">
         <f t="shared" si="0"/>
         <v>2.7005130974885228E-3</v>
       </c>
-      <c r="J42" s="59">
-        <f t="shared" si="28"/>
+      <c r="J42" s="24">
+        <f t="shared" si="35"/>
         <v>1.7377698907979166E-5</v>
       </c>
-      <c r="K42" s="70"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="14"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="L33:L37"/>
-    <mergeCell ref="M33:M37"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="M38:M42"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="L28:L32"/>
-    <mergeCell ref="M28:M32"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="M8:M12"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="M13:M17"/>
-    <mergeCell ref="H33:H37"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="N33:N37"/>
-    <mergeCell ref="O33:O37"/>
-    <mergeCell ref="N38:N42"/>
-    <mergeCell ref="O38:O42"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="O18:O22"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="O28:O32"/>
-    <mergeCell ref="N3:N7"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="N8:N12"/>
-    <mergeCell ref="O8:O12"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C28:C32"/>
+  <mergeCells count="106">
+    <mergeCell ref="P28:P32"/>
+    <mergeCell ref="P33:P37"/>
+    <mergeCell ref="P38:P42"/>
+    <mergeCell ref="Q3:Q7"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="Q18:Q22"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="Q28:Q32"/>
+    <mergeCell ref="Q33:Q37"/>
+    <mergeCell ref="Q38:Q42"/>
     <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P8:P42"/>
-    <mergeCell ref="U3:U9"/>
-    <mergeCell ref="V3:V9"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="R3:R7"/>
+    <mergeCell ref="R8:R42"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="G3:G7"/>
@@ -2501,8 +2521,217 @@
     <mergeCell ref="G38:G42"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="O8:O12"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="N33:N37"/>
+    <mergeCell ref="O33:O37"/>
+    <mergeCell ref="N38:N42"/>
+    <mergeCell ref="O38:O42"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="O28:O32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="H33:H37"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="M8:M12"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="M33:M37"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="M38:M42"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="L28:L32"/>
+    <mergeCell ref="M28:M32"/>
+  </mergeCells>
+  <pageMargins left="0" right="0.39370078740157483" top="1.3779527559055118" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="49" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>550</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="59">
+        <v>4</v>
+      </c>
+      <c r="F3" s="61">
+        <f>273.15+23.9</f>
+        <v>297.04999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>549.5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>99</v>
+      </c>
+      <c r="E4" s="59"/>
+      <c r="F4" s="62"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>549</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>226</v>
+      </c>
+      <c r="E5" s="59"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>548.5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>357</v>
+      </c>
+      <c r="E6" s="59"/>
+      <c r="F6" s="62"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>548</v>
+      </c>
+      <c r="C7" s="9">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>485</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="62"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>547.5</v>
+      </c>
+      <c r="C8" s="9">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>616</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="62"/>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>547</v>
+      </c>
+      <c r="C9" s="11">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2">
+        <v>744</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
+++ b/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>d [mm]</t>
   </si>
@@ -107,6 +107,9 @@
   <si>
     <t>Δ v_sinkmean/(ρ_k-ρ_f )  [m^4/s*kg]</t>
   </si>
+  <si>
+    <t>r² [m²]</t>
+  </si>
 </sst>
 </file>
 
@@ -150,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -543,11 +546,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -589,108 +605,145 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -706,41 +759,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,1471 +1083,1504 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:R42"/>
+  <dimension ref="B1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="S2" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="69">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="44">
         <v>9</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="78">
+        <f>(B3/2)^2*10^-6</f>
+        <v>2.0249999999999998E-5</v>
+      </c>
+      <c r="D3" s="46">
         <v>1.3554999999999999</v>
       </c>
-      <c r="D3" s="54">
+      <c r="E3" s="46">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E3" s="16">
+      <c r="F3" s="16">
         <v>6.14</v>
       </c>
-      <c r="F3" s="41">
+      <c r="G3" s="64">
         <v>0.3</v>
       </c>
-      <c r="G3" s="65">
+      <c r="H3" s="40">
         <v>0.2</v>
       </c>
-      <c r="H3" s="46">
+      <c r="I3" s="60">
         <f>0.5*B3*10^-3</f>
         <v>4.5000000000000005E-3</v>
       </c>
-      <c r="I3" s="20">
-        <f>$G$3/E3</f>
+      <c r="J3" s="20">
+        <f>$H$3/F3</f>
         <v>3.2573289902280131E-2</v>
       </c>
-      <c r="J3" s="20">
-        <f>(($H$3/E3)^2+($G$3*$F$3/E3^2)^2)^(1/2)</f>
+      <c r="K3" s="20">
+        <f>(($I$3/F3)^2+($H$3*$G$3/F3^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="K3" s="29">
-        <f>(I3+I4+I5+I6+I7)/5</f>
+      <c r="L3" s="51">
+        <f>(J3+J4+J5+J6+J7)/5</f>
         <v>3.3077869485049816E-2</v>
       </c>
-      <c r="L3" s="29">
-        <f>(SUMSQ(J3:J7)/25)^(1/2)</f>
+      <c r="M3" s="51">
+        <f>(SUMSQ(K3:K7)/25)^(1/2)</f>
         <v>8.0798706393487478E-4</v>
       </c>
-      <c r="M3" s="29">
-        <f>_xlfn.STDEV.S(I3:I7)</f>
+      <c r="N3" s="51">
+        <f>_xlfn.STDEV.S(J3:J7)</f>
         <v>1.1538275016650245E-3</v>
       </c>
-      <c r="N3" s="29">
+      <c r="O3" s="51">
         <v>1.1482000000000001</v>
       </c>
-      <c r="O3" s="29">
+      <c r="P3" s="51">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P3" s="72">
-        <f>K3/(C3-N3)*10^(-3)</f>
+      <c r="Q3" s="34">
+        <f>L3/(D3-O3)*10^(-3)</f>
         <v>1.59565217004582E-4</v>
       </c>
-      <c r="Q3" s="73">
-        <f>((M3/(C3-N3))^2+(K3*D3/(C3-N3)^2)^2+(K3*O3/(C3-N3)^2)^2)^(1/2)*10^-3</f>
+      <c r="R3" s="29">
+        <f>((N3/(D3-O3))^2+(L3*E3/(D3-O3)^2)^2+(L3*P3/(D3-O3)^2)^2)^(1/2)*10^-3</f>
         <v>5.5813928390751162E-6</v>
       </c>
-      <c r="R3" s="70">
+      <c r="S3" s="35">
         <f>273.15+21.5</f>
         <v>294.64999999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="9">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="38"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="9">
         <v>6.14</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="13">
-        <f t="shared" ref="I4:I42" si="0">$G$3/E4</f>
+      <c r="G4" s="57"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="13">
+        <f t="shared" ref="J4:J42" si="0">$H$3/F4</f>
         <v>3.2573289902280131E-2</v>
       </c>
-      <c r="J4" s="13">
-        <f t="shared" ref="J4:J7" si="1">(($H$3/E4)^2+($G$3*$F$3/E4^2)^2)^(1/2)</f>
+      <c r="K4" s="13">
+        <f t="shared" ref="K4:K7" si="1">(($I$3/F4)^2+($H$3*$G$3/F4^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="57"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="56"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="9">
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="36"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="38"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="9">
         <v>5.7</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="13">
+      <c r="G5" s="57"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>3.5087719298245612E-2</v>
       </c>
-      <c r="J5" s="13">
+      <c r="K5" s="13">
         <f t="shared" si="1"/>
         <v>2.0083951542744852E-3</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="57"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="56"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="9">
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="36"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="9">
         <v>6.21</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="13">
+      <c r="G6" s="57"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
         <v>3.2206119162640906E-2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="K6" s="13">
         <f t="shared" si="1"/>
         <v>1.716325325710239E-3</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="57"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="56"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="17">
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="38"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="17">
         <v>6.07</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="14">
+      <c r="G7" s="58"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="14">
         <f t="shared" si="0"/>
         <v>3.2948929159802305E-2</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <f t="shared" si="1"/>
         <v>1.7892578702547329E-3</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="57"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="56">
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="38">
         <v>8</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="27">
+        <f t="shared" ref="C8" si="2">(B8/2)^2*10^-6</f>
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="D8" s="48">
         <v>1.3625</v>
       </c>
-      <c r="D8" s="50">
+      <c r="E8" s="48">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E8" s="18">
+      <c r="F8" s="18">
         <v>7.86</v>
       </c>
-      <c r="F8" s="44">
-        <f>F3</f>
+      <c r="G8" s="56">
+        <f>G3</f>
         <v>0.3</v>
       </c>
-      <c r="G8" s="66">
+      <c r="H8" s="41">
         <v>0.2</v>
       </c>
-      <c r="H8" s="49">
+      <c r="I8" s="63">
         <f>0.5*B8*10^-3</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="12">
         <f t="shared" si="0"/>
         <v>2.5445292620865142E-2</v>
       </c>
-      <c r="J8" s="12">
-        <f>(($H$8/E8)^2+($G$8*$F$8/E8^2)^2)^(1/2)</f>
+      <c r="K8" s="12">
+        <f>(($I$8/F8)^2+($H$8*$G$8/F8^2)^2)^(1/2)</f>
         <v>1.0964504915178231E-3</v>
       </c>
-      <c r="K8" s="31">
-        <f>(I8+I9+I10+I11+I12)/5</f>
+      <c r="L8" s="54">
+        <f>(J8+J9+J10+J11+J12)/5</f>
         <v>2.6029305829267206E-2</v>
       </c>
-      <c r="L8" s="31">
-        <f t="shared" ref="L8" si="2">(SUMSQ(J8:J12)/25)^(1/2)</f>
+      <c r="M8" s="54">
+        <f t="shared" ref="M8" si="3">(SUMSQ(K8:K12)/25)^(1/2)</f>
         <v>5.1104479056882763E-4</v>
       </c>
-      <c r="M8" s="31">
-        <f t="shared" ref="M8" si="3">_xlfn.STDEV.S(I8:I12)</f>
+      <c r="N8" s="54">
+        <f t="shared" ref="N8" si="4">_xlfn.STDEV.S(J8:J12)</f>
         <v>5.0949814262065871E-4</v>
       </c>
-      <c r="N8" s="31">
+      <c r="O8" s="54">
         <v>1.1476</v>
       </c>
-      <c r="O8" s="31">
+      <c r="P8" s="54">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P8" s="27">
-        <f t="shared" ref="P8:P42" si="4">K8/(C8-N8)*10^(-3)</f>
+      <c r="Q8" s="26">
+        <f t="shared" ref="Q8" si="5">L8/(D8-O8)*10^(-3)</f>
         <v>1.2112287496169007E-4</v>
       </c>
-      <c r="Q8" s="74">
-        <f>((M8/(C8-N8))^2+(K8*D8/(C8-N8)^2)^2+(K8*O8/(C8-N8)^2)^2)^(1/2)*10^-3</f>
+      <c r="R8" s="31">
+        <f>((N8/(D8-O8))^2+(L8*E8/(D8-O8)^2)^2+(L8*P8/(D8-O8)^2)^2)^(1/2)*10^-3</f>
         <v>2.3902111605678812E-6</v>
       </c>
-      <c r="R8" s="57">
-        <f>R3+0.5</f>
+      <c r="S8" s="36">
+        <f>S3+0.5</f>
         <v>295.14999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="9">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="9">
         <v>7.8</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="13">
+      <c r="G9" s="57"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>2.5641025641025644E-2</v>
       </c>
-      <c r="J9" s="13">
-        <f t="shared" ref="J9:J12" si="5">(($H$8/E9)^2+($G$8*$F$8/E9^2)^2)^(1/2)</f>
+      <c r="K9" s="13">
+        <f t="shared" ref="K9:K12" si="6">(($I$8/F9)^2+($H$8*$G$8/F9^2)^2)^(1/2)</f>
         <v>1.1115584065960846E-3</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="57"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="9">
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="36"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="9">
         <v>7.7</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="13">
+      <c r="G10" s="57"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="13">
         <f t="shared" si="0"/>
         <v>2.5974025974025976E-2</v>
       </c>
-      <c r="J10" s="13">
-        <f t="shared" si="5"/>
+      <c r="K10" s="13">
+        <f t="shared" si="6"/>
         <v>1.1375207635695094E-3</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="57"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="56"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="9">
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="36"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="9">
         <v>7.56</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="13">
+      <c r="G11" s="57"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>2.6455026455026457E-2</v>
       </c>
-      <c r="J11" s="13">
-        <f t="shared" si="5"/>
+      <c r="K11" s="13">
+        <f t="shared" si="6"/>
         <v>1.1755989736153413E-3</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="57"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="56"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="17">
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="36"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="17">
         <v>7.51</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="14">
+      <c r="G12" s="58"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="14">
         <f t="shared" si="0"/>
         <v>2.6631158455392812E-2</v>
       </c>
-      <c r="J12" s="14">
-        <f t="shared" si="5"/>
+      <c r="K12" s="14">
+        <f t="shared" si="6"/>
         <v>1.1897130928283149E-3</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="57"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="55">
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="36"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="45">
         <v>7.1440000000000001</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="27">
+        <f t="shared" ref="C13" si="7">(B13/2)^2*10^-6</f>
+        <v>1.2759184000000001E-5</v>
+      </c>
+      <c r="D13" s="48">
         <v>1.3774999999999999</v>
       </c>
-      <c r="D13" s="50">
+      <c r="E13" s="48">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E13" s="18">
+      <c r="F13" s="18">
         <v>8.42</v>
       </c>
-      <c r="F13" s="44">
-        <f>F8</f>
+      <c r="G13" s="56">
+        <f>G8</f>
         <v>0.3</v>
       </c>
-      <c r="G13" s="66">
+      <c r="H13" s="41">
         <v>0.2</v>
       </c>
-      <c r="H13" s="49">
-        <f t="shared" ref="H13" si="6">0.5*B13*10^-3</f>
+      <c r="I13" s="63">
+        <f t="shared" ref="I13" si="8">0.5*B13*10^-3</f>
         <v>3.5720000000000001E-3</v>
       </c>
-      <c r="I13" s="12">
+      <c r="J13" s="12">
         <f t="shared" si="0"/>
         <v>2.3752969121140145E-2</v>
       </c>
-      <c r="J13" s="12">
-        <f>(($H$13/E13)^2+($G$13*$F$13/E13^2)^2)^(1/2)</f>
+      <c r="K13" s="12">
+        <f>(($I$13/F13)^2+($H$13*$G$13/F13^2)^2)^(1/2)</f>
         <v>9.4667951449123387E-4</v>
       </c>
-      <c r="K13" s="31">
-        <f>(I13+I14+I15+I16+I17)/5</f>
+      <c r="L13" s="54">
+        <f>(J13+J14+J15+J16+J17)/5</f>
         <v>2.3640955470984416E-2</v>
       </c>
-      <c r="L13" s="30">
-        <f t="shared" ref="L13" si="7">(SUMSQ(J13:J17)/25)^(1/2)</f>
+      <c r="M13" s="52">
+        <f t="shared" ref="M13" si="9">(SUMSQ(K13:K17)/25)^(1/2)</f>
         <v>4.2004945214195227E-4</v>
       </c>
-      <c r="M13" s="30">
-        <f t="shared" ref="M13" si="8">_xlfn.STDEV.S(I13:I17)</f>
+      <c r="N13" s="52">
+        <f t="shared" ref="N13" si="10">_xlfn.STDEV.S(J13:J17)</f>
         <v>4.1924762935458839E-4</v>
       </c>
-      <c r="N13" s="31">
+      <c r="O13" s="54">
         <v>1.1476</v>
       </c>
-      <c r="O13" s="31">
+      <c r="P13" s="54">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P13" s="27">
-        <f t="shared" ref="P13:P42" si="9">K13/(C13-N13)*10^(-3)</f>
+      <c r="Q13" s="26">
+        <f t="shared" ref="Q13" si="11">L13/(D13-O13)*10^(-3)</f>
         <v>1.0283147225308576E-4</v>
       </c>
-      <c r="Q13" s="74">
-        <f>((M13/(C13-N13))^2+(K13*D13/(C13-N13)^2)^2+(K13*O13/(C13-N13)^2)^2)^(1/2)*10^-3</f>
+      <c r="R13" s="31">
+        <f>((N13/(D13-O13))^2+(L13*E13/(D13-O13)^2)^2+(L13*P13/(D13-O13)^2)^2)^(1/2)*10^-3</f>
         <v>2.1410198964813952E-6</v>
       </c>
-      <c r="R13" s="57"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="55"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="9">
+      <c r="S13" s="36"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="45"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="9">
         <v>8.6199999999999992</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="13">
+      <c r="G14" s="57"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="13">
         <f t="shared" si="0"/>
         <v>2.3201856148491882E-2</v>
       </c>
-      <c r="J14" s="13">
-        <f t="shared" ref="J14:J17" si="10">(($H$13/E14)^2+($G$13*$F$13/E14^2)^2)^(1/2)</f>
+      <c r="K14" s="13">
+        <f t="shared" ref="K14:K17" si="12">(($I$13/F14)^2+($H$13*$G$13/F14^2)^2)^(1/2)</f>
         <v>9.0760886409929718E-4</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="57"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="9">
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="36"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="45"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="9">
         <v>8.5399999999999991</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="13">
+      <c r="G15" s="57"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="13">
         <f t="shared" si="0"/>
         <v>2.3419203747072605E-2</v>
       </c>
-      <c r="J15" s="13">
-        <f t="shared" si="10"/>
+      <c r="K15" s="13">
+        <f t="shared" si="12"/>
         <v>9.2291055402502582E-4</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="57"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="55"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="9">
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="36"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="45"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="9">
         <v>8.5</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="13">
+      <c r="G16" s="57"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="13">
         <f t="shared" si="0"/>
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="J16" s="13">
-        <f t="shared" si="10"/>
+      <c r="K16" s="13">
+        <f t="shared" si="12"/>
         <v>9.3072263192061364E-4</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="57"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="55"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="17">
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="45"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="17">
         <v>8.23</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="14">
+      <c r="G17" s="58"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="14">
         <f t="shared" si="0"/>
         <v>2.4301336573511544E-2</v>
       </c>
-      <c r="J17" s="14">
-        <f t="shared" si="10"/>
+      <c r="K17" s="14">
+        <f t="shared" si="12"/>
         <v>9.8644518067141844E-4</v>
       </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="57"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="56">
+      <c r="L17" s="53"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="38">
         <v>6</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="27">
+        <f t="shared" ref="C18" si="13">(B18/2)^2*10^-6</f>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="D18" s="48">
         <v>1.3774999999999999</v>
       </c>
-      <c r="D18" s="50">
+      <c r="E18" s="48">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E18" s="18">
+      <c r="F18" s="18">
         <v>11.62</v>
       </c>
-      <c r="F18" s="44">
-        <f>F13</f>
+      <c r="G18" s="56">
+        <f>G13</f>
         <v>0.3</v>
       </c>
-      <c r="G18" s="66">
+      <c r="H18" s="41">
         <v>0.2</v>
       </c>
-      <c r="H18" s="49">
-        <f t="shared" ref="H18" si="11">0.5*B18*10^-3</f>
+      <c r="I18" s="63">
+        <f t="shared" ref="I18" si="14">0.5*B18*10^-3</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I18" s="12">
+      <c r="J18" s="12">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
-      <c r="J18" s="12">
-        <f>(($H$18/E18)^2+($G$18*$F$18/E18^2)^2)^(1/2)</f>
+      <c r="K18" s="12">
+        <f>(($I$18/F18)^2+($H$18*$G$18/F18^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="K18" s="34">
-        <f>(I18+I19+I20+I21+I22)/5</f>
+      <c r="L18" s="65">
+        <f>(J18+J19+J20+J21+J22)/5</f>
         <v>1.711072882678167E-2</v>
       </c>
-      <c r="L18" s="27">
-        <f t="shared" ref="L18" si="12">(SUMSQ(J18:J22)/25)^(1/2)</f>
+      <c r="M18" s="26">
+        <f t="shared" ref="M18" si="15">(SUMSQ(K18:K22)/25)^(1/2)</f>
         <v>2.2754630774580575E-4</v>
       </c>
-      <c r="M18" s="27">
-        <f t="shared" ref="M18" si="13">_xlfn.STDEV.S(I18:I22)</f>
+      <c r="N18" s="26">
+        <f t="shared" ref="N18" si="16">_xlfn.STDEV.S(J18:J22)</f>
         <v>2.0964670301082701E-4</v>
       </c>
-      <c r="N18" s="31">
+      <c r="O18" s="54">
         <v>1.1476</v>
       </c>
-      <c r="O18" s="31">
+      <c r="P18" s="54">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P18" s="27">
-        <f t="shared" ref="P18:P42" si="14">K18/(C18-N18)*10^(-3)</f>
+      <c r="Q18" s="26">
+        <f t="shared" ref="Q18" si="17">L18/(D18-O18)*10^(-3)</f>
         <v>7.4426832652377855E-5</v>
       </c>
-      <c r="Q18" s="74">
-        <f>((L18/(C18-N18))^2+(K18*D18/(C18-N18)^2)^2+(K18*O18/(C18-N18)^2)^2)^(1/2)*10^-3</f>
+      <c r="R18" s="31">
+        <f>((M18/(D18-O18))^2+(L18*E18/(D18-O18)^2)^2+(L18*P18/(D18-O18)^2)^2)^(1/2)*10^-3</f>
         <v>1.2801762190890571E-6</v>
       </c>
-      <c r="R18" s="57"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="56"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="9">
+      <c r="S18" s="36"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="38"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="9">
         <v>11.62</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="13">
+      <c r="G19" s="57"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="13">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
-      <c r="J19" s="13">
-        <f t="shared" ref="J19:J22" si="15">(($H$18/E19)^2+($G$18*$F$18/E19^2)^2)^(1/2)</f>
+      <c r="K19" s="13">
+        <f t="shared" ref="K19:K22" si="18">(($I$18/F19)^2+($H$18*$G$18/F19^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="57"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="9">
+      <c r="L19" s="65"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="36"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="38"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="9">
         <v>11.64</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="13">
+      <c r="G20" s="57"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="13">
         <f t="shared" si="0"/>
         <v>1.7182130584192441E-2</v>
       </c>
-      <c r="J20" s="13">
-        <f t="shared" si="15"/>
+      <c r="K20" s="13">
+        <f t="shared" si="18"/>
         <v>5.1237840142188897E-4</v>
       </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="57"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="9">
+      <c r="L20" s="65"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="36"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="38"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="9">
         <v>11.62</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="13">
+      <c r="G21" s="57"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="13">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
-      <c r="J21" s="13">
-        <f t="shared" si="15"/>
+      <c r="K21" s="13">
+        <f t="shared" si="18"/>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="57"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="17">
+      <c r="L21" s="65"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="36"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="38"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="17">
         <v>11.95</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="14">
+      <c r="G22" s="58"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="14">
         <f t="shared" si="0"/>
         <v>1.6736401673640169E-2</v>
       </c>
-      <c r="J22" s="14">
-        <f t="shared" si="15"/>
+      <c r="K22" s="14">
+        <f t="shared" si="18"/>
         <v>4.8944778085674683E-4</v>
       </c>
-      <c r="K22" s="34"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="57"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="56">
+      <c r="L22" s="65"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="36"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="38">
         <v>5</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="27">
+        <f t="shared" ref="C23" si="19">(B23/2)^2*10^-6</f>
+        <v>6.2499999999999995E-6</v>
+      </c>
+      <c r="D23" s="48">
         <v>1.3774999999999999</v>
       </c>
-      <c r="D23" s="50">
+      <c r="E23" s="48">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E23" s="18">
+      <c r="F23" s="18">
         <v>15.56</v>
       </c>
-      <c r="F23" s="44">
-        <f>F13</f>
+      <c r="G23" s="56">
+        <f>G13</f>
         <v>0.3</v>
       </c>
-      <c r="G23" s="67">
+      <c r="H23" s="42">
         <v>0.2</v>
       </c>
-      <c r="H23" s="31">
-        <f t="shared" ref="H23" si="16">0.5*B23*10^-3</f>
+      <c r="I23" s="54">
+        <f t="shared" ref="I23" si="20">0.5*B23*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I23" s="12">
+      <c r="J23" s="12">
         <f t="shared" si="0"/>
         <v>1.2853470437017995E-2</v>
       </c>
-      <c r="J23" s="12">
-        <f>(($H$23/E23)^2+($G$23*$F$23/E23^2)^2)^(1/2)</f>
+      <c r="K23" s="12">
+        <f>(($I$23/F23)^2+($H$23*$G$23/F23^2)^2)^(1/2)</f>
         <v>2.9534364435364433E-4</v>
       </c>
-      <c r="K23" s="35">
-        <f>(I23+I24+I25+I26+I27)/5</f>
+      <c r="L23" s="66">
+        <f>(J23+J24+J25+J26+J27)/5</f>
         <v>1.2816144235262594E-2</v>
       </c>
-      <c r="L23" s="27">
-        <f t="shared" ref="L23" si="17">(SUMSQ(J23:J27)/25)^(1/2)</f>
+      <c r="M23" s="26">
+        <f t="shared" ref="M23" si="21">(SUMSQ(K23:K27)/25)^(1/2)</f>
         <v>1.314809588282321E-4</v>
       </c>
-      <c r="M23" s="27">
-        <f t="shared" ref="M23" si="18">_xlfn.STDEV.S(I23:I27)</f>
+      <c r="N23" s="26">
+        <f t="shared" ref="N23" si="22">_xlfn.STDEV.S(J23:J27)</f>
         <v>1.8897275186015511E-4</v>
       </c>
-      <c r="N23" s="31">
+      <c r="O23" s="54">
         <v>1.1476</v>
       </c>
-      <c r="O23" s="31">
+      <c r="P23" s="54">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P23" s="27">
-        <f t="shared" ref="P23:P42" si="19">K23/(C23-N23)*10^(-3)</f>
+      <c r="Q23" s="26">
+        <f t="shared" ref="Q23" si="23">L23/(D23-O23)*10^(-3)</f>
         <v>5.5746603894139167E-5</v>
       </c>
-      <c r="Q23" s="74">
-        <f>((M23/(C23-N23))^2+(K23*D23/(C23-N23)^2)^2+(K23*O23/(C23-N23)^2)^2)^(1/2)*10^-3</f>
+      <c r="R23" s="31">
+        <f>((N23/(D23-O23))^2+(L23*E23/(D23-O23)^2)^2+(L23*P23/(D23-O23)^2)^2)^(1/2)*10^-3</f>
         <v>1.022489217302807E-6</v>
       </c>
-      <c r="R23" s="57"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="56"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="9">
+      <c r="S23" s="36"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="38"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="9">
         <v>15.24</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="13">
+      <c r="G24" s="57"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="13">
         <f t="shared" si="0"/>
         <v>1.3123359580052493E-2</v>
       </c>
-      <c r="J24" s="13">
-        <f t="shared" ref="J24:J27" si="20">(($H$23/E24)^2+($G$23*$F$23/E24^2)^2)^(1/2)</f>
+      <c r="K24" s="13">
+        <f t="shared" ref="K24:K27" si="24">(($I$23/F24)^2+($H$23*$G$23/F24^2)^2)^(1/2)</f>
         <v>3.0601659121382729E-4</v>
       </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="57"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="56"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="9">
+      <c r="L24" s="65"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="36"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="38"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="9">
         <v>15.8</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="13">
+      <c r="G25" s="57"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="13">
         <f t="shared" si="0"/>
         <v>1.2658227848101266E-2</v>
       </c>
-      <c r="J25" s="13">
-        <f t="shared" si="20"/>
+      <c r="K25" s="13">
+        <f t="shared" si="24"/>
         <v>2.8775388602423501E-4</v>
       </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="57"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="56"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="9">
+      <c r="L25" s="65"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="36"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="38"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="9">
         <v>15.66</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="13">
+      <c r="G26" s="57"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="13">
         <f t="shared" si="0"/>
         <v>1.277139208173691E-2</v>
       </c>
-      <c r="J26" s="13">
-        <f t="shared" si="20"/>
+      <c r="K26" s="13">
+        <f t="shared" si="24"/>
         <v>2.9213956412965739E-4</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="57"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="56"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="17">
+      <c r="L26" s="65"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="36"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="38"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="17">
         <v>15.78</v>
       </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="14">
+      <c r="G27" s="58"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="14">
         <f t="shared" si="0"/>
         <v>1.2674271229404311E-2</v>
       </c>
-      <c r="J27" s="14">
-        <f t="shared" si="20"/>
+      <c r="K27" s="14">
+        <f t="shared" si="24"/>
         <v>2.8837339882458726E-4</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="57"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="56">
+      <c r="L27" s="67"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="36"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="38">
         <v>4</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="27">
+        <f t="shared" ref="C28" si="25">(B28/2)^2*10^-6</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D28" s="48">
         <v>1.3774999999999999</v>
       </c>
-      <c r="D28" s="50">
+      <c r="E28" s="48">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E28" s="18">
+      <c r="F28" s="18">
         <v>23.43</v>
       </c>
-      <c r="F28" s="44">
-        <f>F13</f>
+      <c r="G28" s="56">
+        <f>G13</f>
         <v>0.3</v>
       </c>
-      <c r="G28" s="67">
+      <c r="H28" s="42">
         <v>0.2</v>
       </c>
-      <c r="H28" s="31">
-        <f t="shared" ref="H28" si="21">0.5*B28*10^-3</f>
+      <c r="I28" s="54">
+        <f t="shared" ref="I28" si="26">0.5*B28*10^-3</f>
         <v>2E-3</v>
       </c>
-      <c r="I28" s="21">
+      <c r="J28" s="21">
         <f t="shared" si="0"/>
         <v>8.5360648740930439E-3</v>
       </c>
-      <c r="J28" s="21">
-        <f>(($H$28/E28)^2+($G$28*$F$28/E28^2)^2)^(1/2)</f>
+      <c r="K28" s="21">
+        <f>(($I$28/F28)^2+($H$28*$G$28/F28^2)^2)^(1/2)</f>
         <v>1.3868016543122825E-4</v>
       </c>
-      <c r="K28" s="34">
-        <f>(I28+I29+I30+I31+I32)/5</f>
+      <c r="L28" s="65">
+        <f>(J28+J29+J30+J31+J32)/5</f>
         <v>8.3600294043818212E-3</v>
       </c>
-      <c r="L28" s="27">
-        <f t="shared" ref="L28" si="22">(SUMSQ(J28:J32)/25)^(1/2)</f>
+      <c r="M28" s="26">
+        <f t="shared" ref="M28" si="27">(SUMSQ(K28:K32)/25)^(1/2)</f>
         <v>5.9979431293701365E-5</v>
       </c>
-      <c r="M28" s="27">
-        <f t="shared" ref="M28" si="23">_xlfn.STDEV.S(I28:I32)</f>
+      <c r="N28" s="26">
+        <f t="shared" ref="N28" si="28">_xlfn.STDEV.S(J28:J32)</f>
         <v>9.8921847583569231E-5</v>
       </c>
-      <c r="N28" s="31">
+      <c r="O28" s="54">
         <v>1.1476</v>
       </c>
-      <c r="O28" s="31">
+      <c r="P28" s="54">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P28" s="27">
-        <f t="shared" ref="P28:P42" si="24">K28/(C28-N28)*10^(-3)</f>
+      <c r="Q28" s="26">
+        <f t="shared" ref="Q28" si="29">L28/(D28-O28)*10^(-3)</f>
         <v>3.6363764264383737E-5</v>
       </c>
-      <c r="Q28" s="74">
-        <f>((M28/(C28-N28))^2+(K28*D28/(C28-N28)^2)^2+(K28*O28/(C28-N28)^2)^2)^(1/2)*10^-3</f>
+      <c r="R28" s="31">
+        <f>((N28/(D28-O28))^2+(L28*E28/(D28-O28)^2)^2+(L28*P28/(D28-O28)^2)^2)^(1/2)*10^-3</f>
         <v>5.8524222723986226E-7</v>
       </c>
-      <c r="R28" s="57"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="56"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="9">
+      <c r="S28" s="36"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="38"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="9">
         <v>24.06</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="22">
+      <c r="G29" s="57"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="22">
         <f t="shared" si="0"/>
         <v>8.3125519534497094E-3</v>
       </c>
-      <c r="J29" s="22">
-        <f t="shared" ref="J29:J32" si="25">(($H$28/E29)^2+($G$28*$F$28/E29^2)^2)^(1/2)</f>
+      <c r="K29" s="22">
+        <f t="shared" ref="K29:K32" si="30">(($I$28/F29)^2+($H$28*$G$28/F29^2)^2)^(1/2)</f>
         <v>1.3286351752914206E-4</v>
       </c>
-      <c r="K29" s="34"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="57"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="56"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="9">
+      <c r="L29" s="65"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="36"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="38"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="9">
         <v>24.01</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="22">
+      <c r="G30" s="57"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="22">
         <f t="shared" si="0"/>
         <v>8.3298625572678052E-3</v>
       </c>
-      <c r="J30" s="22">
-        <f t="shared" si="25"/>
+      <c r="K30" s="22">
+        <f t="shared" si="30"/>
         <v>1.333090011901867E-4</v>
       </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="57"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="56"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="9">
+      <c r="L30" s="65"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="36"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="38"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="9">
         <v>24.09</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="22">
+      <c r="G31" s="57"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="22">
         <f t="shared" si="0"/>
         <v>8.3022000830220016E-3</v>
       </c>
-      <c r="J31" s="22">
-        <f t="shared" si="25"/>
+      <c r="K31" s="22">
+        <f t="shared" si="30"/>
         <v>1.3259751565960446E-4</v>
       </c>
-      <c r="K31" s="34"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="57"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="56"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="17">
+      <c r="L31" s="65"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="36"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="38"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="17">
         <v>24.04</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="23">
+      <c r="G32" s="58"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="23">
         <f t="shared" si="0"/>
         <v>8.3194675540765404E-3</v>
       </c>
-      <c r="J32" s="23">
-        <f t="shared" si="25"/>
+      <c r="K32" s="23">
+        <f t="shared" si="30"/>
         <v>1.3304138801975253E-4</v>
       </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="57"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="56">
+      <c r="L32" s="65"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="36"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="38">
         <v>3</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="31">
+        <f t="shared" ref="C33" si="31">(B33/2)^2*10^-6</f>
+        <v>2.2500000000000001E-6</v>
+      </c>
+      <c r="D33" s="48">
         <v>1.3774999999999999</v>
       </c>
-      <c r="D33" s="50">
+      <c r="E33" s="48">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E33" s="18">
+      <c r="F33" s="18">
         <v>39.72</v>
       </c>
-      <c r="F33" s="44">
-        <f>F28</f>
+      <c r="G33" s="56">
+        <f>G28</f>
         <v>0.3</v>
       </c>
-      <c r="G33" s="67">
+      <c r="H33" s="42">
         <v>0.2</v>
       </c>
-      <c r="H33" s="31">
-        <f t="shared" ref="H33" si="26">0.5*B33*10^-3</f>
+      <c r="I33" s="54">
+        <f t="shared" ref="I33" si="32">0.5*B33*10^-3</f>
         <v>1.5E-3</v>
       </c>
-      <c r="I33" s="21">
+      <c r="J33" s="21">
         <f t="shared" si="0"/>
         <v>5.0352467270896274E-3</v>
       </c>
-      <c r="J33" s="21">
-        <f>(($H$33/E33)^2+($G$33*$F$33/E33^2)^2)^(1/2)</f>
+      <c r="K33" s="21">
+        <f>(($I$33/F33)^2+($H$33*$G$33/F33^2)^2)^(1/2)</f>
         <v>5.3595428853931334E-5</v>
       </c>
-      <c r="K33" s="37">
-        <f>(I33+I34+I35+I36+I37)/5</f>
+      <c r="L33" s="68">
+        <f>(J33+J34+J35+J36+J37)/5</f>
         <v>5.0126521561671706E-3</v>
       </c>
-      <c r="L33" s="25">
-        <f t="shared" ref="L33" si="27">(SUMSQ(J33:J37)/25)^(1/2)</f>
+      <c r="M33" s="27">
+        <f t="shared" ref="M33" si="33">(SUMSQ(K33:K37)/25)^(1/2)</f>
         <v>2.3808205742172807E-5</v>
       </c>
-      <c r="M33" s="25">
-        <f t="shared" ref="M33" si="28">_xlfn.STDEV.S(I33:I37)</f>
+      <c r="N33" s="27">
+        <f t="shared" ref="N33" si="34">_xlfn.STDEV.S(J33:J37)</f>
         <v>2.7520590084576011E-5</v>
       </c>
-      <c r="N33" s="31">
+      <c r="O33" s="54">
         <v>1.1476</v>
       </c>
-      <c r="O33" s="31">
+      <c r="P33" s="54">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P33" s="25">
-        <f t="shared" ref="P33:P42" si="29">K33/(C33-N33)*10^(-3)</f>
+      <c r="Q33" s="27">
+        <f t="shared" ref="Q33" si="35">L33/(D33-O33)*10^(-3)</f>
         <v>2.1803619644050332E-5</v>
       </c>
-      <c r="Q33" s="75">
-        <f>((M33/(C33-N33))^2+(K33*D33/(C33-N33)^2)^2+(K33*O33/(C33-N33)^2)^2)^(1/2)*10^-3</f>
+      <c r="R33" s="32">
+        <f>((N33/(D33-O33))^2+(L33*E33/(D33-O33)^2)^2+(L33*P33/(D33-O33)^2)^2)^(1/2)*10^-3</f>
         <v>2.6628069696087493E-7</v>
       </c>
-      <c r="R33" s="57"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="56"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="9">
+      <c r="S33" s="36"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="38"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="9">
         <v>40.07</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="22">
+      <c r="G34" s="57"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="22">
         <f t="shared" si="0"/>
         <v>4.9912652857499375E-3</v>
       </c>
-      <c r="J34" s="22">
-        <f t="shared" ref="J34:J37" si="30">(($H$33/E34)^2+($G$33*$F$33/E34^2)^2)^(1/2)</f>
+      <c r="K34" s="22">
+        <f t="shared" ref="K34:K37" si="36">(($I$33/F34)^2+($H$33*$G$33/F34^2)^2)^(1/2)</f>
         <v>5.2894141272690634E-5</v>
       </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="57"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="56"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="9">
+      <c r="L34" s="30"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="36"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="38"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="9">
         <v>39.92</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="22">
+      <c r="G35" s="57"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="22">
         <f t="shared" si="0"/>
         <v>5.0100200400801601E-3</v>
       </c>
-      <c r="J35" s="22">
-        <f t="shared" si="30"/>
+      <c r="K35" s="22">
+        <f t="shared" si="36"/>
         <v>5.3192559591570681E-5</v>
       </c>
-      <c r="K35" s="38"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="57"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="56"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="9">
+      <c r="L35" s="30"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="36"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="38"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="9">
         <v>40.15</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="22">
+      <c r="G36" s="57"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="22">
         <f t="shared" si="0"/>
         <v>4.9813200498132013E-3</v>
       </c>
-      <c r="J36" s="22">
-        <f t="shared" si="30"/>
+      <c r="K36" s="22">
+        <f t="shared" si="36"/>
         <v>5.2736274862302553E-5</v>
       </c>
-      <c r="K36" s="38"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="57"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="56"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="17">
+      <c r="L36" s="30"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="36"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="38"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="17">
         <v>39.64</v>
       </c>
-      <c r="F37" s="43"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="23">
+      <c r="G37" s="58"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="23">
         <f t="shared" si="0"/>
         <v>5.0454086781029266E-3</v>
       </c>
-      <c r="J37" s="23">
-        <f t="shared" si="30"/>
+      <c r="K37" s="23">
+        <f t="shared" si="36"/>
         <v>5.3758192485178142E-5</v>
       </c>
-      <c r="K37" s="39"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="57"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="56">
+      <c r="L37" s="69"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="36"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="38">
         <v>2</v>
       </c>
-      <c r="C38" s="50">
-        <f>C33</f>
+      <c r="C38" s="31">
+        <f t="shared" ref="C38" si="37">(B38/2)^2*10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D38" s="48">
+        <f>D33</f>
         <v>1.3774999999999999</v>
       </c>
-      <c r="D38" s="50">
-        <f>D33</f>
+      <c r="E38" s="48">
+        <f>E33</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E38" s="18">
+      <c r="F38" s="18">
         <v>74.900000000000006</v>
       </c>
-      <c r="F38" s="44">
-        <f>F33</f>
+      <c r="G38" s="56">
+        <f>G33</f>
         <v>0.3</v>
       </c>
-      <c r="G38" s="67">
+      <c r="H38" s="42">
         <v>0.2</v>
       </c>
-      <c r="H38" s="31">
-        <f t="shared" ref="H38" si="31">0.5*B38*10^-3</f>
+      <c r="I38" s="54">
+        <f t="shared" ref="I38" si="38">0.5*B38*10^-3</f>
         <v>1E-3</v>
       </c>
-      <c r="I38" s="21">
+      <c r="J38" s="21">
         <f t="shared" si="0"/>
         <v>2.6702269692923898E-3</v>
       </c>
-      <c r="J38" s="21">
-        <f>(($H$38/E38)^2+($G$38*$F$38/E38^2)^2)^(1/2)</f>
+      <c r="K38" s="21">
+        <f>(($I$38/F38)^2+($H$38*$G$38/F38^2)^2)^(1/2)</f>
         <v>1.7106706942119941E-5</v>
       </c>
-      <c r="K38" s="37">
-        <f>(I38+I39+I40+I41+I42)/5</f>
+      <c r="L38" s="68">
+        <f>(J38+J39+J40+J41+J42)/5</f>
         <v>2.654035384232682E-3</v>
       </c>
-      <c r="L38" s="25">
-        <f t="shared" ref="L38" si="32">(SUMSQ(J38:J42)/25)^(1/2)</f>
+      <c r="M38" s="27">
+        <f t="shared" ref="M38" si="39">(SUMSQ(K38:K42)/25)^(1/2)</f>
         <v>7.5910153311779477E-6</v>
       </c>
-      <c r="M38" s="27">
-        <f t="shared" ref="M38" si="33">_xlfn.STDEV.S(I38:I42)</f>
+      <c r="N38" s="26">
+        <f t="shared" ref="N38" si="40">_xlfn.STDEV.S(J38:J42)</f>
         <v>6.3404518771783403E-5</v>
       </c>
-      <c r="N38" s="31">
-        <f>N33</f>
+      <c r="O38" s="54">
+        <f>O33</f>
         <v>1.1476</v>
       </c>
-      <c r="O38" s="31">
-        <f>O33</f>
+      <c r="P38" s="54">
+        <f>P33</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P38" s="25">
-        <f t="shared" ref="P38:P42" si="34">K38/(C38-N38)*10^(-3)</f>
+      <c r="Q38" s="27">
+        <f t="shared" ref="Q38" si="41">L38/(D38-O38)*10^(-3)</f>
         <v>1.154430354168196E-5</v>
       </c>
-      <c r="Q38" s="75">
-        <f>((L38/(C38-N38))^2+(K38*D38/(C38-N38)^2)^2+(K38*O38/(C38-N38)^2)^2)^(1/2)*10^-3</f>
+      <c r="R38" s="32">
+        <f>((M38/(D38-O38))^2+(L38*E38/(D38-O38)^2)^2+(L38*P38/(D38-O38)^2)^2)^(1/2)*10^-3</f>
         <v>1.3019378482831071E-7</v>
       </c>
-      <c r="R38" s="57"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="56"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="9">
+      <c r="S38" s="36"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="38"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="9">
         <v>78.34</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="22">
+      <c r="G39" s="57"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="22">
         <f t="shared" si="0"/>
         <v>2.5529742149604288E-3</v>
       </c>
-      <c r="J39" s="22">
-        <f t="shared" ref="J39:J42" si="35">(($H$38/E39)^2+($G$38*$F$38/E39^2)^2)^(1/2)</f>
+      <c r="K39" s="22">
+        <f t="shared" ref="K39:K42" si="42">(($I$38/F39)^2+($H$38*$G$38/F39^2)^2)^(1/2)</f>
         <v>1.6078625529446875E-5</v>
       </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="25"/>
+      <c r="L39" s="30"/>
       <c r="M39" s="27"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="57"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="56"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="9">
+      <c r="N39" s="26"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="36"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="38"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="9">
         <v>75.86</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="22">
+      <c r="G40" s="57"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="22">
         <f t="shared" si="0"/>
         <v>2.6364355391510679E-3</v>
       </c>
-      <c r="J40" s="22">
-        <f t="shared" si="35"/>
+      <c r="K40" s="22">
+        <f t="shared" si="42"/>
         <v>1.6806999019068159E-5</v>
       </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="25"/>
+      <c r="L40" s="30"/>
       <c r="M40" s="27"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="57"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="56"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="9">
+      <c r="N40" s="26"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="36"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="38"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="9">
         <v>73.8</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="22">
+      <c r="G41" s="57"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="22">
         <f t="shared" si="0"/>
         <v>2.7100271002710031E-3</v>
       </c>
-      <c r="J41" s="22">
-        <f t="shared" si="35"/>
+      <c r="K41" s="22">
+        <f t="shared" si="42"/>
         <v>1.7463292566734726E-5</v>
       </c>
-      <c r="K41" s="38"/>
-      <c r="L41" s="25"/>
+      <c r="L41" s="30"/>
       <c r="M41" s="27"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="57"/>
-    </row>
-    <row r="42" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="64"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="11">
+      <c r="N41" s="26"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="36"/>
+    </row>
+    <row r="42" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="39"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="11">
         <v>74.06</v>
       </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="24">
+      <c r="G42" s="59"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="24">
         <f t="shared" si="0"/>
         <v>2.7005130974885228E-3</v>
       </c>
-      <c r="J42" s="24">
-        <f t="shared" si="35"/>
+      <c r="K42" s="24">
+        <f t="shared" si="42"/>
         <v>1.7377698907979166E-5</v>
       </c>
-      <c r="K42" s="40"/>
-      <c r="L42" s="26"/>
+      <c r="L42" s="70"/>
       <c r="M42" s="28"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="58"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="P28:P32"/>
-    <mergeCell ref="P33:P37"/>
-    <mergeCell ref="P38:P42"/>
-    <mergeCell ref="Q3:Q7"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="Q18:Q22"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="Q28:Q32"/>
-    <mergeCell ref="Q33:Q37"/>
-    <mergeCell ref="Q38:Q42"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="R3:R7"/>
-    <mergeCell ref="R8:R42"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
+  <mergeCells count="114">
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C17"/>
@@ -2533,70 +2589,112 @@
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="C38:C42"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="M8:M12"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="M33:M37"/>
+    <mergeCell ref="N33:N37"/>
+    <mergeCell ref="M38:M42"/>
+    <mergeCell ref="N38:N42"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="L28:L32"/>
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="I33:I37"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="O8:O12"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="O33:O37"/>
+    <mergeCell ref="P33:P37"/>
+    <mergeCell ref="O38:O42"/>
+    <mergeCell ref="P38:P42"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="O28:O32"/>
+    <mergeCell ref="P28:P32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="S3:S7"/>
+    <mergeCell ref="S8:S42"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H33:H37"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="D23:D27"/>
     <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="N3:N7"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="N8:N12"/>
-    <mergeCell ref="O8:O12"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="N33:N37"/>
-    <mergeCell ref="O33:O37"/>
-    <mergeCell ref="N38:N42"/>
-    <mergeCell ref="O38:O42"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="O18:O22"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="O28:O32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="H33:H37"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="M8:M12"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="M13:M17"/>
-    <mergeCell ref="L33:L37"/>
-    <mergeCell ref="M33:M37"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="M38:M42"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="L28:L32"/>
-    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="Q28:Q32"/>
+    <mergeCell ref="Q33:Q37"/>
+    <mergeCell ref="Q38:Q42"/>
+    <mergeCell ref="R3:R7"/>
+    <mergeCell ref="R8:R12"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="R18:R22"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="R28:R32"/>
+    <mergeCell ref="R33:R37"/>
+    <mergeCell ref="R38:R42"/>
+    <mergeCell ref="Q3:Q7"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="Q18:Q22"/>
+    <mergeCell ref="Q23:Q27"/>
   </mergeCells>
   <pageMargins left="0" right="0.39370078740157483" top="1.3779527559055118" bottom="0" header="0" footer="0"/>
   <pageSetup scale="49" orientation="landscape" r:id="rId1"/>
@@ -2641,10 +2739,10 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="72">
         <v>4</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="74">
         <f>273.15+23.9</f>
         <v>297.04999999999995</v>
       </c>
@@ -2659,8 +2757,8 @@
       <c r="D4" s="1">
         <v>99</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="62"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
@@ -2672,8 +2770,8 @@
       <c r="D5" s="1">
         <v>226</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
@@ -2685,8 +2783,8 @@
       <c r="D6" s="1">
         <v>357</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
@@ -2698,8 +2796,8 @@
       <c r="D7" s="1">
         <v>485</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="62"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
@@ -2711,8 +2809,8 @@
       <c r="D8" s="1">
         <v>616</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="62"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
@@ -2724,8 +2822,8 @@
       <c r="D9" s="2">
         <v>744</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="63"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
+++ b/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>d [mm]</t>
   </si>
@@ -110,6 +110,55 @@
   <si>
     <t>r² [m²]</t>
   </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>Δλ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> d [mm]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> r² [m²]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -124,7 +173,7 @@
     <numFmt numFmtId="169" formatCode="0.0000000"/>
     <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +183,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -153,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -559,11 +614,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -606,164 +683,201 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,1504 +1197,1767 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:S42"/>
+  <dimension ref="B1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.85546875" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="U2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="44">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="69">
         <v>9</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="88">
+        <f>B3*0.01</f>
+        <v>0.09</v>
+      </c>
+      <c r="D3" s="27">
         <f>(B3/2)^2*10^-6</f>
         <v>2.0249999999999998E-5</v>
       </c>
-      <c r="D3" s="46">
+      <c r="E3" s="92">
+        <f>B3*C3*10^-6</f>
+        <v>8.0999999999999987E-7</v>
+      </c>
+      <c r="F3" s="59">
         <v>1.3554999999999999</v>
       </c>
-      <c r="E3" s="46">
+      <c r="G3" s="59">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F3" s="16">
+      <c r="H3" s="16">
         <v>6.14</v>
       </c>
-      <c r="G3" s="64">
+      <c r="I3" s="53">
         <v>0.3</v>
       </c>
-      <c r="H3" s="40">
+      <c r="J3" s="65">
         <v>0.2</v>
       </c>
-      <c r="I3" s="60">
+      <c r="K3" s="49">
         <f>0.5*B3*10^-3</f>
         <v>4.5000000000000005E-3</v>
       </c>
-      <c r="J3" s="20">
-        <f>$H$3/F3</f>
+      <c r="L3" s="20">
+        <f>$J$3/H3</f>
         <v>3.2573289902280131E-2</v>
       </c>
-      <c r="K3" s="20">
-        <f>(($I$3/F3)^2+($H$3*$G$3/F3^2)^2)^(1/2)</f>
+      <c r="M3" s="20">
+        <f>(($K$3/H3)^2+($J$3*$I$3/H3^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="L3" s="51">
-        <f>(J3+J4+J5+J6+J7)/5</f>
+      <c r="N3" s="31">
+        <f>(L3+L4+L5+L6+L7)/5</f>
         <v>3.3077869485049816E-2</v>
       </c>
-      <c r="M3" s="51">
-        <f>(SUMSQ(K3:K7)/25)^(1/2)</f>
+      <c r="O3" s="31">
+        <f>(SUMSQ(M3:M7)/25)^(1/2)</f>
         <v>8.0798706393487478E-4</v>
       </c>
-      <c r="N3" s="51">
-        <f>_xlfn.STDEV.S(J3:J7)</f>
+      <c r="P3" s="31">
+        <f>_xlfn.STDEV.S(L3:L7)</f>
         <v>1.1538275016650245E-3</v>
       </c>
-      <c r="O3" s="51">
+      <c r="Q3" s="31">
         <v>1.1482000000000001</v>
       </c>
-      <c r="P3" s="51">
+      <c r="R3" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="Q3" s="34">
-        <f>L3/(D3-O3)*10^(-3)</f>
+      <c r="S3" s="74">
+        <f>N3/(F3-Q3)*10^(-3)</f>
         <v>1.59565217004582E-4</v>
       </c>
-      <c r="R3" s="29">
-        <f>((N3/(D3-O3))^2+(L3*E3/(D3-O3)^2)^2+(L3*P3/(D3-O3)^2)^2)^(1/2)*10^-3</f>
+      <c r="T3" s="71">
+        <f>((P3/(F3-Q3))^2+(N3*G3/(F3-Q3)^2)^2+(N3*R3/(F3-Q3)^2)^2)^(1/2)*10^-3</f>
         <v>5.5813928390751162E-6</v>
       </c>
-      <c r="S3" s="35">
+      <c r="U3" s="27">
+        <f>1+2.1*0.5*B3/$D$44</f>
+        <v>1.252</v>
+      </c>
+      <c r="V3" s="80"/>
+      <c r="W3" s="60">
         <f>273.15+21.5</f>
         <v>294.64999999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="9">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="63"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="9">
         <v>6.14</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="13">
-        <f t="shared" ref="J4:J42" si="0">$H$3/F4</f>
+      <c r="I4" s="46"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="13">
+        <f t="shared" ref="L4:L42" si="0">$J$3/H4</f>
         <v>3.2573289902280131E-2</v>
       </c>
-      <c r="K4" s="13">
-        <f t="shared" ref="K4:K7" si="1">(($I$3/F4)^2+($H$3*$G$3/F4^2)^2)^(1/2)</f>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:M7" si="1">(($K$3/H4)^2+($J$3*$I$3/H4^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="30"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
       <c r="S4" s="36"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="9">
+      <c r="T4" s="42"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="61"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="63"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="9">
         <v>5.7</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="13">
+      <c r="I5" s="46"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="13">
         <f t="shared" si="0"/>
         <v>3.5087719298245612E-2</v>
       </c>
-      <c r="K5" s="13">
+      <c r="M5" s="13">
         <f t="shared" si="1"/>
         <v>2.0083951542744852E-3</v>
       </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="30"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
       <c r="S5" s="36"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="9">
+      <c r="T5" s="42"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="61"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="63"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="9">
         <v>6.21</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="13">
+      <c r="I6" s="46"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="13">
         <f t="shared" si="0"/>
         <v>3.2206119162640906E-2</v>
       </c>
-      <c r="K6" s="13">
+      <c r="M6" s="13">
         <f t="shared" si="1"/>
         <v>1.716325325710239E-3</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="30"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
       <c r="S6" s="36"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="17">
+      <c r="T6" s="42"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="61"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="63"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="17">
         <v>6.07</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="14">
+      <c r="I7" s="47"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="14">
         <f t="shared" si="0"/>
         <v>3.2948929159802305E-2</v>
       </c>
-      <c r="K7" s="13">
+      <c r="M7" s="13">
         <f t="shared" si="1"/>
         <v>1.7892578702547329E-3</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="30"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
       <c r="S7" s="36"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="38">
+      <c r="T7" s="42"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="61"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="63">
         <v>8</v>
       </c>
-      <c r="C8" s="27">
-        <f t="shared" ref="C8" si="2">(B8/2)^2*10^-6</f>
+      <c r="C8" s="89">
+        <f t="shared" ref="C8" si="2">B8*0.01</f>
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="28">
+        <f t="shared" ref="D8:E8" si="3">(B8/2)^2*10^-6</f>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="D8" s="48">
+      <c r="E8" s="29">
+        <f t="shared" ref="E8:E42" si="4">B8*C8*10^-6</f>
+        <v>6.4000000000000001E-7</v>
+      </c>
+      <c r="F8" s="55">
         <v>1.3625</v>
       </c>
-      <c r="E8" s="48">
+      <c r="G8" s="55">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F8" s="18">
+      <c r="H8" s="18">
         <v>7.86</v>
       </c>
-      <c r="G8" s="56">
-        <f>G3</f>
+      <c r="I8" s="45">
+        <f>I3</f>
         <v>0.3</v>
       </c>
-      <c r="H8" s="41">
+      <c r="J8" s="66">
         <v>0.2</v>
       </c>
-      <c r="I8" s="63">
+      <c r="K8" s="52">
         <f>0.5*B8*10^-3</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J8" s="12">
+      <c r="L8" s="12">
         <f t="shared" si="0"/>
         <v>2.5445292620865142E-2</v>
       </c>
-      <c r="K8" s="12">
-        <f>(($I$8/F8)^2+($H$8*$G$8/F8^2)^2)^(1/2)</f>
+      <c r="M8" s="12">
+        <f>(($K$8/H8)^2+($J$8*$I$8/H8^2)^2)^(1/2)</f>
         <v>1.0964504915178231E-3</v>
       </c>
-      <c r="L8" s="54">
-        <f>(J8+J9+J10+J11+J12)/5</f>
+      <c r="N8" s="33">
+        <f>(L8+L9+L10+L11+L12)/5</f>
         <v>2.6029305829267206E-2</v>
       </c>
-      <c r="M8" s="54">
-        <f t="shared" ref="M8" si="3">(SUMSQ(K8:K12)/25)^(1/2)</f>
+      <c r="O8" s="33">
+        <f t="shared" ref="O8" si="5">(SUMSQ(M8:M12)/25)^(1/2)</f>
         <v>5.1104479056882763E-4</v>
       </c>
-      <c r="N8" s="54">
-        <f t="shared" ref="N8" si="4">_xlfn.STDEV.S(J8:J12)</f>
+      <c r="P8" s="33">
+        <f t="shared" ref="P8" si="6">_xlfn.STDEV.S(L8:L12)</f>
         <v>5.0949814262065871E-4</v>
       </c>
-      <c r="O8" s="54">
+      <c r="Q8" s="33">
         <v>1.1476</v>
       </c>
-      <c r="P8" s="54">
+      <c r="R8" s="33">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="Q8" s="26">
-        <f t="shared" ref="Q8" si="5">L8/(D8-O8)*10^(-3)</f>
+      <c r="S8" s="36">
+        <f t="shared" ref="S8" si="7">N8/(F8-Q8)*10^(-3)</f>
         <v>1.2112287496169007E-4</v>
       </c>
-      <c r="R8" s="31">
-        <f>((N8/(D8-O8))^2+(L8*E8/(D8-O8)^2)^2+(L8*P8/(D8-O8)^2)^2)^(1/2)*10^-3</f>
+      <c r="T8" s="29">
+        <f>((P8/(F8-Q8))^2+(N8*G8/(F8-Q8)^2)^2+(N8*R8/(F8-Q8)^2)^2)^(1/2)*10^-3</f>
         <v>2.3902111605678812E-6</v>
       </c>
-      <c r="S8" s="36">
-        <f>S3+0.5</f>
+      <c r="U8" s="28">
+        <f t="shared" ref="U8:U42" si="8">1+2.1*0.5*B8/$D$44</f>
+        <v>1.224</v>
+      </c>
+      <c r="V8" s="81"/>
+      <c r="W8" s="61">
+        <f>W3+0.5</f>
         <v>295.14999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="9">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="63"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="9">
         <v>7.8</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="13">
+      <c r="I9" s="46"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="13">
         <f t="shared" si="0"/>
         <v>2.5641025641025644E-2</v>
       </c>
-      <c r="K9" s="13">
-        <f t="shared" ref="K9:K12" si="6">(($I$8/F9)^2+($H$8*$G$8/F9^2)^2)^(1/2)</f>
+      <c r="M9" s="13">
+        <f t="shared" ref="M9:M12" si="9">(($K$8/H9)^2+($J$8*$I$8/H9^2)^2)^(1/2)</f>
         <v>1.1115584065960846E-3</v>
       </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
       <c r="S9" s="36"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="9">
+      <c r="T9" s="29"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="61"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="63"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="9">
         <v>7.7</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="13">
+      <c r="I10" s="46"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="13">
         <f t="shared" si="0"/>
         <v>2.5974025974025976E-2</v>
       </c>
-      <c r="K10" s="13">
-        <f t="shared" si="6"/>
+      <c r="M10" s="13">
+        <f t="shared" si="9"/>
         <v>1.1375207635695094E-3</v>
       </c>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="31"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="36"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="9">
+      <c r="T10" s="29"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="61"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="63"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="9">
         <v>7.56</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="13">
+      <c r="I11" s="46"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>2.6455026455026457E-2</v>
       </c>
-      <c r="K11" s="13">
-        <f t="shared" si="6"/>
+      <c r="M11" s="13">
+        <f t="shared" si="9"/>
         <v>1.1755989736153413E-3</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
       <c r="S11" s="36"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="17">
+      <c r="T11" s="29"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="61"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="63"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="17">
         <v>7.51</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="14">
+      <c r="I12" s="47"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="14">
         <f t="shared" si="0"/>
         <v>2.6631158455392812E-2</v>
       </c>
-      <c r="K12" s="14">
-        <f t="shared" si="6"/>
+      <c r="M12" s="14">
+        <f t="shared" si="9"/>
         <v>1.1897130928283149E-3</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="31"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
       <c r="S12" s="36"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="45">
+      <c r="T12" s="29"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="61"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="70">
         <v>7.1440000000000001</v>
       </c>
-      <c r="C13" s="27">
-        <f t="shared" ref="C13" si="7">(B13/2)^2*10^-6</f>
+      <c r="C13" s="36">
+        <f t="shared" ref="C13" si="10">B13*0.01</f>
+        <v>7.1440000000000003E-2</v>
+      </c>
+      <c r="D13" s="28">
+        <f t="shared" ref="D13:E28" si="11">(B13/2)^2*10^-6</f>
         <v>1.2759184000000001E-5</v>
       </c>
-      <c r="D13" s="48">
+      <c r="E13" s="29">
+        <f t="shared" ref="E13:E42" si="12">B13*C13*10^-6</f>
+        <v>5.1036735999999999E-7</v>
+      </c>
+      <c r="F13" s="55">
         <v>1.3774999999999999</v>
       </c>
-      <c r="E13" s="48">
+      <c r="G13" s="55">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F13" s="18">
+      <c r="H13" s="18">
         <v>8.42</v>
       </c>
-      <c r="G13" s="56">
-        <f>G8</f>
+      <c r="I13" s="45">
+        <f>I8</f>
         <v>0.3</v>
       </c>
-      <c r="H13" s="41">
+      <c r="J13" s="66">
         <v>0.2</v>
       </c>
-      <c r="I13" s="63">
-        <f t="shared" ref="I13" si="8">0.5*B13*10^-3</f>
+      <c r="K13" s="52">
+        <f t="shared" ref="K13" si="13">0.5*B13*10^-3</f>
         <v>3.5720000000000001E-3</v>
       </c>
-      <c r="J13" s="12">
+      <c r="L13" s="12">
         <f t="shared" si="0"/>
         <v>2.3752969121140145E-2</v>
       </c>
-      <c r="K13" s="12">
-        <f>(($I$13/F13)^2+($H$13*$G$13/F13^2)^2)^(1/2)</f>
+      <c r="M13" s="12">
+        <f>(($K$13/H13)^2+($J$13*$I$13/H13^2)^2)^(1/2)</f>
         <v>9.4667951449123387E-4</v>
       </c>
-      <c r="L13" s="54">
-        <f>(J13+J14+J15+J16+J17)/5</f>
+      <c r="N13" s="33">
+        <f>(L13+L14+L15+L16+L17)/5</f>
         <v>2.3640955470984416E-2</v>
       </c>
-      <c r="M13" s="52">
-        <f t="shared" ref="M13" si="9">(SUMSQ(K13:K17)/25)^(1/2)</f>
+      <c r="O13" s="32">
+        <f t="shared" ref="O13" si="14">(SUMSQ(M13:M17)/25)^(1/2)</f>
         <v>4.2004945214195227E-4</v>
       </c>
-      <c r="N13" s="52">
-        <f t="shared" ref="N13" si="10">_xlfn.STDEV.S(J13:J17)</f>
+      <c r="P13" s="32">
+        <f t="shared" ref="P13" si="15">_xlfn.STDEV.S(L13:L17)</f>
         <v>4.1924762935458839E-4</v>
       </c>
-      <c r="O13" s="54">
+      <c r="Q13" s="33">
         <v>1.1476</v>
       </c>
-      <c r="P13" s="54">
+      <c r="R13" s="33">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="Q13" s="26">
-        <f t="shared" ref="Q13" si="11">L13/(D13-O13)*10^(-3)</f>
+      <c r="S13" s="36">
+        <f t="shared" ref="S13" si="16">N13/(F13-Q13)*10^(-3)</f>
         <v>1.0283147225308576E-4</v>
       </c>
-      <c r="R13" s="31">
-        <f>((N13/(D13-O13))^2+(L13*E13/(D13-O13)^2)^2+(L13*P13/(D13-O13)^2)^2)^(1/2)*10^-3</f>
+      <c r="T13" s="29">
+        <f>((P13/(F13-Q13))^2+(N13*G13/(F13-Q13)^2)^2+(N13*R13/(F13-Q13)^2)^2)^(1/2)*10^-3</f>
         <v>2.1410198964813952E-6</v>
       </c>
-      <c r="S13" s="36"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="9">
+      <c r="U13" s="28">
+        <f t="shared" ref="U13:U42" si="17">1+2.1*0.5*B13/$D$44</f>
+        <v>1.200032</v>
+      </c>
+      <c r="V13" s="81"/>
+      <c r="W13" s="61"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="70"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="9">
         <v>8.6199999999999992</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="13">
+      <c r="I14" s="46"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="13">
         <f t="shared" si="0"/>
         <v>2.3201856148491882E-2</v>
       </c>
-      <c r="K14" s="13">
-        <f t="shared" ref="K14:K17" si="12">(($I$13/F14)^2+($H$13*$G$13/F14^2)^2)^(1/2)</f>
+      <c r="M14" s="13">
+        <f t="shared" ref="M14:M17" si="18">(($K$13/H14)^2+($J$13*$I$13/H14^2)^2)^(1/2)</f>
         <v>9.0760886409929718E-4</v>
       </c>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="31"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
       <c r="S14" s="36"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="9">
+      <c r="T14" s="29"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="61"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="70"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="9">
         <v>8.5399999999999991</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="13">
+      <c r="I15" s="46"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="13">
         <f t="shared" si="0"/>
         <v>2.3419203747072605E-2</v>
       </c>
-      <c r="K15" s="13">
-        <f t="shared" si="12"/>
+      <c r="M15" s="13">
+        <f t="shared" si="18"/>
         <v>9.2291055402502582E-4</v>
       </c>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="31"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
       <c r="S15" s="36"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="9">
+      <c r="T15" s="29"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="61"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="70"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="9">
         <v>8.5</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="13">
+      <c r="I16" s="46"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="13">
         <f t="shared" si="0"/>
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="K16" s="13">
-        <f t="shared" si="12"/>
+      <c r="M16" s="13">
+        <f t="shared" si="18"/>
         <v>9.3072263192061364E-4</v>
       </c>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="31"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
       <c r="S16" s="36"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="17">
+      <c r="T16" s="29"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="61"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="70"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="17">
         <v>8.23</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="14">
+      <c r="I17" s="47"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="14">
         <f t="shared" si="0"/>
         <v>2.4301336573511544E-2</v>
       </c>
-      <c r="K17" s="14">
-        <f t="shared" si="12"/>
+      <c r="M17" s="14">
+        <f t="shared" si="18"/>
         <v>9.8644518067141844E-4</v>
       </c>
-      <c r="L17" s="53"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="31"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
       <c r="S17" s="36"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="38">
+      <c r="T17" s="29"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="61"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="63">
         <v>6</v>
       </c>
-      <c r="C18" s="27">
-        <f t="shared" ref="C18" si="13">(B18/2)^2*10^-6</f>
+      <c r="C18" s="89">
+        <f t="shared" ref="C18" si="19">B18*0.01</f>
+        <v>0.06</v>
+      </c>
+      <c r="D18" s="28">
+        <f t="shared" ref="D18" si="20">(B18/2)^2*10^-6</f>
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="D18" s="48">
+      <c r="E18" s="29">
+        <f t="shared" ref="E18:E42" si="21">B18*C18*10^-6</f>
+        <v>3.5999999999999999E-7</v>
+      </c>
+      <c r="F18" s="55">
         <v>1.3774999999999999</v>
       </c>
-      <c r="E18" s="48">
+      <c r="G18" s="55">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F18" s="18">
+      <c r="H18" s="18">
         <v>11.62</v>
       </c>
-      <c r="G18" s="56">
-        <f>G13</f>
+      <c r="I18" s="45">
+        <f>I13</f>
         <v>0.3</v>
       </c>
-      <c r="H18" s="41">
+      <c r="J18" s="66">
         <v>0.2</v>
       </c>
-      <c r="I18" s="63">
-        <f t="shared" ref="I18" si="14">0.5*B18*10^-3</f>
+      <c r="K18" s="52">
+        <f t="shared" ref="K18" si="22">0.5*B18*10^-3</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J18" s="12">
+      <c r="L18" s="12">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
-      <c r="K18" s="12">
-        <f>(($I$18/F18)^2+($H$18*$G$18/F18^2)^2)^(1/2)</f>
+      <c r="M18" s="12">
+        <f>(($K$18/H18)^2+($J$18*$I$18/H18^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="L18" s="65">
-        <f>(J18+J19+J20+J21+J22)/5</f>
+      <c r="N18" s="38">
+        <f>(L18+L19+L20+L21+L22)/5</f>
         <v>1.711072882678167E-2</v>
       </c>
-      <c r="M18" s="26">
-        <f t="shared" ref="M18" si="15">(SUMSQ(K18:K22)/25)^(1/2)</f>
+      <c r="O18" s="36">
+        <f t="shared" ref="O18" si="23">(SUMSQ(M18:M22)/25)^(1/2)</f>
         <v>2.2754630774580575E-4</v>
       </c>
-      <c r="N18" s="26">
-        <f t="shared" ref="N18" si="16">_xlfn.STDEV.S(J18:J22)</f>
+      <c r="P18" s="36">
+        <f t="shared" ref="P18" si="24">_xlfn.STDEV.S(L18:L22)</f>
         <v>2.0964670301082701E-4</v>
       </c>
-      <c r="O18" s="54">
+      <c r="Q18" s="33">
         <v>1.1476</v>
       </c>
-      <c r="P18" s="54">
+      <c r="R18" s="33">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="Q18" s="26">
-        <f t="shared" ref="Q18" si="17">L18/(D18-O18)*10^(-3)</f>
+      <c r="S18" s="36">
+        <f t="shared" ref="S18" si="25">N18/(F18-Q18)*10^(-3)</f>
         <v>7.4426832652377855E-5</v>
       </c>
-      <c r="R18" s="31">
-        <f>((M18/(D18-O18))^2+(L18*E18/(D18-O18)^2)^2+(L18*P18/(D18-O18)^2)^2)^(1/2)*10^-3</f>
+      <c r="T18" s="29">
+        <f>((O18/(F18-Q18))^2+(N18*G18/(F18-Q18)^2)^2+(N18*R18/(F18-Q18)^2)^2)^(1/2)*10^-3</f>
         <v>1.2801762190890571E-6</v>
       </c>
-      <c r="S18" s="36"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="9">
+      <c r="U18" s="28">
+        <f t="shared" ref="U18:U42" si="26">1+2.1*0.5*B18/$D$44</f>
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="V18" s="81"/>
+      <c r="W18" s="61"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="63"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="9">
         <v>11.62</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="13">
+      <c r="I19" s="46"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="13">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
-      <c r="K19" s="13">
-        <f t="shared" ref="K19:K22" si="18">(($I$18/F19)^2+($H$18*$G$18/F19^2)^2)^(1/2)</f>
+      <c r="M19" s="13">
+        <f t="shared" ref="M19:M22" si="27">(($K$18/H19)^2+($J$18*$I$18/H19^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="L19" s="65"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="31"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
       <c r="S19" s="36"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="9">
+      <c r="T19" s="29"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="61"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="63"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="9">
         <v>11.64</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="13">
+      <c r="I20" s="46"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="13">
         <f t="shared" si="0"/>
         <v>1.7182130584192441E-2</v>
       </c>
-      <c r="K20" s="13">
-        <f t="shared" si="18"/>
+      <c r="M20" s="13">
+        <f t="shared" si="27"/>
         <v>5.1237840142188897E-4</v>
       </c>
-      <c r="L20" s="65"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="31"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
       <c r="S20" s="36"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="9">
+      <c r="T20" s="29"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="61"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="63"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="9">
         <v>11.62</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="13">
+      <c r="I21" s="46"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="13">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
-      <c r="K21" s="13">
-        <f t="shared" si="18"/>
+      <c r="M21" s="13">
+        <f t="shared" si="27"/>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="31"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
       <c r="S21" s="36"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="17">
+      <c r="T21" s="29"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="61"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="63"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="17">
         <v>11.95</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="14">
+      <c r="I22" s="47"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="14">
         <f t="shared" si="0"/>
         <v>1.6736401673640169E-2</v>
       </c>
-      <c r="K22" s="14">
-        <f t="shared" si="18"/>
+      <c r="M22" s="14">
+        <f t="shared" si="27"/>
         <v>4.8944778085674683E-4</v>
       </c>
-      <c r="L22" s="65"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="31"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
       <c r="S22" s="36"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="38">
+      <c r="T22" s="29"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="61"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="63">
         <v>5</v>
       </c>
-      <c r="C23" s="27">
-        <f t="shared" ref="C23" si="19">(B23/2)^2*10^-6</f>
+      <c r="C23" s="89">
+        <f t="shared" ref="C23" si="28">B23*0.01</f>
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="28">
+        <f t="shared" ref="D23" si="29">(B23/2)^2*10^-6</f>
         <v>6.2499999999999995E-6</v>
       </c>
-      <c r="D23" s="48">
+      <c r="E23" s="29">
+        <f t="shared" ref="E23:E42" si="30">B23*C23*10^-6</f>
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="F23" s="55">
         <v>1.3774999999999999</v>
       </c>
-      <c r="E23" s="48">
+      <c r="G23" s="55">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F23" s="18">
+      <c r="H23" s="18">
         <v>15.56</v>
       </c>
-      <c r="G23" s="56">
-        <f>G13</f>
+      <c r="I23" s="45">
+        <f>I13</f>
         <v>0.3</v>
       </c>
-      <c r="H23" s="42">
+      <c r="J23" s="67">
         <v>0.2</v>
       </c>
-      <c r="I23" s="54">
-        <f t="shared" ref="I23" si="20">0.5*B23*10^-3</f>
+      <c r="K23" s="33">
+        <f t="shared" ref="K23" si="31">0.5*B23*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J23" s="12">
+      <c r="L23" s="12">
         <f t="shared" si="0"/>
         <v>1.2853470437017995E-2</v>
       </c>
-      <c r="K23" s="12">
-        <f>(($I$23/F23)^2+($H$23*$G$23/F23^2)^2)^(1/2)</f>
+      <c r="M23" s="12">
+        <f>(($K$23/H23)^2+($J$23*$I$23/H23^2)^2)^(1/2)</f>
         <v>2.9534364435364433E-4</v>
       </c>
-      <c r="L23" s="66">
-        <f>(J23+J24+J25+J26+J27)/5</f>
+      <c r="N23" s="39">
+        <f>(L23+L24+L25+L26+L27)/5</f>
         <v>1.2816144235262594E-2</v>
       </c>
-      <c r="M23" s="26">
-        <f t="shared" ref="M23" si="21">(SUMSQ(K23:K27)/25)^(1/2)</f>
+      <c r="O23" s="36">
+        <f t="shared" ref="O23" si="32">(SUMSQ(M23:M27)/25)^(1/2)</f>
         <v>1.314809588282321E-4</v>
       </c>
-      <c r="N23" s="26">
-        <f t="shared" ref="N23" si="22">_xlfn.STDEV.S(J23:J27)</f>
+      <c r="P23" s="36">
+        <f t="shared" ref="P23" si="33">_xlfn.STDEV.S(L23:L27)</f>
         <v>1.8897275186015511E-4</v>
       </c>
-      <c r="O23" s="54">
+      <c r="Q23" s="33">
         <v>1.1476</v>
       </c>
-      <c r="P23" s="54">
+      <c r="R23" s="33">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="Q23" s="26">
-        <f t="shared" ref="Q23" si="23">L23/(D23-O23)*10^(-3)</f>
+      <c r="S23" s="36">
+        <f t="shared" ref="S23" si="34">N23/(F23-Q23)*10^(-3)</f>
         <v>5.5746603894139167E-5</v>
       </c>
-      <c r="R23" s="31">
-        <f>((N23/(D23-O23))^2+(L23*E23/(D23-O23)^2)^2+(L23*P23/(D23-O23)^2)^2)^(1/2)*10^-3</f>
+      <c r="T23" s="29">
+        <f>((P23/(F23-Q23))^2+(N23*G23/(F23-Q23)^2)^2+(N23*R23/(F23-Q23)^2)^2)^(1/2)*10^-3</f>
         <v>1.022489217302807E-6</v>
       </c>
-      <c r="S23" s="36"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="9">
+      <c r="U23" s="28">
+        <f t="shared" ref="U23:U42" si="35">1+2.1*0.5*B23/$D$44</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="V23" s="81"/>
+      <c r="W23" s="61"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="63"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="9">
         <v>15.24</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="13">
+      <c r="I24" s="46"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="13">
         <f t="shared" si="0"/>
         <v>1.3123359580052493E-2</v>
       </c>
-      <c r="K24" s="13">
-        <f t="shared" ref="K24:K27" si="24">(($I$23/F24)^2+($H$23*$G$23/F24^2)^2)^(1/2)</f>
+      <c r="M24" s="13">
+        <f t="shared" ref="M24:M27" si="36">(($K$23/H24)^2+($J$23*$I$23/H24^2)^2)^(1/2)</f>
         <v>3.0601659121382729E-4</v>
       </c>
-      <c r="L24" s="65"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="31"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
       <c r="S24" s="36"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="9">
+      <c r="T24" s="29"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="61"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="63"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="9">
         <v>15.8</v>
       </c>
-      <c r="G25" s="57"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="13">
+      <c r="I25" s="46"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="13">
         <f t="shared" si="0"/>
         <v>1.2658227848101266E-2</v>
       </c>
-      <c r="K25" s="13">
-        <f t="shared" si="24"/>
+      <c r="M25" s="13">
+        <f t="shared" si="36"/>
         <v>2.8775388602423501E-4</v>
       </c>
-      <c r="L25" s="65"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="31"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
       <c r="S25" s="36"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="38"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="9">
+      <c r="T25" s="29"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="61"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="63"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="9">
         <v>15.66</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="13">
+      <c r="I26" s="46"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="13">
         <f t="shared" si="0"/>
         <v>1.277139208173691E-2</v>
       </c>
-      <c r="K26" s="13">
-        <f t="shared" si="24"/>
+      <c r="M26" s="13">
+        <f t="shared" si="36"/>
         <v>2.9213956412965739E-4</v>
       </c>
-      <c r="L26" s="65"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="31"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
       <c r="S26" s="36"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="38"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="17">
+      <c r="T26" s="29"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="61"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="63"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="17">
         <v>15.78</v>
       </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="14">
+      <c r="I27" s="47"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="14">
         <f t="shared" si="0"/>
         <v>1.2674271229404311E-2</v>
       </c>
-      <c r="K27" s="14">
-        <f t="shared" si="24"/>
+      <c r="M27" s="14">
+        <f t="shared" si="36"/>
         <v>2.8837339882458726E-4</v>
       </c>
-      <c r="L27" s="67"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="31"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
       <c r="S27" s="36"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="38">
+      <c r="T27" s="29"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="61"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="63">
         <v>4</v>
       </c>
-      <c r="C28" s="27">
-        <f t="shared" ref="C28" si="25">(B28/2)^2*10^-6</f>
+      <c r="C28" s="89">
+        <f t="shared" ref="C28" si="37">B28*0.01</f>
+        <v>0.04</v>
+      </c>
+      <c r="D28" s="28">
+        <f t="shared" ref="D28" si="38">(B28/2)^2*10^-6</f>
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="D28" s="48">
+      <c r="E28" s="72">
+        <f t="shared" ref="E28:E42" si="39">B28*C28*10^-6</f>
+        <v>1.6E-7</v>
+      </c>
+      <c r="F28" s="55">
         <v>1.3774999999999999</v>
       </c>
-      <c r="E28" s="48">
+      <c r="G28" s="55">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F28" s="18">
+      <c r="H28" s="18">
         <v>23.43</v>
       </c>
-      <c r="G28" s="56">
-        <f>G13</f>
+      <c r="I28" s="45">
+        <f>I13</f>
         <v>0.3</v>
       </c>
-      <c r="H28" s="42">
+      <c r="J28" s="67">
         <v>0.2</v>
       </c>
-      <c r="I28" s="54">
-        <f t="shared" ref="I28" si="26">0.5*B28*10^-3</f>
+      <c r="K28" s="33">
+        <f t="shared" ref="K28" si="40">0.5*B28*10^-3</f>
         <v>2E-3</v>
       </c>
-      <c r="J28" s="21">
+      <c r="L28" s="21">
         <f t="shared" si="0"/>
         <v>8.5360648740930439E-3</v>
       </c>
-      <c r="K28" s="21">
-        <f>(($I$28/F28)^2+($H$28*$G$28/F28^2)^2)^(1/2)</f>
+      <c r="M28" s="21">
+        <f>(($K$28/H28)^2+($J$28*$I$28/H28^2)^2)^(1/2)</f>
         <v>1.3868016543122825E-4</v>
       </c>
-      <c r="L28" s="65">
-        <f>(J28+J29+J30+J31+J32)/5</f>
+      <c r="N28" s="38">
+        <f>(L28+L29+L30+L31+L32)/5</f>
         <v>8.3600294043818212E-3</v>
       </c>
-      <c r="M28" s="26">
-        <f t="shared" ref="M28" si="27">(SUMSQ(K28:K32)/25)^(1/2)</f>
+      <c r="O28" s="36">
+        <f t="shared" ref="O28" si="41">(SUMSQ(M28:M32)/25)^(1/2)</f>
         <v>5.9979431293701365E-5</v>
       </c>
-      <c r="N28" s="26">
-        <f t="shared" ref="N28" si="28">_xlfn.STDEV.S(J28:J32)</f>
+      <c r="P28" s="36">
+        <f t="shared" ref="P28" si="42">_xlfn.STDEV.S(L28:L32)</f>
         <v>9.8921847583569231E-5</v>
       </c>
-      <c r="O28" s="54">
+      <c r="Q28" s="33">
         <v>1.1476</v>
       </c>
-      <c r="P28" s="54">
+      <c r="R28" s="33">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="Q28" s="26">
-        <f t="shared" ref="Q28" si="29">L28/(D28-O28)*10^(-3)</f>
+      <c r="S28" s="36">
+        <f t="shared" ref="S28" si="43">N28/(F28-Q28)*10^(-3)</f>
         <v>3.6363764264383737E-5</v>
       </c>
-      <c r="R28" s="31">
-        <f>((N28/(D28-O28))^2+(L28*E28/(D28-O28)^2)^2+(L28*P28/(D28-O28)^2)^2)^(1/2)*10^-3</f>
+      <c r="T28" s="29">
+        <f>((P28/(F28-Q28))^2+(N28*G28/(F28-Q28)^2)^2+(N28*R28/(F28-Q28)^2)^2)^(1/2)*10^-3</f>
         <v>5.8524222723986226E-7</v>
       </c>
-      <c r="S28" s="36"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="9">
+      <c r="U28" s="28">
+        <f t="shared" ref="U28:U42" si="44">1+2.1*0.5*B28/$D$44</f>
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="V28" s="81"/>
+      <c r="W28" s="61"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="63"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="9">
         <v>24.06</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="22">
+      <c r="I29" s="46"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="22">
         <f t="shared" si="0"/>
         <v>8.3125519534497094E-3</v>
       </c>
-      <c r="K29" s="22">
-        <f t="shared" ref="K29:K32" si="30">(($I$28/F29)^2+($H$28*$G$28/F29^2)^2)^(1/2)</f>
+      <c r="M29" s="22">
+        <f t="shared" ref="M29:M32" si="45">(($K$28/H29)^2+($J$28*$I$28/H29^2)^2)^(1/2)</f>
         <v>1.3286351752914206E-4</v>
       </c>
-      <c r="L29" s="65"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="31"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
       <c r="S29" s="36"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="9">
+      <c r="T29" s="29"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="61"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="63"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="9">
         <v>24.01</v>
       </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="22">
+      <c r="I30" s="46"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="22">
         <f t="shared" si="0"/>
         <v>8.3298625572678052E-3</v>
       </c>
-      <c r="K30" s="22">
-        <f t="shared" si="30"/>
+      <c r="M30" s="22">
+        <f t="shared" si="45"/>
         <v>1.333090011901867E-4</v>
       </c>
-      <c r="L30" s="65"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="31"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
       <c r="S30" s="36"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="38"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="9">
+      <c r="T30" s="29"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="61"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="63"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="9">
         <v>24.09</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="22">
+      <c r="I31" s="46"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="22">
         <f t="shared" si="0"/>
         <v>8.3022000830220016E-3</v>
       </c>
-      <c r="K31" s="22">
-        <f t="shared" si="30"/>
+      <c r="M31" s="22">
+        <f t="shared" si="45"/>
         <v>1.3259751565960446E-4</v>
       </c>
-      <c r="L31" s="65"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="31"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
       <c r="S31" s="36"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="17">
+      <c r="T31" s="29"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="61"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="63"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="17">
         <v>24.04</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="23">
+      <c r="I32" s="47"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="23">
         <f t="shared" si="0"/>
         <v>8.3194675540765404E-3</v>
       </c>
-      <c r="K32" s="23">
-        <f t="shared" si="30"/>
+      <c r="M32" s="23">
+        <f t="shared" si="45"/>
         <v>1.3304138801975253E-4</v>
       </c>
-      <c r="L32" s="65"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="31"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
       <c r="S32" s="36"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="38">
+      <c r="T32" s="29"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="61"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="63">
         <v>3</v>
       </c>
-      <c r="C33" s="31">
-        <f t="shared" ref="C33" si="31">(B33/2)^2*10^-6</f>
+      <c r="C33" s="89">
+        <f t="shared" ref="C33" si="46">B33*0.01</f>
+        <v>0.03</v>
+      </c>
+      <c r="D33" s="29">
+        <f t="shared" ref="D33:E33" si="47">(B33/2)^2*10^-6</f>
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="D33" s="48">
+      <c r="E33" s="72">
+        <f t="shared" ref="E33:E42" si="48">B33*C33*10^-6</f>
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="F33" s="55">
         <v>1.3774999999999999</v>
       </c>
-      <c r="E33" s="48">
+      <c r="G33" s="55">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F33" s="18">
+      <c r="H33" s="18">
         <v>39.72</v>
       </c>
-      <c r="G33" s="56">
-        <f>G28</f>
+      <c r="I33" s="45">
+        <f>I28</f>
         <v>0.3</v>
       </c>
-      <c r="H33" s="42">
+      <c r="J33" s="67">
         <v>0.2</v>
       </c>
-      <c r="I33" s="54">
-        <f t="shared" ref="I33" si="32">0.5*B33*10^-3</f>
+      <c r="K33" s="33">
+        <f t="shared" ref="K33" si="49">0.5*B33*10^-3</f>
         <v>1.5E-3</v>
       </c>
-      <c r="J33" s="21">
+      <c r="L33" s="21">
         <f t="shared" si="0"/>
         <v>5.0352467270896274E-3</v>
       </c>
-      <c r="K33" s="21">
-        <f>(($I$33/F33)^2+($H$33*$G$33/F33^2)^2)^(1/2)</f>
+      <c r="M33" s="21">
+        <f>(($K$33/H33)^2+($J$33*$I$33/H33^2)^2)^(1/2)</f>
         <v>5.3595428853931334E-5</v>
       </c>
-      <c r="L33" s="68">
-        <f>(J33+J34+J35+J36+J37)/5</f>
+      <c r="N33" s="41">
+        <f>(L33+L34+L35+L36+L37)/5</f>
         <v>5.0126521561671706E-3</v>
       </c>
-      <c r="M33" s="27">
-        <f t="shared" ref="M33" si="33">(SUMSQ(K33:K37)/25)^(1/2)</f>
+      <c r="O33" s="28">
+        <f t="shared" ref="O33" si="50">(SUMSQ(M33:M37)/25)^(1/2)</f>
         <v>2.3808205742172807E-5</v>
       </c>
-      <c r="N33" s="27">
-        <f t="shared" ref="N33" si="34">_xlfn.STDEV.S(J33:J37)</f>
+      <c r="P33" s="28">
+        <f t="shared" ref="P33" si="51">_xlfn.STDEV.S(L33:L37)</f>
         <v>2.7520590084576011E-5</v>
       </c>
-      <c r="O33" s="54">
+      <c r="Q33" s="33">
         <v>1.1476</v>
       </c>
-      <c r="P33" s="54">
+      <c r="R33" s="33">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="Q33" s="27">
-        <f t="shared" ref="Q33" si="35">L33/(D33-O33)*10^(-3)</f>
+      <c r="S33" s="28">
+        <f t="shared" ref="S33" si="52">N33/(F33-Q33)*10^(-3)</f>
         <v>2.1803619644050332E-5</v>
       </c>
-      <c r="R33" s="32">
-        <f>((N33/(D33-O33))^2+(L33*E33/(D33-O33)^2)^2+(L33*P33/(D33-O33)^2)^2)^(1/2)*10^-3</f>
+      <c r="T33" s="72">
+        <f>((P33/(F33-Q33))^2+(N33*G33/(F33-Q33)^2)^2+(N33*R33/(F33-Q33)^2)^2)^(1/2)*10^-3</f>
         <v>2.6628069696087493E-7</v>
       </c>
-      <c r="S33" s="36"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="38"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="9">
+      <c r="U33" s="28">
+        <f t="shared" ref="U33:U42" si="53">1+2.1*0.5*B33/$D$44</f>
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="V33" s="84"/>
+      <c r="W33" s="61"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="63"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="9">
         <v>40.07</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="22">
+      <c r="I34" s="46"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="22">
         <f t="shared" si="0"/>
         <v>4.9912652857499375E-3</v>
       </c>
-      <c r="K34" s="22">
-        <f t="shared" ref="K34:K37" si="36">(($I$33/F34)^2+($H$33*$G$33/F34^2)^2)^(1/2)</f>
+      <c r="M34" s="22">
+        <f t="shared" ref="M34:M37" si="54">(($K$33/H34)^2+($J$33*$I$33/H34^2)^2)^(1/2)</f>
         <v>5.2894141272690634E-5</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="27"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="32"/>
       <c r="R34" s="32"/>
-      <c r="S34" s="36"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="38"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="9">
+      <c r="S34" s="28"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="61"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="63"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="9">
         <v>39.92</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="22">
+      <c r="I35" s="46"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="22">
         <f t="shared" si="0"/>
         <v>5.0100200400801601E-3</v>
       </c>
-      <c r="K35" s="22">
-        <f t="shared" si="36"/>
+      <c r="M35" s="22">
+        <f t="shared" si="54"/>
         <v>5.3192559591570681E-5</v>
       </c>
-      <c r="L35" s="30"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="27"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="32"/>
       <c r="R35" s="32"/>
-      <c r="S35" s="36"/>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="9">
+      <c r="S35" s="28"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="61"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="63"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="9">
         <v>40.15</v>
       </c>
-      <c r="G36" s="57"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="22">
+      <c r="I36" s="46"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="22">
         <f t="shared" si="0"/>
         <v>4.9813200498132013E-3</v>
       </c>
-      <c r="K36" s="22">
-        <f t="shared" si="36"/>
+      <c r="M36" s="22">
+        <f t="shared" si="54"/>
         <v>5.2736274862302553E-5</v>
       </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="27"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="32"/>
       <c r="R36" s="32"/>
-      <c r="S36" s="36"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="38"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="17">
+      <c r="S36" s="28"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="61"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="63"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="17">
         <v>39.64</v>
       </c>
-      <c r="G37" s="58"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="23">
+      <c r="I37" s="47"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="23">
         <f t="shared" si="0"/>
         <v>5.0454086781029266E-3</v>
       </c>
-      <c r="K37" s="23">
-        <f t="shared" si="36"/>
+      <c r="M37" s="23">
+        <f t="shared" si="54"/>
         <v>5.3758192485178142E-5</v>
       </c>
-      <c r="L37" s="69"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="36"/>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="38">
+      <c r="N37" s="43"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="86"/>
+      <c r="W37" s="61"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="63">
         <v>2</v>
       </c>
-      <c r="C38" s="31">
-        <f t="shared" ref="C38" si="37">(B38/2)^2*10^-6</f>
+      <c r="C38" s="89">
+        <f t="shared" ref="C38" si="55">B38*0.01</f>
+        <v>0.02</v>
+      </c>
+      <c r="D38" s="29">
+        <f t="shared" ref="D38:E38" si="56">(B38/2)^2*10^-6</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D38" s="48">
-        <f>D33</f>
+      <c r="E38" s="72">
+        <f t="shared" ref="E38:E42" si="57">B38*C38*10^-6</f>
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="F38" s="55">
+        <f>F33</f>
         <v>1.3774999999999999</v>
       </c>
-      <c r="E38" s="48">
-        <f>E33</f>
+      <c r="G38" s="55">
+        <f>G33</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F38" s="18">
+      <c r="H38" s="18">
         <v>74.900000000000006</v>
       </c>
-      <c r="G38" s="56">
-        <f>G33</f>
+      <c r="I38" s="45">
+        <f>I33</f>
         <v>0.3</v>
       </c>
-      <c r="H38" s="42">
+      <c r="J38" s="67">
         <v>0.2</v>
       </c>
-      <c r="I38" s="54">
-        <f t="shared" ref="I38" si="38">0.5*B38*10^-3</f>
+      <c r="K38" s="33">
+        <f t="shared" ref="K38" si="58">0.5*B38*10^-3</f>
         <v>1E-3</v>
       </c>
-      <c r="J38" s="21">
+      <c r="L38" s="21">
         <f t="shared" si="0"/>
         <v>2.6702269692923898E-3</v>
       </c>
-      <c r="K38" s="21">
-        <f>(($I$38/F38)^2+($H$38*$G$38/F38^2)^2)^(1/2)</f>
+      <c r="M38" s="21">
+        <f>(($K$38/H38)^2+($J$38*$I$38/H38^2)^2)^(1/2)</f>
         <v>1.7106706942119941E-5</v>
       </c>
-      <c r="L38" s="68">
-        <f>(J38+J39+J40+J41+J42)/5</f>
+      <c r="N38" s="41">
+        <f>(L38+L39+L40+L41+L42)/5</f>
         <v>2.654035384232682E-3</v>
       </c>
-      <c r="M38" s="27">
-        <f t="shared" ref="M38" si="39">(SUMSQ(K38:K42)/25)^(1/2)</f>
+      <c r="O38" s="28">
+        <f t="shared" ref="O38" si="59">(SUMSQ(M38:M42)/25)^(1/2)</f>
         <v>7.5910153311779477E-6</v>
       </c>
-      <c r="N38" s="26">
-        <f t="shared" ref="N38" si="40">_xlfn.STDEV.S(J38:J42)</f>
+      <c r="P38" s="36">
+        <f t="shared" ref="P38" si="60">_xlfn.STDEV.S(L38:L42)</f>
         <v>6.3404518771783403E-5</v>
       </c>
-      <c r="O38" s="54">
-        <f>O33</f>
+      <c r="Q38" s="33">
+        <f>Q33</f>
         <v>1.1476</v>
       </c>
-      <c r="P38" s="54">
-        <f>P33</f>
+      <c r="R38" s="33">
+        <f>R33</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="Q38" s="27">
-        <f t="shared" ref="Q38" si="41">L38/(D38-O38)*10^(-3)</f>
+      <c r="S38" s="28">
+        <f t="shared" ref="S38" si="61">N38/(F38-Q38)*10^(-3)</f>
         <v>1.154430354168196E-5</v>
       </c>
-      <c r="R38" s="32">
-        <f>((M38/(D38-O38))^2+(L38*E38/(D38-O38)^2)^2+(L38*P38/(D38-O38)^2)^2)^(1/2)*10^-3</f>
+      <c r="T38" s="72">
+        <f>((O38/(F38-Q38))^2+(N38*G38/(F38-Q38)^2)^2+(N38*R38/(F38-Q38)^2)^2)^(1/2)*10^-3</f>
         <v>1.3019378482831071E-7</v>
       </c>
-      <c r="S38" s="36"/>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="38"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="9">
+      <c r="U38" s="28">
+        <f t="shared" ref="U38:U42" si="62">1+2.1*0.5*B38/$D$44</f>
+        <v>1.056</v>
+      </c>
+      <c r="V38" s="84"/>
+      <c r="W38" s="61"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="63"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="9">
         <v>78.34</v>
       </c>
-      <c r="G39" s="57"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="22">
+      <c r="I39" s="46"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="22">
         <f t="shared" si="0"/>
         <v>2.5529742149604288E-3</v>
       </c>
-      <c r="K39" s="22">
-        <f t="shared" ref="K39:K42" si="42">(($I$38/F39)^2+($H$38*$G$38/F39^2)^2)^(1/2)</f>
+      <c r="M39" s="22">
+        <f t="shared" ref="M39:M42" si="63">(($K$38/H39)^2+($J$38*$I$38/H39^2)^2)^(1/2)</f>
         <v>1.6078625529446875E-5</v>
       </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="27"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="32"/>
       <c r="R39" s="32"/>
-      <c r="S39" s="36"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="38"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="9">
+      <c r="S39" s="28"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="61"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="63"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="9">
         <v>75.86</v>
       </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="22">
+      <c r="I40" s="46"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="22">
         <f t="shared" si="0"/>
         <v>2.6364355391510679E-3</v>
       </c>
-      <c r="K40" s="22">
-        <f t="shared" si="42"/>
+      <c r="M40" s="22">
+        <f t="shared" si="63"/>
         <v>1.6806999019068159E-5</v>
       </c>
-      <c r="L40" s="30"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="27"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
-      <c r="S40" s="36"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="38"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="9">
+      <c r="S40" s="28"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="61"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="63"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="9">
         <v>73.8</v>
       </c>
-      <c r="G41" s="57"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="22">
+      <c r="I41" s="46"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="22">
         <f t="shared" si="0"/>
         <v>2.7100271002710031E-3</v>
       </c>
-      <c r="K41" s="22">
-        <f t="shared" si="42"/>
+      <c r="M41" s="22">
+        <f t="shared" si="63"/>
         <v>1.7463292566734726E-5</v>
       </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="27"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="32"/>
       <c r="R41" s="32"/>
-      <c r="S41" s="36"/>
-    </row>
-    <row r="42" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="39"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="11">
+      <c r="S41" s="28"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="61"/>
+    </row>
+    <row r="42" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="64"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="11">
         <v>74.06</v>
       </c>
-      <c r="G42" s="59"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="24">
+      <c r="I42" s="48"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="24">
         <f t="shared" si="0"/>
         <v>2.7005130974885228E-3</v>
       </c>
-      <c r="K42" s="24">
-        <f t="shared" si="42"/>
+      <c r="M42" s="24">
+        <f t="shared" si="63"/>
         <v>1.7377698907979166E-5</v>
       </c>
-      <c r="L42" s="70"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="37"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="87"/>
+      <c r="W42" s="62"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>37.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="138">
+    <mergeCell ref="U3:U7"/>
+    <mergeCell ref="U8:U12"/>
+    <mergeCell ref="U13:U17"/>
+    <mergeCell ref="U18:U22"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="U28:U32"/>
+    <mergeCell ref="U33:U37"/>
+    <mergeCell ref="U38:U42"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C17"/>
@@ -2589,47 +2966,112 @@
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="C38:C42"/>
-    <mergeCell ref="N3:N7"/>
-    <mergeCell ref="M8:M12"/>
-    <mergeCell ref="N8:N12"/>
-    <mergeCell ref="M13:M17"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="M33:M37"/>
-    <mergeCell ref="N33:N37"/>
-    <mergeCell ref="M38:M42"/>
-    <mergeCell ref="N38:N42"/>
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="M28:M32"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="L28:L32"/>
-    <mergeCell ref="L33:L37"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="S28:S32"/>
+    <mergeCell ref="S33:S37"/>
+    <mergeCell ref="S38:S42"/>
+    <mergeCell ref="T3:T7"/>
+    <mergeCell ref="T8:T12"/>
+    <mergeCell ref="T13:T17"/>
+    <mergeCell ref="T18:T22"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="T28:T32"/>
+    <mergeCell ref="T33:T37"/>
+    <mergeCell ref="T38:T42"/>
+    <mergeCell ref="S3:S7"/>
+    <mergeCell ref="S8:S12"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="S18:S22"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="W3:W7"/>
+    <mergeCell ref="W8:W42"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="G23:G27"/>
     <mergeCell ref="G28:G32"/>
     <mergeCell ref="G33:G37"/>
     <mergeCell ref="G38:G42"/>
+    <mergeCell ref="Q3:Q7"/>
+    <mergeCell ref="R3:R7"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="R8:R12"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="Q33:Q37"/>
+    <mergeCell ref="R33:R37"/>
+    <mergeCell ref="Q38:Q42"/>
+    <mergeCell ref="R38:R42"/>
+    <mergeCell ref="Q18:Q22"/>
+    <mergeCell ref="R18:R22"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="Q28:Q32"/>
+    <mergeCell ref="R28:R32"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="N33:N37"/>
+    <mergeCell ref="N38:N42"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="I33:I37"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="K28:K32"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="I8:I12"/>
     <mergeCell ref="I13:I17"/>
     <mergeCell ref="I18:I22"/>
     <mergeCell ref="I23:I27"/>
-    <mergeCell ref="I28:I32"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="I33:I37"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D38:D42"/>
     <mergeCell ref="P3:P7"/>
     <mergeCell ref="O8:O12"/>
     <mergeCell ref="P8:P12"/>
@@ -2645,56 +3087,7 @@
     <mergeCell ref="P23:P27"/>
     <mergeCell ref="O28:O32"/>
     <mergeCell ref="P28:P32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="S3:S7"/>
-    <mergeCell ref="S8:S42"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H33:H37"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="Q28:Q32"/>
-    <mergeCell ref="Q33:Q37"/>
-    <mergeCell ref="Q38:Q42"/>
-    <mergeCell ref="R3:R7"/>
-    <mergeCell ref="R8:R12"/>
-    <mergeCell ref="R13:R17"/>
-    <mergeCell ref="R18:R22"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="R28:R32"/>
-    <mergeCell ref="R33:R37"/>
-    <mergeCell ref="R38:R42"/>
-    <mergeCell ref="Q3:Q7"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="Q18:Q22"/>
-    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="N3:N7"/>
   </mergeCells>
   <pageMargins left="0" right="0.39370078740157483" top="1.3779527559055118" bottom="0" header="0" footer="0"/>
   <pageSetup scale="49" orientation="landscape" r:id="rId1"/>
@@ -2739,10 +3132,10 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="75">
         <v>4</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="77">
         <f>273.15+23.9</f>
         <v>297.04999999999995</v>
       </c>
@@ -2757,8 +3150,8 @@
       <c r="D4" s="1">
         <v>99</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
@@ -2770,8 +3163,8 @@
       <c r="D5" s="1">
         <v>226</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="78"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
@@ -2783,8 +3176,8 @@
       <c r="D6" s="1">
         <v>357</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
@@ -2796,8 +3189,8 @@
       <c r="D7" s="1">
         <v>485</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
@@ -2809,8 +3202,8 @@
       <c r="D8" s="1">
         <v>616</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
@@ -2822,8 +3215,8 @@
       <c r="D9" s="2">
         <v>744</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
+++ b/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -614,33 +614,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -684,150 +662,163 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -843,41 +834,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1199,8 +1162,8 @@
   </sheetPr>
   <dimension ref="B1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,8 +1180,7 @@
     <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.85546875" customWidth="1"/>
+    <col min="21" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1227,13 +1189,13 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1292,37 +1254,37 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="69">
+      <c r="B3" s="51">
         <v>9</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="31">
         <f>B3*0.01</f>
         <v>0.09</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="28">
         <f>(B3/2)^2*10^-6</f>
         <v>2.0249999999999998E-5</v>
       </c>
-      <c r="E3" s="92">
+      <c r="E3" s="35">
         <f>B3*C3*10^-6</f>
         <v>8.0999999999999987E-7</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="53">
         <v>1.3554999999999999</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="53">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H3" s="16">
         <v>6.14</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="77">
         <v>0.3</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="47">
         <v>0.2</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="73">
         <f>0.5*B3*10^-3</f>
         <v>4.5000000000000005E-3</v>
       </c>
@@ -1334,55 +1296,58 @@
         <f>(($K$3/H3)^2+($J$3*$I$3/H3^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="58">
         <f>(L3+L4+L5+L6+L7)/5</f>
         <v>3.3077869485049816E-2</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="58">
         <f>(SUMSQ(M3:M7)/25)^(1/2)</f>
         <v>8.0798706393487478E-4</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="58">
         <f>_xlfn.STDEV.S(L3:L7)</f>
         <v>1.1538275016650245E-3</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="58">
         <v>1.1482000000000001</v>
       </c>
-      <c r="R3" s="31">
+      <c r="R3" s="58">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S3" s="74">
+      <c r="S3" s="41">
         <f>N3/(F3-Q3)*10^(-3)</f>
         <v>1.59565217004582E-4</v>
       </c>
-      <c r="T3" s="71">
+      <c r="T3" s="39">
         <f>((P3/(F3-Q3))^2+(N3*G3/(F3-Q3)^2)^2+(N3*R3/(F3-Q3)^2)^2)^(1/2)*10^-3</f>
         <v>5.5813928390751162E-6</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="85">
         <f>1+2.1*0.5*B3/$D$44</f>
         <v>1.252</v>
       </c>
-      <c r="V3" s="80"/>
-      <c r="W3" s="60">
+      <c r="V3" s="85">
+        <f>2.1*C3*0.5/$D$44</f>
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="W3" s="42">
         <f>273.15+21.5</f>
         <v>294.64999999999998</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="63"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="9">
         <v>6.14</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="13">
         <f t="shared" ref="L4:L42" si="0">$J$3/H4</f>
         <v>3.2573289902280131E-2</v>
@@ -1391,30 +1356,30 @@
         <f t="shared" ref="M4:M7" si="1">(($K$3/H4)^2+($J$3*$I$3/H4^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="61"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="43"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="63"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="9">
         <v>5.7</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="50"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="13">
         <f t="shared" si="0"/>
         <v>3.5087719298245612E-2</v>
@@ -1423,30 +1388,30 @@
         <f t="shared" si="1"/>
         <v>2.0083951542744852E-3</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="61"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="43"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="9">
         <v>6.21</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="50"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="74"/>
       <c r="L6" s="13">
         <f t="shared" si="0"/>
         <v>3.2206119162640906E-2</v>
@@ -1455,30 +1420,30 @@
         <f t="shared" si="1"/>
         <v>1.716325325710239E-3</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="61"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="43"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="17">
         <v>6.07</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="51"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="14">
         <f t="shared" si="0"/>
         <v>3.2948929159802305E-2</v>
@@ -1487,31 +1452,31 @@
         <f t="shared" si="1"/>
         <v>1.7892578702547329E-3</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="61"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="43"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="63">
+      <c r="B8" s="45">
         <v>8</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C8" s="32">
         <f t="shared" ref="C8" si="2">B8*0.01</f>
         <v>0.08</v>
       </c>
-      <c r="D8" s="28">
-        <f t="shared" ref="D8:E8" si="3">(B8/2)^2*10^-6</f>
+      <c r="D8" s="29">
+        <f t="shared" ref="D8" si="3">(B8/2)^2*10^-6</f>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="E8" s="29">
-        <f t="shared" ref="E8:E42" si="4">B8*C8*10^-6</f>
+      <c r="E8" s="36">
+        <f t="shared" ref="E8" si="4">B8*C8*10^-6</f>
         <v>6.4000000000000001E-7</v>
       </c>
       <c r="F8" s="55">
@@ -1523,14 +1488,14 @@
       <c r="H8" s="18">
         <v>7.86</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="69">
         <f>I3</f>
         <v>0.3</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="48">
         <v>0.2</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="76">
         <f>0.5*B8*10^-3</f>
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1542,184 +1507,187 @@
         <f>(($K$8/H8)^2+($J$8*$I$8/H8^2)^2)^(1/2)</f>
         <v>1.0964504915178231E-3</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="61">
         <f>(L8+L9+L10+L11+L12)/5</f>
         <v>2.6029305829267206E-2</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="61">
         <f t="shared" ref="O8" si="5">(SUMSQ(M8:M12)/25)^(1/2)</f>
         <v>5.1104479056882763E-4</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="61">
         <f t="shared" ref="P8" si="6">_xlfn.STDEV.S(L8:L12)</f>
         <v>5.0949814262065871E-4</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="61">
         <v>1.1476</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="61">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S8" s="36">
+      <c r="S8" s="33">
         <f t="shared" ref="S8" si="7">N8/(F8-Q8)*10^(-3)</f>
         <v>1.2112287496169007E-4</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="36">
         <f>((P8/(F8-Q8))^2+(N8*G8/(F8-Q8)^2)^2+(N8*R8/(F8-Q8)^2)^2)^(1/2)*10^-3</f>
         <v>2.3902111605678812E-6</v>
       </c>
-      <c r="U8" s="28">
-        <f t="shared" ref="U8:U42" si="8">1+2.1*0.5*B8/$D$44</f>
+      <c r="U8" s="86">
+        <f t="shared" ref="U8" si="8">1+2.1*0.5*B8/$D$44</f>
         <v>1.224</v>
       </c>
-      <c r="V8" s="81"/>
-      <c r="W8" s="61">
+      <c r="V8" s="86">
+        <f t="shared" ref="V8:V42" si="9">2.1*C8*0.5/$D$44</f>
+        <v>2.2400000000000002E-3</v>
+      </c>
+      <c r="W8" s="43">
         <f>W3+0.5</f>
         <v>295.14999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="63"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="9">
         <v>7.8</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="50"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="13">
         <f t="shared" si="0"/>
         <v>2.5641025641025644E-2</v>
       </c>
       <c r="M9" s="13">
-        <f t="shared" ref="M9:M12" si="9">(($K$8/H9)^2+($J$8*$I$8/H9^2)^2)^(1/2)</f>
+        <f t="shared" ref="M9:M12" si="10">(($K$8/H9)^2+($J$8*$I$8/H9^2)^2)^(1/2)</f>
         <v>1.1115584065960846E-3</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="61"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="43"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="63"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="9">
         <v>7.7</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="50"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="74"/>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
         <v>2.5974025974025976E-2</v>
       </c>
       <c r="M10" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1375207635695094E-3</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="61"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="43"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="63"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="9">
         <v>7.56</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="50"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="74"/>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>2.6455026455026457E-2</v>
       </c>
       <c r="M11" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1755989736153413E-3</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="61"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="43"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="63"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="17">
         <v>7.51</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="51"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="75"/>
       <c r="L12" s="14">
         <f t="shared" si="0"/>
         <v>2.6631158455392812E-2</v>
       </c>
       <c r="M12" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1897130928283149E-3</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="61"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="43"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="70">
+      <c r="B13" s="52">
         <v>7.1440000000000001</v>
       </c>
-      <c r="C13" s="36">
-        <f t="shared" ref="C13" si="10">B13*0.01</f>
+      <c r="C13" s="33">
+        <f t="shared" ref="C13" si="11">B13*0.01</f>
         <v>7.1440000000000003E-2</v>
       </c>
-      <c r="D13" s="28">
-        <f t="shared" ref="D13:E28" si="11">(B13/2)^2*10^-6</f>
+      <c r="D13" s="29">
+        <f t="shared" ref="D13" si="12">(B13/2)^2*10^-6</f>
         <v>1.2759184000000001E-5</v>
       </c>
-      <c r="E13" s="29">
-        <f t="shared" ref="E13:E42" si="12">B13*C13*10^-6</f>
+      <c r="E13" s="36">
+        <f t="shared" ref="E13" si="13">B13*C13*10^-6</f>
         <v>5.1036735999999999E-7</v>
       </c>
       <c r="F13" s="55">
@@ -1731,15 +1699,15 @@
       <c r="H13" s="18">
         <v>8.42</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="69">
         <f>I8</f>
         <v>0.3</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="48">
         <v>0.2</v>
       </c>
-      <c r="K13" s="52">
-        <f t="shared" ref="K13" si="13">0.5*B13*10^-3</f>
+      <c r="K13" s="76">
+        <f t="shared" ref="K13" si="14">0.5*B13*10^-3</f>
         <v>3.5720000000000001E-3</v>
       </c>
       <c r="L13" s="12">
@@ -1750,181 +1718,184 @@
         <f>(($K$13/H13)^2+($J$13*$I$13/H13^2)^2)^(1/2)</f>
         <v>9.4667951449123387E-4</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="61">
         <f>(L13+L14+L15+L16+L17)/5</f>
         <v>2.3640955470984416E-2</v>
       </c>
-      <c r="O13" s="32">
-        <f t="shared" ref="O13" si="14">(SUMSQ(M13:M17)/25)^(1/2)</f>
+      <c r="O13" s="59">
+        <f t="shared" ref="O13" si="15">(SUMSQ(M13:M17)/25)^(1/2)</f>
         <v>4.2004945214195227E-4</v>
       </c>
-      <c r="P13" s="32">
-        <f t="shared" ref="P13" si="15">_xlfn.STDEV.S(L13:L17)</f>
+      <c r="P13" s="59">
+        <f t="shared" ref="P13" si="16">_xlfn.STDEV.S(L13:L17)</f>
         <v>4.1924762935458839E-4</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="61">
         <v>1.1476</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="61">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S13" s="36">
-        <f t="shared" ref="S13" si="16">N13/(F13-Q13)*10^(-3)</f>
+      <c r="S13" s="33">
+        <f t="shared" ref="S13" si="17">N13/(F13-Q13)*10^(-3)</f>
         <v>1.0283147225308576E-4</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="36">
         <f>((P13/(F13-Q13))^2+(N13*G13/(F13-Q13)^2)^2+(N13*R13/(F13-Q13)^2)^2)^(1/2)*10^-3</f>
         <v>2.1410198964813952E-6</v>
       </c>
-      <c r="U13" s="28">
-        <f t="shared" ref="U13:U42" si="17">1+2.1*0.5*B13/$D$44</f>
+      <c r="U13" s="86">
+        <f t="shared" ref="U13" si="18">1+2.1*0.5*B13/$D$44</f>
         <v>1.200032</v>
       </c>
-      <c r="V13" s="81"/>
-      <c r="W13" s="61"/>
+      <c r="V13" s="86">
+        <f t="shared" ref="V13:V42" si="19">2.1*C13*0.5/$D$44</f>
+        <v>2.0003200000000003E-3</v>
+      </c>
+      <c r="W13" s="43"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="70"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
       <c r="H14" s="9">
         <v>8.6199999999999992</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="50"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="74"/>
       <c r="L14" s="13">
         <f t="shared" si="0"/>
         <v>2.3201856148491882E-2</v>
       </c>
       <c r="M14" s="13">
-        <f t="shared" ref="M14:M17" si="18">(($K$13/H14)^2+($J$13*$I$13/H14^2)^2)^(1/2)</f>
+        <f t="shared" ref="M14:M17" si="20">(($K$13/H14)^2+($J$13*$I$13/H14^2)^2)^(1/2)</f>
         <v>9.0760886409929718E-4</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="61"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="43"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="70"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="9">
         <v>8.5399999999999991</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="50"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="74"/>
       <c r="L15" s="13">
         <f t="shared" si="0"/>
         <v>2.3419203747072605E-2</v>
       </c>
       <c r="M15" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.2291055402502582E-4</v>
       </c>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="61"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="43"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
       <c r="H16" s="9">
         <v>8.5</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="50"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="74"/>
       <c r="L16" s="13">
         <f t="shared" si="0"/>
         <v>2.3529411764705882E-2</v>
       </c>
       <c r="M16" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.3072263192061364E-4</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="61"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="43"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="17">
         <v>8.23</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="51"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="14">
         <f t="shared" si="0"/>
         <v>2.4301336573511544E-2</v>
       </c>
       <c r="M17" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.8644518067141844E-4</v>
       </c>
-      <c r="N17" s="34"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="61"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="43"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="63">
+      <c r="B18" s="45">
         <v>6</v>
       </c>
-      <c r="C18" s="89">
-        <f t="shared" ref="C18" si="19">B18*0.01</f>
+      <c r="C18" s="32">
+        <f t="shared" ref="C18" si="21">B18*0.01</f>
         <v>0.06</v>
       </c>
-      <c r="D18" s="28">
-        <f t="shared" ref="D18" si="20">(B18/2)^2*10^-6</f>
+      <c r="D18" s="29">
+        <f t="shared" ref="D18" si="22">(B18/2)^2*10^-6</f>
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="E18" s="29">
-        <f t="shared" ref="E18:E42" si="21">B18*C18*10^-6</f>
+      <c r="E18" s="36">
+        <f t="shared" ref="E18" si="23">B18*C18*10^-6</f>
         <v>3.5999999999999999E-7</v>
       </c>
       <c r="F18" s="55">
@@ -1936,15 +1907,15 @@
       <c r="H18" s="18">
         <v>11.62</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="69">
         <f>I13</f>
         <v>0.3</v>
       </c>
-      <c r="J18" s="66">
+      <c r="J18" s="48">
         <v>0.2</v>
       </c>
-      <c r="K18" s="52">
-        <f t="shared" ref="K18" si="22">0.5*B18*10^-3</f>
+      <c r="K18" s="76">
+        <f t="shared" ref="K18" si="24">0.5*B18*10^-3</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L18" s="12">
@@ -1955,181 +1926,184 @@
         <f>(($K$18/H18)^2+($J$18*$I$18/H18^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="63">
         <f>(L18+L19+L20+L21+L22)/5</f>
         <v>1.711072882678167E-2</v>
       </c>
-      <c r="O18" s="36">
-        <f t="shared" ref="O18" si="23">(SUMSQ(M18:M22)/25)^(1/2)</f>
+      <c r="O18" s="33">
+        <f t="shared" ref="O18" si="25">(SUMSQ(M18:M22)/25)^(1/2)</f>
         <v>2.2754630774580575E-4</v>
       </c>
-      <c r="P18" s="36">
-        <f t="shared" ref="P18" si="24">_xlfn.STDEV.S(L18:L22)</f>
+      <c r="P18" s="33">
+        <f t="shared" ref="P18" si="26">_xlfn.STDEV.S(L18:L22)</f>
         <v>2.0964670301082701E-4</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="61">
         <v>1.1476</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="61">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S18" s="36">
-        <f t="shared" ref="S18" si="25">N18/(F18-Q18)*10^(-3)</f>
+      <c r="S18" s="33">
+        <f t="shared" ref="S18" si="27">N18/(F18-Q18)*10^(-3)</f>
         <v>7.4426832652377855E-5</v>
       </c>
-      <c r="T18" s="29">
+      <c r="T18" s="36">
         <f>((O18/(F18-Q18))^2+(N18*G18/(F18-Q18)^2)^2+(N18*R18/(F18-Q18)^2)^2)^(1/2)*10^-3</f>
         <v>1.2801762190890571E-6</v>
       </c>
-      <c r="U18" s="28">
-        <f t="shared" ref="U18:U42" si="26">1+2.1*0.5*B18/$D$44</f>
+      <c r="U18" s="86">
+        <f t="shared" ref="U18" si="28">1+2.1*0.5*B18/$D$44</f>
         <v>1.1679999999999999</v>
       </c>
-      <c r="V18" s="81"/>
-      <c r="W18" s="61"/>
+      <c r="V18" s="86">
+        <f t="shared" ref="V18:V42" si="29">2.1*C18*0.5/$D$44</f>
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="W18" s="43"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="9">
         <v>11.62</v>
       </c>
-      <c r="I19" s="46"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="50"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="74"/>
       <c r="L19" s="13">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" ref="M19:M22" si="27">(($K$18/H19)^2+($J$18*$I$18/H19^2)^2)^(1/2)</f>
+        <f t="shared" ref="M19:M22" si="30">(($K$18/H19)^2+($J$18*$I$18/H19^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="61"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="43"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
       <c r="H20" s="9">
         <v>11.64</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="50"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="74"/>
       <c r="L20" s="13">
         <f t="shared" si="0"/>
         <v>1.7182130584192441E-2</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.1237840142188897E-4</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="61"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="43"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="63"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="9">
         <v>11.62</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="50"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="74"/>
       <c r="L21" s="13">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="61"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="43"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="63"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="17">
         <v>11.95</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="51"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="75"/>
       <c r="L22" s="14">
         <f t="shared" si="0"/>
         <v>1.6736401673640169E-2</v>
       </c>
       <c r="M22" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.8944778085674683E-4</v>
       </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="61"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="43"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="63">
+      <c r="B23" s="45">
         <v>5</v>
       </c>
-      <c r="C23" s="89">
-        <f t="shared" ref="C23" si="28">B23*0.01</f>
+      <c r="C23" s="32">
+        <f t="shared" ref="C23" si="31">B23*0.01</f>
         <v>0.05</v>
       </c>
-      <c r="D23" s="28">
-        <f t="shared" ref="D23" si="29">(B23/2)^2*10^-6</f>
+      <c r="D23" s="29">
+        <f t="shared" ref="D23" si="32">(B23/2)^2*10^-6</f>
         <v>6.2499999999999995E-6</v>
       </c>
-      <c r="E23" s="29">
-        <f t="shared" ref="E23:E42" si="30">B23*C23*10^-6</f>
+      <c r="E23" s="36">
+        <f t="shared" ref="E23" si="33">B23*C23*10^-6</f>
         <v>2.4999999999999999E-7</v>
       </c>
       <c r="F23" s="55">
@@ -2141,15 +2115,15 @@
       <c r="H23" s="18">
         <v>15.56</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="69">
         <f>I13</f>
         <v>0.3</v>
       </c>
-      <c r="J23" s="67">
+      <c r="J23" s="49">
         <v>0.2</v>
       </c>
-      <c r="K23" s="33">
-        <f t="shared" ref="K23" si="31">0.5*B23*10^-3</f>
+      <c r="K23" s="61">
+        <f t="shared" ref="K23" si="34">0.5*B23*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L23" s="12">
@@ -2160,181 +2134,184 @@
         <f>(($K$23/H23)^2+($J$23*$I$23/H23^2)^2)^(1/2)</f>
         <v>2.9534364435364433E-4</v>
       </c>
-      <c r="N23" s="39">
+      <c r="N23" s="64">
         <f>(L23+L24+L25+L26+L27)/5</f>
         <v>1.2816144235262594E-2</v>
       </c>
-      <c r="O23" s="36">
-        <f t="shared" ref="O23" si="32">(SUMSQ(M23:M27)/25)^(1/2)</f>
+      <c r="O23" s="33">
+        <f t="shared" ref="O23" si="35">(SUMSQ(M23:M27)/25)^(1/2)</f>
         <v>1.314809588282321E-4</v>
       </c>
-      <c r="P23" s="36">
-        <f t="shared" ref="P23" si="33">_xlfn.STDEV.S(L23:L27)</f>
+      <c r="P23" s="33">
+        <f t="shared" ref="P23" si="36">_xlfn.STDEV.S(L23:L27)</f>
         <v>1.8897275186015511E-4</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="Q23" s="61">
         <v>1.1476</v>
       </c>
-      <c r="R23" s="33">
+      <c r="R23" s="61">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S23" s="36">
-        <f t="shared" ref="S23" si="34">N23/(F23-Q23)*10^(-3)</f>
+      <c r="S23" s="33">
+        <f t="shared" ref="S23" si="37">N23/(F23-Q23)*10^(-3)</f>
         <v>5.5746603894139167E-5</v>
       </c>
-      <c r="T23" s="29">
+      <c r="T23" s="36">
         <f>((P23/(F23-Q23))^2+(N23*G23/(F23-Q23)^2)^2+(N23*R23/(F23-Q23)^2)^2)^(1/2)*10^-3</f>
         <v>1.022489217302807E-6</v>
       </c>
-      <c r="U23" s="28">
-        <f t="shared" ref="U23:U42" si="35">1+2.1*0.5*B23/$D$44</f>
+      <c r="U23" s="86">
+        <f t="shared" ref="U23" si="38">1+2.1*0.5*B23/$D$44</f>
         <v>1.1400000000000001</v>
       </c>
-      <c r="V23" s="81"/>
-      <c r="W23" s="61"/>
+      <c r="V23" s="86">
+        <f t="shared" ref="V23:V42" si="39">2.1*C23*0.5/$D$44</f>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="W23" s="43"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="63"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="9">
         <v>15.24</v>
       </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="32"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="59"/>
       <c r="L24" s="13">
         <f t="shared" si="0"/>
         <v>1.3123359580052493E-2</v>
       </c>
       <c r="M24" s="13">
-        <f t="shared" ref="M24:M27" si="36">(($K$23/H24)^2+($J$23*$I$23/H24^2)^2)^(1/2)</f>
+        <f t="shared" ref="M24:M27" si="40">(($K$23/H24)^2+($J$23*$I$23/H24^2)^2)^(1/2)</f>
         <v>3.0601659121382729E-4</v>
       </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="61"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="43"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="9">
         <v>15.8</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="32"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="13">
         <f t="shared" si="0"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M25" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2.8775388602423501E-4</v>
       </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="61"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="43"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="9">
         <v>15.66</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="32"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="13">
         <f t="shared" si="0"/>
         <v>1.277139208173691E-2</v>
       </c>
       <c r="M26" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2.9213956412965739E-4</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="61"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="43"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="63"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="17">
         <v>15.78</v>
       </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="34"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="60"/>
       <c r="L27" s="14">
         <f t="shared" si="0"/>
         <v>1.2674271229404311E-2</v>
       </c>
       <c r="M27" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2.8837339882458726E-4</v>
       </c>
-      <c r="N27" s="40"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="61"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="43"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="63">
+      <c r="B28" s="45">
         <v>4</v>
       </c>
-      <c r="C28" s="89">
-        <f t="shared" ref="C28" si="37">B28*0.01</f>
+      <c r="C28" s="32">
+        <f t="shared" ref="C28" si="41">B28*0.01</f>
         <v>0.04</v>
       </c>
-      <c r="D28" s="28">
-        <f t="shared" ref="D28" si="38">(B28/2)^2*10^-6</f>
+      <c r="D28" s="29">
+        <f t="shared" ref="D28" si="42">(B28/2)^2*10^-6</f>
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="E28" s="72">
-        <f t="shared" ref="E28:E42" si="39">B28*C28*10^-6</f>
+      <c r="E28" s="37">
+        <f t="shared" ref="E28" si="43">B28*C28*10^-6</f>
         <v>1.6E-7</v>
       </c>
       <c r="F28" s="55">
@@ -2346,15 +2323,15 @@
       <c r="H28" s="18">
         <v>23.43</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="69">
         <f>I13</f>
         <v>0.3</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="49">
         <v>0.2</v>
       </c>
-      <c r="K28" s="33">
-        <f t="shared" ref="K28" si="40">0.5*B28*10^-3</f>
+      <c r="K28" s="61">
+        <f t="shared" ref="K28" si="44">0.5*B28*10^-3</f>
         <v>2E-3</v>
       </c>
       <c r="L28" s="21">
@@ -2365,181 +2342,184 @@
         <f>(($K$28/H28)^2+($J$28*$I$28/H28^2)^2)^(1/2)</f>
         <v>1.3868016543122825E-4</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="63">
         <f>(L28+L29+L30+L31+L32)/5</f>
         <v>8.3600294043818212E-3</v>
       </c>
-      <c r="O28" s="36">
-        <f t="shared" ref="O28" si="41">(SUMSQ(M28:M32)/25)^(1/2)</f>
+      <c r="O28" s="33">
+        <f t="shared" ref="O28" si="45">(SUMSQ(M28:M32)/25)^(1/2)</f>
         <v>5.9979431293701365E-5</v>
       </c>
-      <c r="P28" s="36">
-        <f t="shared" ref="P28" si="42">_xlfn.STDEV.S(L28:L32)</f>
+      <c r="P28" s="33">
+        <f t="shared" ref="P28" si="46">_xlfn.STDEV.S(L28:L32)</f>
         <v>9.8921847583569231E-5</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="Q28" s="61">
         <v>1.1476</v>
       </c>
-      <c r="R28" s="33">
+      <c r="R28" s="61">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S28" s="36">
-        <f t="shared" ref="S28" si="43">N28/(F28-Q28)*10^(-3)</f>
+      <c r="S28" s="33">
+        <f t="shared" ref="S28" si="47">N28/(F28-Q28)*10^(-3)</f>
         <v>3.6363764264383737E-5</v>
       </c>
-      <c r="T28" s="29">
+      <c r="T28" s="36">
         <f>((P28/(F28-Q28))^2+(N28*G28/(F28-Q28)^2)^2+(N28*R28/(F28-Q28)^2)^2)^(1/2)*10^-3</f>
         <v>5.8524222723986226E-7</v>
       </c>
-      <c r="U28" s="28">
-        <f t="shared" ref="U28:U42" si="44">1+2.1*0.5*B28/$D$44</f>
+      <c r="U28" s="86">
+        <f t="shared" ref="U28" si="48">1+2.1*0.5*B28/$D$44</f>
         <v>1.1120000000000001</v>
       </c>
-      <c r="V28" s="81"/>
-      <c r="W28" s="61"/>
+      <c r="V28" s="86">
+        <f t="shared" ref="V28:V42" si="49">2.1*C28*0.5/$D$44</f>
+        <v>1.1200000000000001E-3</v>
+      </c>
+      <c r="W28" s="43"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="63"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="9">
         <v>24.06</v>
       </c>
-      <c r="I29" s="46"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="32"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="59"/>
       <c r="L29" s="22">
         <f t="shared" si="0"/>
         <v>8.3125519534497094E-3</v>
       </c>
       <c r="M29" s="22">
-        <f t="shared" ref="M29:M32" si="45">(($K$28/H29)^2+($J$28*$I$28/H29^2)^2)^(1/2)</f>
+        <f t="shared" ref="M29:M32" si="50">(($K$28/H29)^2+($J$28*$I$28/H29^2)^2)^(1/2)</f>
         <v>1.3286351752914206E-4</v>
       </c>
-      <c r="N29" s="38"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="61"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="43"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="63"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="9">
         <v>24.01</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="32"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="59"/>
       <c r="L30" s="22">
         <f t="shared" si="0"/>
         <v>8.3298625572678052E-3</v>
       </c>
       <c r="M30" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1.333090011901867E-4</v>
       </c>
-      <c r="N30" s="38"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="61"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="43"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="63"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
       <c r="H31" s="9">
         <v>24.09</v>
       </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="32"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="59"/>
       <c r="L31" s="22">
         <f t="shared" si="0"/>
         <v>8.3022000830220016E-3</v>
       </c>
       <c r="M31" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1.3259751565960446E-4</v>
       </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="61"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="43"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="63"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="17">
         <v>24.04</v>
       </c>
-      <c r="I32" s="47"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="34"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="60"/>
       <c r="L32" s="23">
         <f t="shared" si="0"/>
         <v>8.3194675540765404E-3</v>
       </c>
       <c r="M32" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1.3304138801975253E-4</v>
       </c>
-      <c r="N32" s="38"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="83"/>
-      <c r="W32" s="61"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="43"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="63">
+      <c r="B33" s="45">
         <v>3</v>
       </c>
-      <c r="C33" s="89">
-        <f t="shared" ref="C33" si="46">B33*0.01</f>
+      <c r="C33" s="32">
+        <f t="shared" ref="C33" si="51">B33*0.01</f>
         <v>0.03</v>
       </c>
-      <c r="D33" s="29">
-        <f t="shared" ref="D33:E33" si="47">(B33/2)^2*10^-6</f>
+      <c r="D33" s="36">
+        <f t="shared" ref="D33" si="52">(B33/2)^2*10^-6</f>
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="E33" s="72">
-        <f t="shared" ref="E33:E42" si="48">B33*C33*10^-6</f>
+      <c r="E33" s="37">
+        <f t="shared" ref="E33" si="53">B33*C33*10^-6</f>
         <v>8.9999999999999999E-8</v>
       </c>
       <c r="F33" s="55">
@@ -2551,15 +2531,15 @@
       <c r="H33" s="18">
         <v>39.72</v>
       </c>
-      <c r="I33" s="45">
+      <c r="I33" s="69">
         <f>I28</f>
         <v>0.3</v>
       </c>
-      <c r="J33" s="67">
+      <c r="J33" s="49">
         <v>0.2</v>
       </c>
-      <c r="K33" s="33">
-        <f t="shared" ref="K33" si="49">0.5*B33*10^-3</f>
+      <c r="K33" s="61">
+        <f t="shared" ref="K33" si="54">0.5*B33*10^-3</f>
         <v>1.5E-3</v>
       </c>
       <c r="L33" s="21">
@@ -2570,181 +2550,184 @@
         <f>(($K$33/H33)^2+($J$33*$I$33/H33^2)^2)^(1/2)</f>
         <v>5.3595428853931334E-5</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N33" s="66">
         <f>(L33+L34+L35+L36+L37)/5</f>
         <v>5.0126521561671706E-3</v>
       </c>
-      <c r="O33" s="28">
-        <f t="shared" ref="O33" si="50">(SUMSQ(M33:M37)/25)^(1/2)</f>
+      <c r="O33" s="29">
+        <f t="shared" ref="O33" si="55">(SUMSQ(M33:M37)/25)^(1/2)</f>
         <v>2.3808205742172807E-5</v>
       </c>
-      <c r="P33" s="28">
-        <f t="shared" ref="P33" si="51">_xlfn.STDEV.S(L33:L37)</f>
+      <c r="P33" s="29">
+        <f t="shared" ref="P33" si="56">_xlfn.STDEV.S(L33:L37)</f>
         <v>2.7520590084576011E-5</v>
       </c>
-      <c r="Q33" s="33">
+      <c r="Q33" s="61">
         <v>1.1476</v>
       </c>
-      <c r="R33" s="33">
+      <c r="R33" s="61">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S33" s="28">
-        <f t="shared" ref="S33" si="52">N33/(F33-Q33)*10^(-3)</f>
+      <c r="S33" s="29">
+        <f t="shared" ref="S33" si="57">N33/(F33-Q33)*10^(-3)</f>
         <v>2.1803619644050332E-5</v>
       </c>
-      <c r="T33" s="72">
+      <c r="T33" s="37">
         <f>((P33/(F33-Q33))^2+(N33*G33/(F33-Q33)^2)^2+(N33*R33/(F33-Q33)^2)^2)^(1/2)*10^-3</f>
         <v>2.6628069696087493E-7</v>
       </c>
-      <c r="U33" s="28">
-        <f t="shared" ref="U33:U42" si="53">1+2.1*0.5*B33/$D$44</f>
+      <c r="U33" s="86">
+        <f t="shared" ref="U33" si="58">1+2.1*0.5*B33/$D$44</f>
         <v>1.0840000000000001</v>
       </c>
-      <c r="V33" s="84"/>
-      <c r="W33" s="61"/>
+      <c r="V33" s="86">
+        <f t="shared" ref="V33:V42" si="59">2.1*C33*0.5/$D$44</f>
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="W33" s="43"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="63"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
       <c r="H34" s="9">
         <v>40.07</v>
       </c>
-      <c r="I34" s="46"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="32"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="59"/>
       <c r="L34" s="22">
         <f t="shared" si="0"/>
         <v>4.9912652857499375E-3</v>
       </c>
       <c r="M34" s="22">
-        <f t="shared" ref="M34:M37" si="54">(($K$33/H34)^2+($J$33*$I$33/H34^2)^2)^(1/2)</f>
+        <f t="shared" ref="M34:M37" si="60">(($K$33/H34)^2+($J$33*$I$33/H34^2)^2)^(1/2)</f>
         <v>5.2894141272690634E-5</v>
       </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="61"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="86"/>
+      <c r="W34" s="43"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="63"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="9">
         <v>39.92</v>
       </c>
-      <c r="I35" s="46"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="32"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="59"/>
       <c r="L35" s="22">
         <f t="shared" si="0"/>
         <v>5.0100200400801601E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>5.3192559591570681E-5</v>
       </c>
-      <c r="N35" s="42"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="61"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="86"/>
+      <c r="V35" s="86"/>
+      <c r="W35" s="43"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="63"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
       <c r="H36" s="9">
         <v>40.15</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="32"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="59"/>
       <c r="L36" s="22">
         <f t="shared" si="0"/>
         <v>4.9813200498132013E-3</v>
       </c>
       <c r="M36" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>5.2736274862302553E-5</v>
       </c>
-      <c r="N36" s="42"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="85"/>
-      <c r="W36" s="61"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="86"/>
+      <c r="V36" s="86"/>
+      <c r="W36" s="43"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="63"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
       <c r="H37" s="17">
         <v>39.64</v>
       </c>
-      <c r="I37" s="47"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="34"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="60"/>
       <c r="L37" s="23">
         <f t="shared" si="0"/>
         <v>5.0454086781029266E-3</v>
       </c>
       <c r="M37" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>5.3758192485178142E-5</v>
       </c>
-      <c r="N37" s="43"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="28"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="86"/>
       <c r="V37" s="86"/>
-      <c r="W37" s="61"/>
+      <c r="W37" s="43"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="63">
+      <c r="B38" s="45">
         <v>2</v>
       </c>
-      <c r="C38" s="89">
-        <f t="shared" ref="C38" si="55">B38*0.01</f>
+      <c r="C38" s="32">
+        <f t="shared" ref="C38" si="61">B38*0.01</f>
         <v>0.02</v>
       </c>
-      <c r="D38" s="29">
-        <f t="shared" ref="D38:E38" si="56">(B38/2)^2*10^-6</f>
+      <c r="D38" s="36">
+        <f t="shared" ref="D38" si="62">(B38/2)^2*10^-6</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E38" s="72">
-        <f t="shared" ref="E38:E42" si="57">B38*C38*10^-6</f>
+      <c r="E38" s="37">
+        <f t="shared" ref="E38" si="63">B38*C38*10^-6</f>
         <v>4.0000000000000001E-8</v>
       </c>
       <c r="F38" s="55">
@@ -2758,15 +2741,15 @@
       <c r="H38" s="18">
         <v>74.900000000000006</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="69">
         <f>I33</f>
         <v>0.3</v>
       </c>
-      <c r="J38" s="67">
+      <c r="J38" s="49">
         <v>0.2</v>
       </c>
-      <c r="K38" s="33">
-        <f t="shared" ref="K38" si="58">0.5*B38*10^-3</f>
+      <c r="K38" s="61">
+        <f t="shared" ref="K38" si="64">0.5*B38*10^-3</f>
         <v>1E-3</v>
       </c>
       <c r="L38" s="21">
@@ -2777,168 +2760,171 @@
         <f>(($K$38/H38)^2+($J$38*$I$38/H38^2)^2)^(1/2)</f>
         <v>1.7106706942119941E-5</v>
       </c>
-      <c r="N38" s="41">
+      <c r="N38" s="66">
         <f>(L38+L39+L40+L41+L42)/5</f>
         <v>2.654035384232682E-3</v>
       </c>
-      <c r="O38" s="28">
-        <f t="shared" ref="O38" si="59">(SUMSQ(M38:M42)/25)^(1/2)</f>
+      <c r="O38" s="29">
+        <f t="shared" ref="O38" si="65">(SUMSQ(M38:M42)/25)^(1/2)</f>
         <v>7.5910153311779477E-6</v>
       </c>
-      <c r="P38" s="36">
-        <f t="shared" ref="P38" si="60">_xlfn.STDEV.S(L38:L42)</f>
+      <c r="P38" s="33">
+        <f t="shared" ref="P38" si="66">_xlfn.STDEV.S(L38:L42)</f>
         <v>6.3404518771783403E-5</v>
       </c>
-      <c r="Q38" s="33">
+      <c r="Q38" s="61">
         <f>Q33</f>
         <v>1.1476</v>
       </c>
-      <c r="R38" s="33">
+      <c r="R38" s="61">
         <f>R33</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S38" s="28">
-        <f t="shared" ref="S38" si="61">N38/(F38-Q38)*10^(-3)</f>
+      <c r="S38" s="29">
+        <f t="shared" ref="S38" si="67">N38/(F38-Q38)*10^(-3)</f>
         <v>1.154430354168196E-5</v>
       </c>
-      <c r="T38" s="72">
+      <c r="T38" s="37">
         <f>((O38/(F38-Q38))^2+(N38*G38/(F38-Q38)^2)^2+(N38*R38/(F38-Q38)^2)^2)^(1/2)*10^-3</f>
         <v>1.3019378482831071E-7</v>
       </c>
-      <c r="U38" s="28">
-        <f t="shared" ref="U38:U42" si="62">1+2.1*0.5*B38/$D$44</f>
+      <c r="U38" s="86">
+        <f t="shared" ref="U38" si="68">1+2.1*0.5*B38/$D$44</f>
         <v>1.056</v>
       </c>
-      <c r="V38" s="84"/>
-      <c r="W38" s="61"/>
+      <c r="V38" s="86">
+        <f t="shared" ref="V38:V42" si="69">2.1*C38*0.5/$D$44</f>
+        <v>5.6000000000000006E-4</v>
+      </c>
+      <c r="W38" s="43"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="63"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="9">
         <v>78.34</v>
       </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="32"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="59"/>
       <c r="L39" s="22">
         <f t="shared" si="0"/>
         <v>2.5529742149604288E-3</v>
       </c>
       <c r="M39" s="22">
-        <f t="shared" ref="M39:M42" si="63">(($K$38/H39)^2+($J$38*$I$38/H39^2)^2)^(1/2)</f>
+        <f t="shared" ref="M39:M42" si="70">(($K$38/H39)^2+($J$38*$I$38/H39^2)^2)^(1/2)</f>
         <v>1.6078625529446875E-5</v>
       </c>
-      <c r="N39" s="42"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="85"/>
-      <c r="W39" s="61"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
+      <c r="W39" s="43"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="63"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
       <c r="H40" s="9">
         <v>75.86</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="32"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="59"/>
       <c r="L40" s="22">
         <f t="shared" si="0"/>
         <v>2.6364355391510679E-3</v>
       </c>
       <c r="M40" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>1.6806999019068159E-5</v>
       </c>
-      <c r="N40" s="42"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="85"/>
-      <c r="W40" s="61"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="86"/>
+      <c r="V40" s="86"/>
+      <c r="W40" s="43"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="63"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
       <c r="H41" s="9">
         <v>73.8</v>
       </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="32"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="59"/>
       <c r="L41" s="22">
         <f t="shared" si="0"/>
         <v>2.7100271002710031E-3</v>
       </c>
       <c r="M41" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>1.7463292566734726E-5</v>
       </c>
-      <c r="N41" s="42"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="61"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="86"/>
+      <c r="V41" s="86"/>
+      <c r="W41" s="43"/>
     </row>
     <row r="42" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="64"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
       <c r="H42" s="11">
         <v>74.06</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="54"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="62"/>
       <c r="L42" s="24">
         <f t="shared" si="0"/>
         <v>2.7005130974885228E-3</v>
       </c>
       <c r="M42" s="24">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>1.7377698907979166E-5</v>
       </c>
-      <c r="N42" s="44"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="73"/>
-      <c r="U42" s="35"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="87"/>
       <c r="V42" s="87"/>
-      <c r="W42" s="62"/>
+      <c r="W42" s="44"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
@@ -2949,7 +2935,129 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="138">
+  <mergeCells count="146">
+    <mergeCell ref="V3:V7"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="V13:V17"/>
+    <mergeCell ref="V18:V22"/>
+    <mergeCell ref="V23:V27"/>
+    <mergeCell ref="V28:V32"/>
+    <mergeCell ref="V33:V37"/>
+    <mergeCell ref="V38:V42"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="O8:O12"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="O33:O37"/>
+    <mergeCell ref="P33:P37"/>
+    <mergeCell ref="O38:O42"/>
+    <mergeCell ref="P38:P42"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="O28:O32"/>
+    <mergeCell ref="P28:P32"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="N33:N37"/>
+    <mergeCell ref="N38:N42"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="I33:I37"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="Q3:Q7"/>
+    <mergeCell ref="R3:R7"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="R8:R12"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="Q33:Q37"/>
+    <mergeCell ref="R33:R37"/>
+    <mergeCell ref="Q38:Q42"/>
+    <mergeCell ref="R38:R42"/>
+    <mergeCell ref="Q18:Q22"/>
+    <mergeCell ref="R18:R22"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="Q28:Q32"/>
+    <mergeCell ref="R28:R32"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="W3:W7"/>
+    <mergeCell ref="W8:W42"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="S28:S32"/>
+    <mergeCell ref="S33:S37"/>
+    <mergeCell ref="S38:S42"/>
+    <mergeCell ref="T3:T7"/>
+    <mergeCell ref="T8:T12"/>
+    <mergeCell ref="T13:T17"/>
+    <mergeCell ref="T18:T22"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="T28:T32"/>
+    <mergeCell ref="T33:T37"/>
+    <mergeCell ref="T38:T42"/>
+    <mergeCell ref="S3:S7"/>
+    <mergeCell ref="S8:S12"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="S18:S22"/>
+    <mergeCell ref="S23:S27"/>
     <mergeCell ref="U3:U7"/>
     <mergeCell ref="U8:U12"/>
     <mergeCell ref="U13:U17"/>
@@ -2974,120 +3082,6 @@
     <mergeCell ref="E28:E32"/>
     <mergeCell ref="E33:E37"/>
     <mergeCell ref="E38:E42"/>
-    <mergeCell ref="S28:S32"/>
-    <mergeCell ref="S33:S37"/>
-    <mergeCell ref="S38:S42"/>
-    <mergeCell ref="T3:T7"/>
-    <mergeCell ref="T8:T12"/>
-    <mergeCell ref="T13:T17"/>
-    <mergeCell ref="T18:T22"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="T28:T32"/>
-    <mergeCell ref="T33:T37"/>
-    <mergeCell ref="T38:T42"/>
-    <mergeCell ref="S3:S7"/>
-    <mergeCell ref="S8:S12"/>
-    <mergeCell ref="S13:S17"/>
-    <mergeCell ref="S18:S22"/>
-    <mergeCell ref="S23:S27"/>
-    <mergeCell ref="W3:W7"/>
-    <mergeCell ref="W8:W42"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="J18:J22"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J28:J32"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="Q3:Q7"/>
-    <mergeCell ref="R3:R7"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="R8:R12"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="R13:R17"/>
-    <mergeCell ref="Q33:Q37"/>
-    <mergeCell ref="R33:R37"/>
-    <mergeCell ref="Q38:Q42"/>
-    <mergeCell ref="R38:R42"/>
-    <mergeCell ref="Q18:Q22"/>
-    <mergeCell ref="R18:R22"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="Q28:Q32"/>
-    <mergeCell ref="R28:R32"/>
-    <mergeCell ref="N8:N12"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="N33:N37"/>
-    <mergeCell ref="N38:N42"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="I28:I32"/>
-    <mergeCell ref="I33:I37"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="O8:O12"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="O33:O37"/>
-    <mergeCell ref="P33:P37"/>
-    <mergeCell ref="O38:O42"/>
-    <mergeCell ref="P38:P42"/>
-    <mergeCell ref="O18:O22"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="O28:O32"/>
-    <mergeCell ref="P28:P32"/>
-    <mergeCell ref="N3:N7"/>
   </mergeCells>
   <pageMargins left="0" right="0.39370078740157483" top="1.3779527559055118" bottom="0" header="0" footer="0"/>
   <pageSetup scale="49" orientation="landscape" r:id="rId1"/>
@@ -3132,10 +3126,10 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="80">
         <v>4</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="82">
         <f>273.15+23.9</f>
         <v>297.04999999999995</v>
       </c>
@@ -3150,8 +3144,8 @@
       <c r="D4" s="1">
         <v>99</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="78"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="83"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
@@ -3163,8 +3157,8 @@
       <c r="D5" s="1">
         <v>226</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="78"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
@@ -3176,8 +3170,8 @@
       <c r="D6" s="1">
         <v>357</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="78"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="83"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
@@ -3189,8 +3183,8 @@
       <c r="D7" s="1">
         <v>485</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="78"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
@@ -3202,8 +3196,8 @@
       <c r="D8" s="1">
         <v>616</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="78"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="83"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
@@ -3215,8 +3209,8 @@
       <c r="D9" s="2">
         <v>744</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="79"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
+++ b/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>d [mm]</t>
   </si>
@@ -159,6 +159,42 @@
       <t xml:space="preserve"> r² [m²]</t>
     </r>
   </si>
+  <si>
+    <t>Δ (v_sink mean*λ)/(ρ_k-ρ_f ) [m^4/s*kg]</t>
+  </si>
+  <si>
+    <t>(v_sink mean*λ)/(ρ_k-ρ_f ) [m^4/s*kg]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T [K]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -390,40 +426,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -577,19 +583,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -610,6 +603,17 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -626,221 +630,219 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,10 +1162,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W44"/>
+  <dimension ref="B1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X43" sqref="X43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,21 +1183,23 @@
     <col min="19" max="19" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1249,42 +1253,51 @@
       <c r="V2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="51">
+      <c r="Z2" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="55">
         <v>9</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="40">
         <f>B3*0.01</f>
         <v>0.09</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="44">
         <f>(B3/2)^2*10^-6</f>
         <v>2.0249999999999998E-5</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="44">
         <f>B3*C3*10^-6</f>
         <v>8.0999999999999987E-7</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="57">
         <v>1.3554999999999999</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="57">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H3" s="16">
         <v>6.14</v>
       </c>
-      <c r="I3" s="77">
+      <c r="I3" s="75">
         <v>0.3</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="51">
         <v>0.2</v>
       </c>
-      <c r="K3" s="73">
+      <c r="K3" s="71">
         <f>0.5*B3*10^-3</f>
         <v>4.5000000000000005E-3</v>
       </c>
@@ -1296,58 +1309,69 @@
         <f>(($K$3/H3)^2+($J$3*$I$3/H3^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="N3" s="58">
+      <c r="N3" s="62">
         <f>(L3+L4+L5+L6+L7)/5</f>
         <v>3.3077869485049816E-2</v>
       </c>
-      <c r="O3" s="58">
+      <c r="O3" s="62">
         <f>(SUMSQ(M3:M7)/25)^(1/2)</f>
         <v>8.0798706393487478E-4</v>
       </c>
-      <c r="P3" s="58">
+      <c r="P3" s="62">
         <f>_xlfn.STDEV.S(L3:L7)</f>
         <v>1.1538275016650245E-3</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="62">
         <v>1.1482000000000001</v>
       </c>
-      <c r="R3" s="58">
+      <c r="R3" s="62">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S3" s="41">
+      <c r="S3" s="48">
         <f>N3/(F3-Q3)*10^(-3)</f>
         <v>1.59565217004582E-4</v>
       </c>
-      <c r="T3" s="39">
+      <c r="T3" s="46">
         <f>((P3/(F3-Q3))^2+(N3*G3/(F3-Q3)^2)^2+(N3*R3/(F3-Q3)^2)^2)^(1/2)*10^-3</f>
         <v>5.5813928390751162E-6</v>
       </c>
-      <c r="U3" s="85">
+      <c r="U3" s="37">
         <f>1+2.1*0.5*B3/$D$44</f>
         <v>1.252</v>
       </c>
-      <c r="V3" s="85">
+      <c r="V3" s="37">
         <f>2.1*C3*0.5/$D$44</f>
         <v>2.5200000000000001E-3</v>
       </c>
-      <c r="W3" s="42">
+      <c r="W3" s="35">
+        <f>S3*U3</f>
+        <v>1.9977565168973667E-4</v>
+      </c>
+      <c r="X3" s="35">
+        <f>((T3*U3)^2+(S3*V3)^2)^(1/2)</f>
+        <v>6.9994634013104759E-6</v>
+      </c>
+      <c r="Y3" s="85">
         <f>273.15+21.5</f>
         <v>294.64999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="C4" s="32"/>
+      <c r="Z3" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="49"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="9">
         <v>6.14</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="74"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="13">
         <f t="shared" ref="L4:L42" si="0">$J$3/H4</f>
         <v>3.2573289902280131E-2</v>
@@ -1356,30 +1380,33 @@
         <f t="shared" ref="M4:M7" si="1">(($K$3/H4)^2+($J$3*$I$3/H4^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="43"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="32"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="33"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="49"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="29"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="9">
         <v>5.7</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="74"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="13">
         <f t="shared" si="0"/>
         <v>3.5087719298245612E-2</v>
@@ -1388,30 +1415,33 @@
         <f t="shared" si="1"/>
         <v>2.0083951542744852E-3</v>
       </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="43"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="32"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="33"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="29"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="9">
         <v>6.21</v>
       </c>
-      <c r="I6" s="70"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="74"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="13">
         <f t="shared" si="0"/>
         <v>3.2206119162640906E-2</v>
@@ -1420,30 +1450,33 @@
         <f t="shared" si="1"/>
         <v>1.716325325710239E-3</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="43"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
-      <c r="C7" s="32"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="33"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="49"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="56"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="17">
         <v>6.07</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="75"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="14">
         <f t="shared" si="0"/>
         <v>3.2948929159802305E-2</v>
@@ -1452,22 +1485,25 @@
         <f t="shared" si="1"/>
         <v>1.7892578702547329E-3</v>
       </c>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="43"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="45">
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="33"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="49">
         <v>8</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="41">
         <f t="shared" ref="C8" si="2">B8*0.01</f>
         <v>0.08</v>
       </c>
@@ -1475,27 +1511,27 @@
         <f t="shared" ref="D8" si="3">(B8/2)^2*10^-6</f>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="29">
         <f t="shared" ref="E8" si="4">B8*C8*10^-6</f>
         <v>6.4000000000000001E-7</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="59">
         <v>1.3625</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="59">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H8" s="18">
         <v>7.86</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="67">
         <f>I3</f>
         <v>0.3</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="52">
         <v>0.2</v>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="74">
         <f>0.5*B8*10^-3</f>
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1507,207 +1543,228 @@
         <f>(($K$8/H8)^2+($J$8*$I$8/H8^2)^2)^(1/2)</f>
         <v>1.0964504915178231E-3</v>
       </c>
-      <c r="N8" s="61">
+      <c r="N8" s="65">
         <f>(L8+L9+L10+L11+L12)/5</f>
         <v>2.6029305829267206E-2</v>
       </c>
-      <c r="O8" s="61">
+      <c r="O8" s="65">
         <f t="shared" ref="O8" si="5">(SUMSQ(M8:M12)/25)^(1/2)</f>
         <v>5.1104479056882763E-4</v>
       </c>
-      <c r="P8" s="61">
+      <c r="P8" s="65">
         <f t="shared" ref="P8" si="6">_xlfn.STDEV.S(L8:L12)</f>
         <v>5.0949814262065871E-4</v>
       </c>
-      <c r="Q8" s="61">
+      <c r="Q8" s="65">
         <v>1.1476</v>
       </c>
-      <c r="R8" s="61">
+      <c r="R8" s="65">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S8" s="33">
+      <c r="S8" s="42">
         <f t="shared" ref="S8" si="7">N8/(F8-Q8)*10^(-3)</f>
         <v>1.2112287496169007E-4</v>
       </c>
-      <c r="T8" s="36">
+      <c r="T8" s="29">
         <f>((P8/(F8-Q8))^2+(N8*G8/(F8-Q8)^2)^2+(N8*R8/(F8-Q8)^2)^2)^(1/2)*10^-3</f>
         <v>2.3902111605678812E-6</v>
       </c>
-      <c r="U8" s="86">
+      <c r="U8" s="38">
         <f t="shared" ref="U8" si="8">1+2.1*0.5*B8/$D$44</f>
         <v>1.224</v>
       </c>
-      <c r="V8" s="86">
-        <f t="shared" ref="V8:V42" si="9">2.1*C8*0.5/$D$44</f>
+      <c r="V8" s="38">
+        <f t="shared" ref="V8" si="9">2.1*C8*0.5/$D$44</f>
         <v>2.2400000000000002E-3</v>
       </c>
-      <c r="W8" s="43">
-        <f>W3+0.5</f>
+      <c r="W8" s="36">
+        <f t="shared" ref="W8" si="10">S8*U8</f>
+        <v>1.4825439895310865E-4</v>
+      </c>
+      <c r="X8" s="36">
+        <f t="shared" ref="X8" si="11">((T8*U8)^2+(S8*V8)^2)^(1/2)</f>
+        <v>2.9381721079666829E-6</v>
+      </c>
+      <c r="Y8" s="86">
+        <f>Y3+0.5</f>
         <v>295.14999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-      <c r="C9" s="32"/>
+      <c r="Z8" s="33"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="49"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="9">
         <v>7.8</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="74"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="13">
         <f t="shared" si="0"/>
         <v>2.5641025641025644E-2</v>
       </c>
       <c r="M9" s="13">
-        <f t="shared" ref="M9:M12" si="10">(($K$8/H9)^2+($J$8*$I$8/H9^2)^2)^(1/2)</f>
+        <f t="shared" ref="M9:M12" si="12">(($K$8/H9)^2+($J$8*$I$8/H9^2)^2)^(1/2)</f>
         <v>1.1115584065960846E-3</v>
       </c>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="43"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-      <c r="C10" s="32"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="33"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="9">
         <v>7.7</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="74"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
         <v>2.5974025974025976E-2</v>
       </c>
       <c r="M10" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1375207635695094E-3</v>
       </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="43"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-      <c r="C11" s="32"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="33"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="49"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="9">
         <v>7.56</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="74"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>2.6455026455026457E-2</v>
       </c>
       <c r="M11" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1755989736153413E-3</v>
       </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="43"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-      <c r="C12" s="32"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="33"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="49"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="17">
         <v>7.51</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="75"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="73"/>
       <c r="L12" s="14">
         <f t="shared" si="0"/>
         <v>2.6631158455392812E-2</v>
       </c>
       <c r="M12" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1897130928283149E-3</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="43"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="52">
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="33"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="56">
         <v>7.1440000000000001</v>
       </c>
-      <c r="C13" s="33">
-        <f t="shared" ref="C13" si="11">B13*0.01</f>
+      <c r="C13" s="42">
+        <f t="shared" ref="C13" si="13">B13*0.01</f>
         <v>7.1440000000000003E-2</v>
       </c>
       <c r="D13" s="29">
-        <f t="shared" ref="D13" si="12">(B13/2)^2*10^-6</f>
+        <f t="shared" ref="D13" si="14">(B13/2)^2*10^-6</f>
         <v>1.2759184000000001E-5</v>
       </c>
-      <c r="E13" s="36">
-        <f t="shared" ref="E13" si="13">B13*C13*10^-6</f>
+      <c r="E13" s="29">
+        <f t="shared" ref="E13" si="15">B13*C13*10^-6</f>
         <v>5.1036735999999999E-7</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="59">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="59">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H13" s="18">
         <v>8.42</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="67">
         <f>I8</f>
         <v>0.3</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="52">
         <v>0.2</v>
       </c>
-      <c r="K13" s="76">
-        <f t="shared" ref="K13" si="14">0.5*B13*10^-3</f>
+      <c r="K13" s="74">
+        <f t="shared" ref="K13" si="16">0.5*B13*10^-3</f>
         <v>3.5720000000000001E-3</v>
       </c>
       <c r="L13" s="12">
@@ -1718,204 +1775,225 @@
         <f>(($K$13/H13)^2+($J$13*$I$13/H13^2)^2)^(1/2)</f>
         <v>9.4667951449123387E-4</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13" s="65">
         <f>(L13+L14+L15+L16+L17)/5</f>
         <v>2.3640955470984416E-2</v>
       </c>
-      <c r="O13" s="59">
-        <f t="shared" ref="O13" si="15">(SUMSQ(M13:M17)/25)^(1/2)</f>
+      <c r="O13" s="63">
+        <f t="shared" ref="O13" si="17">(SUMSQ(M13:M17)/25)^(1/2)</f>
         <v>4.2004945214195227E-4</v>
       </c>
-      <c r="P13" s="59">
-        <f t="shared" ref="P13" si="16">_xlfn.STDEV.S(L13:L17)</f>
+      <c r="P13" s="63">
+        <f t="shared" ref="P13" si="18">_xlfn.STDEV.S(L13:L17)</f>
         <v>4.1924762935458839E-4</v>
       </c>
-      <c r="Q13" s="61">
+      <c r="Q13" s="65">
         <v>1.1476</v>
       </c>
-      <c r="R13" s="61">
+      <c r="R13" s="65">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S13" s="33">
-        <f t="shared" ref="S13" si="17">N13/(F13-Q13)*10^(-3)</f>
+      <c r="S13" s="42">
+        <f t="shared" ref="S13" si="19">N13/(F13-Q13)*10^(-3)</f>
         <v>1.0283147225308576E-4</v>
       </c>
-      <c r="T13" s="36">
+      <c r="T13" s="29">
         <f>((P13/(F13-Q13))^2+(N13*G13/(F13-Q13)^2)^2+(N13*R13/(F13-Q13)^2)^2)^(1/2)*10^-3</f>
         <v>2.1410198964813952E-6</v>
       </c>
-      <c r="U13" s="86">
-        <f t="shared" ref="U13" si="18">1+2.1*0.5*B13/$D$44</f>
+      <c r="U13" s="38">
+        <f t="shared" ref="U13" si="20">1+2.1*0.5*B13/$D$44</f>
         <v>1.200032</v>
       </c>
-      <c r="V13" s="86">
-        <f t="shared" ref="V13:V42" si="19">2.1*C13*0.5/$D$44</f>
+      <c r="V13" s="38">
+        <f t="shared" ref="V13" si="21">2.1*C13*0.5/$D$44</f>
         <v>2.0003200000000003E-3</v>
       </c>
-      <c r="W13" s="43"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="52"/>
-      <c r="C14" s="33"/>
+      <c r="W13" s="29">
+        <f t="shared" ref="W13" si="22">S13*U13</f>
+        <v>1.2340105731081501E-4</v>
+      </c>
+      <c r="X13" s="29">
+        <f t="shared" ref="X13" si="23">((T13*U13)^2+(S13*V13)^2)^(1/2)</f>
+        <v>2.5775131736052662E-6</v>
+      </c>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="33"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="56"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="9">
         <v>8.6199999999999992</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="74"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="13">
         <f t="shared" si="0"/>
         <v>2.3201856148491882E-2</v>
       </c>
       <c r="M14" s="13">
-        <f t="shared" ref="M14:M17" si="20">(($K$13/H14)^2+($J$13*$I$13/H14^2)^2)^(1/2)</f>
+        <f t="shared" ref="M14:M17" si="24">(($K$13/H14)^2+($J$13*$I$13/H14^2)^2)^(1/2)</f>
         <v>9.0760886409929718E-4</v>
       </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="43"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="52"/>
-      <c r="C15" s="33"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="33"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="56"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="9">
         <v>8.5399999999999991</v>
       </c>
-      <c r="I15" s="70"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="74"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="13">
         <f t="shared" si="0"/>
         <v>2.3419203747072605E-2</v>
       </c>
       <c r="M15" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>9.2291055402502582E-4</v>
       </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="43"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="52"/>
-      <c r="C16" s="33"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="33"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="56"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="9">
         <v>8.5</v>
       </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="74"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="13">
         <f t="shared" si="0"/>
         <v>2.3529411764705882E-2</v>
       </c>
       <c r="M16" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>9.3072263192061364E-4</v>
       </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="43"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="52"/>
-      <c r="C17" s="33"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="33"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="56"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="17">
         <v>8.23</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="75"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="14">
         <f t="shared" si="0"/>
         <v>2.4301336573511544E-2</v>
       </c>
       <c r="M17" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>9.8644518067141844E-4</v>
       </c>
-      <c r="N17" s="60"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="43"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="45">
+      <c r="N17" s="64"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="33"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="49">
         <v>6</v>
       </c>
-      <c r="C18" s="32">
-        <f t="shared" ref="C18" si="21">B18*0.01</f>
+      <c r="C18" s="41">
+        <f t="shared" ref="C18" si="25">B18*0.01</f>
         <v>0.06</v>
       </c>
       <c r="D18" s="29">
-        <f t="shared" ref="D18" si="22">(B18/2)^2*10^-6</f>
+        <f t="shared" ref="D18" si="26">(B18/2)^2*10^-6</f>
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="E18" s="36">
-        <f t="shared" ref="E18" si="23">B18*C18*10^-6</f>
+      <c r="E18" s="29">
+        <f t="shared" ref="E18" si="27">B18*C18*10^-6</f>
         <v>3.5999999999999999E-7</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="59">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="59">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H18" s="18">
         <v>11.62</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="67">
         <f>I13</f>
         <v>0.3</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="52">
         <v>0.2</v>
       </c>
-      <c r="K18" s="76">
-        <f t="shared" ref="K18" si="24">0.5*B18*10^-3</f>
+      <c r="K18" s="74">
+        <f t="shared" ref="K18" si="28">0.5*B18*10^-3</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L18" s="12">
@@ -1926,204 +2004,225 @@
         <f>(($K$18/H18)^2+($J$18*$I$18/H18^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N18" s="63">
+      <c r="N18" s="77">
         <f>(L18+L19+L20+L21+L22)/5</f>
         <v>1.711072882678167E-2</v>
       </c>
-      <c r="O18" s="33">
-        <f t="shared" ref="O18" si="25">(SUMSQ(M18:M22)/25)^(1/2)</f>
+      <c r="O18" s="42">
+        <f t="shared" ref="O18" si="29">(SUMSQ(M18:M22)/25)^(1/2)</f>
         <v>2.2754630774580575E-4</v>
       </c>
-      <c r="P18" s="33">
-        <f t="shared" ref="P18" si="26">_xlfn.STDEV.S(L18:L22)</f>
+      <c r="P18" s="42">
+        <f t="shared" ref="P18" si="30">_xlfn.STDEV.S(L18:L22)</f>
         <v>2.0964670301082701E-4</v>
       </c>
-      <c r="Q18" s="61">
+      <c r="Q18" s="65">
         <v>1.1476</v>
       </c>
-      <c r="R18" s="61">
+      <c r="R18" s="65">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S18" s="33">
-        <f t="shared" ref="S18" si="27">N18/(F18-Q18)*10^(-3)</f>
+      <c r="S18" s="42">
+        <f t="shared" ref="S18" si="31">N18/(F18-Q18)*10^(-3)</f>
         <v>7.4426832652377855E-5</v>
       </c>
-      <c r="T18" s="36">
+      <c r="T18" s="29">
         <f>((O18/(F18-Q18))^2+(N18*G18/(F18-Q18)^2)^2+(N18*R18/(F18-Q18)^2)^2)^(1/2)*10^-3</f>
         <v>1.2801762190890571E-6</v>
       </c>
-      <c r="U18" s="86">
-        <f t="shared" ref="U18" si="28">1+2.1*0.5*B18/$D$44</f>
+      <c r="U18" s="38">
+        <f t="shared" ref="U18" si="32">1+2.1*0.5*B18/$D$44</f>
         <v>1.1679999999999999</v>
       </c>
-      <c r="V18" s="86">
-        <f t="shared" ref="V18:V42" si="29">2.1*C18*0.5/$D$44</f>
+      <c r="V18" s="38">
+        <f t="shared" ref="V18" si="33">2.1*C18*0.5/$D$44</f>
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="W18" s="43"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="32"/>
+      <c r="W18" s="29">
+        <f t="shared" ref="W18" si="34">S18*U18</f>
+        <v>8.693054053797733E-5</v>
+      </c>
+      <c r="X18" s="29">
+        <f t="shared" ref="X18" si="35">((T18*U18)^2+(S18*V18)^2)^(1/2)</f>
+        <v>1.5004647096707485E-6</v>
+      </c>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="33"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="49"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="9">
         <v>11.62</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="74"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="13">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" ref="M19:M22" si="30">(($K$18/H19)^2+($J$18*$I$18/H19^2)^2)^(1/2)</f>
+        <f t="shared" ref="M19:M22" si="36">(($K$18/H19)^2+($J$18*$I$18/H19^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N19" s="63"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="43"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="32"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="33"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="49"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="9">
         <v>11.64</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="74"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="72"/>
       <c r="L20" s="13">
         <f t="shared" si="0"/>
         <v>1.7182130584192441E-2</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5.1237840142188897E-4</v>
       </c>
-      <c r="N20" s="63"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="43"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="32"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="33"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="49"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="9">
         <v>11.62</v>
       </c>
-      <c r="I21" s="70"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="74"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="13">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N21" s="63"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="43"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="32"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="33"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="17">
         <v>11.95</v>
       </c>
-      <c r="I22" s="71"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="75"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="73"/>
       <c r="L22" s="14">
         <f t="shared" si="0"/>
         <v>1.6736401673640169E-2</v>
       </c>
       <c r="M22" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>4.8944778085674683E-4</v>
       </c>
-      <c r="N22" s="63"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="43"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="45">
+      <c r="N22" s="77"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="33"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" s="49">
         <v>5</v>
       </c>
-      <c r="C23" s="32">
-        <f t="shared" ref="C23" si="31">B23*0.01</f>
+      <c r="C23" s="41">
+        <f t="shared" ref="C23" si="37">B23*0.01</f>
         <v>0.05</v>
       </c>
       <c r="D23" s="29">
-        <f t="shared" ref="D23" si="32">(B23/2)^2*10^-6</f>
+        <f t="shared" ref="D23" si="38">(B23/2)^2*10^-6</f>
         <v>6.2499999999999995E-6</v>
       </c>
-      <c r="E23" s="36">
-        <f t="shared" ref="E23" si="33">B23*C23*10^-6</f>
+      <c r="E23" s="29">
+        <f t="shared" ref="E23" si="39">B23*C23*10^-6</f>
         <v>2.4999999999999999E-7</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="59">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="59">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H23" s="18">
         <v>15.56</v>
       </c>
-      <c r="I23" s="69">
+      <c r="I23" s="67">
         <f>I13</f>
         <v>0.3</v>
       </c>
-      <c r="J23" s="49">
+      <c r="J23" s="53">
         <v>0.2</v>
       </c>
-      <c r="K23" s="61">
-        <f t="shared" ref="K23" si="34">0.5*B23*10^-3</f>
+      <c r="K23" s="65">
+        <f t="shared" ref="K23" si="40">0.5*B23*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L23" s="12">
@@ -2134,204 +2233,225 @@
         <f>(($K$23/H23)^2+($J$23*$I$23/H23^2)^2)^(1/2)</f>
         <v>2.9534364435364433E-4</v>
       </c>
-      <c r="N23" s="64">
+      <c r="N23" s="78">
         <f>(L23+L24+L25+L26+L27)/5</f>
         <v>1.2816144235262594E-2</v>
       </c>
-      <c r="O23" s="33">
-        <f t="shared" ref="O23" si="35">(SUMSQ(M23:M27)/25)^(1/2)</f>
+      <c r="O23" s="42">
+        <f t="shared" ref="O23" si="41">(SUMSQ(M23:M27)/25)^(1/2)</f>
         <v>1.314809588282321E-4</v>
       </c>
-      <c r="P23" s="33">
-        <f t="shared" ref="P23" si="36">_xlfn.STDEV.S(L23:L27)</f>
+      <c r="P23" s="42">
+        <f t="shared" ref="P23" si="42">_xlfn.STDEV.S(L23:L27)</f>
         <v>1.8897275186015511E-4</v>
       </c>
-      <c r="Q23" s="61">
+      <c r="Q23" s="65">
         <v>1.1476</v>
       </c>
-      <c r="R23" s="61">
+      <c r="R23" s="65">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S23" s="33">
-        <f t="shared" ref="S23" si="37">N23/(F23-Q23)*10^(-3)</f>
+      <c r="S23" s="42">
+        <f t="shared" ref="S23" si="43">N23/(F23-Q23)*10^(-3)</f>
         <v>5.5746603894139167E-5</v>
       </c>
-      <c r="T23" s="36">
+      <c r="T23" s="29">
         <f>((P23/(F23-Q23))^2+(N23*G23/(F23-Q23)^2)^2+(N23*R23/(F23-Q23)^2)^2)^(1/2)*10^-3</f>
         <v>1.022489217302807E-6</v>
       </c>
-      <c r="U23" s="86">
-        <f t="shared" ref="U23" si="38">1+2.1*0.5*B23/$D$44</f>
+      <c r="U23" s="38">
+        <f t="shared" ref="U23" si="44">1+2.1*0.5*B23/$D$44</f>
         <v>1.1400000000000001</v>
       </c>
-      <c r="V23" s="86">
-        <f t="shared" ref="V23:V42" si="39">2.1*C23*0.5/$D$44</f>
+      <c r="V23" s="38">
+        <f t="shared" ref="V23" si="45">2.1*C23*0.5/$D$44</f>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="W23" s="43"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-      <c r="C24" s="32"/>
+      <c r="W23" s="29">
+        <f t="shared" ref="W23" si="46">S23*U23</f>
+        <v>6.3551128439318658E-5</v>
+      </c>
+      <c r="X23" s="29">
+        <f t="shared" ref="X23" si="47">((T23*U23)^2+(S23*V23)^2)^(1/2)</f>
+        <v>1.1682475448330675E-6</v>
+      </c>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="33"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" s="49"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="9">
         <v>15.24</v>
       </c>
-      <c r="I24" s="70"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="59"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="13">
         <f t="shared" si="0"/>
         <v>1.3123359580052493E-2</v>
       </c>
       <c r="M24" s="13">
-        <f t="shared" ref="M24:M27" si="40">(($K$23/H24)^2+($J$23*$I$23/H24^2)^2)^(1/2)</f>
+        <f t="shared" ref="M24:M27" si="48">(($K$23/H24)^2+($J$23*$I$23/H24^2)^2)^(1/2)</f>
         <v>3.0601659121382729E-4</v>
       </c>
-      <c r="N24" s="63"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="43"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="32"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="33"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="49"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="9">
         <v>15.8</v>
       </c>
-      <c r="I25" s="70"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="59"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="63"/>
       <c r="L25" s="13">
         <f t="shared" si="0"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M25" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2.8775388602423501E-4</v>
       </c>
-      <c r="N25" s="63"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="43"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
-      <c r="C26" s="32"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="33"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="49"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="9">
         <v>15.66</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="63"/>
       <c r="L26" s="13">
         <f t="shared" si="0"/>
         <v>1.277139208173691E-2</v>
       </c>
       <c r="M26" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2.9213956412965739E-4</v>
       </c>
-      <c r="N26" s="63"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="43"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-      <c r="C27" s="32"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="33"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="49"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
       <c r="H27" s="17">
         <v>15.78</v>
       </c>
-      <c r="I27" s="71"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="60"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="64"/>
       <c r="L27" s="14">
         <f t="shared" si="0"/>
         <v>1.2674271229404311E-2</v>
       </c>
       <c r="M27" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2.8837339882458726E-4</v>
       </c>
-      <c r="N27" s="65"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="43"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="45">
+      <c r="N27" s="79"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="33"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="49">
         <v>4</v>
       </c>
-      <c r="C28" s="32">
-        <f t="shared" ref="C28" si="41">B28*0.01</f>
+      <c r="C28" s="41">
+        <f t="shared" ref="C28" si="49">B28*0.01</f>
         <v>0.04</v>
       </c>
-      <c r="D28" s="29">
-        <f t="shared" ref="D28" si="42">(B28/2)^2*10^-6</f>
+      <c r="D28" s="30">
+        <f t="shared" ref="D28" si="50">(B28/2)^2*10^-6</f>
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="E28" s="37">
-        <f t="shared" ref="E28" si="43">B28*C28*10^-6</f>
+      <c r="E28" s="30">
+        <f t="shared" ref="E28" si="51">B28*C28*10^-6</f>
         <v>1.6E-7</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="59">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G28" s="55">
+      <c r="G28" s="59">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H28" s="18">
         <v>23.43</v>
       </c>
-      <c r="I28" s="69">
+      <c r="I28" s="67">
         <f>I13</f>
         <v>0.3</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="53">
         <v>0.2</v>
       </c>
-      <c r="K28" s="61">
-        <f t="shared" ref="K28" si="44">0.5*B28*10^-3</f>
+      <c r="K28" s="65">
+        <f t="shared" ref="K28" si="52">0.5*B28*10^-3</f>
         <v>2E-3</v>
       </c>
       <c r="L28" s="21">
@@ -2342,204 +2462,225 @@
         <f>(($K$28/H28)^2+($J$28*$I$28/H28^2)^2)^(1/2)</f>
         <v>1.3868016543122825E-4</v>
       </c>
-      <c r="N28" s="63">
+      <c r="N28" s="77">
         <f>(L28+L29+L30+L31+L32)/5</f>
         <v>8.3600294043818212E-3</v>
       </c>
-      <c r="O28" s="33">
-        <f t="shared" ref="O28" si="45">(SUMSQ(M28:M32)/25)^(1/2)</f>
+      <c r="O28" s="42">
+        <f t="shared" ref="O28" si="53">(SUMSQ(M28:M32)/25)^(1/2)</f>
         <v>5.9979431293701365E-5</v>
       </c>
-      <c r="P28" s="33">
-        <f t="shared" ref="P28" si="46">_xlfn.STDEV.S(L28:L32)</f>
+      <c r="P28" s="42">
+        <f t="shared" ref="P28" si="54">_xlfn.STDEV.S(L28:L32)</f>
         <v>9.8921847583569231E-5</v>
       </c>
-      <c r="Q28" s="61">
+      <c r="Q28" s="65">
         <v>1.1476</v>
       </c>
-      <c r="R28" s="61">
+      <c r="R28" s="65">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S28" s="33">
-        <f t="shared" ref="S28" si="47">N28/(F28-Q28)*10^(-3)</f>
+      <c r="S28" s="42">
+        <f t="shared" ref="S28" si="55">N28/(F28-Q28)*10^(-3)</f>
         <v>3.6363764264383737E-5</v>
       </c>
-      <c r="T28" s="36">
+      <c r="T28" s="29">
         <f>((P28/(F28-Q28))^2+(N28*G28/(F28-Q28)^2)^2+(N28*R28/(F28-Q28)^2)^2)^(1/2)*10^-3</f>
         <v>5.8524222723986226E-7</v>
       </c>
-      <c r="U28" s="86">
-        <f t="shared" ref="U28" si="48">1+2.1*0.5*B28/$D$44</f>
+      <c r="U28" s="38">
+        <f t="shared" ref="U28" si="56">1+2.1*0.5*B28/$D$44</f>
         <v>1.1120000000000001</v>
       </c>
-      <c r="V28" s="86">
-        <f t="shared" ref="V28:V42" si="49">2.1*C28*0.5/$D$44</f>
+      <c r="V28" s="38">
+        <f t="shared" ref="V28" si="57">2.1*C28*0.5/$D$44</f>
         <v>1.1200000000000001E-3</v>
       </c>
-      <c r="W28" s="43"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
+      <c r="W28" s="29">
+        <f t="shared" ref="W28" si="58">S28*U28</f>
+        <v>4.0436505861994719E-5</v>
+      </c>
+      <c r="X28" s="29">
+        <f t="shared" ref="X28" si="59">((T28*U28)^2+(S28*V28)^2)^(1/2)</f>
+        <v>6.5206250405465057E-7</v>
+      </c>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="33"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="49"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="9">
         <v>24.06</v>
       </c>
-      <c r="I29" s="70"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="59"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="63"/>
       <c r="L29" s="22">
         <f t="shared" si="0"/>
         <v>8.3125519534497094E-3</v>
       </c>
       <c r="M29" s="22">
-        <f t="shared" ref="M29:M32" si="50">(($K$28/H29)^2+($J$28*$I$28/H29^2)^2)^(1/2)</f>
+        <f t="shared" ref="M29:M32" si="60">(($K$28/H29)^2+($J$28*$I$28/H29^2)^2)^(1/2)</f>
         <v>1.3286351752914206E-4</v>
       </c>
-      <c r="N29" s="63"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="43"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="33"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="49"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="9">
         <v>24.01</v>
       </c>
-      <c r="I30" s="70"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="59"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="63"/>
       <c r="L30" s="22">
         <f t="shared" si="0"/>
         <v>8.3298625572678052E-3</v>
       </c>
       <c r="M30" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.333090011901867E-4</v>
       </c>
-      <c r="N30" s="63"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="43"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="33"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="49"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="9">
         <v>24.09</v>
       </c>
-      <c r="I31" s="70"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="59"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="63"/>
       <c r="L31" s="22">
         <f t="shared" si="0"/>
         <v>8.3022000830220016E-3</v>
       </c>
       <c r="M31" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.3259751565960446E-4</v>
       </c>
-      <c r="N31" s="63"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="43"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="33"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="49"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="17">
         <v>24.04</v>
       </c>
-      <c r="I32" s="71"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="60"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="64"/>
       <c r="L32" s="23">
         <f t="shared" si="0"/>
         <v>8.3194675540765404E-3</v>
       </c>
       <c r="M32" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1.3304138801975253E-4</v>
       </c>
-      <c r="N32" s="63"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="43"/>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="45">
+      <c r="N32" s="77"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="33"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" s="49">
         <v>3</v>
       </c>
-      <c r="C33" s="32">
-        <f t="shared" ref="C33" si="51">B33*0.01</f>
+      <c r="C33" s="41">
+        <f t="shared" ref="C33" si="61">B33*0.01</f>
         <v>0.03</v>
       </c>
-      <c r="D33" s="36">
-        <f t="shared" ref="D33" si="52">(B33/2)^2*10^-6</f>
+      <c r="D33" s="30">
+        <f t="shared" ref="D33" si="62">(B33/2)^2*10^-6</f>
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="E33" s="37">
-        <f t="shared" ref="E33" si="53">B33*C33*10^-6</f>
+      <c r="E33" s="30">
+        <f t="shared" ref="E33" si="63">B33*C33*10^-6</f>
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="59">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G33" s="55">
+      <c r="G33" s="59">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H33" s="18">
         <v>39.72</v>
       </c>
-      <c r="I33" s="69">
+      <c r="I33" s="67">
         <f>I28</f>
         <v>0.3</v>
       </c>
-      <c r="J33" s="49">
+      <c r="J33" s="53">
         <v>0.2</v>
       </c>
-      <c r="K33" s="61">
-        <f t="shared" ref="K33" si="54">0.5*B33*10^-3</f>
+      <c r="K33" s="65">
+        <f t="shared" ref="K33" si="64">0.5*B33*10^-3</f>
         <v>1.5E-3</v>
       </c>
       <c r="L33" s="21">
@@ -2550,206 +2691,227 @@
         <f>(($K$33/H33)^2+($J$33*$I$33/H33^2)^2)^(1/2)</f>
         <v>5.3595428853931334E-5</v>
       </c>
-      <c r="N33" s="66">
+      <c r="N33" s="80">
         <f>(L33+L34+L35+L36+L37)/5</f>
         <v>5.0126521561671706E-3</v>
       </c>
-      <c r="O33" s="29">
-        <f t="shared" ref="O33" si="55">(SUMSQ(M33:M37)/25)^(1/2)</f>
+      <c r="O33" s="36">
+        <f t="shared" ref="O33" si="65">(SUMSQ(M33:M37)/25)^(1/2)</f>
         <v>2.3808205742172807E-5</v>
       </c>
-      <c r="P33" s="29">
-        <f t="shared" ref="P33" si="56">_xlfn.STDEV.S(L33:L37)</f>
+      <c r="P33" s="36">
+        <f t="shared" ref="P33" si="66">_xlfn.STDEV.S(L33:L37)</f>
         <v>2.7520590084576011E-5</v>
       </c>
-      <c r="Q33" s="61">
+      <c r="Q33" s="65">
         <v>1.1476</v>
       </c>
-      <c r="R33" s="61">
+      <c r="R33" s="65">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S33" s="29">
-        <f t="shared" ref="S33" si="57">N33/(F33-Q33)*10^(-3)</f>
+      <c r="S33" s="36">
+        <f t="shared" ref="S33" si="67">N33/(F33-Q33)*10^(-3)</f>
         <v>2.1803619644050332E-5</v>
       </c>
-      <c r="T33" s="37">
+      <c r="T33" s="30">
         <f>((P33/(F33-Q33))^2+(N33*G33/(F33-Q33)^2)^2+(N33*R33/(F33-Q33)^2)^2)^(1/2)*10^-3</f>
         <v>2.6628069696087493E-7</v>
       </c>
-      <c r="U33" s="86">
-        <f t="shared" ref="U33" si="58">1+2.1*0.5*B33/$D$44</f>
+      <c r="U33" s="38">
+        <f t="shared" ref="U33" si="68">1+2.1*0.5*B33/$D$44</f>
         <v>1.0840000000000001</v>
       </c>
-      <c r="V33" s="86">
-        <f t="shared" ref="V33:V42" si="59">2.1*C33*0.5/$D$44</f>
+      <c r="V33" s="38">
+        <f t="shared" ref="V33" si="69">2.1*C33*0.5/$D$44</f>
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="W33" s="43"/>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="45"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
+      <c r="W33" s="30">
+        <f t="shared" ref="W33" si="70">S33*U33</f>
+        <v>2.3635123694150561E-5</v>
+      </c>
+      <c r="X33" s="30">
+        <f t="shared" ref="X33" si="71">((T33*U33)^2+(S33*V33)^2)^(1/2)</f>
+        <v>2.8922874625614833E-7</v>
+      </c>
+      <c r="Y33" s="86"/>
+      <c r="Z33" s="33"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="49"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="9">
         <v>40.07</v>
       </c>
-      <c r="I34" s="70"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="59"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="63"/>
       <c r="L34" s="22">
         <f t="shared" si="0"/>
         <v>4.9912652857499375E-3</v>
       </c>
       <c r="M34" s="22">
-        <f t="shared" ref="M34:M37" si="60">(($K$33/H34)^2+($J$33*$I$33/H34^2)^2)^(1/2)</f>
+        <f t="shared" ref="M34:M37" si="72">(($K$33/H34)^2+($J$33*$I$33/H34^2)^2)^(1/2)</f>
         <v>5.2894141272690634E-5</v>
       </c>
-      <c r="N34" s="40"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="86"/>
-      <c r="W34" s="43"/>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="45"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="86"/>
+      <c r="Z34" s="33"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="49"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="9">
         <v>39.92</v>
       </c>
-      <c r="I35" s="70"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="59"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="63"/>
       <c r="L35" s="22">
         <f t="shared" si="0"/>
         <v>5.0100200400801601E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>5.3192559591570681E-5</v>
       </c>
-      <c r="N35" s="40"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="86"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="43"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="45"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="86"/>
+      <c r="Z35" s="33"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B36" s="49"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="9">
         <v>40.15</v>
       </c>
-      <c r="I36" s="70"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="59"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="63"/>
       <c r="L36" s="22">
         <f t="shared" si="0"/>
         <v>4.9813200498132013E-3</v>
       </c>
       <c r="M36" s="22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>5.2736274862302553E-5</v>
       </c>
-      <c r="N36" s="40"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="86"/>
-      <c r="V36" s="86"/>
-      <c r="W36" s="43"/>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="45"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="86"/>
+      <c r="Z36" s="33"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B37" s="49"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
       <c r="H37" s="17">
         <v>39.64</v>
       </c>
-      <c r="I37" s="71"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="60"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="64"/>
       <c r="L37" s="23">
         <f t="shared" si="0"/>
         <v>5.0454086781029266E-3</v>
       </c>
       <c r="M37" s="23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>5.3758192485178142E-5</v>
       </c>
-      <c r="N37" s="67"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="86"/>
-      <c r="V37" s="86"/>
-      <c r="W37" s="43"/>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="45">
+      <c r="N37" s="81"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="86"/>
+      <c r="Z37" s="33"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B38" s="49">
         <v>2</v>
       </c>
-      <c r="C38" s="32">
-        <f t="shared" ref="C38" si="61">B38*0.01</f>
+      <c r="C38" s="41">
+        <f t="shared" ref="C38" si="73">B38*0.01</f>
         <v>0.02</v>
       </c>
-      <c r="D38" s="36">
-        <f t="shared" ref="D38" si="62">(B38/2)^2*10^-6</f>
+      <c r="D38" s="30">
+        <f t="shared" ref="D38" si="74">(B38/2)^2*10^-6</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E38" s="37">
-        <f t="shared" ref="E38" si="63">B38*C38*10^-6</f>
+      <c r="E38" s="30">
+        <f t="shared" ref="E38" si="75">B38*C38*10^-6</f>
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="F38" s="55">
+      <c r="F38" s="59">
         <f>F33</f>
         <v>1.3774999999999999</v>
       </c>
-      <c r="G38" s="55">
+      <c r="G38" s="59">
         <f>G33</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H38" s="18">
         <v>74.900000000000006</v>
       </c>
-      <c r="I38" s="69">
+      <c r="I38" s="67">
         <f>I33</f>
         <v>0.3</v>
       </c>
-      <c r="J38" s="49">
+      <c r="J38" s="53">
         <v>0.2</v>
       </c>
-      <c r="K38" s="61">
-        <f t="shared" ref="K38" si="64">0.5*B38*10^-3</f>
+      <c r="K38" s="65">
+        <f t="shared" ref="K38" si="76">0.5*B38*10^-3</f>
         <v>1E-3</v>
       </c>
       <c r="L38" s="21">
@@ -2760,173 +2922,194 @@
         <f>(($K$38/H38)^2+($J$38*$I$38/H38^2)^2)^(1/2)</f>
         <v>1.7106706942119941E-5</v>
       </c>
-      <c r="N38" s="66">
+      <c r="N38" s="80">
         <f>(L38+L39+L40+L41+L42)/5</f>
         <v>2.654035384232682E-3</v>
       </c>
-      <c r="O38" s="29">
-        <f t="shared" ref="O38" si="65">(SUMSQ(M38:M42)/25)^(1/2)</f>
+      <c r="O38" s="36">
+        <f t="shared" ref="O38" si="77">(SUMSQ(M38:M42)/25)^(1/2)</f>
         <v>7.5910153311779477E-6</v>
       </c>
-      <c r="P38" s="33">
-        <f t="shared" ref="P38" si="66">_xlfn.STDEV.S(L38:L42)</f>
+      <c r="P38" s="42">
+        <f t="shared" ref="P38" si="78">_xlfn.STDEV.S(L38:L42)</f>
         <v>6.3404518771783403E-5</v>
       </c>
-      <c r="Q38" s="61">
+      <c r="Q38" s="65">
         <f>Q33</f>
         <v>1.1476</v>
       </c>
-      <c r="R38" s="61">
+      <c r="R38" s="65">
         <f>R33</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S38" s="29">
-        <f t="shared" ref="S38" si="67">N38/(F38-Q38)*10^(-3)</f>
+      <c r="S38" s="36">
+        <f t="shared" ref="S38" si="79">N38/(F38-Q38)*10^(-3)</f>
         <v>1.154430354168196E-5</v>
       </c>
-      <c r="T38" s="37">
+      <c r="T38" s="30">
         <f>((O38/(F38-Q38))^2+(N38*G38/(F38-Q38)^2)^2+(N38*R38/(F38-Q38)^2)^2)^(1/2)*10^-3</f>
         <v>1.3019378482831071E-7</v>
       </c>
-      <c r="U38" s="86">
-        <f t="shared" ref="U38" si="68">1+2.1*0.5*B38/$D$44</f>
+      <c r="U38" s="38">
+        <f t="shared" ref="U38" si="80">1+2.1*0.5*B38/$D$44</f>
         <v>1.056</v>
       </c>
-      <c r="V38" s="86">
-        <f t="shared" ref="V38:V42" si="69">2.1*C38*0.5/$D$44</f>
+      <c r="V38" s="38">
+        <f t="shared" ref="V38" si="81">2.1*C38*0.5/$D$44</f>
         <v>5.6000000000000006E-4</v>
       </c>
-      <c r="W38" s="43"/>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="45"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
+      <c r="W38" s="30">
+        <f t="shared" ref="W38" si="82">S38*U38</f>
+        <v>1.219078454001615E-5</v>
+      </c>
+      <c r="X38" s="30">
+        <f t="shared" ref="X38" si="83">((T38*U38)^2+(S38*V38)^2)^(1/2)</f>
+        <v>1.3763654717512613E-7</v>
+      </c>
+      <c r="Y38" s="86"/>
+      <c r="Z38" s="33"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="49"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
       <c r="H39" s="9">
         <v>78.34</v>
       </c>
-      <c r="I39" s="70"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="59"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="63"/>
       <c r="L39" s="22">
         <f t="shared" si="0"/>
         <v>2.5529742149604288E-3</v>
       </c>
       <c r="M39" s="22">
-        <f t="shared" ref="M39:M42" si="70">(($K$38/H39)^2+($J$38*$I$38/H39^2)^2)^(1/2)</f>
+        <f t="shared" ref="M39:M42" si="84">(($K$38/H39)^2+($J$38*$I$38/H39^2)^2)^(1/2)</f>
         <v>1.6078625529446875E-5</v>
       </c>
-      <c r="N39" s="40"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="86"/>
-      <c r="V39" s="86"/>
-      <c r="W39" s="43"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="45"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="86"/>
+      <c r="Z39" s="33"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40" s="49"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
       <c r="H40" s="9">
         <v>75.86</v>
       </c>
-      <c r="I40" s="70"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="59"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="63"/>
       <c r="L40" s="22">
         <f t="shared" si="0"/>
         <v>2.6364355391510679E-3</v>
       </c>
       <c r="M40" s="22">
-        <f t="shared" si="70"/>
+        <f t="shared" si="84"/>
         <v>1.6806999019068159E-5</v>
       </c>
-      <c r="N40" s="40"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="86"/>
-      <c r="V40" s="86"/>
-      <c r="W40" s="43"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="45"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="86"/>
+      <c r="Z40" s="33"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B41" s="49"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="9">
         <v>73.8</v>
       </c>
-      <c r="I41" s="70"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="59"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="63"/>
       <c r="L41" s="22">
         <f t="shared" si="0"/>
         <v>2.7100271002710031E-3</v>
       </c>
       <c r="M41" s="22">
-        <f t="shared" si="70"/>
+        <f t="shared" si="84"/>
         <v>1.7463292566734726E-5</v>
       </c>
-      <c r="N41" s="40"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="86"/>
-      <c r="V41" s="86"/>
-      <c r="W41" s="43"/>
-    </row>
-    <row r="42" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="46"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="86"/>
+      <c r="Z41" s="33"/>
+    </row>
+    <row r="42" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="50"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
       <c r="H42" s="11">
         <v>74.06</v>
       </c>
-      <c r="I42" s="72"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="62"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="66"/>
       <c r="L42" s="24">
         <f t="shared" si="0"/>
         <v>2.7005130974885228E-3</v>
       </c>
       <c r="M42" s="24">
-        <f t="shared" si="70"/>
+        <f t="shared" si="84"/>
         <v>1.7377698907979166E-5</v>
       </c>
-      <c r="N42" s="68"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="87"/>
-      <c r="W42" s="44"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N42" s="82"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="87"/>
+      <c r="Z42" s="34"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -2935,7 +3118,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="146">
+  <mergeCells count="163">
     <mergeCell ref="V3:V7"/>
     <mergeCell ref="V8:V12"/>
     <mergeCell ref="V13:V17"/>
@@ -2960,6 +3143,7 @@
     <mergeCell ref="O33:O37"/>
     <mergeCell ref="P33:P37"/>
     <mergeCell ref="O38:O42"/>
+    <mergeCell ref="K38:K42"/>
     <mergeCell ref="P38:P42"/>
     <mergeCell ref="O18:O22"/>
     <mergeCell ref="P18:P22"/>
@@ -2976,6 +3160,30 @@
     <mergeCell ref="N33:N37"/>
     <mergeCell ref="N38:N42"/>
     <mergeCell ref="O3:O7"/>
+    <mergeCell ref="R3:R7"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="R8:R12"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="Q33:Q37"/>
+    <mergeCell ref="R33:R37"/>
+    <mergeCell ref="Q38:Q42"/>
+    <mergeCell ref="R38:R42"/>
+    <mergeCell ref="Q18:Q22"/>
+    <mergeCell ref="R18:R22"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="Q28:Q32"/>
+    <mergeCell ref="R28:R32"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="Q3:Q7"/>
     <mergeCell ref="I28:I32"/>
     <mergeCell ref="I33:I37"/>
     <mergeCell ref="I38:I42"/>
@@ -2991,35 +3199,6 @@
     <mergeCell ref="I18:I22"/>
     <mergeCell ref="I23:I27"/>
     <mergeCell ref="K33:K37"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="Q3:Q7"/>
-    <mergeCell ref="R3:R7"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="R8:R12"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="R13:R17"/>
-    <mergeCell ref="Q33:Q37"/>
-    <mergeCell ref="R33:R37"/>
-    <mergeCell ref="Q38:Q42"/>
-    <mergeCell ref="R38:R42"/>
-    <mergeCell ref="Q18:Q22"/>
-    <mergeCell ref="R18:R22"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="Q28:Q32"/>
-    <mergeCell ref="R28:R32"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="W3:W7"/>
-    <mergeCell ref="W8:W42"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="J3:J7"/>
@@ -3042,6 +3221,8 @@
     <mergeCell ref="F18:F22"/>
     <mergeCell ref="F23:F27"/>
     <mergeCell ref="F28:F32"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="F38:F42"/>
     <mergeCell ref="S28:S32"/>
     <mergeCell ref="S33:S37"/>
     <mergeCell ref="S38:S42"/>
@@ -3082,6 +3263,25 @@
     <mergeCell ref="E28:E32"/>
     <mergeCell ref="E33:E37"/>
     <mergeCell ref="E38:E42"/>
+    <mergeCell ref="W23:W27"/>
+    <mergeCell ref="X23:X27"/>
+    <mergeCell ref="W28:W32"/>
+    <mergeCell ref="X28:X32"/>
+    <mergeCell ref="W33:W37"/>
+    <mergeCell ref="X33:X37"/>
+    <mergeCell ref="W38:W42"/>
+    <mergeCell ref="X38:X42"/>
+    <mergeCell ref="Z3:Z42"/>
+    <mergeCell ref="W3:W7"/>
+    <mergeCell ref="X3:X7"/>
+    <mergeCell ref="W8:W12"/>
+    <mergeCell ref="X8:X12"/>
+    <mergeCell ref="W13:W17"/>
+    <mergeCell ref="X13:X17"/>
+    <mergeCell ref="W18:W22"/>
+    <mergeCell ref="X18:X22"/>
+    <mergeCell ref="Y3:Y7"/>
+    <mergeCell ref="Y8:Y42"/>
   </mergeCells>
   <pageMargins left="0" right="0.39370078740157483" top="1.3779527559055118" bottom="0" header="0" footer="0"/>
   <pageSetup scale="49" orientation="landscape" r:id="rId1"/>
@@ -3126,10 +3326,10 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="83">
         <v>4</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="32">
         <f>273.15+23.9</f>
         <v>297.04999999999995</v>
       </c>
@@ -3144,8 +3344,8 @@
       <c r="D4" s="1">
         <v>99</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
@@ -3157,8 +3357,8 @@
       <c r="D5" s="1">
         <v>226</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
@@ -3170,8 +3370,8 @@
       <c r="D6" s="1">
         <v>357</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
@@ -3183,8 +3383,8 @@
       <c r="D7" s="1">
         <v>485</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
@@ -3196,8 +3396,8 @@
       <c r="D8" s="1">
         <v>616</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
@@ -3209,8 +3409,8 @@
       <c r="D9" s="2">
         <v>744</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
+++ b/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>t [s]</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Raumtemp. [K]</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>λ</t>
@@ -210,6 +207,90 @@
       <t>T</t>
     </r>
   </si>
+  <si>
+    <t>v_lam</t>
+  </si>
+  <si>
+    <t>Δ v_lam</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Δ Re</t>
+  </si>
+  <si>
+    <t>R [mm]</t>
+  </si>
+  <si>
+    <t>g [m/s]</t>
+  </si>
+  <si>
+    <t>η_korr [Pa s]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>η_korr [Pa s]</t>
+    </r>
+  </si>
+  <si>
+    <t>η [Pa s]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>η [Pa s]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -221,11 +302,11 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.E+00"/>
-    <numFmt numFmtId="172" formatCode="0.0E+00"/>
-    <numFmt numFmtId="173" formatCode="0.000E+00"/>
+    <numFmt numFmtId="169" formatCode="0.E+00"/>
+    <numFmt numFmtId="170" formatCode="0.0E+00"/>
+    <numFmt numFmtId="171" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +326,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -260,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -418,21 +505,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -491,19 +563,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -573,7 +632,63 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -584,13 +699,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -599,26 +714,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -627,9 +729,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -638,240 +744,238 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1191,194 +1295,213 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Z45"/>
+  <dimension ref="B1:AD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E3" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="I3" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="K3" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="12" t="s">
+      <c r="M3" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="23" t="s">
+      <c r="T3" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="64">
+      <c r="Z3" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="90"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="76">
         <v>9</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="77">
         <f>B4*0.01</f>
         <v>0.09</v>
       </c>
@@ -1390,64 +1513,64 @@
         <f>B4*C4*10^-6</f>
         <v>8.0999999999999987E-7</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="46">
         <v>1.3554999999999999</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="46">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="8">
         <v>6.14</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="53">
         <v>0.3</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="79">
         <v>0.2</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="56">
         <f>0.5*B4*10^-3</f>
         <v>4.5000000000000005E-3</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="17">
         <f>$J$4/H4</f>
         <v>3.2573289902280131E-2</v>
       </c>
-      <c r="M4" s="81">
+      <c r="M4" s="17">
         <f>(($K$4/H4)^2+($J$4*$I$4/H4^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="50">
         <f>(L4+L5+L6+L7+L8)/5</f>
         <v>3.3077869485049816E-2</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="50">
         <f>(SUMSQ(M4:M8)/25)^(1/2)</f>
         <v>8.0798706393487478E-4</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="50">
         <f>_xlfn.STDEV.S(L4:L8)</f>
         <v>1.1538275016650245E-3</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="50">
         <v>1.1482000000000001</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="50">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="S4" s="78">
         <f>N4/(F4-Q4)*10^(-3)</f>
         <v>1.59565217004582E-4</v>
       </c>
-      <c r="T4" s="86">
+      <c r="T4" s="39">
         <f>((P4/(F4-Q4))^2+(N4*G4/(F4-Q4)^2)^2+(N4*R4/(F4-Q4)^2)^2)^(1/2)*10^-3</f>
         <v>5.5813928390751162E-6</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="51">
         <f>1+2.1*0.5*B4/$D$45</f>
         <v>1.252</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="51">
         <f>2.1*C4*0.5/$D$45</f>
         <v>2.5200000000000001E-3</v>
       </c>
@@ -1455,171 +1578,203 @@
         <f>S4*U4</f>
         <v>1.9977565168973667E-4</v>
       </c>
-      <c r="X4" s="85">
+      <c r="X4" s="80">
         <f>((T4*U4)^2+(S4*V4)^2)^(1/2)</f>
         <v>6.9994634013104759E-6</v>
       </c>
-      <c r="Y4" s="72">
+      <c r="Y4" s="29">
         <f>273.15+21.5</f>
         <v>294.64999999999998</v>
       </c>
-      <c r="Z4" s="69">
+      <c r="Z4" s="71">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="58"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="9">
+      <c r="AA4" s="91">
+        <f>2/9*$D$46*(F4-Q4)*D4/$D$47*10^3</f>
+        <v>4.3657379999999968E-2</v>
+      </c>
+      <c r="AB4" s="91">
+        <f>2/9*$D$46*((F4*D4/$D$47)^2+(R4*D4/$D$47)^2+((F4-Q4)*$D$48/$D$47^2)^2+((F4-Q4)*2*(D4)^(1/2)*(E4)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
+        <v>8.2920493227589778E-5</v>
+      </c>
+      <c r="AC4" s="34">
+        <f>Q4*$AA$4*B4*10^-3/$D$47*10^3</f>
+        <v>2.1522942724019138</v>
+      </c>
+      <c r="AD4" s="92">
+        <f>((AA4*R4*B4*10^-3/$D$47)^2+(Q4*AB4*B4*10^-3/$D$47)^2+(Q4*AA4*C4*10^-3/$D$47)^2+(Q4*AA4*B4*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>8.5631234092181471E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="8">
         <v>6.14</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="82">
+      <c r="I5" s="53"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="17">
         <f t="shared" ref="L5:L43" si="0">$J$4/H5</f>
         <v>3.2573289902280131E-2</v>
       </c>
-      <c r="M5" s="82">
+      <c r="M5" s="17">
         <f t="shared" ref="M5:M8" si="1">(($K$4/H5)^2+($J$4*$I$4/H5^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="70"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="9">
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="93"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="8">
         <v>5.7</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="82">
+      <c r="I6" s="53"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="17">
         <f t="shared" si="0"/>
         <v>3.5087719298245612E-2</v>
       </c>
-      <c r="M6" s="82">
+      <c r="M6" s="17">
         <f t="shared" si="1"/>
         <v>2.0083951542744852E-3</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="70"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="9">
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="93"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="8">
         <v>6.21</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="82">
+      <c r="I7" s="53"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="17">
         <f t="shared" si="0"/>
         <v>3.2206119162640906E-2</v>
       </c>
-      <c r="M7" s="82">
+      <c r="M7" s="17">
         <f t="shared" si="1"/>
         <v>1.716325325710239E-3</v>
       </c>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="70"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="14">
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="93"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="11">
         <v>6.07</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="83">
+      <c r="I8" s="54"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="18">
         <f t="shared" si="0"/>
         <v>3.2948929159802305E-2</v>
       </c>
-      <c r="M8" s="82">
+      <c r="M8" s="17">
         <f t="shared" si="1"/>
         <v>1.7892578702547329E-3</v>
       </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="70"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="58">
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="93"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" s="40">
         <v>8</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="35">
         <f t="shared" ref="C9" si="2">B9*0.01</f>
         <v>0.08</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="27">
         <f t="shared" ref="D9" si="3">(B9/2)^2*10^-6</f>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="27">
         <f t="shared" ref="E9" si="4">B9*C9*10^-6</f>
         <v>6.4000000000000001E-7</v>
       </c>
@@ -1629,229 +1784,261 @@
       <c r="G9" s="47">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="12">
         <v>7.86</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="52">
         <f>I4</f>
         <v>0.3</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9" s="42">
         <v>0.2</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="58">
         <f>0.5*B9*10^-3</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="19">
         <f t="shared" si="0"/>
         <v>2.5445292620865142E-2</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="19">
         <f>(($K$9/H9)^2+($J$9*$I$9/H9^2)^2)^(1/2)</f>
         <v>1.0964504915178231E-3</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="59">
         <f>(L9+L10+L11+L12+L13)/5</f>
         <v>2.6029305829267206E-2</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="59">
         <f t="shared" ref="O9" si="5">(SUMSQ(M9:M13)/25)^(1/2)</f>
         <v>5.1104479056882763E-4</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="59">
         <f t="shared" ref="P9" si="6">_xlfn.STDEV.S(L9:L13)</f>
         <v>5.0949814262065871E-4</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="59">
         <v>1.1476</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S9" s="90">
+      <c r="S9" s="20">
         <f t="shared" ref="S9" si="7">N9/(F9-Q9)*10^(-3)</f>
         <v>1.2112287496169007E-4</v>
       </c>
-      <c r="T9" s="89">
+      <c r="T9" s="21">
         <f>((P9/(F9-Q9))^2+(N9*G9/(F9-Q9)^2)^2+(N9*R9/(F9-Q9)^2)^2)^(1/2)*10^-3</f>
         <v>2.3902111605678812E-6</v>
       </c>
-      <c r="U9" s="26">
+      <c r="U9" s="32">
         <f t="shared" ref="U9" si="8">1+2.1*0.5*B9/$D$45</f>
         <v>1.224</v>
       </c>
-      <c r="V9" s="26">
+      <c r="V9" s="32">
         <f t="shared" ref="V9" si="9">2.1*C9*0.5/$D$45</f>
         <v>2.2400000000000002E-3</v>
       </c>
-      <c r="W9" s="79">
+      <c r="W9" s="27">
         <f t="shared" ref="W9" si="10">S9*U9</f>
         <v>1.4825439895310865E-4</v>
       </c>
-      <c r="X9" s="87">
+      <c r="X9" s="28">
         <f t="shared" ref="X9" si="11">((T9*U9)^2+(S9*V9)^2)^(1/2)</f>
         <v>2.9381721079666829E-6</v>
       </c>
-      <c r="Y9" s="73">
+      <c r="Y9" s="30">
         <f>Y4+0.5</f>
         <v>295.14999999999998</v>
       </c>
-      <c r="Z9" s="70"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="9">
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="36">
+        <f>2/9*$D$46*(F9-Q9)*D9/$D$47*10^3</f>
+        <v>3.5759360000000018E-2</v>
+      </c>
+      <c r="AB9" s="36">
+        <f>2/9*$D$46*((F9*D9/$D$47)^2+(R9*D9/$D$47)^2+((F9-Q9)*$D$48/$D$47^2)^2+((F9-Q9)*2*(D9)^(1/2)*(E9)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
+        <v>8.5960300177213242E-5</v>
+      </c>
+      <c r="AC9" s="35">
+        <f>Q9*$AA$4*B9*10^-3/$D$47*10^3</f>
+        <v>1.91215073410241</v>
+      </c>
+      <c r="AD9" s="93">
+        <f>((AA9*R9*B9*10^-3/$D$47)^2+(Q9*AB9*B9*10^-3/$D$47)^2+(Q9*AA9*C9*10^-3/$D$47)^2+(Q9*AA9*B9*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>6.2356591175247576E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="40"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="8">
         <v>7.8</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="82">
+      <c r="I10" s="53"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="17">
         <f t="shared" si="0"/>
         <v>2.5641025641025644E-2</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="17">
         <f t="shared" ref="M10:M13" si="12">(($K$9/H10)^2+($J$9*$I$9/H10^2)^2)^(1/2)</f>
         <v>1.1115584065960846E-3</v>
       </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="70"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="9">
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="93"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="8">
         <v>7.7</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="82">
+      <c r="I11" s="53"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="17">
         <f t="shared" si="0"/>
         <v>2.5974025974025976E-2</v>
       </c>
-      <c r="M11" s="82">
+      <c r="M11" s="17">
         <f t="shared" si="12"/>
         <v>1.1375207635695094E-3</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="70"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="9">
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="93"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="40"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="8">
         <v>7.56</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="82">
+      <c r="I12" s="53"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="17">
         <f t="shared" si="0"/>
         <v>2.6455026455026457E-2</v>
       </c>
-      <c r="M12" s="82">
+      <c r="M12" s="17">
         <f t="shared" si="12"/>
         <v>1.1755989736153413E-3</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="70"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="58"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="14">
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="93"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="40"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="11">
         <v>7.51</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="83">
+      <c r="I13" s="54"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="18">
         <f t="shared" si="0"/>
         <v>2.6631158455392812E-2</v>
       </c>
-      <c r="M13" s="83">
+      <c r="M13" s="18">
         <f t="shared" si="12"/>
         <v>1.1897130928283149E-3</v>
       </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="70"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="65">
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="93"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="45">
         <v>7.1440000000000001</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="36">
         <f t="shared" ref="C14" si="13">B14*0.01</f>
         <v>7.1440000000000003E-2</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="27">
         <f t="shared" ref="D14" si="14">(B14/2)^2*10^-6</f>
         <v>1.2759184000000001E-5</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="27">
         <f t="shared" ref="E14" si="15">B14*C14*10^-6</f>
         <v>5.1036735999999999E-7</v>
       </c>
@@ -1861,226 +2048,258 @@
       <c r="G14" s="47">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="12">
         <v>8.42</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="52">
         <f>I9</f>
         <v>0.3</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="42">
         <v>0.2</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="58">
         <f t="shared" ref="K14" si="16">0.5*B14*10^-3</f>
         <v>3.5720000000000001E-3</v>
       </c>
-      <c r="L14" s="84">
+      <c r="L14" s="19">
         <f t="shared" si="0"/>
         <v>2.3752969121140145E-2</v>
       </c>
-      <c r="M14" s="84">
+      <c r="M14" s="19">
         <f>(($K$14/H14)^2+($J$14*$I$14/H14^2)^2)^(1/2)</f>
         <v>9.4667951449123387E-4</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="59">
         <f>(L14+L15+L16+L17+L18)/5</f>
         <v>2.3640955470984416E-2</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="50">
         <f t="shared" ref="O14" si="17">(SUMSQ(M14:M18)/25)^(1/2)</f>
         <v>4.2004945214195227E-4</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="50">
         <f t="shared" ref="P14" si="18">_xlfn.STDEV.S(L14:L18)</f>
         <v>4.1924762935458839E-4</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="59">
         <v>1.1476</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S14" s="90">
+      <c r="S14" s="20">
         <f t="shared" ref="S14" si="19">N14/(F14-Q14)*10^(-3)</f>
         <v>1.0283147225308576E-4</v>
       </c>
-      <c r="T14" s="89">
+      <c r="T14" s="21">
         <f>((P14/(F14-Q14))^2+(N14*G14/(F14-Q14)^2)^2+(N14*R14/(F14-Q14)^2)^2)^(1/2)*10^-3</f>
         <v>2.1410198964813952E-6</v>
       </c>
-      <c r="U14" s="26">
+      <c r="U14" s="32">
         <f t="shared" ref="U14" si="20">1+2.1*0.5*B14/$D$45</f>
         <v>1.200032</v>
       </c>
-      <c r="V14" s="26">
+      <c r="V14" s="32">
         <f t="shared" ref="V14" si="21">2.1*C14*0.5/$D$45</f>
         <v>2.0003200000000003E-3</v>
       </c>
-      <c r="W14" s="90">
+      <c r="W14" s="20">
         <f>S14*U14</f>
         <v>1.2340105731081501E-4</v>
       </c>
-      <c r="X14" s="89">
+      <c r="X14" s="21">
         <f t="shared" ref="X14" si="22">((T14*U14)^2+(S14*V14)^2)^(1/2)</f>
         <v>2.5775131736052662E-6</v>
       </c>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="70"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="65"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="9">
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="36">
+        <f>2/9*$D$46*(F14-Q14)*D14/$D$47*10^3</f>
+        <v>3.0506698576639998E-2</v>
+      </c>
+      <c r="AB14" s="36">
+        <f>2/9*$D$46*((F14*D14/$D$47)^2+(R14*D14/$D$47)^2+((F14-Q14)*$D$48/$D$47^2)^2+((F14-Q14)*2*(D14)^(1/2)*(E14)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
+        <v>9.196018247254961E-5</v>
+      </c>
+      <c r="AC14" s="35">
+        <f>Q14*$AA$4*B14*10^-3/$D$47*10^3</f>
+        <v>1.7075506055534522</v>
+      </c>
+      <c r="AD14" s="93">
+        <f>((AA14*R14*B14*10^-3/$D$47)^2+(Q14*AB14*B14*10^-3/$D$47)^2+(Q14*AA14*C14*10^-3/$D$47)^2+(Q14*AA14*B14*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>4.7554545156289173E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="45"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="8">
         <v>8.6199999999999992</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="82">
+      <c r="I15" s="53"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="17">
         <f t="shared" si="0"/>
         <v>2.3201856148491882E-2</v>
       </c>
-      <c r="M15" s="82">
+      <c r="M15" s="17">
         <f t="shared" ref="M15:M18" si="23">(($K$14/H15)^2+($J$14*$I$14/H15^2)^2)^(1/2)</f>
         <v>9.0760886409929718E-4</v>
       </c>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="70"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="65"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="9">
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="93"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="45"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="8">
         <v>8.5399999999999991</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="82">
+      <c r="I16" s="53"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="17">
         <f t="shared" si="0"/>
         <v>2.3419203747072605E-2</v>
       </c>
-      <c r="M16" s="82">
+      <c r="M16" s="17">
         <f t="shared" si="23"/>
         <v>9.2291055402502582E-4</v>
       </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="70"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="65"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="9">
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="93"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B17" s="45"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="8">
         <v>8.5</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="82">
+      <c r="I17" s="53"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="17">
         <f t="shared" si="0"/>
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="M17" s="82">
+      <c r="M17" s="17">
         <f t="shared" si="23"/>
         <v>9.3072263192061364E-4</v>
       </c>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="70"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="65"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="14">
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="93"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B18" s="45"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="11">
         <v>8.23</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="83">
+      <c r="I18" s="54"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="18">
         <f t="shared" si="0"/>
         <v>2.4301336573511544E-2</v>
       </c>
-      <c r="M18" s="83">
+      <c r="M18" s="18">
         <f t="shared" si="23"/>
         <v>9.8644518067141844E-4</v>
       </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="70"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="58">
+      <c r="N18" s="51"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="93"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B19" s="40">
         <v>6</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="35">
         <f t="shared" ref="C19" si="24">B19*0.01</f>
         <v>0.06</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="27">
         <f t="shared" ref="D19" si="25">(B19/2)^2*10^-6</f>
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="27">
         <f t="shared" ref="E19" si="26">B19*C19*10^-6</f>
         <v>3.5999999999999999E-7</v>
       </c>
@@ -2090,226 +2309,258 @@
       <c r="G19" s="47">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="12">
         <v>11.62</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="52">
         <f>I14</f>
         <v>0.3</v>
       </c>
-      <c r="J19" s="61">
+      <c r="J19" s="42">
         <v>0.2</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K19" s="58">
         <f t="shared" ref="K19" si="27">0.5*B19*10^-3</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L19" s="84">
+      <c r="L19" s="19">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
-      <c r="M19" s="84">
+      <c r="M19" s="19">
         <f>(($K$19/H19)^2+($J$19*$I$19/H19^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="62">
         <f>(L19+L20+L21+L22+L23)/5</f>
         <v>1.711072882678167E-2</v>
       </c>
-      <c r="O19" s="35">
+      <c r="O19" s="36">
         <f t="shared" ref="O19" si="28">(SUMSQ(M19:M23)/25)^(1/2)</f>
         <v>2.2754630774580575E-4</v>
       </c>
-      <c r="P19" s="35">
+      <c r="P19" s="36">
         <f t="shared" ref="P19" si="29">_xlfn.STDEV.S(L19:L23)</f>
         <v>2.0964670301082701E-4</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="59">
         <v>1.1476</v>
       </c>
-      <c r="R19" s="30">
+      <c r="R19" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S19" s="79">
+      <c r="S19" s="27">
         <f t="shared" ref="S19" si="30">N19/(F19-Q19)*10^(-3)</f>
         <v>7.4426832652377855E-5</v>
       </c>
-      <c r="T19" s="89">
+      <c r="T19" s="21">
         <f>((O19/(F19-Q19))^2+(N19*G19/(F19-Q19)^2)^2+(N19*R19/(F19-Q19)^2)^2)^(1/2)*10^-3</f>
         <v>1.2801762190890571E-6</v>
       </c>
-      <c r="U19" s="26">
+      <c r="U19" s="32">
         <f t="shared" ref="U19" si="31">1+2.1*0.5*B19/$D$45</f>
         <v>1.1679999999999999</v>
       </c>
-      <c r="V19" s="26">
+      <c r="V19" s="32">
         <f t="shared" ref="V19" si="32">2.1*C19*0.5/$D$45</f>
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="W19" s="90">
+      <c r="W19" s="27">
         <f t="shared" ref="W19" si="33">S19*U19</f>
         <v>8.693054053797733E-5</v>
       </c>
-      <c r="X19" s="89">
+      <c r="X19" s="21">
         <f t="shared" ref="X19" si="34">((T19*U19)^2+(S19*V19)^2)^(1/2)</f>
         <v>1.5004647096707485E-6</v>
       </c>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="70"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="9">
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="36">
+        <f>2/9*$D$46*(F19-Q19)*D19/$D$47*10^3</f>
+        <v>2.1518640000000002E-2</v>
+      </c>
+      <c r="AB19" s="36">
+        <f>2/9*$D$46*((F19*D19/$D$47)^2+(R19*D19/$D$47)^2+((F19-Q19)*$D$48/$D$47^2)^2+((F19-Q19)*2*(D19)^(1/2)*(E19)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
+        <v>9.1960090789782316E-5</v>
+      </c>
+      <c r="AC19" s="35">
+        <f>Q19*$AA$4*B19*10^-3/$D$47*10^3</f>
+        <v>1.4341130505768076</v>
+      </c>
+      <c r="AD19" s="93">
+        <f>((AA19*R19*B19*10^-3/$D$47)^2+(Q19*AB19*B19*10^-3/$D$47)^2+(Q19*AA19*C19*10^-3/$D$47)^2+(Q19*AA19*B19*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>2.825350160145991E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B20" s="40"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="8">
         <v>11.62</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="82">
+      <c r="I20" s="53"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="17">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
-      <c r="M20" s="82">
+      <c r="M20" s="17">
         <f t="shared" ref="M20:M23" si="35">(($K$19/H20)^2+($J$19*$I$19/H20^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N20" s="37"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="70"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="9">
+      <c r="N20" s="62"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="93"/>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B21" s="40"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="8">
         <v>11.64</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="82">
+      <c r="I21" s="53"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="17">
         <f t="shared" si="0"/>
         <v>1.7182130584192441E-2</v>
       </c>
-      <c r="M21" s="82">
+      <c r="M21" s="17">
         <f t="shared" si="35"/>
         <v>5.1237840142188897E-4</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="70"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="9">
+      <c r="N21" s="62"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="93"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B22" s="40"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="8">
         <v>11.62</v>
       </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="82">
+      <c r="I22" s="53"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="17">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
-      <c r="M22" s="82">
+      <c r="M22" s="17">
         <f t="shared" si="35"/>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="70"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="14">
+      <c r="N22" s="62"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="93"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B23" s="40"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="11">
         <v>11.95</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="83">
+      <c r="I23" s="54"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="18">
         <f t="shared" si="0"/>
         <v>1.6736401673640169E-2</v>
       </c>
-      <c r="M23" s="83">
+      <c r="M23" s="18">
         <f t="shared" si="35"/>
         <v>4.8944778085674683E-4</v>
       </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="70"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="58">
+      <c r="N23" s="62"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="93"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B24" s="40">
         <v>5</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="35">
         <f t="shared" ref="C24" si="36">B24*0.01</f>
         <v>0.05</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="27">
         <f t="shared" ref="D24" si="37">(B24/2)^2*10^-6</f>
         <v>6.2499999999999995E-6</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="27">
         <f t="shared" ref="E24" si="38">B24*C24*10^-6</f>
         <v>2.4999999999999999E-7</v>
       </c>
@@ -2319,226 +2570,258 @@
       <c r="G24" s="47">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="12">
         <v>15.56</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="52">
         <f>I14</f>
         <v>0.3</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="43">
         <v>0.2</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="59">
         <f t="shared" ref="K24" si="39">0.5*B24*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L24" s="84">
+      <c r="L24" s="19">
         <f t="shared" si="0"/>
         <v>1.2853470437017995E-2</v>
       </c>
-      <c r="M24" s="84">
+      <c r="M24" s="19">
         <f>(($K$24/H24)^2+($J$24*$I$24/H24^2)^2)^(1/2)</f>
         <v>2.9534364435364433E-4</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="63">
         <f>(L24+L25+L26+L27+L28)/5</f>
         <v>1.2816144235262594E-2</v>
       </c>
-      <c r="O24" s="35">
+      <c r="O24" s="36">
         <f t="shared" ref="O24" si="40">(SUMSQ(M24:M28)/25)^(1/2)</f>
         <v>1.314809588282321E-4</v>
       </c>
-      <c r="P24" s="35">
+      <c r="P24" s="36">
         <f t="shared" ref="P24" si="41">_xlfn.STDEV.S(L24:L28)</f>
         <v>1.8897275186015511E-4</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="Q24" s="59">
         <v>1.1476</v>
       </c>
-      <c r="R24" s="30">
+      <c r="R24" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S24" s="79">
+      <c r="S24" s="27">
         <f t="shared" ref="S24" si="42">N24/(F24-Q24)*10^(-3)</f>
         <v>5.5746603894139167E-5</v>
       </c>
-      <c r="T24" s="89">
+      <c r="T24" s="21">
         <f>((P24/(F24-Q24))^2+(N24*G24/(F24-Q24)^2)^2+(N24*R24/(F24-Q24)^2)^2)^(1/2)*10^-3</f>
         <v>1.022489217302807E-6</v>
       </c>
-      <c r="U24" s="26">
+      <c r="U24" s="32">
         <f t="shared" ref="U24" si="43">1+2.1*0.5*B24/$D$45</f>
         <v>1.1400000000000001</v>
       </c>
-      <c r="V24" s="26">
+      <c r="V24" s="32">
         <f t="shared" ref="V24" si="44">2.1*C24*0.5/$D$45</f>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="W24" s="90">
+      <c r="W24" s="27">
         <f t="shared" ref="W24" si="45">S24*U24</f>
         <v>6.3551128439318658E-5</v>
       </c>
-      <c r="X24" s="89">
+      <c r="X24" s="21">
         <f t="shared" ref="X24" si="46">((T24*U24)^2+(S24*V24)^2)^(1/2)</f>
         <v>1.1682475448330675E-6</v>
       </c>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="70"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="58"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="9">
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="36">
+        <f>2/9*$D$46*(F24-Q24)*D24/$D$47*10^3</f>
+        <v>1.4943499999999998E-2</v>
+      </c>
+      <c r="AB24" s="36">
+        <f>2/9*$D$46*((F24*D24/$D$47)^2+(R24*D24/$D$47)^2+((F24-Q24)*$D$48/$D$47^2)^2+((F24-Q24)*2*(D24)^(1/2)*(E24)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
+        <v>9.1960043783663944E-5</v>
+      </c>
+      <c r="AC24" s="35">
+        <f>Q24*$AA$4*B24*10^-3/$D$47*10^3</f>
+        <v>1.1950942088140062</v>
+      </c>
+      <c r="AD24" s="93">
+        <f>((AA24*R24*B24*10^-3/$D$47)^2+(Q24*AB24*B24*10^-3/$D$47)^2+(Q24*AA24*C24*10^-3/$D$47)^2+(Q24*AA24*B24*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>1.6450433522931684E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B25" s="40"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="8">
         <v>15.24</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="82">
+      <c r="I25" s="53"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="17">
         <f t="shared" si="0"/>
         <v>1.3123359580052493E-2</v>
       </c>
-      <c r="M25" s="82">
+      <c r="M25" s="17">
         <f t="shared" ref="M25:M28" si="47">(($K$24/H25)^2+($J$24*$I$24/H25^2)^2)^(1/2)</f>
         <v>3.0601659121382729E-4</v>
       </c>
-      <c r="N25" s="37"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="70"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="9">
+      <c r="N25" s="62"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="93"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B26" s="40"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="8">
         <v>15.8</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="82">
+      <c r="I26" s="53"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="17">
         <f t="shared" si="0"/>
         <v>1.2658227848101266E-2</v>
       </c>
-      <c r="M26" s="82">
+      <c r="M26" s="17">
         <f t="shared" si="47"/>
         <v>2.8775388602423501E-4</v>
       </c>
-      <c r="N26" s="37"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="70"/>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="9">
+      <c r="N26" s="62"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="93"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B27" s="40"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="8">
         <v>15.66</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="82">
+      <c r="I27" s="53"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="17">
         <f t="shared" si="0"/>
         <v>1.277139208173691E-2</v>
       </c>
-      <c r="M27" s="82">
+      <c r="M27" s="17">
         <f t="shared" si="47"/>
         <v>2.9213956412965739E-4</v>
       </c>
-      <c r="N27" s="37"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="70"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="14">
+      <c r="N27" s="62"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="93"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B28" s="40"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="11">
         <v>15.78</v>
       </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="83">
+      <c r="I28" s="54"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="18">
         <f t="shared" si="0"/>
         <v>1.2674271229404311E-2</v>
       </c>
-      <c r="M28" s="83">
+      <c r="M28" s="18">
         <f t="shared" si="47"/>
         <v>2.8837339882458726E-4</v>
       </c>
-      <c r="N28" s="39"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="70"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B29" s="58">
+      <c r="N28" s="64"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="93"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="40">
         <v>4</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="35">
         <f t="shared" ref="C29" si="48">B29*0.01</f>
         <v>0.04</v>
       </c>
-      <c r="D29" s="79">
+      <c r="D29" s="27">
         <f t="shared" ref="D29" si="49">(B29/2)^2*10^-6</f>
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="E29" s="79">
+      <c r="E29" s="27">
         <f t="shared" ref="E29" si="50">B29*C29*10^-6</f>
         <v>1.6E-7</v>
       </c>
@@ -2548,226 +2831,258 @@
       <c r="G29" s="47">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="12">
         <v>23.43</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="52">
         <f>I14</f>
         <v>0.3</v>
       </c>
-      <c r="J29" s="62">
+      <c r="J29" s="43">
         <v>0.2</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="59">
         <f t="shared" ref="K29" si="51">0.5*B29*10^-3</f>
         <v>2E-3</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="13">
         <f t="shared" si="0"/>
         <v>8.5360648740930439E-3</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="13">
         <f>(($K$29/H29)^2+($J$29*$I$29/H29^2)^2)^(1/2)</f>
         <v>1.3868016543122825E-4</v>
       </c>
-      <c r="N29" s="37">
+      <c r="N29" s="62">
         <f>(L29+L30+L31+L32+L33)/5</f>
         <v>8.3600294043818212E-3</v>
       </c>
-      <c r="O29" s="35">
+      <c r="O29" s="36">
         <f t="shared" ref="O29" si="52">(SUMSQ(M29:M33)/25)^(1/2)</f>
         <v>5.9979431293701365E-5</v>
       </c>
-      <c r="P29" s="35">
+      <c r="P29" s="36">
         <f t="shared" ref="P29" si="53">_xlfn.STDEV.S(L29:L33)</f>
         <v>9.8921847583569231E-5</v>
       </c>
-      <c r="Q29" s="30">
+      <c r="Q29" s="59">
         <v>1.1476</v>
       </c>
-      <c r="R29" s="30">
+      <c r="R29" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S29" s="79">
+      <c r="S29" s="27">
         <f t="shared" ref="S29" si="54">N29/(F29-Q29)*10^(-3)</f>
         <v>3.6363764264383737E-5</v>
       </c>
-      <c r="T29" s="87">
+      <c r="T29" s="28">
         <f>((P29/(F29-Q29))^2+(N29*G29/(F29-Q29)^2)^2+(N29*R29/(F29-Q29)^2)^2)^(1/2)*10^-3</f>
         <v>5.8524222723986226E-7</v>
       </c>
-      <c r="U29" s="26">
+      <c r="U29" s="32">
         <f t="shared" ref="U29" si="55">1+2.1*0.5*B29/$D$45</f>
         <v>1.1120000000000001</v>
       </c>
-      <c r="V29" s="26">
+      <c r="V29" s="32">
         <f t="shared" ref="V29" si="56">2.1*C29*0.5/$D$45</f>
         <v>1.1200000000000001E-3</v>
       </c>
-      <c r="W29" s="90">
+      <c r="W29" s="27">
         <f t="shared" ref="W29" si="57">S29*U29</f>
         <v>4.0436505861994719E-5</v>
       </c>
-      <c r="X29" s="89">
+      <c r="X29" s="28">
         <f t="shared" ref="X29" si="58">((T29*U29)^2+(S29*V29)^2)^(1/2)</f>
         <v>6.5206250405465057E-7</v>
       </c>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="70"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="9">
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="36">
+        <f>2/9*$D$46*(F29-Q29)*D29/$D$47*10^3</f>
+        <v>9.5638400000000005E-3</v>
+      </c>
+      <c r="AB29" s="36">
+        <f>2/9*$D$46*((F29*D29/$D$47)^2+(R29*D29/$D$47)^2+((F29-Q29)*$D$48/$D$47^2)^2+((F29-Q29)*2*(D29)^(1/2)*(E29)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
+        <v>9.1960017933791273E-5</v>
+      </c>
+      <c r="AC29" s="35">
+        <f>Q29*$AA$4*B29*10^-3/$D$47*10^3</f>
+        <v>0.95607536705120499</v>
+      </c>
+      <c r="AD29" s="93">
+        <f>((AA29*R29*B29*10^-3/$D$47)^2+(Q29*AB29*B29*10^-3/$D$47)^2+(Q29*AA29*C29*10^-3/$D$47)^2+(Q29*AA29*B29*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>8.5635887138922426E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B30" s="40"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="8">
         <v>24.06</v>
       </c>
-      <c r="I30" s="50"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="18">
+      <c r="I30" s="53"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="14">
         <f t="shared" si="0"/>
         <v>8.3125519534497094E-3</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="14">
         <f t="shared" ref="M30:M33" si="59">(($K$29/H30)^2+($J$29*$I$29/H30^2)^2)^(1/2)</f>
         <v>1.3286351752914206E-4</v>
       </c>
-      <c r="N30" s="37"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="70"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="9">
+      <c r="N30" s="62"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="93"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="8">
         <v>24.01</v>
       </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="18">
+      <c r="I31" s="53"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="14">
         <f t="shared" si="0"/>
         <v>8.3298625572678052E-3</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="14">
         <f t="shared" si="59"/>
         <v>1.333090011901867E-4</v>
       </c>
-      <c r="N31" s="37"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="70"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="9">
+      <c r="N31" s="62"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="93"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B32" s="40"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="8">
         <v>24.09</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="18">
+      <c r="I32" s="53"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="14">
         <f t="shared" si="0"/>
         <v>8.3022000830220016E-3</v>
       </c>
-      <c r="M32" s="18">
+      <c r="M32" s="14">
         <f t="shared" si="59"/>
         <v>1.3259751565960446E-4</v>
       </c>
-      <c r="N32" s="37"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="70"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B33" s="58"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="14">
+      <c r="N32" s="62"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="93"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B33" s="40"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="11">
         <v>24.04</v>
       </c>
-      <c r="I33" s="51"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="19">
+      <c r="I33" s="54"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="15">
         <f t="shared" si="0"/>
         <v>8.3194675540765404E-3</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="15">
         <f t="shared" si="59"/>
         <v>1.3304138801975253E-4</v>
       </c>
-      <c r="N33" s="37"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="70"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B34" s="58">
+      <c r="N33" s="62"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="93"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B34" s="40">
         <v>3</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="35">
         <f t="shared" ref="C34" si="60">B34*0.01</f>
         <v>0.03</v>
       </c>
-      <c r="D34" s="79">
+      <c r="D34" s="27">
         <f t="shared" ref="D34" si="61">(B34/2)^2*10^-6</f>
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="E34" s="79">
+      <c r="E34" s="27">
         <f t="shared" ref="E34" si="62">B34*C34*10^-6</f>
         <v>8.9999999999999999E-8</v>
       </c>
@@ -2777,226 +3092,258 @@
       <c r="G34" s="47">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="12">
         <v>39.72</v>
       </c>
-      <c r="I34" s="49">
+      <c r="I34" s="52">
         <f>I29</f>
         <v>0.3</v>
       </c>
-      <c r="J34" s="62">
+      <c r="J34" s="43">
         <v>0.2</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="59">
         <f t="shared" ref="K34" si="63">0.5*B34*10^-3</f>
         <v>1.5E-3</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="13">
         <f t="shared" si="0"/>
         <v>5.0352467270896274E-3</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="13">
         <f>(($K$34/H34)^2+($J$34*$I$34/H34^2)^2)^(1/2)</f>
         <v>5.3595428853931334E-5</v>
       </c>
-      <c r="N34" s="40">
+      <c r="N34" s="65">
         <f>(L34+L35+L36+L37+L38)/5</f>
         <v>5.0126521561671706E-3</v>
       </c>
-      <c r="O34" s="32">
+      <c r="O34" s="69">
         <f t="shared" ref="O34" si="64">(SUMSQ(M34:M38)/25)^(1/2)</f>
         <v>2.3808205742172807E-5</v>
       </c>
-      <c r="P34" s="32">
+      <c r="P34" s="69">
         <f t="shared" ref="P34" si="65">_xlfn.STDEV.S(L34:L38)</f>
         <v>2.7520590084576011E-5</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="Q34" s="59">
         <v>1.1476</v>
       </c>
-      <c r="R34" s="30">
+      <c r="R34" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S34" s="90">
+      <c r="S34" s="20">
         <f t="shared" ref="S34" si="66">N34/(F34-Q34)*10^(-3)</f>
         <v>2.1803619644050332E-5</v>
       </c>
-      <c r="T34" s="89">
+      <c r="T34" s="21">
         <f>((P34/(F34-Q34))^2+(N34*G34/(F34-Q34)^2)^2+(N34*R34/(F34-Q34)^2)^2)^(1/2)*10^-3</f>
         <v>2.6628069696087493E-7</v>
       </c>
-      <c r="U34" s="26">
+      <c r="U34" s="32">
         <f t="shared" ref="U34" si="67">1+2.1*0.5*B34/$D$45</f>
         <v>1.0840000000000001</v>
       </c>
-      <c r="V34" s="26">
+      <c r="V34" s="32">
         <f t="shared" ref="V34" si="68">2.1*C34*0.5/$D$45</f>
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="W34" s="90">
+      <c r="W34" s="20">
         <f t="shared" ref="W34" si="69">S34*U34</f>
         <v>2.3635123694150561E-5</v>
       </c>
-      <c r="X34" s="89">
+      <c r="X34" s="21">
         <f t="shared" ref="X34" si="70">((T34*U34)^2+(S34*V34)^2)^(1/2)</f>
         <v>2.8922874625614833E-7</v>
       </c>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="70"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="9">
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="36">
+        <f>2/9*$D$46*(F34-Q34)*D34/$D$47*10^3</f>
+        <v>5.3796600000000005E-3</v>
+      </c>
+      <c r="AB34" s="36">
+        <f>2/9*$D$46*((F34*D34/$D$47)^2+(R34*D34/$D$47)^2+((F34-Q34)*$D$48/$D$47^2)^2+((F34-Q34)*2*(D34)^(1/2)*(E34)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
+        <v>9.1960005674364035E-5</v>
+      </c>
+      <c r="AC34" s="35">
+        <f>Q34*$AA$4*B34*10^-3/$D$47*10^3</f>
+        <v>0.7170565252884038</v>
+      </c>
+      <c r="AD34" s="93">
+        <f>((AA34*R34*B34*10^-3/$D$47)^2+(Q34*AB34*B34*10^-3/$D$47)^2+(Q34*AA34*C34*10^-3/$D$47)^2+(Q34*AA34*B34*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>3.8225084817565319E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B35" s="40"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="8">
         <v>40.07</v>
       </c>
-      <c r="I35" s="50"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="18">
+      <c r="I35" s="53"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="14">
         <f t="shared" si="0"/>
         <v>4.9912652857499375E-3</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="14">
         <f t="shared" ref="M35:M38" si="71">(($K$34/H35)^2+($J$34*$I$34/H35^2)^2)^(1/2)</f>
         <v>5.2894141272690634E-5</v>
       </c>
-      <c r="N35" s="41"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="70"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B36" s="58"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="9">
+      <c r="N35" s="66"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="93"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B36" s="40"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="8">
         <v>39.92</v>
       </c>
-      <c r="I36" s="50"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="18">
+      <c r="I36" s="53"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="14">
         <f t="shared" si="0"/>
         <v>5.0100200400801601E-3</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M36" s="14">
         <f t="shared" si="71"/>
         <v>5.3192559591570681E-5</v>
       </c>
-      <c r="N36" s="41"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="73"/>
-      <c r="Z36" s="70"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B37" s="58"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="9">
+      <c r="N36" s="66"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="93"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B37" s="40"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="8">
         <v>40.15</v>
       </c>
-      <c r="I37" s="50"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="18">
+      <c r="I37" s="53"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="14">
         <f t="shared" si="0"/>
         <v>4.9813200498132013E-3</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="14">
         <f t="shared" si="71"/>
         <v>5.2736274862302553E-5</v>
       </c>
-      <c r="N37" s="41"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="90"/>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="70"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B38" s="58"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="14">
+      <c r="N37" s="66"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="71"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="93"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B38" s="40"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="11">
         <v>39.64</v>
       </c>
-      <c r="I38" s="51"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="19">
+      <c r="I38" s="54"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="15">
         <f t="shared" si="0"/>
         <v>5.0454086781029266E-3</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M38" s="15">
         <f t="shared" si="71"/>
         <v>5.3758192485178142E-5</v>
       </c>
-      <c r="N38" s="42"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="90"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="73"/>
-      <c r="Z38" s="70"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B39" s="58">
+      <c r="N38" s="67"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="71"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="93"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B39" s="40">
         <v>2</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="35">
         <f t="shared" ref="C39" si="72">B39*0.01</f>
         <v>0.02</v>
       </c>
-      <c r="D39" s="79">
+      <c r="D39" s="27">
         <f t="shared" ref="D39" si="73">(B39/2)^2*10^-6</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E39" s="79">
+      <c r="E39" s="27">
         <f t="shared" ref="E39" si="74">B39*C39*10^-6</f>
         <v>4.0000000000000001E-8</v>
       </c>
@@ -3008,244 +3355,453 @@
         <f>G34</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="12">
         <v>74.900000000000006</v>
       </c>
-      <c r="I39" s="49">
+      <c r="I39" s="52">
         <f>I34</f>
         <v>0.3</v>
       </c>
-      <c r="J39" s="62">
+      <c r="J39" s="43">
         <v>0.2</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="59">
         <f t="shared" ref="K39" si="75">0.5*B39*10^-3</f>
         <v>1E-3</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="13">
         <f t="shared" si="0"/>
         <v>2.6702269692923898E-3</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="13">
         <f>(($K$39/H39)^2+($J$39*$I$39/H39^2)^2)^(1/2)</f>
         <v>1.7106706942119941E-5</v>
       </c>
-      <c r="N39" s="40">
+      <c r="N39" s="65">
         <f>(L39+L40+L41+L42+L43)/5</f>
         <v>2.654035384232682E-3</v>
       </c>
-      <c r="O39" s="32">
+      <c r="O39" s="69">
         <f t="shared" ref="O39" si="76">(SUMSQ(M39:M43)/25)^(1/2)</f>
         <v>7.5910153311779477E-6</v>
       </c>
-      <c r="P39" s="35">
+      <c r="P39" s="36">
         <f t="shared" ref="P39" si="77">_xlfn.STDEV.S(L39:L43)</f>
         <v>6.3404518771783403E-5</v>
       </c>
-      <c r="Q39" s="30">
+      <c r="Q39" s="59">
         <f>Q34</f>
         <v>1.1476</v>
       </c>
-      <c r="R39" s="30">
+      <c r="R39" s="59">
         <f>R34</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S39" s="90">
+      <c r="S39" s="20">
         <f t="shared" ref="S39" si="78">N39/(F39-Q39)*10^(-3)</f>
         <v>1.154430354168196E-5</v>
       </c>
-      <c r="T39" s="89">
+      <c r="T39" s="21">
         <f>((O39/(F39-Q39))^2+(N39*G39/(F39-Q39)^2)^2+(N39*R39/(F39-Q39)^2)^2)^(1/2)*10^-3</f>
         <v>1.3019378482831071E-7</v>
       </c>
-      <c r="U39" s="26">
+      <c r="U39" s="32">
         <f t="shared" ref="U39" si="79">1+2.1*0.5*B39/$D$45</f>
         <v>1.056</v>
       </c>
-      <c r="V39" s="26">
+      <c r="V39" s="32">
         <f t="shared" ref="V39" si="80">2.1*C39*0.5/$D$45</f>
         <v>5.6000000000000006E-4</v>
       </c>
-      <c r="W39" s="90">
+      <c r="W39" s="20">
         <f t="shared" ref="W39" si="81">S39*U39</f>
         <v>1.219078454001615E-5</v>
       </c>
-      <c r="X39" s="89">
+      <c r="X39" s="21">
         <f t="shared" ref="X39" si="82">((T39*U39)^2+(S39*V39)^2)^(1/2)</f>
         <v>1.3763654717512613E-7</v>
       </c>
-      <c r="Y39" s="73"/>
-      <c r="Z39" s="70"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B40" s="58"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="9">
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="36">
+        <f>2/9*$D$46*(F39-Q39)*D39/$D$47*10^3</f>
+        <v>2.3909600000000001E-3</v>
+      </c>
+      <c r="AB39" s="36">
+        <f>2/9*$D$46*((F39*D39/$D$47)^2+(R39*D39/$D$47)^2+((F39-Q39)*$D$48/$D$47^2)^2+((F39-Q39)*2*(D39)^(1/2)*(E39)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
+        <v>9.1960001120862077E-5</v>
+      </c>
+      <c r="AC39" s="35">
+        <f>Q39*$AA$4*B39*10^-3/$D$47*10^3</f>
+        <v>0.4780376835256025</v>
+      </c>
+      <c r="AD39" s="93">
+        <f>((AA39*R39*B39*10^-3/$D$47)^2+(Q39*AB39*B39*10^-3/$D$47)^2+(Q39*AA39*C39*10^-3/$D$47)^2+(Q39*AA39*B39*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>1.4479009314524434E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B40" s="40"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="8">
         <v>78.34</v>
       </c>
-      <c r="I40" s="50"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="18">
+      <c r="I40" s="53"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="14">
         <f t="shared" si="0"/>
         <v>2.5529742149604288E-3</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M40" s="14">
         <f t="shared" ref="M40:M43" si="83">(($K$39/H40)^2+($J$39*$I$39/H40^2)^2)^(1/2)</f>
         <v>1.6078625529446875E-5</v>
       </c>
-      <c r="N40" s="41"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="89"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="90"/>
-      <c r="X40" s="89"/>
-      <c r="Y40" s="73"/>
-      <c r="Z40" s="70"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B41" s="58"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="9">
+      <c r="N40" s="66"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="71"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="93"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B41" s="40"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="8">
         <v>75.86</v>
       </c>
-      <c r="I41" s="50"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="18">
+      <c r="I41" s="53"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="14">
         <f t="shared" si="0"/>
         <v>2.6364355391510679E-3</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="14">
         <f t="shared" si="83"/>
         <v>1.6806999019068159E-5</v>
       </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="89"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="90"/>
-      <c r="X41" s="89"/>
-      <c r="Y41" s="73"/>
-      <c r="Z41" s="70"/>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B42" s="58"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="9">
+      <c r="N41" s="66"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="71"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="93"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B42" s="40"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="8">
         <v>73.8</v>
       </c>
-      <c r="I42" s="50"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="18">
+      <c r="I42" s="53"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="14">
         <f t="shared" si="0"/>
         <v>2.7100271002710031E-3</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M42" s="14">
         <f t="shared" si="83"/>
         <v>1.7463292566734726E-5</v>
       </c>
-      <c r="N42" s="41"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="89"/>
-      <c r="Y42" s="73"/>
-      <c r="Z42" s="70"/>
-    </row>
-    <row r="43" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="59"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="11">
+      <c r="N42" s="66"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="71"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="93"/>
+    </row>
+    <row r="43" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="41"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="10">
         <v>74.06</v>
       </c>
-      <c r="I43" s="52"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="20">
+      <c r="I43" s="55"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="16">
         <f t="shared" si="0"/>
         <v>2.7005130974885228E-3</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="16">
         <f t="shared" si="83"/>
         <v>1.7377698907979166E-5</v>
       </c>
-      <c r="N43" s="43"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="91"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="92"/>
-      <c r="X43" s="91"/>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="71"/>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N43" s="68"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="72"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="94"/>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D45">
         <v>37.5</v>
       </c>
     </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <v>9.8098399999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <f>2*$D$46/(9*10.4)</f>
+        <v>0.20961196581196578</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <f>2*$D$46*0.4/(9*10.4^2)</f>
+        <v>8.0619986850756081E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49">
+        <f>2*$D$46/(9*9.1)</f>
+        <v>0.23955653235653238</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50">
+        <f>2*$D$46*0.5/(9*9.1^2)</f>
+        <v>1.3162446832776505E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="163">
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="X24:X28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="X29:X33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="X34:X38"/>
-    <mergeCell ref="W39:W43"/>
-    <mergeCell ref="X39:X43"/>
-    <mergeCell ref="Z4:Z43"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="X4:X8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="X9:X13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="X14:X18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="X19:X23"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y43"/>
+  <mergeCells count="195">
+    <mergeCell ref="AD29:AD33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AD34:AD38"/>
+    <mergeCell ref="AC39:AC43"/>
+    <mergeCell ref="AD39:AD43"/>
+    <mergeCell ref="AD4:AD8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AD9:AD13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AD14:AD18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AD19:AD23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AD24:AD28"/>
+    <mergeCell ref="AB4:AB8"/>
+    <mergeCell ref="AB9:AB13"/>
+    <mergeCell ref="AB14:AB18"/>
+    <mergeCell ref="AB19:AB23"/>
+    <mergeCell ref="AB24:AB28"/>
+    <mergeCell ref="AB29:AB33"/>
+    <mergeCell ref="AB34:AB38"/>
+    <mergeCell ref="AB39:AB43"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="AA39:AA43"/>
+    <mergeCell ref="V4:V8"/>
+    <mergeCell ref="V9:V13"/>
+    <mergeCell ref="V14:V18"/>
+    <mergeCell ref="V19:V23"/>
+    <mergeCell ref="V24:V28"/>
+    <mergeCell ref="V29:V33"/>
+    <mergeCell ref="V34:V38"/>
+    <mergeCell ref="V39:V43"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="P4:P8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="P14:P18"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="P34:P38"/>
+    <mergeCell ref="O39:O43"/>
+    <mergeCell ref="K39:K43"/>
+    <mergeCell ref="P39:P43"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="P24:P28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="P29:P33"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="N14:N18"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="N24:N28"/>
+    <mergeCell ref="N29:N33"/>
+    <mergeCell ref="N34:N38"/>
+    <mergeCell ref="N39:N43"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="R9:R13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="R34:R38"/>
+    <mergeCell ref="Q39:Q43"/>
+    <mergeCell ref="R39:R43"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="R24:R28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="R29:R33"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="S39:S43"/>
+    <mergeCell ref="T4:T8"/>
+    <mergeCell ref="T9:T13"/>
+    <mergeCell ref="T14:T18"/>
+    <mergeCell ref="T19:T23"/>
+    <mergeCell ref="T24:T28"/>
+    <mergeCell ref="T29:T33"/>
+    <mergeCell ref="T34:T38"/>
+    <mergeCell ref="T39:T43"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
     <mergeCell ref="U4:U8"/>
     <mergeCell ref="U9:U13"/>
     <mergeCell ref="U14:U18"/>
@@ -3270,129 +3826,28 @@
     <mergeCell ref="E29:E33"/>
     <mergeCell ref="E34:E38"/>
     <mergeCell ref="E39:E43"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="S39:S43"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="T9:T13"/>
-    <mergeCell ref="T14:T18"/>
-    <mergeCell ref="T19:T23"/>
-    <mergeCell ref="T24:T28"/>
-    <mergeCell ref="T29:T33"/>
-    <mergeCell ref="T34:T38"/>
-    <mergeCell ref="T39:T43"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="R9:R13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="R34:R38"/>
-    <mergeCell ref="Q39:Q43"/>
-    <mergeCell ref="R39:R43"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="R19:R23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="R24:R28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="R29:R33"/>
-    <mergeCell ref="K39:K43"/>
-    <mergeCell ref="P39:P43"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="P19:P23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="P24:P28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="P29:P33"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="N9:N13"/>
-    <mergeCell ref="N14:N18"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="N24:N28"/>
-    <mergeCell ref="N29:N33"/>
-    <mergeCell ref="N34:N38"/>
-    <mergeCell ref="N39:N43"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="V4:V8"/>
-    <mergeCell ref="V9:V13"/>
-    <mergeCell ref="V14:V18"/>
-    <mergeCell ref="V19:V23"/>
-    <mergeCell ref="V24:V28"/>
-    <mergeCell ref="V29:V33"/>
-    <mergeCell ref="V34:V38"/>
-    <mergeCell ref="V39:V43"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="P4:P8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="P9:P13"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="P14:P18"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="P34:P38"/>
-    <mergeCell ref="O39:O43"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="X24:X28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="X29:X33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="X34:X38"/>
+    <mergeCell ref="W39:W43"/>
+    <mergeCell ref="X39:X43"/>
+    <mergeCell ref="Z4:Z43"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="X4:X8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="X9:X13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="X14:X18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="X19:X23"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y43"/>
   </mergeCells>
   <pageMargins left="0" right="0.39370078740157483" top="1.3779527559055118" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="49" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3411,114 +3866,114 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>550</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="71">
         <v>4</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="24">
         <f>273.15+23.9</f>
         <v>297.04999999999995</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>549.5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>99</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>549</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>226</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>548.5</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>357</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>548</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>485</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>547.5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>616</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>547</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>744</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
+++ b/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>t [s]</t>
   </si>
@@ -290,6 +290,45 @@
       </rPr>
       <t>η [Pa s]</t>
     </r>
+  </si>
+  <si>
+    <t>v_sink/v_lam</t>
+  </si>
+  <si>
+    <t>Δ v_sink/v_lam</t>
+  </si>
+  <si>
+    <t>h mean [mm]</t>
+  </si>
+  <si>
+    <t>ρ_f [g/cm³]</t>
+  </si>
+  <si>
+    <t>Δ ρ_f [g/cm³]</t>
+  </si>
+  <si>
+    <t>p_1 [Pa]</t>
+  </si>
+  <si>
+    <t>Δ p_1 [Pa]</t>
+  </si>
+  <si>
+    <t>Δ h mean [mm]</t>
+  </si>
+  <si>
+    <t>Δh Δmean [mm]</t>
+  </si>
+  <si>
+    <t>Δ h [mm]</t>
+  </si>
+  <si>
+    <t>ts-te [s]</t>
+  </si>
+  <si>
+    <t>|dVs/dts-dVe/dte| [ml/s]</t>
+  </si>
+  <si>
+    <t>Δ ts-te [s]</t>
   </si>
 </sst>
 </file>
@@ -347,7 +386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -740,11 +779,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -779,183 +831,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -966,16 +844,211 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,10 +1368,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AD50"/>
+  <dimension ref="B1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,211 +1397,221 @@
     <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+    <row r="1" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="74" t="s">
+      <c r="N2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="74" t="s">
+      <c r="O2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="73" t="s">
+      <c r="S2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="73" t="s">
+      <c r="T2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="U2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="73" t="s">
+      <c r="V2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="73" t="s">
+      <c r="W2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="73" t="s">
+      <c r="X2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="82" t="s">
+      <c r="Y2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="83" t="s">
+      <c r="Z2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="73" t="s">
+      <c r="AA2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="74" t="s">
+      <c r="AB2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="73" t="s">
+      <c r="AC2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="75" t="s">
+      <c r="AF2" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="84" t="s">
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="86" t="s">
+      <c r="O3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="86" t="s">
+      <c r="P3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="87" t="s">
+      <c r="Q3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="87" t="s">
+      <c r="R3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="87" t="s">
+      <c r="S3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="87" t="s">
+      <c r="T3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87" t="s">
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="87" t="s">
+      <c r="X3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="88" t="s">
+      <c r="Y3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="89" t="s">
+      <c r="Z3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="86" t="s">
+      <c r="AA3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="86" t="s">
+      <c r="AB3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="90"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="32"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B4" s="76">
         <v>9</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="84">
         <f>B4*0.01</f>
         <v>0.09</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D4" s="44">
         <f>(B4/2)^2*10^-6</f>
         <v>2.0249999999999998E-5</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="44">
         <f>B4*C4*10^-6</f>
         <v>8.0999999999999987E-7</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="59">
         <v>1.3554999999999999</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="59">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H4" s="8">
         <v>6.14</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="64">
         <v>0.3</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="72">
         <v>0.2</v>
       </c>
-      <c r="K4" s="56">
+      <c r="K4" s="67">
         <f>0.5*B4*10^-3</f>
         <v>4.5000000000000005E-3</v>
       </c>
@@ -1540,85 +1623,93 @@
         <f>(($K$4/H4)^2+($J$4*$I$4/H4^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="47">
         <f>(L4+L5+L6+L7+L8)/5</f>
         <v>3.3077869485049816E-2</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="47">
         <f>(SUMSQ(M4:M8)/25)^(1/2)</f>
         <v>8.0798706393487478E-4</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4" s="47">
         <f>_xlfn.STDEV.S(L4:L8)</f>
         <v>1.1538275016650245E-3</v>
       </c>
-      <c r="Q4" s="50">
+      <c r="Q4" s="47">
         <v>1.1482000000000001</v>
       </c>
-      <c r="R4" s="50">
+      <c r="R4" s="47">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S4" s="78">
+      <c r="S4" s="44">
         <f>N4/(F4-Q4)*10^(-3)</f>
         <v>1.59565217004582E-4</v>
       </c>
-      <c r="T4" s="39">
+      <c r="T4" s="80">
         <f>((P4/(F4-Q4))^2+(N4*G4/(F4-Q4)^2)^2+(N4*R4/(F4-Q4)^2)^2)^(1/2)*10^-3</f>
         <v>5.5813928390751162E-6</v>
       </c>
-      <c r="U4" s="51">
+      <c r="U4" s="41">
         <f>1+2.1*0.5*B4/$D$45</f>
         <v>1.252</v>
       </c>
-      <c r="V4" s="51">
+      <c r="V4" s="41">
         <f>2.1*C4*0.5/$D$45</f>
         <v>2.5200000000000001E-3</v>
       </c>
-      <c r="W4" s="78">
+      <c r="W4" s="44">
         <f>S4*U4</f>
         <v>1.9977565168973667E-4</v>
       </c>
-      <c r="X4" s="80">
+      <c r="X4" s="87">
         <f>((T4*U4)^2+(S4*V4)^2)^(1/2)</f>
         <v>6.9994634013104759E-6</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Y4" s="88">
         <f>273.15+21.5</f>
         <v>294.64999999999998</v>
       </c>
-      <c r="Z4" s="71">
+      <c r="Z4" s="85">
         <v>0.5</v>
       </c>
-      <c r="AA4" s="91">
+      <c r="AA4" s="37">
         <f>2/9*$D$46*(F4-Q4)*D4/$D$47*10^3</f>
         <v>4.3657379999999968E-2</v>
       </c>
-      <c r="AB4" s="91">
+      <c r="AB4" s="37">
         <f>2/9*$D$46*((F4*D4/$D$47)^2+(R4*D4/$D$47)^2+((F4-Q4)*$D$48/$D$47^2)^2+((F4-Q4)*2*(D4)^(1/2)*(E4)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>8.2920493227589778E-5</v>
       </c>
-      <c r="AC4" s="34">
+      <c r="AC4" s="94">
+        <f>N4/AA4</f>
+        <v>0.75766959641301979</v>
+      </c>
+      <c r="AD4" s="94">
+        <f>((P4/AA4)^2+(N4*AB4/AA4^2)^2)^(1/2)</f>
+        <v>2.6468301451664619E-2</v>
+      </c>
+      <c r="AE4" s="40">
         <f>Q4*$AA$4*B4*10^-3/$D$47*10^3</f>
         <v>2.1522942724019138</v>
       </c>
-      <c r="AD4" s="92">
+      <c r="AF4" s="36">
         <f>((AA4*R4*B4*10^-3/$D$47)^2+(Q4*AB4*B4*10^-3/$D$47)^2+(Q4*AA4*C4*10^-3/$D$47)^2+(Q4*AA4*B4*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>8.5631234092181471E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B5" s="70"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="8">
         <v>6.14</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="56"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="67"/>
       <c r="L5" s="17">
         <f t="shared" ref="L5:L43" si="0">$J$4/H5</f>
         <v>3.2573289902280131E-2</v>
@@ -1627,37 +1718,39 @@
         <f t="shared" ref="M5:M8" si="1">(($K$4/H5)^2+($J$4*$I$4/H5^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="93"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="33"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B6" s="70"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="8">
         <v>5.7</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="67"/>
       <c r="L6" s="17">
         <f t="shared" si="0"/>
         <v>3.5087719298245612E-2</v>
@@ -1666,37 +1759,39 @@
         <f t="shared" si="1"/>
         <v>2.0083951542744852E-3</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="93"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="33"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B7" s="70"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="8">
         <v>6.21</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="56"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="67"/>
       <c r="L7" s="17">
         <f t="shared" si="0"/>
         <v>3.2206119162640906E-2</v>
@@ -1705,37 +1800,39 @@
         <f t="shared" si="1"/>
         <v>1.716325325710239E-3</v>
       </c>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="93"/>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="48"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="33"/>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B8" s="70"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="11">
         <v>6.07</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="68"/>
       <c r="L8" s="18">
         <f t="shared" si="0"/>
         <v>3.2948929159802305E-2</v>
@@ -1744,57 +1841,59 @@
         <f t="shared" si="1"/>
         <v>1.7892578702547329E-3</v>
       </c>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="93"/>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="40">
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="33"/>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B9" s="70">
         <v>8</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <f t="shared" ref="C9" si="2">B9*0.01</f>
         <v>0.08</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="45">
         <f t="shared" ref="D9" si="3">(B9/2)^2*10^-6</f>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="45">
         <f t="shared" ref="E9" si="4">B9*C9*10^-6</f>
         <v>6.4000000000000001E-7</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="61">
         <v>1.3625</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="61">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H9" s="12">
         <v>7.86</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="63">
         <f>I4</f>
         <v>0.3</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="73">
         <v>0.2</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="69">
         <f>0.5*B9*10^-3</f>
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1806,83 +1905,91 @@
         <f>(($K$9/H9)^2+($J$9*$I$9/H9^2)^2)^(1/2)</f>
         <v>1.0964504915178231E-3</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="48">
         <f>(L9+L10+L11+L12+L13)/5</f>
         <v>2.6029305829267206E-2</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="48">
         <f t="shared" ref="O9" si="5">(SUMSQ(M9:M13)/25)^(1/2)</f>
         <v>5.1104479056882763E-4</v>
       </c>
-      <c r="P9" s="59">
+      <c r="P9" s="48">
         <f t="shared" ref="P9" si="6">_xlfn.STDEV.S(L9:L13)</f>
         <v>5.0949814262065871E-4</v>
       </c>
-      <c r="Q9" s="59">
+      <c r="Q9" s="48">
         <v>1.1476</v>
       </c>
-      <c r="R9" s="59">
+      <c r="R9" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="78">
         <f t="shared" ref="S9" si="7">N9/(F9-Q9)*10^(-3)</f>
         <v>1.2112287496169007E-4</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="81">
         <f>((P9/(F9-Q9))^2+(N9*G9/(F9-Q9)^2)^2+(N9*R9/(F9-Q9)^2)^2)^(1/2)*10^-3</f>
         <v>2.3902111605678812E-6</v>
       </c>
-      <c r="U9" s="32">
+      <c r="U9" s="42">
         <f t="shared" ref="U9" si="8">1+2.1*0.5*B9/$D$45</f>
         <v>1.224</v>
       </c>
-      <c r="V9" s="32">
+      <c r="V9" s="42">
         <f t="shared" ref="V9" si="9">2.1*C9*0.5/$D$45</f>
         <v>2.2400000000000002E-3</v>
       </c>
-      <c r="W9" s="27">
+      <c r="W9" s="45">
         <f t="shared" ref="W9" si="10">S9*U9</f>
         <v>1.4825439895310865E-4</v>
       </c>
-      <c r="X9" s="28">
+      <c r="X9" s="82">
         <f t="shared" ref="X9" si="11">((T9*U9)^2+(S9*V9)^2)^(1/2)</f>
         <v>2.9381721079666829E-6</v>
       </c>
-      <c r="Y9" s="30">
+      <c r="Y9" s="89">
         <f>Y4+0.5</f>
         <v>295.14999999999998</v>
       </c>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="36">
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="38">
         <f>2/9*$D$46*(F9-Q9)*D9/$D$47*10^3</f>
         <v>3.5759360000000018E-2</v>
       </c>
-      <c r="AB9" s="36">
+      <c r="AB9" s="38">
         <f>2/9*$D$46*((F9*D9/$D$47)^2+(R9*D9/$D$47)^2+((F9-Q9)*$D$48/$D$47^2)^2+((F9-Q9)*2*(D9)^(1/2)*(E9)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>8.5960300177213242E-5</v>
       </c>
-      <c r="AC9" s="35">
+      <c r="AC9" s="95">
+        <f>N9/AA9</f>
+        <v>0.72790189279861817</v>
+      </c>
+      <c r="AD9" s="95">
+        <f>((P9/AA9)^2+(N9*AB9/AA9^2)^2)^(1/2)</f>
+        <v>1.4355007101729765E-2</v>
+      </c>
+      <c r="AE9" s="34">
         <f>Q9*$AA$4*B9*10^-3/$D$47*10^3</f>
         <v>1.91215073410241</v>
       </c>
-      <c r="AD9" s="93">
+      <c r="AF9" s="33">
         <f>((AA9*R9*B9*10^-3/$D$47)^2+(Q9*AB9*B9*10^-3/$D$47)^2+(Q9*AA9*C9*10^-3/$D$47)^2+(Q9*AA9*B9*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>6.2356591175247576E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B10" s="70"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="8">
         <v>7.8</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="56"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="17">
         <f t="shared" si="0"/>
         <v>2.5641025641025644E-2</v>
@@ -1891,37 +1998,39 @@
         <f t="shared" ref="M10:M13" si="12">(($K$9/H10)^2+($J$9*$I$9/H10^2)^2)^(1/2)</f>
         <v>1.1115584065960846E-3</v>
       </c>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="93"/>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="33"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B11" s="70"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="8">
         <v>7.7</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="67"/>
       <c r="L11" s="17">
         <f t="shared" si="0"/>
         <v>2.5974025974025976E-2</v>
@@ -1930,37 +2039,39 @@
         <f t="shared" si="12"/>
         <v>1.1375207635695094E-3</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="93"/>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="33"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B12" s="70"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="8">
         <v>7.56</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="17">
         <f t="shared" si="0"/>
         <v>2.6455026455026457E-2</v>
@@ -1969,37 +2080,39 @@
         <f t="shared" si="12"/>
         <v>1.1755989736153413E-3</v>
       </c>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="93"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="33"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="11">
         <v>7.51</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="57"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="18">
         <f t="shared" si="0"/>
         <v>2.6631158455392812E-2</v>
@@ -2008,57 +2121,59 @@
         <f t="shared" si="12"/>
         <v>1.1897130928283149E-3</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="93"/>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="45">
+      <c r="N13" s="47"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="33"/>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B14" s="77">
         <v>7.1440000000000001</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="38">
         <f t="shared" ref="C14" si="13">B14*0.01</f>
         <v>7.1440000000000003E-2</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="45">
         <f t="shared" ref="D14" si="14">(B14/2)^2*10^-6</f>
         <v>1.2759184000000001E-5</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="45">
         <f t="shared" ref="E14" si="15">B14*C14*10^-6</f>
         <v>5.1036735999999999E-7</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="61">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="61">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H14" s="12">
         <v>8.42</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="63">
         <f>I9</f>
         <v>0.3</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="73">
         <v>0.2</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="69">
         <f t="shared" ref="K14" si="16">0.5*B14*10^-3</f>
         <v>3.5720000000000001E-3</v>
       </c>
@@ -2070,80 +2185,88 @@
         <f>(($K$14/H14)^2+($J$14*$I$14/H14^2)^2)^(1/2)</f>
         <v>9.4667951449123387E-4</v>
       </c>
-      <c r="N14" s="59">
+      <c r="N14" s="48">
         <f>(L14+L15+L16+L17+L18)/5</f>
         <v>2.3640955470984416E-2</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="47">
         <f t="shared" ref="O14" si="17">(SUMSQ(M14:M18)/25)^(1/2)</f>
         <v>4.2004945214195227E-4</v>
       </c>
-      <c r="P14" s="50">
+      <c r="P14" s="47">
         <f t="shared" ref="P14" si="18">_xlfn.STDEV.S(L14:L18)</f>
         <v>4.1924762935458839E-4</v>
       </c>
-      <c r="Q14" s="59">
+      <c r="Q14" s="48">
         <v>1.1476</v>
       </c>
-      <c r="R14" s="59">
+      <c r="R14" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="78">
         <f t="shared" ref="S14" si="19">N14/(F14-Q14)*10^(-3)</f>
         <v>1.0283147225308576E-4</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="81">
         <f>((P14/(F14-Q14))^2+(N14*G14/(F14-Q14)^2)^2+(N14*R14/(F14-Q14)^2)^2)^(1/2)*10^-3</f>
         <v>2.1410198964813952E-6</v>
       </c>
-      <c r="U14" s="32">
+      <c r="U14" s="42">
         <f t="shared" ref="U14" si="20">1+2.1*0.5*B14/$D$45</f>
         <v>1.200032</v>
       </c>
-      <c r="V14" s="32">
+      <c r="V14" s="42">
         <f t="shared" ref="V14" si="21">2.1*C14*0.5/$D$45</f>
         <v>2.0003200000000003E-3</v>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="78">
         <f>S14*U14</f>
         <v>1.2340105731081501E-4</v>
       </c>
-      <c r="X14" s="21">
+      <c r="X14" s="81">
         <f t="shared" ref="X14" si="22">((T14*U14)^2+(S14*V14)^2)^(1/2)</f>
         <v>2.5775131736052662E-6</v>
       </c>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="36">
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="38">
         <f>2/9*$D$46*(F14-Q14)*D14/$D$47*10^3</f>
         <v>3.0506698576639998E-2</v>
       </c>
-      <c r="AB14" s="36">
+      <c r="AB14" s="38">
         <f>2/9*$D$46*((F14*D14/$D$47)^2+(R14*D14/$D$47)^2+((F14-Q14)*$D$48/$D$47^2)^2+((F14-Q14)*2*(D14)^(1/2)*(E14)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.196018247254961E-5</v>
       </c>
-      <c r="AC14" s="35">
+      <c r="AC14" s="95">
+        <f>N14/AA14</f>
+        <v>0.77494309689371266</v>
+      </c>
+      <c r="AD14" s="95">
+        <f>((P14/AA14)^2+(N14*AB14/AA14^2)^2)^(1/2)</f>
+        <v>1.3939929801672279E-2</v>
+      </c>
+      <c r="AE14" s="34">
         <f>Q14*$AA$4*B14*10^-3/$D$47*10^3</f>
         <v>1.7075506055534522</v>
       </c>
-      <c r="AD14" s="93">
+      <c r="AF14" s="33">
         <f>((AA14*R14*B14*10^-3/$D$47)^2+(Q14*AB14*B14*10^-3/$D$47)^2+(Q14*AA14*C14*10^-3/$D$47)^2+(Q14*AA14*B14*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>4.7554545156289173E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B15" s="77"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="8">
         <v>8.6199999999999992</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="17">
         <f t="shared" si="0"/>
         <v>2.3201856148491882E-2</v>
@@ -2152,37 +2275,39 @@
         <f t="shared" ref="M15:M18" si="23">(($K$14/H15)^2+($J$14*$I$14/H15^2)^2)^(1/2)</f>
         <v>9.0760886409929718E-4</v>
       </c>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="93"/>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="33"/>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B16" s="77"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="8">
         <v>8.5399999999999991</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="56"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="67"/>
       <c r="L16" s="17">
         <f t="shared" si="0"/>
         <v>2.3419203747072605E-2</v>
@@ -2191,37 +2316,39 @@
         <f t="shared" si="23"/>
         <v>9.2291055402502582E-4</v>
       </c>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="93"/>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="33"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B17" s="77"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="8">
         <v>8.5</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="17">
         <f t="shared" si="0"/>
         <v>2.3529411764705882E-2</v>
@@ -2230,37 +2357,39 @@
         <f t="shared" si="23"/>
         <v>9.3072263192061364E-4</v>
       </c>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="93"/>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="33"/>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B18" s="77"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="11">
         <v>8.23</v>
       </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="57"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="68"/>
       <c r="L18" s="18">
         <f t="shared" si="0"/>
         <v>2.4301336573511544E-2</v>
@@ -2269,57 +2398,59 @@
         <f t="shared" si="23"/>
         <v>9.8644518067141844E-4</v>
       </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="93"/>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="40">
+      <c r="N18" s="41"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="33"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B19" s="70">
         <v>6</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <f t="shared" ref="C19" si="24">B19*0.01</f>
         <v>0.06</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="45">
         <f t="shared" ref="D19" si="25">(B19/2)^2*10^-6</f>
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="45">
         <f t="shared" ref="E19" si="26">B19*C19*10^-6</f>
         <v>3.5999999999999999E-7</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="61">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="61">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H19" s="12">
         <v>11.62</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="63">
         <f>I14</f>
         <v>0.3</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="73">
         <v>0.2</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="69">
         <f t="shared" ref="K19" si="27">0.5*B19*10^-3</f>
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2331,80 +2462,88 @@
         <f>(($K$19/H19)^2+($J$19*$I$19/H19^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N19" s="62">
+      <c r="N19" s="52">
         <f>(L19+L20+L21+L22+L23)/5</f>
         <v>1.711072882678167E-2</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19" s="38">
         <f t="shared" ref="O19" si="28">(SUMSQ(M19:M23)/25)^(1/2)</f>
         <v>2.2754630774580575E-4</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="38">
         <f t="shared" ref="P19" si="29">_xlfn.STDEV.S(L19:L23)</f>
         <v>2.0964670301082701E-4</v>
       </c>
-      <c r="Q19" s="59">
+      <c r="Q19" s="48">
         <v>1.1476</v>
       </c>
-      <c r="R19" s="59">
+      <c r="R19" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S19" s="27">
+      <c r="S19" s="45">
         <f t="shared" ref="S19" si="30">N19/(F19-Q19)*10^(-3)</f>
         <v>7.4426832652377855E-5</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="81">
         <f>((O19/(F19-Q19))^2+(N19*G19/(F19-Q19)^2)^2+(N19*R19/(F19-Q19)^2)^2)^(1/2)*10^-3</f>
         <v>1.2801762190890571E-6</v>
       </c>
-      <c r="U19" s="32">
+      <c r="U19" s="42">
         <f t="shared" ref="U19" si="31">1+2.1*0.5*B19/$D$45</f>
         <v>1.1679999999999999</v>
       </c>
-      <c r="V19" s="32">
+      <c r="V19" s="42">
         <f t="shared" ref="V19" si="32">2.1*C19*0.5/$D$45</f>
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="W19" s="27">
+      <c r="W19" s="45">
         <f t="shared" ref="W19" si="33">S19*U19</f>
         <v>8.693054053797733E-5</v>
       </c>
-      <c r="X19" s="21">
+      <c r="X19" s="81">
         <f t="shared" ref="X19" si="34">((T19*U19)^2+(S19*V19)^2)^(1/2)</f>
         <v>1.5004647096707485E-6</v>
       </c>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="36">
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="38">
         <f>2/9*$D$46*(F19-Q19)*D19/$D$47*10^3</f>
         <v>2.1518640000000002E-2</v>
       </c>
-      <c r="AB19" s="36">
+      <c r="AB19" s="38">
         <f>2/9*$D$46*((F19*D19/$D$47)^2+(R19*D19/$D$47)^2+((F19-Q19)*$D$48/$D$47^2)^2+((F19-Q19)*2*(D19)^(1/2)*(E19)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960090789782316E-5</v>
       </c>
-      <c r="AC19" s="35">
+      <c r="AC19" s="95">
+        <f>N19/AA19</f>
+        <v>0.7951584685083104</v>
+      </c>
+      <c r="AD19" s="95">
+        <f>((O19/AA19)^2+(N19*AB19/AA19^2)^2)^(1/2)</f>
+        <v>1.1106968023727085E-2</v>
+      </c>
+      <c r="AE19" s="95">
         <f>Q19*$AA$4*B19*10^-3/$D$47*10^3</f>
         <v>1.4341130505768076</v>
       </c>
-      <c r="AD19" s="93">
+      <c r="AF19" s="96">
         <f>((AA19*R19*B19*10^-3/$D$47)^2+(Q19*AB19*B19*10^-3/$D$47)^2+(Q19*AA19*C19*10^-3/$D$47)^2+(Q19*AA19*B19*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>2.825350160145991E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B20" s="70"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="8">
         <v>11.62</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="67"/>
       <c r="L20" s="17">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
@@ -2413,37 +2552,39 @@
         <f t="shared" ref="M20:M23" si="35">(($K$19/H20)^2+($J$19*$I$19/H20^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N20" s="62"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="93"/>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="96"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B21" s="70"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="8">
         <v>11.64</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="56"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="67"/>
       <c r="L21" s="17">
         <f t="shared" si="0"/>
         <v>1.7182130584192441E-2</v>
@@ -2452,37 +2593,39 @@
         <f t="shared" si="35"/>
         <v>5.1237840142188897E-4</v>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="93"/>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="96"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B22" s="70"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="8">
         <v>11.62</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="56"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="67"/>
       <c r="L22" s="17">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
@@ -2491,37 +2634,39 @@
         <f t="shared" si="35"/>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="93"/>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B23" s="40"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="96"/>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B23" s="70"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
       <c r="H23" s="11">
         <v>11.95</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="57"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="68"/>
       <c r="L23" s="18">
         <f t="shared" si="0"/>
         <v>1.6736401673640169E-2</v>
@@ -2530,57 +2675,59 @@
         <f t="shared" si="35"/>
         <v>4.8944778085674683E-4</v>
       </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="93"/>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B24" s="40">
+      <c r="N23" s="52"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="96"/>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B24" s="70">
         <v>5</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="34">
         <f t="shared" ref="C24" si="36">B24*0.01</f>
         <v>0.05</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="45">
         <f t="shared" ref="D24" si="37">(B24/2)^2*10^-6</f>
         <v>6.2499999999999995E-6</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="45">
         <f t="shared" ref="E24" si="38">B24*C24*10^-6</f>
         <v>2.4999999999999999E-7</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="61">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="61">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H24" s="12">
         <v>15.56</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="63">
         <f>I14</f>
         <v>0.3</v>
       </c>
-      <c r="J24" s="43">
+      <c r="J24" s="74">
         <v>0.2</v>
       </c>
-      <c r="K24" s="59">
+      <c r="K24" s="48">
         <f t="shared" ref="K24" si="39">0.5*B24*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
@@ -2592,80 +2739,88 @@
         <f>(($K$24/H24)^2+($J$24*$I$24/H24^2)^2)^(1/2)</f>
         <v>2.9534364435364433E-4</v>
       </c>
-      <c r="N24" s="63">
+      <c r="N24" s="53">
         <f>(L24+L25+L26+L27+L28)/5</f>
         <v>1.2816144235262594E-2</v>
       </c>
-      <c r="O24" s="36">
+      <c r="O24" s="38">
         <f t="shared" ref="O24" si="40">(SUMSQ(M24:M28)/25)^(1/2)</f>
         <v>1.314809588282321E-4</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="38">
         <f t="shared" ref="P24" si="41">_xlfn.STDEV.S(L24:L28)</f>
         <v>1.8897275186015511E-4</v>
       </c>
-      <c r="Q24" s="59">
+      <c r="Q24" s="48">
         <v>1.1476</v>
       </c>
-      <c r="R24" s="59">
+      <c r="R24" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S24" s="27">
+      <c r="S24" s="45">
         <f t="shared" ref="S24" si="42">N24/(F24-Q24)*10^(-3)</f>
         <v>5.5746603894139167E-5</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24" s="81">
         <f>((P24/(F24-Q24))^2+(N24*G24/(F24-Q24)^2)^2+(N24*R24/(F24-Q24)^2)^2)^(1/2)*10^-3</f>
         <v>1.022489217302807E-6</v>
       </c>
-      <c r="U24" s="32">
+      <c r="U24" s="42">
         <f t="shared" ref="U24" si="43">1+2.1*0.5*B24/$D$45</f>
         <v>1.1400000000000001</v>
       </c>
-      <c r="V24" s="32">
+      <c r="V24" s="42">
         <f t="shared" ref="V24" si="44">2.1*C24*0.5/$D$45</f>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="W24" s="27">
+      <c r="W24" s="45">
         <f t="shared" ref="W24" si="45">S24*U24</f>
         <v>6.3551128439318658E-5</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24" s="81">
         <f t="shared" ref="X24" si="46">((T24*U24)^2+(S24*V24)^2)^(1/2)</f>
         <v>1.1682475448330675E-6</v>
       </c>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="36">
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="38">
         <f>2/9*$D$46*(F24-Q24)*D24/$D$47*10^3</f>
         <v>1.4943499999999998E-2</v>
       </c>
-      <c r="AB24" s="36">
+      <c r="AB24" s="38">
         <f>2/9*$D$46*((F24*D24/$D$47)^2+(R24*D24/$D$47)^2+((F24-Q24)*$D$48/$D$47^2)^2+((F24-Q24)*2*(D24)^(1/2)*(E24)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960043783663944E-5</v>
       </c>
-      <c r="AC24" s="35">
+      <c r="AC24" s="95">
+        <f>N24/AA24</f>
+        <v>0.85764005990983339</v>
+      </c>
+      <c r="AD24" s="95">
+        <f>((P24/AA24)^2+(N24*AB24/AA24^2)^2)^(1/2)</f>
+        <v>1.3702981571682499E-2</v>
+      </c>
+      <c r="AE24" s="95">
         <f>Q24*$AA$4*B24*10^-3/$D$47*10^3</f>
         <v>1.1950942088140062</v>
       </c>
-      <c r="AD24" s="93">
+      <c r="AF24" s="96">
         <f>((AA24*R24*B24*10^-3/$D$47)^2+(Q24*AB24*B24*10^-3/$D$47)^2+(Q24*AA24*C24*10^-3/$D$47)^2+(Q24*AA24*B24*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>1.6450433522931684E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B25" s="70"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="8">
         <v>15.24</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="50"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="17">
         <f t="shared" si="0"/>
         <v>1.3123359580052493E-2</v>
@@ -2674,37 +2829,39 @@
         <f t="shared" ref="M25:M28" si="47">(($K$24/H25)^2+($J$24*$I$24/H25^2)^2)^(1/2)</f>
         <v>3.0601659121382729E-4</v>
       </c>
-      <c r="N25" s="62"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="93"/>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B26" s="40"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="96"/>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B26" s="70"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="8">
         <v>15.8</v>
       </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="50"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="47"/>
       <c r="L26" s="17">
         <f t="shared" si="0"/>
         <v>1.2658227848101266E-2</v>
@@ -2713,37 +2870,39 @@
         <f t="shared" si="47"/>
         <v>2.8775388602423501E-4</v>
       </c>
-      <c r="N26" s="62"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="93"/>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B27" s="40"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="96"/>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B27" s="70"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="8">
         <v>15.66</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="50"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="47"/>
       <c r="L27" s="17">
         <f t="shared" si="0"/>
         <v>1.277139208173691E-2</v>
@@ -2752,37 +2911,39 @@
         <f t="shared" si="47"/>
         <v>2.9213956412965739E-4</v>
       </c>
-      <c r="N27" s="62"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="93"/>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="96"/>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B28" s="70"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="11">
         <v>15.78</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="51"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="18">
         <f t="shared" si="0"/>
         <v>1.2674271229404311E-2</v>
@@ -2791,57 +2952,59 @@
         <f t="shared" si="47"/>
         <v>2.8837339882458726E-4</v>
       </c>
-      <c r="N28" s="64"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="93"/>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B29" s="40">
+      <c r="N28" s="54"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="95"/>
+      <c r="AF28" s="96"/>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B29" s="70">
         <v>4</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="34">
         <f t="shared" ref="C29" si="48">B29*0.01</f>
         <v>0.04</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="45">
         <f t="shared" ref="D29" si="49">(B29/2)^2*10^-6</f>
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="45">
         <f t="shared" ref="E29" si="50">B29*C29*10^-6</f>
         <v>1.6E-7</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="61">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="61">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H29" s="12">
         <v>23.43</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="63">
         <f>I14</f>
         <v>0.3</v>
       </c>
-      <c r="J29" s="43">
+      <c r="J29" s="74">
         <v>0.2</v>
       </c>
-      <c r="K29" s="59">
+      <c r="K29" s="48">
         <f t="shared" ref="K29" si="51">0.5*B29*10^-3</f>
         <v>2E-3</v>
       </c>
@@ -2853,80 +3016,88 @@
         <f>(($K$29/H29)^2+($J$29*$I$29/H29^2)^2)^(1/2)</f>
         <v>1.3868016543122825E-4</v>
       </c>
-      <c r="N29" s="62">
+      <c r="N29" s="52">
         <f>(L29+L30+L31+L32+L33)/5</f>
         <v>8.3600294043818212E-3</v>
       </c>
-      <c r="O29" s="36">
+      <c r="O29" s="38">
         <f t="shared" ref="O29" si="52">(SUMSQ(M29:M33)/25)^(1/2)</f>
         <v>5.9979431293701365E-5</v>
       </c>
-      <c r="P29" s="36">
+      <c r="P29" s="38">
         <f t="shared" ref="P29" si="53">_xlfn.STDEV.S(L29:L33)</f>
         <v>9.8921847583569231E-5</v>
       </c>
-      <c r="Q29" s="59">
+      <c r="Q29" s="48">
         <v>1.1476</v>
       </c>
-      <c r="R29" s="59">
+      <c r="R29" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S29" s="27">
+      <c r="S29" s="45">
         <f t="shared" ref="S29" si="54">N29/(F29-Q29)*10^(-3)</f>
         <v>3.6363764264383737E-5</v>
       </c>
-      <c r="T29" s="28">
+      <c r="T29" s="82">
         <f>((P29/(F29-Q29))^2+(N29*G29/(F29-Q29)^2)^2+(N29*R29/(F29-Q29)^2)^2)^(1/2)*10^-3</f>
         <v>5.8524222723986226E-7</v>
       </c>
-      <c r="U29" s="32">
+      <c r="U29" s="42">
         <f t="shared" ref="U29" si="55">1+2.1*0.5*B29/$D$45</f>
         <v>1.1120000000000001</v>
       </c>
-      <c r="V29" s="32">
+      <c r="V29" s="42">
         <f t="shared" ref="V29" si="56">2.1*C29*0.5/$D$45</f>
         <v>1.1200000000000001E-3</v>
       </c>
-      <c r="W29" s="27">
+      <c r="W29" s="45">
         <f t="shared" ref="W29" si="57">S29*U29</f>
         <v>4.0436505861994719E-5</v>
       </c>
-      <c r="X29" s="28">
+      <c r="X29" s="82">
         <f t="shared" ref="X29" si="58">((T29*U29)^2+(S29*V29)^2)^(1/2)</f>
         <v>6.5206250405465057E-7</v>
       </c>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="36">
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="38">
         <f>2/9*$D$46*(F29-Q29)*D29/$D$47*10^3</f>
         <v>9.5638400000000005E-3</v>
       </c>
-      <c r="AB29" s="36">
+      <c r="AB29" s="38">
         <f>2/9*$D$46*((F29*D29/$D$47)^2+(R29*D29/$D$47)^2+((F29-Q29)*$D$48/$D$47^2)^2+((F29-Q29)*2*(D29)^(1/2)*(E29)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960017933791273E-5</v>
       </c>
-      <c r="AC29" s="35">
+      <c r="AC29" s="95">
+        <f>N29/AA29</f>
+        <v>0.87412894866307056</v>
+      </c>
+      <c r="AD29" s="95">
+        <f>((P29/AA29)^2+(N29*AB29/AA29^2)^2)^(1/2)</f>
+        <v>1.3327780987202983E-2</v>
+      </c>
+      <c r="AE29" s="95">
         <f>Q29*$AA$4*B29*10^-3/$D$47*10^3</f>
         <v>0.95607536705120499</v>
       </c>
-      <c r="AD29" s="93">
+      <c r="AF29" s="96">
         <f>((AA29*R29*B29*10^-3/$D$47)^2+(Q29*AB29*B29*10^-3/$D$47)^2+(Q29*AA29*C29*10^-3/$D$47)^2+(Q29*AA29*B29*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>8.5635887138922426E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B30" s="70"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="8">
         <v>24.06</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="50"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="47"/>
       <c r="L30" s="14">
         <f t="shared" si="0"/>
         <v>8.3125519534497094E-3</v>
@@ -2935,37 +3106,39 @@
         <f t="shared" ref="M30:M33" si="59">(($K$29/H30)^2+($J$29*$I$29/H30^2)^2)^(1/2)</f>
         <v>1.3286351752914206E-4</v>
       </c>
-      <c r="N30" s="62"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="93"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="96"/>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B31" s="70"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="8">
         <v>24.01</v>
       </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="50"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="47"/>
       <c r="L31" s="14">
         <f t="shared" si="0"/>
         <v>8.3298625572678052E-3</v>
@@ -2974,37 +3147,39 @@
         <f t="shared" si="59"/>
         <v>1.333090011901867E-4</v>
       </c>
-      <c r="N31" s="62"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="93"/>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="96"/>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B32" s="70"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="8">
         <v>24.09</v>
       </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="50"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="47"/>
       <c r="L32" s="14">
         <f t="shared" si="0"/>
         <v>8.3022000830220016E-3</v>
@@ -3013,37 +3188,39 @@
         <f t="shared" si="59"/>
         <v>1.3259751565960446E-4</v>
       </c>
-      <c r="N32" s="62"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="71"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="93"/>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="95"/>
+      <c r="AF32" s="96"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B33" s="70"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="11">
         <v>24.04</v>
       </c>
-      <c r="I33" s="54"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="51"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="41"/>
       <c r="L33" s="15">
         <f t="shared" si="0"/>
         <v>8.3194675540765404E-3</v>
@@ -3052,57 +3229,59 @@
         <f t="shared" si="59"/>
         <v>1.3304138801975253E-4</v>
       </c>
-      <c r="N33" s="62"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="93"/>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B34" s="40">
+      <c r="N33" s="52"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="85"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="95"/>
+      <c r="AF33" s="96"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B34" s="70">
         <v>3</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="34">
         <f t="shared" ref="C34" si="60">B34*0.01</f>
         <v>0.03</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="45">
         <f t="shared" ref="D34" si="61">(B34/2)^2*10^-6</f>
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="45">
         <f t="shared" ref="E34" si="62">B34*C34*10^-6</f>
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="61">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="61">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H34" s="12">
         <v>39.72</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="63">
         <f>I29</f>
         <v>0.3</v>
       </c>
-      <c r="J34" s="43">
+      <c r="J34" s="74">
         <v>0.2</v>
       </c>
-      <c r="K34" s="59">
+      <c r="K34" s="48">
         <f t="shared" ref="K34" si="63">0.5*B34*10^-3</f>
         <v>1.5E-3</v>
       </c>
@@ -3114,80 +3293,88 @@
         <f>(($K$34/H34)^2+($J$34*$I$34/H34^2)^2)^(1/2)</f>
         <v>5.3595428853931334E-5</v>
       </c>
-      <c r="N34" s="65">
+      <c r="N34" s="55">
         <f>(L34+L35+L36+L37+L38)/5</f>
         <v>5.0126521561671706E-3</v>
       </c>
-      <c r="O34" s="69">
+      <c r="O34" s="49">
         <f t="shared" ref="O34" si="64">(SUMSQ(M34:M38)/25)^(1/2)</f>
         <v>2.3808205742172807E-5</v>
       </c>
-      <c r="P34" s="69">
+      <c r="P34" s="49">
         <f t="shared" ref="P34" si="65">_xlfn.STDEV.S(L34:L38)</f>
         <v>2.7520590084576011E-5</v>
       </c>
-      <c r="Q34" s="59">
+      <c r="Q34" s="48">
         <v>1.1476</v>
       </c>
-      <c r="R34" s="59">
+      <c r="R34" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S34" s="20">
+      <c r="S34" s="78">
         <f t="shared" ref="S34" si="66">N34/(F34-Q34)*10^(-3)</f>
         <v>2.1803619644050332E-5</v>
       </c>
-      <c r="T34" s="21">
+      <c r="T34" s="81">
         <f>((P34/(F34-Q34))^2+(N34*G34/(F34-Q34)^2)^2+(N34*R34/(F34-Q34)^2)^2)^(1/2)*10^-3</f>
         <v>2.6628069696087493E-7</v>
       </c>
-      <c r="U34" s="32">
+      <c r="U34" s="42">
         <f t="shared" ref="U34" si="67">1+2.1*0.5*B34/$D$45</f>
         <v>1.0840000000000001</v>
       </c>
-      <c r="V34" s="32">
+      <c r="V34" s="42">
         <f t="shared" ref="V34" si="68">2.1*C34*0.5/$D$45</f>
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="W34" s="20">
+      <c r="W34" s="78">
         <f t="shared" ref="W34" si="69">S34*U34</f>
         <v>2.3635123694150561E-5</v>
       </c>
-      <c r="X34" s="21">
+      <c r="X34" s="81">
         <f t="shared" ref="X34" si="70">((T34*U34)^2+(S34*V34)^2)^(1/2)</f>
         <v>2.8922874625614833E-7</v>
       </c>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="36">
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="38">
         <f>2/9*$D$46*(F34-Q34)*D34/$D$47*10^3</f>
         <v>5.3796600000000005E-3</v>
       </c>
-      <c r="AB34" s="36">
+      <c r="AB34" s="38">
         <f>2/9*$D$46*((F34*D34/$D$47)^2+(R34*D34/$D$47)^2+((F34-Q34)*$D$48/$D$47^2)^2+((F34-Q34)*2*(D34)^(1/2)*(E34)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960005674364035E-5</v>
       </c>
-      <c r="AC34" s="35">
+      <c r="AC34" s="95">
+        <f>N34/AA34</f>
+        <v>0.93177861726710798</v>
+      </c>
+      <c r="AD34" s="95">
+        <f>((P34/AA34)^2+(N34*AB34/AA34^2)^2)^(1/2)</f>
+        <v>1.6729202991582419E-2</v>
+      </c>
+      <c r="AE34" s="95">
         <f>Q34*$AA$4*B34*10^-3/$D$47*10^3</f>
         <v>0.7170565252884038</v>
       </c>
-      <c r="AD34" s="93">
+      <c r="AF34" s="96">
         <f>((AA34*R34*B34*10^-3/$D$47)^2+(Q34*AB34*B34*10^-3/$D$47)^2+(Q34*AA34*C34*10^-3/$D$47)^2+(Q34*AA34*B34*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>3.8225084817565319E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B35" s="40"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B35" s="70"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="8">
         <v>40.07</v>
       </c>
-      <c r="I35" s="53"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="50"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="47"/>
       <c r="L35" s="14">
         <f t="shared" si="0"/>
         <v>4.9912652857499375E-3</v>
@@ -3196,37 +3383,39 @@
         <f t="shared" ref="M35:M38" si="71">(($K$34/H35)^2+($J$34*$I$34/H35^2)^2)^(1/2)</f>
         <v>5.2894141272690634E-5</v>
       </c>
-      <c r="N35" s="66"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="93"/>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="40"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="81"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="95"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="95"/>
+      <c r="AF35" s="96"/>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B36" s="70"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="8">
         <v>39.92</v>
       </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="50"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="47"/>
       <c r="L36" s="14">
         <f t="shared" si="0"/>
         <v>5.0100200400801601E-3</v>
@@ -3235,37 +3424,39 @@
         <f t="shared" si="71"/>
         <v>5.3192559591570681E-5</v>
       </c>
-      <c r="N36" s="66"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="93"/>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B37" s="40"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="89"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="95"/>
+      <c r="AD36" s="95"/>
+      <c r="AE36" s="95"/>
+      <c r="AF36" s="96"/>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B37" s="70"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="8">
         <v>40.15</v>
       </c>
-      <c r="I37" s="53"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="50"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="47"/>
       <c r="L37" s="14">
         <f t="shared" si="0"/>
         <v>4.9813200498132013E-3</v>
@@ -3274,37 +3465,39 @@
         <f t="shared" si="71"/>
         <v>5.2736274862302553E-5</v>
       </c>
-      <c r="N37" s="66"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="71"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="93"/>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B38" s="40"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="85"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="95"/>
+      <c r="AD37" s="95"/>
+      <c r="AE37" s="95"/>
+      <c r="AF37" s="96"/>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B38" s="70"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="11">
         <v>39.64</v>
       </c>
-      <c r="I38" s="54"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="51"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="41"/>
       <c r="L38" s="15">
         <f t="shared" si="0"/>
         <v>5.0454086781029266E-3</v>
@@ -3313,59 +3506,61 @@
         <f t="shared" si="71"/>
         <v>5.3758192485178142E-5</v>
       </c>
-      <c r="N38" s="67"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="93"/>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B39" s="40">
+      <c r="N38" s="57"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="81"/>
+      <c r="Y38" s="89"/>
+      <c r="Z38" s="85"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="95"/>
+      <c r="AD38" s="95"/>
+      <c r="AE38" s="95"/>
+      <c r="AF38" s="96"/>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B39" s="70">
         <v>2</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="34">
         <f t="shared" ref="C39" si="72">B39*0.01</f>
         <v>0.02</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="45">
         <f t="shared" ref="D39" si="73">(B39/2)^2*10^-6</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="45">
         <f t="shared" ref="E39" si="74">B39*C39*10^-6</f>
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="F39" s="47">
+      <c r="F39" s="61">
         <f>F34</f>
         <v>1.3774999999999999</v>
       </c>
-      <c r="G39" s="47">
+      <c r="G39" s="61">
         <f>G34</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H39" s="12">
         <v>74.900000000000006</v>
       </c>
-      <c r="I39" s="52">
+      <c r="I39" s="63">
         <f>I34</f>
         <v>0.3</v>
       </c>
-      <c r="J39" s="43">
+      <c r="J39" s="74">
         <v>0.2</v>
       </c>
-      <c r="K39" s="59">
+      <c r="K39" s="48">
         <f t="shared" ref="K39" si="75">0.5*B39*10^-3</f>
         <v>1E-3</v>
       </c>
@@ -3377,82 +3572,90 @@
         <f>(($K$39/H39)^2+($J$39*$I$39/H39^2)^2)^(1/2)</f>
         <v>1.7106706942119941E-5</v>
       </c>
-      <c r="N39" s="65">
+      <c r="N39" s="55">
         <f>(L39+L40+L41+L42+L43)/5</f>
         <v>2.654035384232682E-3</v>
       </c>
-      <c r="O39" s="69">
+      <c r="O39" s="49">
         <f t="shared" ref="O39" si="76">(SUMSQ(M39:M43)/25)^(1/2)</f>
         <v>7.5910153311779477E-6</v>
       </c>
-      <c r="P39" s="36">
+      <c r="P39" s="38">
         <f t="shared" ref="P39" si="77">_xlfn.STDEV.S(L39:L43)</f>
         <v>6.3404518771783403E-5</v>
       </c>
-      <c r="Q39" s="59">
+      <c r="Q39" s="48">
         <f>Q34</f>
         <v>1.1476</v>
       </c>
-      <c r="R39" s="59">
+      <c r="R39" s="48">
         <f>R34</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S39" s="20">
+      <c r="S39" s="78">
         <f t="shared" ref="S39" si="78">N39/(F39-Q39)*10^(-3)</f>
         <v>1.154430354168196E-5</v>
       </c>
-      <c r="T39" s="21">
+      <c r="T39" s="81">
         <f>((O39/(F39-Q39))^2+(N39*G39/(F39-Q39)^2)^2+(N39*R39/(F39-Q39)^2)^2)^(1/2)*10^-3</f>
         <v>1.3019378482831071E-7</v>
       </c>
-      <c r="U39" s="32">
+      <c r="U39" s="42">
         <f t="shared" ref="U39" si="79">1+2.1*0.5*B39/$D$45</f>
         <v>1.056</v>
       </c>
-      <c r="V39" s="32">
+      <c r="V39" s="42">
         <f t="shared" ref="V39" si="80">2.1*C39*0.5/$D$45</f>
         <v>5.6000000000000006E-4</v>
       </c>
-      <c r="W39" s="20">
+      <c r="W39" s="78">
         <f t="shared" ref="W39" si="81">S39*U39</f>
         <v>1.219078454001615E-5</v>
       </c>
-      <c r="X39" s="21">
+      <c r="X39" s="81">
         <f t="shared" ref="X39" si="82">((T39*U39)^2+(S39*V39)^2)^(1/2)</f>
         <v>1.3763654717512613E-7</v>
       </c>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="71"/>
-      <c r="AA39" s="36">
+      <c r="Y39" s="89"/>
+      <c r="Z39" s="85"/>
+      <c r="AA39" s="38">
         <f>2/9*$D$46*(F39-Q39)*D39/$D$47*10^3</f>
         <v>2.3909600000000001E-3</v>
       </c>
-      <c r="AB39" s="36">
+      <c r="AB39" s="38">
         <f>2/9*$D$46*((F39*D39/$D$47)^2+(R39*D39/$D$47)^2+((F39-Q39)*$D$48/$D$47^2)^2+((F39-Q39)*2*(D39)^(1/2)*(E39)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960001120862077E-5</v>
       </c>
-      <c r="AC39" s="35">
+      <c r="AC39" s="34">
+        <f>N39/AA39</f>
+        <v>1.1100291867001881</v>
+      </c>
+      <c r="AD39" s="34">
+        <f>((O39/AA39)^2+(N39*AB39/AA39^2)^2)^(1/2)</f>
+        <v>4.2811317497756199E-2</v>
+      </c>
+      <c r="AE39" s="42">
         <f>Q39*$AA$4*B39*10^-3/$D$47*10^3</f>
         <v>0.4780376835256025</v>
       </c>
-      <c r="AD39" s="93">
+      <c r="AF39" s="97">
         <f>((AA39*R39*B39*10^-3/$D$47)^2+(Q39*AB39*B39*10^-3/$D$47)^2+(Q39*AA39*C39*10^-3/$D$47)^2+(Q39*AA39*B39*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>1.4479009314524434E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B40" s="40"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B40" s="70"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="8">
         <v>78.34</v>
       </c>
-      <c r="I40" s="53"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="50"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="47"/>
       <c r="L40" s="14">
         <f t="shared" si="0"/>
         <v>2.5529742149604288E-3</v>
@@ -3461,37 +3664,39 @@
         <f t="shared" ref="M40:M43" si="83">(($K$39/H40)^2+($J$39*$I$39/H40^2)^2)^(1/2)</f>
         <v>1.6078625529446875E-5</v>
       </c>
-      <c r="N40" s="66"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="71"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="93"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B41" s="40"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="89"/>
+      <c r="Z40" s="85"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="97"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B41" s="70"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="8">
         <v>75.86</v>
       </c>
-      <c r="I41" s="53"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="50"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="14">
         <f t="shared" si="0"/>
         <v>2.6364355391510679E-3</v>
@@ -3500,37 +3705,39 @@
         <f t="shared" si="83"/>
         <v>1.6806999019068159E-5</v>
       </c>
-      <c r="N41" s="66"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="93"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B42" s="40"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="81"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="78"/>
+      <c r="X41" s="81"/>
+      <c r="Y41" s="89"/>
+      <c r="Z41" s="85"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="97"/>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B42" s="70"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
       <c r="H42" s="8">
         <v>73.8</v>
       </c>
-      <c r="I42" s="53"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="50"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="47"/>
       <c r="L42" s="14">
         <f t="shared" si="0"/>
         <v>2.7100271002710031E-3</v>
@@ -3539,37 +3746,39 @@
         <f t="shared" si="83"/>
         <v>1.7463292566734726E-5</v>
       </c>
-      <c r="N42" s="66"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="71"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="93"/>
-    </row>
-    <row r="43" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="41"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="78"/>
+      <c r="T42" s="81"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="78"/>
+      <c r="X42" s="81"/>
+      <c r="Y42" s="89"/>
+      <c r="Z42" s="85"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="97"/>
+    </row>
+    <row r="43" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="71"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
       <c r="H43" s="10">
         <v>74.06</v>
       </c>
-      <c r="I43" s="55"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="60"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="51"/>
       <c r="L43" s="16">
         <f t="shared" si="0"/>
         <v>2.7005130974885228E-3</v>
@@ -3578,25 +3787,27 @@
         <f t="shared" si="83"/>
         <v>1.7377698907979166E-5</v>
       </c>
-      <c r="N43" s="68"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="61"/>
-      <c r="AB43" s="61"/>
-      <c r="AC43" s="37"/>
-      <c r="AD43" s="94"/>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="N43" s="58"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="79"/>
+      <c r="T43" s="83"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="79"/>
+      <c r="X43" s="83"/>
+      <c r="Y43" s="90"/>
+      <c r="Z43" s="86"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="98"/>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>42</v>
       </c>
@@ -3604,7 +3815,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>43</v>
       </c>
@@ -3612,7 +3823,7 @@
         <v>9.8098399999999994</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -3621,7 +3832,7 @@
         <v>0.20961196581196578</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -3649,47 +3860,132 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="195">
-    <mergeCell ref="AD29:AD33"/>
-    <mergeCell ref="AC34:AC38"/>
+  <mergeCells count="211">
     <mergeCell ref="AD34:AD38"/>
-    <mergeCell ref="AC39:AC43"/>
     <mergeCell ref="AD39:AD43"/>
-    <mergeCell ref="AD4:AD8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AD9:AD13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AD14:AD18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AD19:AD23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AD24:AD28"/>
-    <mergeCell ref="AB4:AB8"/>
-    <mergeCell ref="AB9:AB13"/>
-    <mergeCell ref="AB14:AB18"/>
-    <mergeCell ref="AB19:AB23"/>
-    <mergeCell ref="AB24:AB28"/>
-    <mergeCell ref="AB29:AB33"/>
-    <mergeCell ref="AB34:AB38"/>
-    <mergeCell ref="AB39:AB43"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="AA39:AA43"/>
-    <mergeCell ref="V4:V8"/>
-    <mergeCell ref="V9:V13"/>
-    <mergeCell ref="V14:V18"/>
-    <mergeCell ref="V19:V23"/>
-    <mergeCell ref="V24:V28"/>
-    <mergeCell ref="V29:V33"/>
-    <mergeCell ref="V34:V38"/>
-    <mergeCell ref="V39:V43"/>
+    <mergeCell ref="Z4:Z43"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="X4:X8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="X9:X13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="X14:X18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="X19:X23"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y43"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="U39:U43"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="S39:S43"/>
+    <mergeCell ref="T4:T8"/>
+    <mergeCell ref="T9:T13"/>
+    <mergeCell ref="T14:T18"/>
+    <mergeCell ref="T19:T23"/>
+    <mergeCell ref="T24:T28"/>
+    <mergeCell ref="T29:T33"/>
+    <mergeCell ref="T34:T38"/>
+    <mergeCell ref="T39:T43"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="R9:R13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="R34:R38"/>
+    <mergeCell ref="Q39:Q43"/>
+    <mergeCell ref="R39:R43"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="R24:R28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="R29:R33"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="N14:N18"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="N24:N28"/>
+    <mergeCell ref="N29:N33"/>
+    <mergeCell ref="N34:N38"/>
+    <mergeCell ref="N39:N43"/>
+    <mergeCell ref="O4:O8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="D14:D18"/>
@@ -3714,118 +4010,22 @@
     <mergeCell ref="P24:P28"/>
     <mergeCell ref="O29:O33"/>
     <mergeCell ref="P29:P33"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="N9:N13"/>
-    <mergeCell ref="N14:N18"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="N24:N28"/>
-    <mergeCell ref="N29:N33"/>
-    <mergeCell ref="N34:N38"/>
-    <mergeCell ref="N39:N43"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="R9:R13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="R34:R38"/>
-    <mergeCell ref="Q39:Q43"/>
-    <mergeCell ref="R39:R43"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="R19:R23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="R24:R28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="R29:R33"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="S39:S43"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="T9:T13"/>
-    <mergeCell ref="T14:T18"/>
-    <mergeCell ref="T19:T23"/>
-    <mergeCell ref="T24:T28"/>
-    <mergeCell ref="T29:T33"/>
-    <mergeCell ref="T34:T38"/>
-    <mergeCell ref="T39:T43"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="U39:U43"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="AA39:AA43"/>
+    <mergeCell ref="V4:V8"/>
+    <mergeCell ref="V9:V13"/>
+    <mergeCell ref="V14:V18"/>
+    <mergeCell ref="V19:V23"/>
+    <mergeCell ref="V24:V28"/>
+    <mergeCell ref="V29:V33"/>
+    <mergeCell ref="V34:V38"/>
+    <mergeCell ref="V39:V43"/>
     <mergeCell ref="W24:W28"/>
     <mergeCell ref="X24:X28"/>
     <mergeCell ref="W29:W33"/>
@@ -3834,151 +4034,303 @@
     <mergeCell ref="X34:X38"/>
     <mergeCell ref="W39:W43"/>
     <mergeCell ref="X39:X43"/>
-    <mergeCell ref="Z4:Z43"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="X4:X8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="X9:X13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="X14:X18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="X19:X23"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y43"/>
+    <mergeCell ref="AB4:AB8"/>
+    <mergeCell ref="AB9:AB13"/>
+    <mergeCell ref="AB14:AB18"/>
+    <mergeCell ref="AB19:AB23"/>
+    <mergeCell ref="AB24:AB28"/>
+    <mergeCell ref="AB29:AB33"/>
+    <mergeCell ref="AB34:AB38"/>
+    <mergeCell ref="AB39:AB43"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AD4:AD8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AC39:AC43"/>
+    <mergeCell ref="AD9:AD13"/>
+    <mergeCell ref="AD14:AD18"/>
+    <mergeCell ref="AD19:AD23"/>
+    <mergeCell ref="AD24:AD28"/>
+    <mergeCell ref="AD29:AD33"/>
+    <mergeCell ref="AF29:AF33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AF34:AF38"/>
+    <mergeCell ref="AE39:AE43"/>
+    <mergeCell ref="AF39:AF43"/>
+    <mergeCell ref="AF4:AF8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AF9:AF13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AF14:AF18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AF19:AF23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AF24:AF28"/>
   </mergeCells>
   <pageMargins left="0" right="0.39370078740157483" top="1.3779527559055118" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="37" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I2" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>550</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="71">
+      <c r="F3" s="85">
         <v>4</v>
       </c>
-      <c r="F3" s="24">
+      <c r="G3" s="91">
         <f>273.15+23.9</f>
         <v>297.04999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f>E4-E3</f>
+        <v>99</v>
+      </c>
+      <c r="J3" s="103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>549.5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="64"/>
+      <c r="D4" s="8">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>99</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="85"/>
+      <c r="G4" s="92"/>
+      <c r="I4">
+        <f t="shared" ref="I4:I8" si="0">E5-E4</f>
+        <v>127</v>
+      </c>
+      <c r="J4" s="103"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>549</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="64"/>
+      <c r="D5" s="8">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>226</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="85"/>
+      <c r="G5" s="92"/>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="J5" s="103"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>548.5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="64"/>
+      <c r="D6" s="8">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>357</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="85"/>
+      <c r="G6" s="92"/>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="J6" s="103"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>548</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="64"/>
+      <c r="D7" s="8">
         <v>20</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>485</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="85"/>
+      <c r="G7" s="92"/>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="J7" s="103"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>547.5</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="64"/>
+      <c r="D8" s="8">
         <v>25</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>616</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="85"/>
+      <c r="G8" s="92"/>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="J8" s="103"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>547</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="66"/>
+      <c r="D9" s="10">
         <v>30</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>744</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="26"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="93"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <f>(B4+B9)/2</f>
+        <v>548.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <f>(6*C3^2/36)^(1/2)</f>
+        <v>0.20412414523193151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <f>_xlfn.STDEV.S(B4:B9)</f>
+        <v>0.93541434669348533</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14">
+        <v>1.1456</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="100"/>
+      <c r="D15">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="100"/>
+      <c r="D16">
+        <f>D14*D11*Tabelle1!D46</f>
+        <v>6161.3172199679993</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <f>((D13*D14*Tabelle1!D46)^2+(D11*D15*Tabelle1!D46)^2)^(1/2)</f>
+        <v>10.567217578443419</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E3:E9"/>
+  <mergeCells count="4">
     <mergeCell ref="F3:F9"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="J3:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
+++ b/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Thorben\Documents\GitHub\Universe\Praktikum\212 - Zähigkeit von Flüssigkeiten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thorben Frey\Heidelberg\PAP\PAP2.1\Praktikum\Praktikum\Praktikum\212 - Zähigkeit von Flüssigkeiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>t [s]</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Δ h mean [mm]</t>
   </si>
   <si>
-    <t>Δh Δmean [mm]</t>
-  </si>
-  <si>
     <t>Δ h [mm]</t>
   </si>
   <si>
@@ -329,12 +326,36 @@
   </si>
   <si>
     <t>Δ ts-te [s]</t>
+  </si>
+  <si>
+    <t>Vs-Ve [ml]</t>
+  </si>
+  <si>
+    <t>Δ Vs-Ve [ml]</t>
+  </si>
+  <si>
+    <t>Δ V [ml]</t>
+  </si>
+  <si>
+    <t>Δ |dVs/dts-dVe/dte| [ml/s]</t>
+  </si>
+  <si>
+    <t>Einlaufzeit</t>
+  </si>
+  <si>
+    <t>dV/dt [m³/s]</t>
+  </si>
+  <si>
+    <t>Δ dV/dt [m³/s]</t>
+  </si>
+  <si>
+    <t>Δ η [Pa s]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -386,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -792,11 +813,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -844,180 +902,202 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1027,30 +1107,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1368,37 +1464,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AF50"/>
+  <dimension ref="B1:AF58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="W62" sqref="W62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1581,37 +1683,37 @@
       <c r="AF3" s="32"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B4" s="76">
+      <c r="B4" s="65">
         <v>9</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="53">
         <f>B4*0.01</f>
         <v>0.09</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="41">
         <f>(B4/2)^2*10^-6</f>
         <v>2.0249999999999998E-5</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="41">
         <f>B4*C4*10^-6</f>
         <v>8.0999999999999987E-7</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="67">
         <v>1.3554999999999999</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="67">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H4" s="8">
         <v>6.14</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="73">
         <v>0.3</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="61">
         <v>0.2</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="76">
         <f>0.5*B4*10^-3</f>
         <v>4.5000000000000005E-3</v>
       </c>
@@ -1623,93 +1725,93 @@
         <f>(($K$4/H4)^2+($J$4*$I$4/H4^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="N4" s="47">
+      <c r="N4" s="71">
         <f>(L4+L5+L6+L7+L8)/5</f>
         <v>3.3077869485049816E-2</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="71">
         <f>(SUMSQ(M4:M8)/25)^(1/2)</f>
         <v>8.0798706393487478E-4</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="71">
         <f>_xlfn.STDEV.S(L4:L8)</f>
         <v>1.1538275016650245E-3</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="71">
         <v>1.1482000000000001</v>
       </c>
-      <c r="R4" s="47">
+      <c r="R4" s="71">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S4" s="44">
+      <c r="S4" s="41">
         <f>N4/(F4-Q4)*10^(-3)</f>
         <v>1.59565217004582E-4</v>
       </c>
-      <c r="T4" s="80">
+      <c r="T4" s="57">
         <f>((P4/(F4-Q4))^2+(N4*G4/(F4-Q4)^2)^2+(N4*R4/(F4-Q4)^2)^2)^(1/2)*10^-3</f>
         <v>5.5813928390751162E-6</v>
       </c>
-      <c r="U4" s="41">
+      <c r="U4" s="50">
         <f>1+2.1*0.5*B4/$D$45</f>
         <v>1.252</v>
       </c>
-      <c r="V4" s="41">
+      <c r="V4" s="50">
         <f>2.1*C4*0.5/$D$45</f>
         <v>2.5200000000000001E-3</v>
       </c>
-      <c r="W4" s="44">
+      <c r="W4" s="41">
         <f>S4*U4</f>
         <v>1.9977565168973667E-4</v>
       </c>
-      <c r="X4" s="87">
+      <c r="X4" s="43">
         <f>((T4*U4)^2+(S4*V4)^2)^(1/2)</f>
         <v>6.9994634013104759E-6</v>
       </c>
-      <c r="Y4" s="88">
+      <c r="Y4" s="47">
         <f>273.15+21.5</f>
         <v>294.64999999999998</v>
       </c>
-      <c r="Z4" s="85">
+      <c r="Z4" s="39">
         <v>0.5</v>
       </c>
-      <c r="AA4" s="37">
+      <c r="AA4" s="91">
         <f>2/9*$D$46*(F4-Q4)*D4/$D$47*10^3</f>
         <v>4.3657379999999968E-2</v>
       </c>
-      <c r="AB4" s="37">
+      <c r="AB4" s="91">
         <f>2/9*$D$46*((F4*D4/$D$47)^2+(R4*D4/$D$47)^2+((F4-Q4)*$D$48/$D$47^2)^2+((F4-Q4)*2*(D4)^(1/2)*(E4)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>8.2920493227589778E-5</v>
       </c>
-      <c r="AC4" s="94">
+      <c r="AC4" s="93">
         <f>N4/AA4</f>
         <v>0.75766959641301979</v>
       </c>
-      <c r="AD4" s="94">
+      <c r="AD4" s="93">
         <f>((P4/AA4)^2+(N4*AB4/AA4^2)^2)^(1/2)</f>
         <v>2.6468301451664619E-2</v>
       </c>
-      <c r="AE4" s="40">
+      <c r="AE4" s="92">
         <f>Q4*$AA$4*B4*10^-3/$D$47*10^3</f>
         <v>2.1522942724019138</v>
       </c>
-      <c r="AF4" s="36">
+      <c r="AF4" s="97">
         <f>((AA4*R4*B4*10^-3/$D$47)^2+(Q4*AB4*B4*10^-3/$D$47)^2+(Q4*AA4*C4*10^-3/$D$47)^2+(Q4*AA4*B4*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>8.5631234092181471E-2</v>
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B5" s="70"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="8">
         <v>6.14</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="67"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="76"/>
       <c r="L5" s="17">
         <f t="shared" ref="L5:L43" si="0">$J$4/H5</f>
         <v>3.2573289902280131E-2</v>
@@ -1718,39 +1820,39 @@
         <f t="shared" ref="M5:M8" si="1">(($K$4/H5)^2+($J$4*$I$4/H5^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="33"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="98"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B6" s="70"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="8">
         <v>5.7</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="67"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="76"/>
       <c r="L6" s="17">
         <f t="shared" si="0"/>
         <v>3.5087719298245612E-2</v>
@@ -1759,39 +1861,39 @@
         <f t="shared" si="1"/>
         <v>2.0083951542744852E-3</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="33"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="98"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B7" s="70"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="8">
         <v>6.21</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="67"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="76"/>
       <c r="L7" s="17">
         <f t="shared" si="0"/>
         <v>3.2206119162640906E-2</v>
@@ -1800,39 +1902,39 @@
         <f t="shared" si="1"/>
         <v>1.716325325710239E-3</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="33"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="98"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B8" s="70"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="11">
         <v>6.07</v>
       </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="68"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="77"/>
       <c r="L8" s="18">
         <f t="shared" si="0"/>
         <v>3.2948929159802305E-2</v>
@@ -1841,59 +1943,59 @@
         <f t="shared" si="1"/>
         <v>1.7892578702547329E-3</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="33"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="98"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B9" s="70">
+      <c r="B9" s="59">
         <v>8</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="37">
         <f t="shared" ref="C9" si="2">B9*0.01</f>
         <v>0.08</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="42">
         <f t="shared" ref="D9" si="3">(B9/2)^2*10^-6</f>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="42">
         <f t="shared" ref="E9" si="4">B9*C9*10^-6</f>
         <v>6.4000000000000001E-7</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="68">
         <v>1.3625</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="68">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H9" s="12">
         <v>7.86</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I9" s="72">
         <f>I4</f>
         <v>0.3</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="62">
         <v>0.2</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="78">
         <f>0.5*B9*10^-3</f>
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1905,91 +2007,91 @@
         <f>(($K$9/H9)^2+($J$9*$I$9/H9^2)^2)^(1/2)</f>
         <v>1.0964504915178231E-3</v>
       </c>
-      <c r="N9" s="48">
+      <c r="N9" s="79">
         <f>(L9+L10+L11+L12+L13)/5</f>
         <v>2.6029305829267206E-2</v>
       </c>
-      <c r="O9" s="48">
+      <c r="O9" s="79">
         <f t="shared" ref="O9" si="5">(SUMSQ(M9:M13)/25)^(1/2)</f>
         <v>5.1104479056882763E-4</v>
       </c>
-      <c r="P9" s="48">
+      <c r="P9" s="79">
         <f t="shared" ref="P9" si="6">_xlfn.STDEV.S(L9:L13)</f>
         <v>5.0949814262065871E-4</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="79">
         <v>1.1476</v>
       </c>
-      <c r="R9" s="48">
+      <c r="R9" s="79">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S9" s="78">
+      <c r="S9" s="45">
         <f t="shared" ref="S9" si="7">N9/(F9-Q9)*10^(-3)</f>
         <v>1.2112287496169007E-4</v>
       </c>
-      <c r="T9" s="81">
+      <c r="T9" s="46">
         <f>((P9/(F9-Q9))^2+(N9*G9/(F9-Q9)^2)^2+(N9*R9/(F9-Q9)^2)^2)^(1/2)*10^-3</f>
         <v>2.3902111605678812E-6</v>
       </c>
-      <c r="U9" s="42">
+      <c r="U9" s="51">
         <f t="shared" ref="U9" si="8">1+2.1*0.5*B9/$D$45</f>
         <v>1.224</v>
       </c>
-      <c r="V9" s="42">
+      <c r="V9" s="51">
         <f t="shared" ref="V9" si="9">2.1*C9*0.5/$D$45</f>
         <v>2.2400000000000002E-3</v>
       </c>
-      <c r="W9" s="45">
+      <c r="W9" s="42">
         <f t="shared" ref="W9" si="10">S9*U9</f>
         <v>1.4825439895310865E-4</v>
       </c>
-      <c r="X9" s="82">
+      <c r="X9" s="44">
         <f t="shared" ref="X9" si="11">((T9*U9)^2+(S9*V9)^2)^(1/2)</f>
         <v>2.9381721079666829E-6</v>
       </c>
-      <c r="Y9" s="89">
+      <c r="Y9" s="48">
         <f>Y4+0.5</f>
         <v>295.14999999999998</v>
       </c>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="38">
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="54">
         <f>2/9*$D$46*(F9-Q9)*D9/$D$47*10^3</f>
         <v>3.5759360000000018E-2</v>
       </c>
-      <c r="AB9" s="38">
+      <c r="AB9" s="54">
         <f>2/9*$D$46*((F9*D9/$D$47)^2+(R9*D9/$D$47)^2+((F9-Q9)*$D$48/$D$47^2)^2+((F9-Q9)*2*(D9)^(1/2)*(E9)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>8.5960300177213242E-5</v>
       </c>
-      <c r="AC9" s="95">
+      <c r="AC9" s="36">
         <f>N9/AA9</f>
         <v>0.72790189279861817</v>
       </c>
-      <c r="AD9" s="95">
+      <c r="AD9" s="36">
         <f>((P9/AA9)^2+(N9*AB9/AA9^2)^2)^(1/2)</f>
         <v>1.4355007101729765E-2</v>
       </c>
-      <c r="AE9" s="34">
+      <c r="AE9" s="37">
         <f>Q9*$AA$4*B9*10^-3/$D$47*10^3</f>
         <v>1.91215073410241</v>
       </c>
-      <c r="AF9" s="33">
+      <c r="AF9" s="98">
         <f>((AA9*R9*B9*10^-3/$D$47)^2+(Q9*AB9*B9*10^-3/$D$47)^2+(Q9*AA9*C9*10^-3/$D$47)^2+(Q9*AA9*B9*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>6.2356591175247576E-2</v>
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B10" s="70"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="8">
         <v>7.8</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="67"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="17">
         <f t="shared" si="0"/>
         <v>2.5641025641025644E-2</v>
@@ -1998,39 +2100,39 @@
         <f t="shared" ref="M10:M13" si="12">(($K$9/H10)^2+($J$9*$I$9/H10^2)^2)^(1/2)</f>
         <v>1.1115584065960846E-3</v>
       </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="33"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="98"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="8">
         <v>7.7</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="67"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="76"/>
       <c r="L11" s="17">
         <f t="shared" si="0"/>
         <v>2.5974025974025976E-2</v>
@@ -2039,39 +2141,39 @@
         <f t="shared" si="12"/>
         <v>1.1375207635695094E-3</v>
       </c>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="33"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="98"/>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="8">
         <v>7.56</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="67"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="17">
         <f t="shared" si="0"/>
         <v>2.6455026455026457E-2</v>
@@ -2080,39 +2182,39 @@
         <f t="shared" si="12"/>
         <v>1.1755989736153413E-3</v>
       </c>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="33"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="98"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="11">
         <v>7.51</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="68"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="18">
         <f t="shared" si="0"/>
         <v>2.6631158455392812E-2</v>
@@ -2121,59 +2223,59 @@
         <f t="shared" si="12"/>
         <v>1.1897130928283149E-3</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="33"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="98"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B14" s="77">
+      <c r="B14" s="66">
         <v>7.1440000000000001</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="54">
         <f t="shared" ref="C14" si="13">B14*0.01</f>
         <v>7.1440000000000003E-2</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="42">
         <f t="shared" ref="D14" si="14">(B14/2)^2*10^-6</f>
         <v>1.2759184000000001E-5</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="42">
         <f t="shared" ref="E14" si="15">B14*C14*10^-6</f>
         <v>5.1036735999999999E-7</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="68">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="68">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H14" s="12">
         <v>8.42</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="72">
         <f>I9</f>
         <v>0.3</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="62">
         <v>0.2</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="78">
         <f t="shared" ref="K14" si="16">0.5*B14*10^-3</f>
         <v>3.5720000000000001E-3</v>
       </c>
@@ -2185,88 +2287,88 @@
         <f>(($K$14/H14)^2+($J$14*$I$14/H14^2)^2)^(1/2)</f>
         <v>9.4667951449123387E-4</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="79">
         <f>(L14+L15+L16+L17+L18)/5</f>
         <v>2.3640955470984416E-2</v>
       </c>
-      <c r="O14" s="47">
+      <c r="O14" s="71">
         <f t="shared" ref="O14" si="17">(SUMSQ(M14:M18)/25)^(1/2)</f>
         <v>4.2004945214195227E-4</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="71">
         <f t="shared" ref="P14" si="18">_xlfn.STDEV.S(L14:L18)</f>
         <v>4.1924762935458839E-4</v>
       </c>
-      <c r="Q14" s="48">
+      <c r="Q14" s="79">
         <v>1.1476</v>
       </c>
-      <c r="R14" s="48">
+      <c r="R14" s="79">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S14" s="78">
+      <c r="S14" s="45">
         <f t="shared" ref="S14" si="19">N14/(F14-Q14)*10^(-3)</f>
         <v>1.0283147225308576E-4</v>
       </c>
-      <c r="T14" s="81">
+      <c r="T14" s="46">
         <f>((P14/(F14-Q14))^2+(N14*G14/(F14-Q14)^2)^2+(N14*R14/(F14-Q14)^2)^2)^(1/2)*10^-3</f>
         <v>2.1410198964813952E-6</v>
       </c>
-      <c r="U14" s="42">
+      <c r="U14" s="51">
         <f t="shared" ref="U14" si="20">1+2.1*0.5*B14/$D$45</f>
         <v>1.200032</v>
       </c>
-      <c r="V14" s="42">
+      <c r="V14" s="51">
         <f t="shared" ref="V14" si="21">2.1*C14*0.5/$D$45</f>
         <v>2.0003200000000003E-3</v>
       </c>
-      <c r="W14" s="78">
+      <c r="W14" s="45">
         <f>S14*U14</f>
         <v>1.2340105731081501E-4</v>
       </c>
-      <c r="X14" s="81">
+      <c r="X14" s="46">
         <f t="shared" ref="X14" si="22">((T14*U14)^2+(S14*V14)^2)^(1/2)</f>
         <v>2.5775131736052662E-6</v>
       </c>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="38">
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="54">
         <f>2/9*$D$46*(F14-Q14)*D14/$D$47*10^3</f>
         <v>3.0506698576639998E-2</v>
       </c>
-      <c r="AB14" s="38">
+      <c r="AB14" s="54">
         <f>2/9*$D$46*((F14*D14/$D$47)^2+(R14*D14/$D$47)^2+((F14-Q14)*$D$48/$D$47^2)^2+((F14-Q14)*2*(D14)^(1/2)*(E14)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.196018247254961E-5</v>
       </c>
-      <c r="AC14" s="95">
+      <c r="AC14" s="36">
         <f>N14/AA14</f>
         <v>0.77494309689371266</v>
       </c>
-      <c r="AD14" s="95">
+      <c r="AD14" s="36">
         <f>((P14/AA14)^2+(N14*AB14/AA14^2)^2)^(1/2)</f>
         <v>1.3939929801672279E-2</v>
       </c>
-      <c r="AE14" s="34">
+      <c r="AE14" s="37">
         <f>Q14*$AA$4*B14*10^-3/$D$47*10^3</f>
         <v>1.7075506055534522</v>
       </c>
-      <c r="AF14" s="33">
+      <c r="AF14" s="98">
         <f>((AA14*R14*B14*10^-3/$D$47)^2+(Q14*AB14*B14*10^-3/$D$47)^2+(Q14*AA14*C14*10^-3/$D$47)^2+(Q14*AA14*B14*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>4.7554545156289173E-2</v>
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B15" s="77"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="8">
         <v>8.6199999999999992</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="67"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="76"/>
       <c r="L15" s="17">
         <f t="shared" si="0"/>
         <v>2.3201856148491882E-2</v>
@@ -2275,39 +2377,39 @@
         <f t="shared" ref="M15:M18" si="23">(($K$14/H15)^2+($J$14*$I$14/H15^2)^2)^(1/2)</f>
         <v>9.0760886409929718E-4</v>
       </c>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="33"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="98"/>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B16" s="77"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="8">
         <v>8.5399999999999991</v>
       </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="67"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="17">
         <f t="shared" si="0"/>
         <v>2.3419203747072605E-2</v>
@@ -2316,39 +2418,39 @@
         <f t="shared" si="23"/>
         <v>9.2291055402502582E-4</v>
       </c>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="33"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="98"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B17" s="77"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="8">
         <v>8.5</v>
       </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="67"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="76"/>
       <c r="L17" s="17">
         <f t="shared" si="0"/>
         <v>2.3529411764705882E-2</v>
@@ -2357,39 +2459,39 @@
         <f t="shared" si="23"/>
         <v>9.3072263192061364E-4</v>
       </c>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="33"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="98"/>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B18" s="77"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="11">
         <v>8.23</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="68"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="18">
         <f t="shared" si="0"/>
         <v>2.4301336573511544E-2</v>
@@ -2398,59 +2500,59 @@
         <f t="shared" si="23"/>
         <v>9.8644518067141844E-4</v>
       </c>
-      <c r="N18" s="41"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="33"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="98"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B19" s="70">
+      <c r="B19" s="59">
         <v>6</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="37">
         <f t="shared" ref="C19" si="24">B19*0.01</f>
         <v>0.06</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="42">
         <f t="shared" ref="D19" si="25">(B19/2)^2*10^-6</f>
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="42">
         <f t="shared" ref="E19" si="26">B19*C19*10^-6</f>
         <v>3.5999999999999999E-7</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="68">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="68">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H19" s="12">
         <v>11.62</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="72">
         <f>I14</f>
         <v>0.3</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="62">
         <v>0.2</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="78">
         <f t="shared" ref="K19" si="27">0.5*B19*10^-3</f>
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2462,88 +2564,88 @@
         <f>(($K$19/H19)^2+($J$19*$I$19/H19^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N19" s="52">
+      <c r="N19" s="81">
         <f>(L19+L20+L21+L22+L23)/5</f>
         <v>1.711072882678167E-2</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="54">
         <f t="shared" ref="O19" si="28">(SUMSQ(M19:M23)/25)^(1/2)</f>
         <v>2.2754630774580575E-4</v>
       </c>
-      <c r="P19" s="38">
+      <c r="P19" s="54">
         <f t="shared" ref="P19" si="29">_xlfn.STDEV.S(L19:L23)</f>
         <v>2.0964670301082701E-4</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="79">
         <v>1.1476</v>
       </c>
-      <c r="R19" s="48">
+      <c r="R19" s="79">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S19" s="45">
+      <c r="S19" s="42">
         <f t="shared" ref="S19" si="30">N19/(F19-Q19)*10^(-3)</f>
         <v>7.4426832652377855E-5</v>
       </c>
-      <c r="T19" s="81">
+      <c r="T19" s="46">
         <f>((O19/(F19-Q19))^2+(N19*G19/(F19-Q19)^2)^2+(N19*R19/(F19-Q19)^2)^2)^(1/2)*10^-3</f>
         <v>1.2801762190890571E-6</v>
       </c>
-      <c r="U19" s="42">
+      <c r="U19" s="51">
         <f t="shared" ref="U19" si="31">1+2.1*0.5*B19/$D$45</f>
         <v>1.1679999999999999</v>
       </c>
-      <c r="V19" s="42">
+      <c r="V19" s="51">
         <f t="shared" ref="V19" si="32">2.1*C19*0.5/$D$45</f>
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="W19" s="45">
+      <c r="W19" s="42">
         <f t="shared" ref="W19" si="33">S19*U19</f>
         <v>8.693054053797733E-5</v>
       </c>
-      <c r="X19" s="81">
+      <c r="X19" s="46">
         <f t="shared" ref="X19" si="34">((T19*U19)^2+(S19*V19)^2)^(1/2)</f>
         <v>1.5004647096707485E-6</v>
       </c>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="38">
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="54">
         <f>2/9*$D$46*(F19-Q19)*D19/$D$47*10^3</f>
         <v>2.1518640000000002E-2</v>
       </c>
-      <c r="AB19" s="38">
+      <c r="AB19" s="54">
         <f>2/9*$D$46*((F19*D19/$D$47)^2+(R19*D19/$D$47)^2+((F19-Q19)*$D$48/$D$47^2)^2+((F19-Q19)*2*(D19)^(1/2)*(E19)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960090789782316E-5</v>
       </c>
-      <c r="AC19" s="95">
+      <c r="AC19" s="36">
         <f>N19/AA19</f>
         <v>0.7951584685083104</v>
       </c>
-      <c r="AD19" s="95">
+      <c r="AD19" s="36">
         <f>((O19/AA19)^2+(N19*AB19/AA19^2)^2)^(1/2)</f>
         <v>1.1106968023727085E-2</v>
       </c>
-      <c r="AE19" s="95">
+      <c r="AE19" s="36">
         <f>Q19*$AA$4*B19*10^-3/$D$47*10^3</f>
         <v>1.4341130505768076</v>
       </c>
-      <c r="AF19" s="96">
+      <c r="AF19" s="94">
         <f>((AA19*R19*B19*10^-3/$D$47)^2+(Q19*AB19*B19*10^-3/$D$47)^2+(Q19*AA19*C19*10^-3/$D$47)^2+(Q19*AA19*B19*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>2.825350160145991E-2</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B20" s="70"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="8">
         <v>11.62</v>
       </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="67"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="76"/>
       <c r="L20" s="17">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
@@ -2552,39 +2654,39 @@
         <f t="shared" ref="M20:M23" si="35">(($K$19/H20)^2+($J$19*$I$19/H20^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N20" s="52"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="96"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="94"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B21" s="70"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="8">
         <v>11.64</v>
       </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="67"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="76"/>
       <c r="L21" s="17">
         <f t="shared" si="0"/>
         <v>1.7182130584192441E-2</v>
@@ -2593,39 +2695,39 @@
         <f t="shared" si="35"/>
         <v>5.1237840142188897E-4</v>
       </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="96"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="94"/>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B22" s="70"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="8">
         <v>11.62</v>
       </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="67"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="76"/>
       <c r="L22" s="17">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
@@ -2634,39 +2736,39 @@
         <f t="shared" si="35"/>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="96"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="94"/>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="11">
         <v>11.95</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="68"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="18">
         <f t="shared" si="0"/>
         <v>1.6736401673640169E-2</v>
@@ -2675,59 +2777,59 @@
         <f t="shared" si="35"/>
         <v>4.8944778085674683E-4</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="96"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="94"/>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B24" s="70">
+      <c r="B24" s="59">
         <v>5</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="37">
         <f t="shared" ref="C24" si="36">B24*0.01</f>
         <v>0.05</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="42">
         <f t="shared" ref="D24" si="37">(B24/2)^2*10^-6</f>
         <v>6.2499999999999995E-6</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="42">
         <f t="shared" ref="E24" si="38">B24*C24*10^-6</f>
         <v>2.4999999999999999E-7</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="68">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="68">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H24" s="12">
         <v>15.56</v>
       </c>
-      <c r="I24" s="63">
+      <c r="I24" s="72">
         <f>I14</f>
         <v>0.3</v>
       </c>
-      <c r="J24" s="74">
+      <c r="J24" s="63">
         <v>0.2</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="79">
         <f t="shared" ref="K24" si="39">0.5*B24*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
@@ -2739,88 +2841,88 @@
         <f>(($K$24/H24)^2+($J$24*$I$24/H24^2)^2)^(1/2)</f>
         <v>2.9534364435364433E-4</v>
       </c>
-      <c r="N24" s="53">
+      <c r="N24" s="82">
         <f>(L24+L25+L26+L27+L28)/5</f>
         <v>1.2816144235262594E-2</v>
       </c>
-      <c r="O24" s="38">
+      <c r="O24" s="54">
         <f t="shared" ref="O24" si="40">(SUMSQ(M24:M28)/25)^(1/2)</f>
         <v>1.314809588282321E-4</v>
       </c>
-      <c r="P24" s="38">
+      <c r="P24" s="54">
         <f t="shared" ref="P24" si="41">_xlfn.STDEV.S(L24:L28)</f>
         <v>1.8897275186015511E-4</v>
       </c>
-      <c r="Q24" s="48">
+      <c r="Q24" s="79">
         <v>1.1476</v>
       </c>
-      <c r="R24" s="48">
+      <c r="R24" s="79">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S24" s="45">
+      <c r="S24" s="42">
         <f t="shared" ref="S24" si="42">N24/(F24-Q24)*10^(-3)</f>
         <v>5.5746603894139167E-5</v>
       </c>
-      <c r="T24" s="81">
+      <c r="T24" s="46">
         <f>((P24/(F24-Q24))^2+(N24*G24/(F24-Q24)^2)^2+(N24*R24/(F24-Q24)^2)^2)^(1/2)*10^-3</f>
         <v>1.022489217302807E-6</v>
       </c>
-      <c r="U24" s="42">
+      <c r="U24" s="51">
         <f t="shared" ref="U24" si="43">1+2.1*0.5*B24/$D$45</f>
         <v>1.1400000000000001</v>
       </c>
-      <c r="V24" s="42">
+      <c r="V24" s="51">
         <f t="shared" ref="V24" si="44">2.1*C24*0.5/$D$45</f>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="W24" s="45">
+      <c r="W24" s="42">
         <f t="shared" ref="W24" si="45">S24*U24</f>
         <v>6.3551128439318658E-5</v>
       </c>
-      <c r="X24" s="81">
+      <c r="X24" s="46">
         <f t="shared" ref="X24" si="46">((T24*U24)^2+(S24*V24)^2)^(1/2)</f>
         <v>1.1682475448330675E-6</v>
       </c>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="38">
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="54">
         <f>2/9*$D$46*(F24-Q24)*D24/$D$47*10^3</f>
         <v>1.4943499999999998E-2</v>
       </c>
-      <c r="AB24" s="38">
+      <c r="AB24" s="54">
         <f>2/9*$D$46*((F24*D24/$D$47)^2+(R24*D24/$D$47)^2+((F24-Q24)*$D$48/$D$47^2)^2+((F24-Q24)*2*(D24)^(1/2)*(E24)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960043783663944E-5</v>
       </c>
-      <c r="AC24" s="95">
+      <c r="AC24" s="36">
         <f>N24/AA24</f>
         <v>0.85764005990983339</v>
       </c>
-      <c r="AD24" s="95">
+      <c r="AD24" s="36">
         <f>((P24/AA24)^2+(N24*AB24/AA24^2)^2)^(1/2)</f>
         <v>1.3702981571682499E-2</v>
       </c>
-      <c r="AE24" s="95">
+      <c r="AE24" s="36">
         <f>Q24*$AA$4*B24*10^-3/$D$47*10^3</f>
         <v>1.1950942088140062</v>
       </c>
-      <c r="AF24" s="96">
+      <c r="AF24" s="94">
         <f>((AA24*R24*B24*10^-3/$D$47)^2+(Q24*AB24*B24*10^-3/$D$47)^2+(Q24*AA24*C24*10^-3/$D$47)^2+(Q24*AA24*B24*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>1.6450433522931684E-2</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="8">
         <v>15.24</v>
       </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="47"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="71"/>
       <c r="L25" s="17">
         <f t="shared" si="0"/>
         <v>1.3123359580052493E-2</v>
@@ -2829,39 +2931,39 @@
         <f t="shared" ref="M25:M28" si="47">(($K$24/H25)^2+($J$24*$I$24/H25^2)^2)^(1/2)</f>
         <v>3.0601659121382729E-4</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="96"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="94"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B26" s="70"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="8">
         <v>15.8</v>
       </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="47"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="17">
         <f t="shared" si="0"/>
         <v>1.2658227848101266E-2</v>
@@ -2870,39 +2972,39 @@
         <f t="shared" si="47"/>
         <v>2.8775388602423501E-4</v>
       </c>
-      <c r="N26" s="52"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="96"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="94"/>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B27" s="70"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="8">
         <v>15.66</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="47"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="71"/>
       <c r="L27" s="17">
         <f t="shared" si="0"/>
         <v>1.277139208173691E-2</v>
@@ -2911,39 +3013,39 @@
         <f t="shared" si="47"/>
         <v>2.9213956412965739E-4</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="96"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="94"/>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B28" s="70"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="11">
         <v>15.78</v>
       </c>
-      <c r="I28" s="65"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="41"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="18">
         <f t="shared" si="0"/>
         <v>1.2674271229404311E-2</v>
@@ -2952,59 +3054,59 @@
         <f t="shared" si="47"/>
         <v>2.8837339882458726E-4</v>
       </c>
-      <c r="N28" s="54"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="96"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="94"/>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B29" s="70">
+      <c r="B29" s="59">
         <v>4</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="37">
         <f t="shared" ref="C29" si="48">B29*0.01</f>
         <v>0.04</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="42">
         <f t="shared" ref="D29" si="49">(B29/2)^2*10^-6</f>
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="42">
         <f t="shared" ref="E29" si="50">B29*C29*10^-6</f>
         <v>1.6E-7</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="68">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29" s="68">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H29" s="12">
         <v>23.43</v>
       </c>
-      <c r="I29" s="63">
+      <c r="I29" s="72">
         <f>I14</f>
         <v>0.3</v>
       </c>
-      <c r="J29" s="74">
+      <c r="J29" s="63">
         <v>0.2</v>
       </c>
-      <c r="K29" s="48">
+      <c r="K29" s="79">
         <f t="shared" ref="K29" si="51">0.5*B29*10^-3</f>
         <v>2E-3</v>
       </c>
@@ -3016,88 +3118,88 @@
         <f>(($K$29/H29)^2+($J$29*$I$29/H29^2)^2)^(1/2)</f>
         <v>1.3868016543122825E-4</v>
       </c>
-      <c r="N29" s="52">
+      <c r="N29" s="81">
         <f>(L29+L30+L31+L32+L33)/5</f>
         <v>8.3600294043818212E-3</v>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="54">
         <f t="shared" ref="O29" si="52">(SUMSQ(M29:M33)/25)^(1/2)</f>
         <v>5.9979431293701365E-5</v>
       </c>
-      <c r="P29" s="38">
+      <c r="P29" s="54">
         <f t="shared" ref="P29" si="53">_xlfn.STDEV.S(L29:L33)</f>
         <v>9.8921847583569231E-5</v>
       </c>
-      <c r="Q29" s="48">
+      <c r="Q29" s="79">
         <v>1.1476</v>
       </c>
-      <c r="R29" s="48">
+      <c r="R29" s="79">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S29" s="45">
+      <c r="S29" s="42">
         <f t="shared" ref="S29" si="54">N29/(F29-Q29)*10^(-3)</f>
         <v>3.6363764264383737E-5</v>
       </c>
-      <c r="T29" s="82">
+      <c r="T29" s="44">
         <f>((P29/(F29-Q29))^2+(N29*G29/(F29-Q29)^2)^2+(N29*R29/(F29-Q29)^2)^2)^(1/2)*10^-3</f>
         <v>5.8524222723986226E-7</v>
       </c>
-      <c r="U29" s="42">
+      <c r="U29" s="51">
         <f t="shared" ref="U29" si="55">1+2.1*0.5*B29/$D$45</f>
         <v>1.1120000000000001</v>
       </c>
-      <c r="V29" s="42">
+      <c r="V29" s="51">
         <f t="shared" ref="V29" si="56">2.1*C29*0.5/$D$45</f>
         <v>1.1200000000000001E-3</v>
       </c>
-      <c r="W29" s="45">
+      <c r="W29" s="42">
         <f t="shared" ref="W29" si="57">S29*U29</f>
         <v>4.0436505861994719E-5</v>
       </c>
-      <c r="X29" s="82">
+      <c r="X29" s="44">
         <f t="shared" ref="X29" si="58">((T29*U29)^2+(S29*V29)^2)^(1/2)</f>
         <v>6.5206250405465057E-7</v>
       </c>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="38">
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="54">
         <f>2/9*$D$46*(F29-Q29)*D29/$D$47*10^3</f>
         <v>9.5638400000000005E-3</v>
       </c>
-      <c r="AB29" s="38">
+      <c r="AB29" s="54">
         <f>2/9*$D$46*((F29*D29/$D$47)^2+(R29*D29/$D$47)^2+((F29-Q29)*$D$48/$D$47^2)^2+((F29-Q29)*2*(D29)^(1/2)*(E29)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960017933791273E-5</v>
       </c>
-      <c r="AC29" s="95">
+      <c r="AC29" s="36">
         <f>N29/AA29</f>
         <v>0.87412894866307056</v>
       </c>
-      <c r="AD29" s="95">
+      <c r="AD29" s="36">
         <f>((P29/AA29)^2+(N29*AB29/AA29^2)^2)^(1/2)</f>
         <v>1.3327780987202983E-2</v>
       </c>
-      <c r="AE29" s="95">
+      <c r="AE29" s="36">
         <f>Q29*$AA$4*B29*10^-3/$D$47*10^3</f>
         <v>0.95607536705120499</v>
       </c>
-      <c r="AF29" s="96">
+      <c r="AF29" s="94">
         <f>((AA29*R29*B29*10^-3/$D$47)^2+(Q29*AB29*B29*10^-3/$D$47)^2+(Q29*AA29*C29*10^-3/$D$47)^2+(Q29*AA29*B29*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>8.5635887138922426E-3</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B30" s="70"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
       <c r="H30" s="8">
         <v>24.06</v>
       </c>
-      <c r="I30" s="64"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="47"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="14">
         <f t="shared" si="0"/>
         <v>8.3125519534497094E-3</v>
@@ -3106,39 +3208,39 @@
         <f t="shared" ref="M30:M33" si="59">(($K$29/H30)^2+($J$29*$I$29/H30^2)^2)^(1/2)</f>
         <v>1.3286351752914206E-4</v>
       </c>
-      <c r="N30" s="52"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="96"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="94"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="70"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
       <c r="H31" s="8">
         <v>24.01</v>
       </c>
-      <c r="I31" s="64"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="47"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="71"/>
       <c r="L31" s="14">
         <f t="shared" si="0"/>
         <v>8.3298625572678052E-3</v>
@@ -3147,39 +3249,39 @@
         <f t="shared" si="59"/>
         <v>1.333090011901867E-4</v>
       </c>
-      <c r="N31" s="52"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="85"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="96"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="94"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B32" s="70"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="8">
         <v>24.09</v>
       </c>
-      <c r="I32" s="64"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="47"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="14">
         <f t="shared" si="0"/>
         <v>8.3022000830220016E-3</v>
@@ -3188,39 +3290,39 @@
         <f t="shared" si="59"/>
         <v>1.3259751565960446E-4</v>
       </c>
-      <c r="N32" s="52"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="82"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="85"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="96"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="94"/>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B33" s="70"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="11">
         <v>24.04</v>
       </c>
-      <c r="I33" s="65"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="41"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="50"/>
       <c r="L33" s="15">
         <f t="shared" si="0"/>
         <v>8.3194675540765404E-3</v>
@@ -3229,59 +3331,59 @@
         <f t="shared" si="59"/>
         <v>1.3304138801975253E-4</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="85"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="96"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="94"/>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B34" s="70">
+      <c r="B34" s="59">
         <v>3</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="37">
         <f t="shared" ref="C34" si="60">B34*0.01</f>
         <v>0.03</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="42">
         <f t="shared" ref="D34" si="61">(B34/2)^2*10^-6</f>
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="42">
         <f t="shared" ref="E34" si="62">B34*C34*10^-6</f>
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="68">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="68">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H34" s="12">
         <v>39.72</v>
       </c>
-      <c r="I34" s="63">
+      <c r="I34" s="72">
         <f>I29</f>
         <v>0.3</v>
       </c>
-      <c r="J34" s="74">
+      <c r="J34" s="63">
         <v>0.2</v>
       </c>
-      <c r="K34" s="48">
+      <c r="K34" s="79">
         <f t="shared" ref="K34" si="63">0.5*B34*10^-3</f>
         <v>1.5E-3</v>
       </c>
@@ -3293,88 +3395,88 @@
         <f>(($K$34/H34)^2+($J$34*$I$34/H34^2)^2)^(1/2)</f>
         <v>5.3595428853931334E-5</v>
       </c>
-      <c r="N34" s="55">
+      <c r="N34" s="84">
         <f>(L34+L35+L36+L37+L38)/5</f>
         <v>5.0126521561671706E-3</v>
       </c>
-      <c r="O34" s="49">
+      <c r="O34" s="88">
         <f t="shared" ref="O34" si="64">(SUMSQ(M34:M38)/25)^(1/2)</f>
         <v>2.3808205742172807E-5</v>
       </c>
-      <c r="P34" s="49">
+      <c r="P34" s="88">
         <f t="shared" ref="P34" si="65">_xlfn.STDEV.S(L34:L38)</f>
         <v>2.7520590084576011E-5</v>
       </c>
-      <c r="Q34" s="48">
+      <c r="Q34" s="79">
         <v>1.1476</v>
       </c>
-      <c r="R34" s="48">
+      <c r="R34" s="79">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S34" s="78">
+      <c r="S34" s="45">
         <f t="shared" ref="S34" si="66">N34/(F34-Q34)*10^(-3)</f>
         <v>2.1803619644050332E-5</v>
       </c>
-      <c r="T34" s="81">
+      <c r="T34" s="46">
         <f>((P34/(F34-Q34))^2+(N34*G34/(F34-Q34)^2)^2+(N34*R34/(F34-Q34)^2)^2)^(1/2)*10^-3</f>
         <v>2.6628069696087493E-7</v>
       </c>
-      <c r="U34" s="42">
+      <c r="U34" s="51">
         <f t="shared" ref="U34" si="67">1+2.1*0.5*B34/$D$45</f>
         <v>1.0840000000000001</v>
       </c>
-      <c r="V34" s="42">
+      <c r="V34" s="51">
         <f t="shared" ref="V34" si="68">2.1*C34*0.5/$D$45</f>
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="W34" s="78">
+      <c r="W34" s="45">
         <f t="shared" ref="W34" si="69">S34*U34</f>
         <v>2.3635123694150561E-5</v>
       </c>
-      <c r="X34" s="81">
+      <c r="X34" s="46">
         <f t="shared" ref="X34" si="70">((T34*U34)^2+(S34*V34)^2)^(1/2)</f>
         <v>2.8922874625614833E-7</v>
       </c>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="85"/>
-      <c r="AA34" s="38">
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="54">
         <f>2/9*$D$46*(F34-Q34)*D34/$D$47*10^3</f>
         <v>5.3796600000000005E-3</v>
       </c>
-      <c r="AB34" s="38">
+      <c r="AB34" s="54">
         <f>2/9*$D$46*((F34*D34/$D$47)^2+(R34*D34/$D$47)^2+((F34-Q34)*$D$48/$D$47^2)^2+((F34-Q34)*2*(D34)^(1/2)*(E34)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960005674364035E-5</v>
       </c>
-      <c r="AC34" s="95">
+      <c r="AC34" s="36">
         <f>N34/AA34</f>
         <v>0.93177861726710798</v>
       </c>
-      <c r="AD34" s="95">
+      <c r="AD34" s="36">
         <f>((P34/AA34)^2+(N34*AB34/AA34^2)^2)^(1/2)</f>
         <v>1.6729202991582419E-2</v>
       </c>
-      <c r="AE34" s="95">
+      <c r="AE34" s="36">
         <f>Q34*$AA$4*B34*10^-3/$D$47*10^3</f>
         <v>0.7170565252884038</v>
       </c>
-      <c r="AF34" s="96">
+      <c r="AF34" s="94">
         <f>((AA34*R34*B34*10^-3/$D$47)^2+(Q34*AB34*B34*10^-3/$D$47)^2+(Q34*AA34*C34*10^-3/$D$47)^2+(Q34*AA34*B34*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>3.8225084817565319E-3</v>
       </c>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B35" s="70"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="8">
         <v>40.07</v>
       </c>
-      <c r="I35" s="64"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="47"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="71"/>
       <c r="L35" s="14">
         <f t="shared" si="0"/>
         <v>4.9912652857499375E-3</v>
@@ -3383,39 +3485,39 @@
         <f t="shared" ref="M35:M38" si="71">(($K$34/H35)^2+($J$34*$I$34/H35^2)^2)^(1/2)</f>
         <v>5.2894141272690634E-5</v>
       </c>
-      <c r="N35" s="56"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="81"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="78"/>
-      <c r="X35" s="81"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="96"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="94"/>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B36" s="70"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
       <c r="H36" s="8">
         <v>39.92</v>
       </c>
-      <c r="I36" s="64"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="47"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="71"/>
       <c r="L36" s="14">
         <f t="shared" si="0"/>
         <v>5.0100200400801601E-3</v>
@@ -3424,39 +3526,39 @@
         <f t="shared" si="71"/>
         <v>5.3192559591570681E-5</v>
       </c>
-      <c r="N36" s="56"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="81"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="85"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="95"/>
-      <c r="AD36" s="95"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="96"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="94"/>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B37" s="70"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
       <c r="H37" s="8">
         <v>40.15</v>
       </c>
-      <c r="I37" s="64"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="47"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="71"/>
       <c r="L37" s="14">
         <f t="shared" si="0"/>
         <v>4.9813200498132013E-3</v>
@@ -3465,39 +3567,39 @@
         <f t="shared" si="71"/>
         <v>5.2736274862302553E-5</v>
       </c>
-      <c r="N37" s="56"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="81"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="85"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="95"/>
-      <c r="AD37" s="95"/>
-      <c r="AE37" s="95"/>
-      <c r="AF37" s="96"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="94"/>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B38" s="70"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
       <c r="H38" s="11">
         <v>39.64</v>
       </c>
-      <c r="I38" s="65"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="41"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="50"/>
       <c r="L38" s="15">
         <f t="shared" si="0"/>
         <v>5.0454086781029266E-3</v>
@@ -3506,61 +3608,61 @@
         <f t="shared" si="71"/>
         <v>5.3758192485178142E-5</v>
       </c>
-      <c r="N38" s="57"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="78"/>
-      <c r="X38" s="81"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="85"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="95"/>
-      <c r="AD38" s="95"/>
-      <c r="AE38" s="95"/>
-      <c r="AF38" s="96"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="94"/>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B39" s="70">
+      <c r="B39" s="59">
         <v>2</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="37">
         <f t="shared" ref="C39" si="72">B39*0.01</f>
         <v>0.02</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="42">
         <f t="shared" ref="D39" si="73">(B39/2)^2*10^-6</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="42">
         <f t="shared" ref="E39" si="74">B39*C39*10^-6</f>
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="F39" s="61">
+      <c r="F39" s="68">
         <f>F34</f>
         <v>1.3774999999999999</v>
       </c>
-      <c r="G39" s="61">
+      <c r="G39" s="68">
         <f>G34</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H39" s="12">
         <v>74.900000000000006</v>
       </c>
-      <c r="I39" s="63">
+      <c r="I39" s="72">
         <f>I34</f>
         <v>0.3</v>
       </c>
-      <c r="J39" s="74">
+      <c r="J39" s="63">
         <v>0.2</v>
       </c>
-      <c r="K39" s="48">
+      <c r="K39" s="79">
         <f t="shared" ref="K39" si="75">0.5*B39*10^-3</f>
         <v>1E-3</v>
       </c>
@@ -3572,90 +3674,90 @@
         <f>(($K$39/H39)^2+($J$39*$I$39/H39^2)^2)^(1/2)</f>
         <v>1.7106706942119941E-5</v>
       </c>
-      <c r="N39" s="55">
+      <c r="N39" s="84">
         <f>(L39+L40+L41+L42+L43)/5</f>
         <v>2.654035384232682E-3</v>
       </c>
-      <c r="O39" s="49">
+      <c r="O39" s="88">
         <f t="shared" ref="O39" si="76">(SUMSQ(M39:M43)/25)^(1/2)</f>
         <v>7.5910153311779477E-6</v>
       </c>
-      <c r="P39" s="38">
+      <c r="P39" s="54">
         <f t="shared" ref="P39" si="77">_xlfn.STDEV.S(L39:L43)</f>
         <v>6.3404518771783403E-5</v>
       </c>
-      <c r="Q39" s="48">
+      <c r="Q39" s="79">
         <f>Q34</f>
         <v>1.1476</v>
       </c>
-      <c r="R39" s="48">
+      <c r="R39" s="79">
         <f>R34</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S39" s="78">
+      <c r="S39" s="45">
         <f t="shared" ref="S39" si="78">N39/(F39-Q39)*10^(-3)</f>
         <v>1.154430354168196E-5</v>
       </c>
-      <c r="T39" s="81">
+      <c r="T39" s="46">
         <f>((O39/(F39-Q39))^2+(N39*G39/(F39-Q39)^2)^2+(N39*R39/(F39-Q39)^2)^2)^(1/2)*10^-3</f>
         <v>1.3019378482831071E-7</v>
       </c>
-      <c r="U39" s="42">
+      <c r="U39" s="51">
         <f t="shared" ref="U39" si="79">1+2.1*0.5*B39/$D$45</f>
         <v>1.056</v>
       </c>
-      <c r="V39" s="42">
+      <c r="V39" s="51">
         <f t="shared" ref="V39" si="80">2.1*C39*0.5/$D$45</f>
         <v>5.6000000000000006E-4</v>
       </c>
-      <c r="W39" s="78">
+      <c r="W39" s="45">
         <f t="shared" ref="W39" si="81">S39*U39</f>
         <v>1.219078454001615E-5</v>
       </c>
-      <c r="X39" s="81">
+      <c r="X39" s="46">
         <f t="shared" ref="X39" si="82">((T39*U39)^2+(S39*V39)^2)^(1/2)</f>
         <v>1.3763654717512613E-7</v>
       </c>
-      <c r="Y39" s="89"/>
-      <c r="Z39" s="85"/>
-      <c r="AA39" s="38">
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="54">
         <f>2/9*$D$46*(F39-Q39)*D39/$D$47*10^3</f>
         <v>2.3909600000000001E-3</v>
       </c>
-      <c r="AB39" s="38">
+      <c r="AB39" s="54">
         <f>2/9*$D$46*((F39*D39/$D$47)^2+(R39*D39/$D$47)^2+((F39-Q39)*$D$48/$D$47^2)^2+((F39-Q39)*2*(D39)^(1/2)*(E39)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960001120862077E-5</v>
       </c>
-      <c r="AC39" s="34">
+      <c r="AC39" s="37">
         <f>N39/AA39</f>
         <v>1.1100291867001881</v>
       </c>
-      <c r="AD39" s="34">
+      <c r="AD39" s="37">
         <f>((O39/AA39)^2+(N39*AB39/AA39^2)^2)^(1/2)</f>
         <v>4.2811317497756199E-2</v>
       </c>
-      <c r="AE39" s="42">
+      <c r="AE39" s="51">
         <f>Q39*$AA$4*B39*10^-3/$D$47*10^3</f>
         <v>0.4780376835256025</v>
       </c>
-      <c r="AF39" s="97">
+      <c r="AF39" s="95">
         <f>((AA39*R39*B39*10^-3/$D$47)^2+(Q39*AB39*B39*10^-3/$D$47)^2+(Q39*AA39*C39*10^-3/$D$47)^2+(Q39*AA39*B39*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
         <v>1.4479009314524434E-3</v>
       </c>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B40" s="70"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
       <c r="H40" s="8">
         <v>78.34</v>
       </c>
-      <c r="I40" s="64"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="47"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="71"/>
       <c r="L40" s="14">
         <f t="shared" si="0"/>
         <v>2.5529742149604288E-3</v>
@@ -3664,39 +3766,39 @@
         <f t="shared" ref="M40:M43" si="83">(($K$39/H40)^2+($J$39*$I$39/H40^2)^2)^(1/2)</f>
         <v>1.6078625529446875E-5</v>
       </c>
-      <c r="N40" s="56"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="78"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="78"/>
-      <c r="X40" s="81"/>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="85"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="97"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="95"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B41" s="70"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
       <c r="H41" s="8">
         <v>75.86</v>
       </c>
-      <c r="I41" s="64"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="47"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="71"/>
       <c r="L41" s="14">
         <f t="shared" si="0"/>
         <v>2.6364355391510679E-3</v>
@@ -3705,39 +3807,39 @@
         <f t="shared" si="83"/>
         <v>1.6806999019068159E-5</v>
       </c>
-      <c r="N41" s="56"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="78"/>
-      <c r="T41" s="81"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="78"/>
-      <c r="X41" s="81"/>
-      <c r="Y41" s="89"/>
-      <c r="Z41" s="85"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="42"/>
-      <c r="AF41" s="97"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="51"/>
+      <c r="AF41" s="95"/>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B42" s="70"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
       <c r="H42" s="8">
         <v>73.8</v>
       </c>
-      <c r="I42" s="64"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="47"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="71"/>
       <c r="L42" s="14">
         <f t="shared" si="0"/>
         <v>2.7100271002710031E-3</v>
@@ -3746,39 +3848,39 @@
         <f t="shared" si="83"/>
         <v>1.7463292566734726E-5</v>
       </c>
-      <c r="N42" s="56"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="78"/>
-      <c r="T42" s="81"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="78"/>
-      <c r="X42" s="81"/>
-      <c r="Y42" s="89"/>
-      <c r="Z42" s="85"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="38"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="42"/>
-      <c r="AF42" s="97"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="95"/>
     </row>
     <row r="43" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="71"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
       <c r="H43" s="10">
         <v>74.06</v>
       </c>
-      <c r="I43" s="66"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="51"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="80"/>
       <c r="L43" s="16">
         <f t="shared" si="0"/>
         <v>2.7005130974885228E-3</v>
@@ -3787,25 +3889,25 @@
         <f t="shared" si="83"/>
         <v>1.7377698907979166E-5</v>
       </c>
-      <c r="N43" s="58"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="79"/>
-      <c r="T43" s="83"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="79"/>
-      <c r="X43" s="83"/>
-      <c r="Y43" s="90"/>
-      <c r="Z43" s="86"/>
-      <c r="AA43" s="39"/>
-      <c r="AB43" s="39"/>
-      <c r="AC43" s="35"/>
-      <c r="AD43" s="35"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="98"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="52"/>
+      <c r="AF43" s="96"/>
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
@@ -3815,7 +3917,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>43</v>
       </c>
@@ -3823,7 +3925,7 @@
         <v>9.8098399999999994</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -3831,6 +3933,52 @@
         <f>2*$D$46/(9*10.4)</f>
         <v>0.20961196581196578</v>
       </c>
+      <c r="J47" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="K47" s="127">
+        <f>(N49+N54)/2</f>
+        <v>548.25</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O47" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA47" s="117" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
@@ -3840,8 +3988,64 @@
         <f>2*$D$46*0.4/(9*10.4^2)</f>
         <v>8.0619986850756081E-3</v>
       </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="J48" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="K48" s="128">
+        <f>(2*O48^2/4)^(1/2)</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="N48" s="7">
+        <v>550</v>
+      </c>
+      <c r="O48" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="P48" s="103">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="104">
+        <v>0.25</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="39">
+        <v>4</v>
+      </c>
+      <c r="T48" s="99">
+        <f>273.15+23.9</f>
+        <v>297.04999999999995</v>
+      </c>
+      <c r="V48" s="108">
+        <f>R49-R48</f>
+        <v>99</v>
+      </c>
+      <c r="W48" s="109">
+        <f>(2*4^2)^(1/2)</f>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="X48" s="33">
+        <f>P49-P48</f>
+        <v>5</v>
+      </c>
+      <c r="Y48" s="73">
+        <f>(2*0.25^2)^(1/2)</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="Z48" s="115">
+        <f>X48/V48</f>
+        <v>5.0505050505050504E-2</v>
+      </c>
+      <c r="AA48" s="113">
+        <f>(($Y$48/V48)^2+(X48*$W$48/V48^2)^2)^(1/2)</f>
+        <v>4.5915099344409835E-3</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>46</v>
       </c>
@@ -3849,8 +4053,45 @@
         <f>2*$D$46/(9*9.1)</f>
         <v>0.23955653235653238</v>
       </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="J49" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49" s="129">
+        <v>1.1456</v>
+      </c>
+      <c r="N49" s="7">
+        <v>549.5</v>
+      </c>
+      <c r="O49" s="73"/>
+      <c r="P49" s="103">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="105"/>
+      <c r="R49" s="1">
+        <v>99</v>
+      </c>
+      <c r="S49" s="39"/>
+      <c r="T49" s="100"/>
+      <c r="V49" s="108">
+        <f>R50-R49</f>
+        <v>127</v>
+      </c>
+      <c r="W49" s="109"/>
+      <c r="X49" s="33">
+        <f>P50-P49</f>
+        <v>5</v>
+      </c>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="115">
+        <f>X49/V49</f>
+        <v>3.937007874015748E-2</v>
+      </c>
+      <c r="AA49" s="113">
+        <f>(($Y$48/V49)^2+(X49*$W$48/V49^2)^2)^(1/2)</f>
+        <v>3.2901713938437772E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>47</v>
       </c>
@@ -3858,22 +4099,393 @@
         <f>2*$D$46*0.5/(9*9.1^2)</f>
         <v>1.3162446832776505E-2</v>
       </c>
+      <c r="J50" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" s="129">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N50" s="7">
+        <v>549</v>
+      </c>
+      <c r="O50" s="73"/>
+      <c r="P50" s="103">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="1">
+        <v>226</v>
+      </c>
+      <c r="S50" s="39"/>
+      <c r="T50" s="100"/>
+      <c r="V50" s="108">
+        <f>R51-R50</f>
+        <v>131</v>
+      </c>
+      <c r="W50" s="109"/>
+      <c r="X50" s="33">
+        <f>P51-P50</f>
+        <v>5</v>
+      </c>
+      <c r="Y50" s="73"/>
+      <c r="Z50" s="115">
+        <f>X50/V50</f>
+        <v>3.8167938931297711E-2</v>
+      </c>
+      <c r="AA50" s="113">
+        <f>(($Y$48/V50)^2+(X50*$W$48/V50^2)^2)^(1/2)</f>
+        <v>3.1623451947636314E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J51" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" s="126">
+        <f>K49*K47*Tabelle1!D46</f>
+        <v>6161.3172199679993</v>
+      </c>
+      <c r="N51" s="7">
+        <v>548.5</v>
+      </c>
+      <c r="O51" s="73"/>
+      <c r="P51" s="103">
+        <v>15</v>
+      </c>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="1">
+        <v>357</v>
+      </c>
+      <c r="S51" s="39"/>
+      <c r="T51" s="100"/>
+      <c r="V51" s="108">
+        <f>R52-R51</f>
+        <v>128</v>
+      </c>
+      <c r="W51" s="109"/>
+      <c r="X51" s="33">
+        <f>P52-P51</f>
+        <v>5</v>
+      </c>
+      <c r="Y51" s="73"/>
+      <c r="Z51" s="115">
+        <f>X51/V51</f>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="AA51" s="113">
+        <f>(($Y$48/V51)^2+(X51*$W$48/V51^2)^2)^(1/2)</f>
+        <v>3.2572422031558433E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J52" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="K52" s="126">
+        <f>((K48*K49*Tabelle1!D46)^2+(K47*K50*Tabelle1!D46)^2)^(1/2)</f>
+        <v>4.1163126947969708</v>
+      </c>
+      <c r="N52" s="7">
+        <v>548</v>
+      </c>
+      <c r="O52" s="73"/>
+      <c r="P52" s="103">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="105"/>
+      <c r="R52" s="1">
+        <v>485</v>
+      </c>
+      <c r="S52" s="39"/>
+      <c r="T52" s="100"/>
+      <c r="V52" s="108">
+        <f>R53-R52</f>
+        <v>131</v>
+      </c>
+      <c r="W52" s="109"/>
+      <c r="X52" s="33">
+        <f>P53-P52</f>
+        <v>5</v>
+      </c>
+      <c r="Y52" s="73"/>
+      <c r="Z52" s="115">
+        <f>X52/V52</f>
+        <v>3.8167938931297711E-2</v>
+      </c>
+      <c r="AA52" s="113">
+        <f>(($Y$48/V52)^2+(X52*$W$48/V52^2)^2)^(1/2)</f>
+        <v>3.1623451947636314E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" s="124">
+        <f>25/(R54-R49)*10^-6</f>
+        <v>3.8759689922480615E-8</v>
+      </c>
+      <c r="N53" s="7">
+        <v>547.5</v>
+      </c>
+      <c r="O53" s="73"/>
+      <c r="P53" s="103">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="105"/>
+      <c r="R53" s="1">
+        <v>616</v>
+      </c>
+      <c r="S53" s="39"/>
+      <c r="T53" s="100"/>
+      <c r="V53" s="110">
+        <f>R54-R53</f>
+        <v>128</v>
+      </c>
+      <c r="W53" s="111"/>
+      <c r="X53" s="34">
+        <f>P54-P53</f>
+        <v>5</v>
+      </c>
+      <c r="Y53" s="75"/>
+      <c r="Z53" s="116">
+        <f>X53/V53</f>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="AA53" s="114">
+        <f>(($Y$48/V53)^2+(X53*$W$48/V53^2)^2)^(1/2)</f>
+        <v>3.2572422031558433E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" s="125">
+        <f>((Q48/(R54-R49))^2+(P53*S48/(R54-R49)^2)^2)^(1/2)*10^-6</f>
+        <v>4.560802286267944E-10</v>
+      </c>
+      <c r="N54" s="9">
+        <v>547</v>
+      </c>
+      <c r="O54" s="75"/>
+      <c r="P54" s="106">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="107"/>
+      <c r="R54" s="2">
+        <v>744</v>
+      </c>
+      <c r="S54" s="40"/>
+      <c r="T54" s="101"/>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J55" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="K55" s="122">
+        <f>(3.1415*K51*0.00075^4)/(8*K53*0.1)</f>
+        <v>0.19750832500799462</v>
+      </c>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J56" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" s="122">
+        <f>((3.1415*0.00075*K52/(8*0.1*K53))^2+(3.1415*0.00075*K51*0.0001/(8*0.1^2*K53))^2+(3.1415*0.00075*K54/(8*0.1*K53^2))^2+(3.1415*4*K51*0.00075^3*0.00005/(8*0.1*K53))^2)^(1/2)*10^-8</f>
+        <v>5.6303830689297179E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J57" s="120" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" s="122">
+        <f>K49*K53*0.0015/(K55*3.1415*0.0015^2)*10^4</f>
+        <v>0.47708918301174913</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="123">
+        <f>((K52*K53*0.1/(K55*3.1415*0.00075^2))^2+(K51*K54*0.1/(K55*3.1415*0.00075^2))^2+(K51*K53*0.0005/(K55*3.1415*0.00075))^2+(K51*K53*0.1*K56/(K55^2*3.1415*0.00075))^2+(K51*K53*0.1*0.0001/(K55*3.1415*0.00075^2)^2)^(1/2))*10^-4</f>
+        <v>1.4066771375179858E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="211">
-    <mergeCell ref="AD34:AD38"/>
-    <mergeCell ref="AD39:AD43"/>
-    <mergeCell ref="Z4:Z43"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="X4:X8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="X9:X13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="X14:X18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="X19:X23"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y43"/>
+  <mergeCells count="217">
+    <mergeCell ref="Y48:Y53"/>
+    <mergeCell ref="S48:S54"/>
+    <mergeCell ref="T48:T54"/>
+    <mergeCell ref="O48:O54"/>
+    <mergeCell ref="W48:W53"/>
+    <mergeCell ref="Q48:Q54"/>
+    <mergeCell ref="AF4:AF8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AF9:AF13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AF14:AF18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AF19:AF23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AF24:AF28"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AC39:AC43"/>
+    <mergeCell ref="AD9:AD13"/>
+    <mergeCell ref="AD14:AD18"/>
+    <mergeCell ref="AD19:AD23"/>
+    <mergeCell ref="AD24:AD28"/>
+    <mergeCell ref="AD29:AD33"/>
+    <mergeCell ref="AF29:AF33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AF34:AF38"/>
+    <mergeCell ref="AE39:AE43"/>
+    <mergeCell ref="AF39:AF43"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AD4:AD8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="X39:X43"/>
+    <mergeCell ref="AB4:AB8"/>
+    <mergeCell ref="AB9:AB13"/>
+    <mergeCell ref="AB14:AB18"/>
+    <mergeCell ref="AB19:AB23"/>
+    <mergeCell ref="AB24:AB28"/>
+    <mergeCell ref="AB29:AB33"/>
+    <mergeCell ref="AB34:AB38"/>
+    <mergeCell ref="AB39:AB43"/>
+    <mergeCell ref="V4:V8"/>
+    <mergeCell ref="V9:V13"/>
+    <mergeCell ref="V14:V18"/>
+    <mergeCell ref="V19:V23"/>
+    <mergeCell ref="V24:V28"/>
+    <mergeCell ref="V29:V33"/>
+    <mergeCell ref="V34:V38"/>
+    <mergeCell ref="V39:V43"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="W39:W43"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="P4:P8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="P14:P18"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="P34:P38"/>
+    <mergeCell ref="O39:O43"/>
+    <mergeCell ref="K39:K43"/>
+    <mergeCell ref="P39:P43"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="P24:P28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="P29:P33"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="N14:N18"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="N24:N28"/>
+    <mergeCell ref="N29:N33"/>
+    <mergeCell ref="N34:N38"/>
+    <mergeCell ref="N39:N43"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="R9:R13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="R34:R38"/>
+    <mergeCell ref="Q39:Q43"/>
+    <mergeCell ref="R39:R43"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="R24:R28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="R29:R33"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="S39:S43"/>
+    <mergeCell ref="T4:T8"/>
+    <mergeCell ref="T9:T13"/>
+    <mergeCell ref="T14:T18"/>
+    <mergeCell ref="T19:T23"/>
+    <mergeCell ref="T24:T28"/>
+    <mergeCell ref="T29:T33"/>
+    <mergeCell ref="T34:T38"/>
+    <mergeCell ref="T39:T43"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
     <mergeCell ref="U4:U8"/>
     <mergeCell ref="U9:U13"/>
     <mergeCell ref="U14:U18"/>
@@ -3898,118 +4510,19 @@
     <mergeCell ref="E29:E33"/>
     <mergeCell ref="E34:E38"/>
     <mergeCell ref="E39:E43"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="S39:S43"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="T9:T13"/>
-    <mergeCell ref="T14:T18"/>
-    <mergeCell ref="T19:T23"/>
-    <mergeCell ref="T24:T28"/>
-    <mergeCell ref="T29:T33"/>
-    <mergeCell ref="T34:T38"/>
-    <mergeCell ref="T39:T43"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="R9:R13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="R34:R38"/>
-    <mergeCell ref="Q39:Q43"/>
-    <mergeCell ref="R39:R43"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="R19:R23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="R24:R28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="R29:R33"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="N9:N13"/>
-    <mergeCell ref="N14:N18"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="N24:N28"/>
-    <mergeCell ref="N29:N33"/>
-    <mergeCell ref="N34:N38"/>
-    <mergeCell ref="N39:N43"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="P4:P8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="P9:P13"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="P14:P18"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="P34:P38"/>
-    <mergeCell ref="O39:O43"/>
-    <mergeCell ref="K39:K43"/>
-    <mergeCell ref="P39:P43"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="P19:P23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="P24:P28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="P29:P33"/>
+    <mergeCell ref="AD34:AD38"/>
+    <mergeCell ref="AD39:AD43"/>
+    <mergeCell ref="Z4:Z43"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="X4:X8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="X9:X13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="X14:X18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="X19:X23"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y43"/>
     <mergeCell ref="AA4:AA8"/>
     <mergeCell ref="AA9:AA13"/>
     <mergeCell ref="AA14:AA18"/>
@@ -4018,320 +4531,54 @@
     <mergeCell ref="AA29:AA33"/>
     <mergeCell ref="AA34:AA38"/>
     <mergeCell ref="AA39:AA43"/>
-    <mergeCell ref="V4:V8"/>
-    <mergeCell ref="V9:V13"/>
-    <mergeCell ref="V14:V18"/>
-    <mergeCell ref="V19:V23"/>
-    <mergeCell ref="V24:V28"/>
-    <mergeCell ref="V29:V33"/>
-    <mergeCell ref="V34:V38"/>
-    <mergeCell ref="V39:V43"/>
-    <mergeCell ref="W24:W28"/>
     <mergeCell ref="X24:X28"/>
-    <mergeCell ref="W29:W33"/>
     <mergeCell ref="X29:X33"/>
-    <mergeCell ref="W34:W38"/>
     <mergeCell ref="X34:X38"/>
-    <mergeCell ref="W39:W43"/>
-    <mergeCell ref="X39:X43"/>
-    <mergeCell ref="AB4:AB8"/>
-    <mergeCell ref="AB9:AB13"/>
-    <mergeCell ref="AB14:AB18"/>
-    <mergeCell ref="AB19:AB23"/>
-    <mergeCell ref="AB24:AB28"/>
-    <mergeCell ref="AB29:AB33"/>
-    <mergeCell ref="AB34:AB38"/>
-    <mergeCell ref="AB39:AB43"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AD4:AD8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AC39:AC43"/>
-    <mergeCell ref="AD9:AD13"/>
-    <mergeCell ref="AD14:AD18"/>
-    <mergeCell ref="AD19:AD23"/>
-    <mergeCell ref="AD24:AD28"/>
-    <mergeCell ref="AD29:AD33"/>
-    <mergeCell ref="AF29:AF33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AF34:AF38"/>
-    <mergeCell ref="AE39:AE43"/>
-    <mergeCell ref="AF39:AF43"/>
-    <mergeCell ref="AF4:AF8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AF9:AF13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AF14:AF18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AF19:AF23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AF24:AF28"/>
   </mergeCells>
   <pageMargins left="0" right="0.39370078740157483" top="1.3779527559055118" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="37" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="31" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C24:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="102" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
-        <v>550</v>
-      </c>
-      <c r="C3" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="85">
-        <v>4</v>
-      </c>
-      <c r="G3" s="91">
-        <f>273.15+23.9</f>
-        <v>297.04999999999995</v>
-      </c>
-      <c r="I3">
-        <f>E4-E3</f>
-        <v>99</v>
-      </c>
-      <c r="J3" s="103">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
-        <v>549.5</v>
-      </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="8">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>99</v>
-      </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="92"/>
-      <c r="I4">
-        <f t="shared" ref="I4:I8" si="0">E5-E4</f>
-        <v>127</v>
-      </c>
-      <c r="J4" s="103"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <v>549</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="8">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>226</v>
-      </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="92"/>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="J5" s="103"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <v>548.5</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="8">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1">
-        <v>357</v>
-      </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="92"/>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="J6" s="103"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>548</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="8">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>485</v>
-      </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="92"/>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="J7" s="103"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
-        <v>547.5</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="8">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1">
-        <v>616</v>
-      </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="92"/>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="J8" s="103"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
-        <v>547</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="10">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2">
-        <v>744</v>
-      </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="93"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11">
-        <f>(B4+B9)/2</f>
-        <v>548.25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12">
-        <f>(6*C3^2/36)^(1/2)</f>
-        <v>0.20412414523193151</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13">
-        <f>_xlfn.STDEV.S(B4:B9)</f>
-        <v>0.93541434669348533</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="D14">
-        <v>1.1456</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="100"/>
-      <c r="D15">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="D16">
-        <f>D14*D11*Tabelle1!D46</f>
-        <v>6161.3172199679993</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17">
-        <f>((D13*D14*Tabelle1!D46)^2+(D11*D15*Tabelle1!D46)^2)^(1/2)</f>
-        <v>10.567217578443419</v>
-      </c>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="118"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="118"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="118"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="J3:J8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
+++ b/Praktikum/212 - Zähigkeit von Flüssigkeiten/Daten.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thorben Frey\Heidelberg\PAP\PAP2.1\Praktikum\Praktikum\Praktikum\212 - Zähigkeit von Flüssigkeiten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quirinus\Documents\GitHub\Praktikum\Praktikum\212 - Zähigkeit von Flüssigkeiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -393,7 +393,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,8 +406,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -786,21 +792,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -854,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -908,245 +899,257 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1460,51 +1463,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="W62" sqref="W62"/>
+    <sheetView tabSelected="1" topLeftCell="N27" zoomScale="73" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="W48" sqref="W48:W53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
@@ -1682,38 +1685,38 @@
       <c r="AE3" s="28"/>
       <c r="AF3" s="32"/>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B4" s="65">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B4" s="120">
         <v>9</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="124">
         <f>B4*0.01</f>
         <v>0.09</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="91">
         <f>(B4/2)^2*10^-6</f>
         <v>2.0249999999999998E-5</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="91">
         <f>B4*C4*10^-6</f>
         <v>8.0999999999999987E-7</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="105">
         <v>1.3554999999999999</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="105">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H4" s="8">
         <v>6.14</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="58">
         <v>0.3</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="116">
         <v>0.2</v>
       </c>
-      <c r="K4" s="76">
+      <c r="K4" s="111">
         <f>0.5*B4*10^-3</f>
         <v>4.5000000000000005E-3</v>
       </c>
@@ -1725,93 +1728,93 @@
         <f>(($K$4/H4)^2+($J$4*$I$4/H4^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="N4" s="71">
+      <c r="N4" s="93">
         <f>(L4+L5+L6+L7+L8)/5</f>
         <v>3.3077869485049816E-2</v>
       </c>
-      <c r="O4" s="71">
+      <c r="O4" s="93">
         <f>(SUMSQ(M4:M8)/25)^(1/2)</f>
         <v>8.0798706393487478E-4</v>
       </c>
-      <c r="P4" s="71">
+      <c r="P4" s="93">
         <f>_xlfn.STDEV.S(L4:L8)</f>
         <v>1.1538275016650245E-3</v>
       </c>
-      <c r="Q4" s="71">
+      <c r="Q4" s="93">
         <v>1.1482000000000001</v>
       </c>
-      <c r="R4" s="71">
+      <c r="R4" s="93">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="91">
         <f>N4/(F4-Q4)*10^(-3)</f>
         <v>1.59565217004582E-4</v>
       </c>
-      <c r="T4" s="57">
+      <c r="T4" s="122">
         <f>((P4/(F4-Q4))^2+(N4*G4/(F4-Q4)^2)^2+(N4*R4/(F4-Q4)^2)^2)^(1/2)*10^-3</f>
         <v>5.5813928390751162E-6</v>
       </c>
-      <c r="U4" s="50">
+      <c r="U4" s="87">
         <f>1+2.1*0.5*B4/$D$45</f>
         <v>1.252</v>
       </c>
-      <c r="V4" s="50">
+      <c r="V4" s="87">
         <f>2.1*C4*0.5/$D$45</f>
         <v>2.5200000000000001E-3</v>
       </c>
-      <c r="W4" s="41">
+      <c r="W4" s="91">
         <f>S4*U4</f>
         <v>1.9977565168973667E-4</v>
       </c>
-      <c r="X4" s="43">
+      <c r="X4" s="125">
         <f>((T4*U4)^2+(S4*V4)^2)^(1/2)</f>
         <v>6.9994634013104759E-6</v>
       </c>
-      <c r="Y4" s="47">
+      <c r="Y4" s="126">
         <f>273.15+21.5</f>
         <v>294.64999999999998</v>
       </c>
-      <c r="Z4" s="39">
+      <c r="Z4" s="60">
         <v>0.5</v>
       </c>
-      <c r="AA4" s="91">
+      <c r="AA4" s="84">
         <f>2/9*$D$46*(F4-Q4)*D4/$D$47*10^3</f>
         <v>4.3657379999999968E-2</v>
       </c>
-      <c r="AB4" s="91">
+      <c r="AB4" s="84">
         <f>2/9*$D$46*((F4*D4/$D$47)^2+(R4*D4/$D$47)^2+((F4-Q4)*$D$48/$D$47^2)^2+((F4-Q4)*2*(D4)^(1/2)*(E4)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>8.2920493227589778E-5</v>
       </c>
-      <c r="AC4" s="93">
+      <c r="AC4" s="81">
         <f>N4/AA4</f>
         <v>0.75766959641301979</v>
       </c>
-      <c r="AD4" s="93">
+      <c r="AD4" s="81">
         <f>((P4/AA4)^2+(N4*AB4/AA4^2)^2)^(1/2)</f>
         <v>2.6468301451664619E-2</v>
       </c>
-      <c r="AE4" s="92">
-        <f>Q4*$AA$4*B4*10^-3/$D$47*10^3</f>
-        <v>2.1522942724019138</v>
-      </c>
-      <c r="AF4" s="97">
-        <f>((AA4*R4*B4*10^-3/$D$47)^2+(Q4*AB4*B4*10^-3/$D$47)^2+(Q4*AA4*C4*10^-3/$D$47)^2+(Q4*AA4*B4*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
-        <v>8.5631234092181471E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="AE4" s="80">
+        <f>Q4*N4*B4*10^-3/$D$47*10^3</f>
+        <v>1.6307279327328119</v>
+      </c>
+      <c r="AF4" s="71">
+        <f>((N4*R4*B4*10^-3/$D$47)^2+(Q4*P4*B4*10^-3/$D$47)^2+(Q4*N4*C4*10^-3/$D$47)^2+(Q4*N4*B4*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>8.6229668814386692E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B5" s="114"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
       <c r="H5" s="8">
         <v>6.14</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="76"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="111"/>
       <c r="L5" s="17">
         <f t="shared" ref="L5:L43" si="0">$J$4/H5</f>
         <v>3.2573289902280131E-2</v>
@@ -1820,39 +1823,39 @@
         <f t="shared" ref="M5:M8" si="1">(($K$4/H5)^2+($J$4*$I$4/H5^2)^2)^(1/2)</f>
         <v>1.7521715015226661E-3</v>
       </c>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="98"/>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="72"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B6" s="114"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="8">
         <v>5.7</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="76"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="111"/>
       <c r="L6" s="17">
         <f t="shared" si="0"/>
         <v>3.5087719298245612E-2</v>
@@ -1861,39 +1864,39 @@
         <f t="shared" si="1"/>
         <v>2.0083951542744852E-3</v>
       </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="98"/>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B7" s="59"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="72"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B7" s="114"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="8">
         <v>6.21</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="111"/>
       <c r="L7" s="17">
         <f t="shared" si="0"/>
         <v>3.2206119162640906E-2</v>
@@ -1902,39 +1905,39 @@
         <f t="shared" si="1"/>
         <v>1.716325325710239E-3</v>
       </c>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="98"/>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B8" s="59"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="69"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="72"/>
+    </row>
+    <row r="8" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="114"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="11">
         <v>6.07</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="77"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="112"/>
       <c r="L8" s="18">
         <f t="shared" si="0"/>
         <v>3.2948929159802305E-2</v>
@@ -1943,59 +1946,59 @@
         <f t="shared" si="1"/>
         <v>1.7892578702547329E-3</v>
       </c>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="98"/>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B9" s="59">
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="72"/>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B9" s="114">
         <v>8</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="73">
         <f t="shared" ref="C9" si="2">B9*0.01</f>
         <v>0.08</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="88">
         <f t="shared" ref="D9" si="3">(B9/2)^2*10^-6</f>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="88">
         <f t="shared" ref="E9" si="4">B9*C9*10^-6</f>
         <v>6.4000000000000001E-7</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="107">
         <v>1.3625</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="107">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H9" s="12">
         <v>7.86</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="109">
         <f>I4</f>
         <v>0.3</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="117">
         <v>0.2</v>
       </c>
-      <c r="K9" s="78">
+      <c r="K9" s="113">
         <f>0.5*B9*10^-3</f>
         <v>4.0000000000000001E-3</v>
       </c>
@@ -2007,276 +2010,276 @@
         <f>(($K$9/H9)^2+($J$9*$I$9/H9^2)^2)^(1/2)</f>
         <v>1.0964504915178231E-3</v>
       </c>
-      <c r="N9" s="79">
+      <c r="N9" s="94">
         <f>(L9+L10+L11+L12+L13)/5</f>
         <v>2.6029305829267206E-2</v>
       </c>
-      <c r="O9" s="79">
+      <c r="O9" s="94">
         <f t="shared" ref="O9" si="5">(SUMSQ(M9:M13)/25)^(1/2)</f>
         <v>5.1104479056882763E-4</v>
       </c>
-      <c r="P9" s="79">
+      <c r="P9" s="94">
         <f t="shared" ref="P9" si="6">_xlfn.STDEV.S(L9:L13)</f>
         <v>5.0949814262065871E-4</v>
       </c>
-      <c r="Q9" s="79">
+      <c r="Q9" s="94">
         <v>1.1476</v>
       </c>
-      <c r="R9" s="79">
+      <c r="R9" s="94">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S9" s="45">
+      <c r="S9" s="89">
         <f t="shared" ref="S9" si="7">N9/(F9-Q9)*10^(-3)</f>
         <v>1.2112287496169007E-4</v>
       </c>
-      <c r="T9" s="46">
+      <c r="T9" s="82">
         <f>((P9/(F9-Q9))^2+(N9*G9/(F9-Q9)^2)^2+(N9*R9/(F9-Q9)^2)^2)^(1/2)*10^-3</f>
         <v>2.3902111605678812E-6</v>
       </c>
-      <c r="U9" s="51">
+      <c r="U9" s="77">
         <f t="shared" ref="U9" si="8">1+2.1*0.5*B9/$D$45</f>
         <v>1.224</v>
       </c>
-      <c r="V9" s="51">
+      <c r="V9" s="77">
         <f t="shared" ref="V9" si="9">2.1*C9*0.5/$D$45</f>
         <v>2.2400000000000002E-3</v>
       </c>
-      <c r="W9" s="42">
+      <c r="W9" s="88">
         <f t="shared" ref="W9" si="10">S9*U9</f>
         <v>1.4825439895310865E-4</v>
       </c>
-      <c r="X9" s="44">
+      <c r="X9" s="123">
         <f t="shared" ref="X9" si="11">((T9*U9)^2+(S9*V9)^2)^(1/2)</f>
         <v>2.9381721079666829E-6</v>
       </c>
-      <c r="Y9" s="48">
+      <c r="Y9" s="127">
         <f>Y4+0.5</f>
         <v>295.14999999999998</v>
       </c>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="54">
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="85">
         <f>2/9*$D$46*(F9-Q9)*D9/$D$47*10^3</f>
         <v>3.5759360000000018E-2</v>
       </c>
-      <c r="AB9" s="54">
+      <c r="AB9" s="85">
         <f>2/9*$D$46*((F9*D9/$D$47)^2+(R9*D9/$D$47)^2+((F9-Q9)*$D$48/$D$47^2)^2+((F9-Q9)*2*(D9)^(1/2)*(E9)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>8.5960300177213242E-5</v>
       </c>
-      <c r="AC9" s="36">
+      <c r="AC9" s="74">
         <f>N9/AA9</f>
         <v>0.72790189279861817</v>
       </c>
-      <c r="AD9" s="36">
+      <c r="AD9" s="74">
         <f>((P9/AA9)^2+(N9*AB9/AA9^2)^2)^(1/2)</f>
         <v>1.4355007101729765E-2</v>
       </c>
-      <c r="AE9" s="37">
-        <f>Q9*$AA$4*B9*10^-3/$D$47*10^3</f>
-        <v>1.91215073410241</v>
-      </c>
-      <c r="AF9" s="98">
-        <f>((AA9*R9*B9*10^-3/$D$47)^2+(Q9*AB9*B9*10^-3/$D$47)^2+(Q9*AA9*C9*10^-3/$D$47)^2+(Q9*AA9*B9*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
-        <v>6.2356591175247576E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B10" s="59"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
+      <c r="AE9" s="80">
+        <f t="shared" ref="AE9:AE43" si="12">Q9*N9*B9*10^-3/$D$47*10^3</f>
+        <v>1.1400582501654812</v>
+      </c>
+      <c r="AF9" s="71">
+        <f t="shared" ref="AF9:AF43" si="13">((N9*R9*B9*10^-3/$D$47)^2+(Q9*P9*B9*10^-3/$D$47)^2+(Q9*N9*C9*10^-3/$D$47)^2+(Q9*N9*B9*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>5.050422735554929E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B10" s="114"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="8">
         <v>7.8</v>
       </c>
-      <c r="I10" s="73"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="76"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="111"/>
       <c r="L10" s="17">
         <f t="shared" si="0"/>
         <v>2.5641025641025644E-2</v>
       </c>
       <c r="M10" s="17">
-        <f t="shared" ref="M10:M13" si="12">(($K$9/H10)^2+($J$9*$I$9/H10^2)^2)^(1/2)</f>
+        <f t="shared" ref="M10:M13" si="14">(($K$9/H10)^2+($J$9*$I$9/H10^2)^2)^(1/2)</f>
         <v>1.1115584065960846E-3</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="98"/>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B11" s="59"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="72"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B11" s="114"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="8">
         <v>7.7</v>
       </c>
-      <c r="I11" s="73"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="76"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="111"/>
       <c r="L11" s="17">
         <f t="shared" si="0"/>
         <v>2.5974025974025976E-2</v>
       </c>
       <c r="M11" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1375207635695094E-3</v>
       </c>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="98"/>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B12" s="59"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="72"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B12" s="114"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
       <c r="H12" s="8">
         <v>7.56</v>
       </c>
-      <c r="I12" s="73"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="76"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="111"/>
       <c r="L12" s="17">
         <f t="shared" si="0"/>
         <v>2.6455026455026457E-2</v>
       </c>
       <c r="M12" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1755989736153413E-3</v>
       </c>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="98"/>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B13" s="59"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="123"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="72"/>
+    </row>
+    <row r="13" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="114"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="11">
         <v>7.51</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="77"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="112"/>
       <c r="L13" s="18">
         <f t="shared" si="0"/>
         <v>2.6631158455392812E-2</v>
       </c>
       <c r="M13" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1897130928283149E-3</v>
       </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="98"/>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B14" s="66">
+      <c r="N13" s="93"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="123"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="72"/>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B14" s="121">
         <v>7.1440000000000001</v>
       </c>
-      <c r="C14" s="54">
-        <f t="shared" ref="C14" si="13">B14*0.01</f>
+      <c r="C14" s="85">
+        <f t="shared" ref="C14" si="15">B14*0.01</f>
         <v>7.1440000000000003E-2</v>
       </c>
-      <c r="D14" s="42">
-        <f t="shared" ref="D14" si="14">(B14/2)^2*10^-6</f>
+      <c r="D14" s="88">
+        <f t="shared" ref="D14" si="16">(B14/2)^2*10^-6</f>
         <v>1.2759184000000001E-5</v>
       </c>
-      <c r="E14" s="42">
-        <f t="shared" ref="E14" si="15">B14*C14*10^-6</f>
+      <c r="E14" s="88">
+        <f t="shared" ref="E14" si="17">B14*C14*10^-6</f>
         <v>5.1036735999999999E-7</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="107">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="107">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H14" s="12">
         <v>8.42</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="109">
         <f>I9</f>
         <v>0.3</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="117">
         <v>0.2</v>
       </c>
-      <c r="K14" s="78">
-        <f t="shared" ref="K14" si="16">0.5*B14*10^-3</f>
+      <c r="K14" s="113">
+        <f t="shared" ref="K14" si="18">0.5*B14*10^-3</f>
         <v>3.5720000000000001E-3</v>
       </c>
       <c r="L14" s="19">
@@ -2287,273 +2290,273 @@
         <f>(($K$14/H14)^2+($J$14*$I$14/H14^2)^2)^(1/2)</f>
         <v>9.4667951449123387E-4</v>
       </c>
-      <c r="N14" s="79">
+      <c r="N14" s="94">
         <f>(L14+L15+L16+L17+L18)/5</f>
         <v>2.3640955470984416E-2</v>
       </c>
-      <c r="O14" s="71">
-        <f t="shared" ref="O14" si="17">(SUMSQ(M14:M18)/25)^(1/2)</f>
+      <c r="O14" s="93">
+        <f t="shared" ref="O14" si="19">(SUMSQ(M14:M18)/25)^(1/2)</f>
         <v>4.2004945214195227E-4</v>
       </c>
-      <c r="P14" s="71">
-        <f t="shared" ref="P14" si="18">_xlfn.STDEV.S(L14:L18)</f>
+      <c r="P14" s="93">
+        <f t="shared" ref="P14" si="20">_xlfn.STDEV.S(L14:L18)</f>
         <v>4.1924762935458839E-4</v>
       </c>
-      <c r="Q14" s="79">
+      <c r="Q14" s="94">
         <v>1.1476</v>
       </c>
-      <c r="R14" s="79">
+      <c r="R14" s="94">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S14" s="45">
-        <f t="shared" ref="S14" si="19">N14/(F14-Q14)*10^(-3)</f>
+      <c r="S14" s="89">
+        <f t="shared" ref="S14" si="21">N14/(F14-Q14)*10^(-3)</f>
         <v>1.0283147225308576E-4</v>
       </c>
-      <c r="T14" s="46">
+      <c r="T14" s="82">
         <f>((P14/(F14-Q14))^2+(N14*G14/(F14-Q14)^2)^2+(N14*R14/(F14-Q14)^2)^2)^(1/2)*10^-3</f>
         <v>2.1410198964813952E-6</v>
       </c>
-      <c r="U14" s="51">
-        <f t="shared" ref="U14" si="20">1+2.1*0.5*B14/$D$45</f>
+      <c r="U14" s="77">
+        <f t="shared" ref="U14" si="22">1+2.1*0.5*B14/$D$45</f>
         <v>1.200032</v>
       </c>
-      <c r="V14" s="51">
-        <f t="shared" ref="V14" si="21">2.1*C14*0.5/$D$45</f>
+      <c r="V14" s="77">
+        <f t="shared" ref="V14" si="23">2.1*C14*0.5/$D$45</f>
         <v>2.0003200000000003E-3</v>
       </c>
-      <c r="W14" s="45">
+      <c r="W14" s="89">
         <f>S14*U14</f>
         <v>1.2340105731081501E-4</v>
       </c>
-      <c r="X14" s="46">
-        <f t="shared" ref="X14" si="22">((T14*U14)^2+(S14*V14)^2)^(1/2)</f>
+      <c r="X14" s="82">
+        <f t="shared" ref="X14" si="24">((T14*U14)^2+(S14*V14)^2)^(1/2)</f>
         <v>2.5775131736052662E-6</v>
       </c>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="54">
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="85">
         <f>2/9*$D$46*(F14-Q14)*D14/$D$47*10^3</f>
         <v>3.0506698576639998E-2</v>
       </c>
-      <c r="AB14" s="54">
+      <c r="AB14" s="85">
         <f>2/9*$D$46*((F14*D14/$D$47)^2+(R14*D14/$D$47)^2+((F14-Q14)*$D$48/$D$47^2)^2+((F14-Q14)*2*(D14)^(1/2)*(E14)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.196018247254961E-5</v>
       </c>
-      <c r="AC14" s="36">
+      <c r="AC14" s="74">
         <f>N14/AA14</f>
         <v>0.77494309689371266</v>
       </c>
-      <c r="AD14" s="36">
+      <c r="AD14" s="74">
         <f>((P14/AA14)^2+(N14*AB14/AA14^2)^2)^(1/2)</f>
         <v>1.3939929801672279E-2</v>
       </c>
-      <c r="AE14" s="37">
-        <f>Q14*$AA$4*B14*10^-3/$D$47*10^3</f>
-        <v>1.7075506055534522</v>
-      </c>
-      <c r="AF14" s="98">
-        <f>((AA14*R14*B14*10^-3/$D$47)^2+(Q14*AB14*B14*10^-3/$D$47)^2+(Q14*AA14*C14*10^-3/$D$47)^2+(Q14*AA14*B14*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
-        <v>4.7554545156289173E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B15" s="66"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
+      <c r="AE14" s="80">
+        <f t="shared" ref="AE14:AE43" si="25">Q14*N14*B14*10^-3/$D$47*10^3</f>
+        <v>0.92465759123295244</v>
+      </c>
+      <c r="AF14" s="71">
+        <f t="shared" ref="AF14:AF43" si="26">((N14*R14*B14*10^-3/$D$47)^2+(Q14*P14*B14*10^-3/$D$47)^2+(Q14*N14*C14*10^-3/$D$47)^2+(Q14*N14*B14*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>4.0239218591009193E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B15" s="121"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
       <c r="H15" s="8">
         <v>8.6199999999999992</v>
       </c>
-      <c r="I15" s="73"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="76"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="111"/>
       <c r="L15" s="17">
         <f t="shared" si="0"/>
         <v>2.3201856148491882E-2</v>
       </c>
       <c r="M15" s="17">
-        <f t="shared" ref="M15:M18" si="23">(($K$14/H15)^2+($J$14*$I$14/H15^2)^2)^(1/2)</f>
+        <f t="shared" ref="M15:M18" si="27">(($K$14/H15)^2+($J$14*$I$14/H15^2)^2)^(1/2)</f>
         <v>9.0760886409929718E-4</v>
       </c>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="98"/>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B16" s="66"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="72"/>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B16" s="121"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
       <c r="H16" s="8">
         <v>8.5399999999999991</v>
       </c>
-      <c r="I16" s="73"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="76"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="111"/>
       <c r="L16" s="17">
         <f t="shared" si="0"/>
         <v>2.3419203747072605E-2</v>
       </c>
       <c r="M16" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.2291055402502582E-4</v>
       </c>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="98"/>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B17" s="66"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="85"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="72"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B17" s="121"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
       <c r="H17" s="8">
         <v>8.5</v>
       </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="76"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="111"/>
       <c r="L17" s="17">
         <f t="shared" si="0"/>
         <v>2.3529411764705882E-2</v>
       </c>
       <c r="M17" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.3072263192061364E-4</v>
       </c>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="98"/>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B18" s="66"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="85"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="72"/>
+    </row>
+    <row r="18" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="121"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="11">
         <v>8.23</v>
       </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="77"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="112"/>
       <c r="L18" s="18">
         <f t="shared" si="0"/>
         <v>2.4301336573511544E-2</v>
       </c>
       <c r="M18" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.8644518067141844E-4</v>
       </c>
-      <c r="N18" s="50"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="98"/>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B19" s="59">
+      <c r="N18" s="87"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="72"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B19" s="114">
         <v>6</v>
       </c>
-      <c r="C19" s="37">
-        <f t="shared" ref="C19" si="24">B19*0.01</f>
+      <c r="C19" s="73">
+        <f t="shared" ref="C19" si="28">B19*0.01</f>
         <v>0.06</v>
       </c>
-      <c r="D19" s="42">
-        <f t="shared" ref="D19" si="25">(B19/2)^2*10^-6</f>
+      <c r="D19" s="88">
+        <f t="shared" ref="D19" si="29">(B19/2)^2*10^-6</f>
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="E19" s="42">
-        <f t="shared" ref="E19" si="26">B19*C19*10^-6</f>
+      <c r="E19" s="88">
+        <f t="shared" ref="E19" si="30">B19*C19*10^-6</f>
         <v>3.5999999999999999E-7</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="107">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="107">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H19" s="12">
         <v>11.62</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="109">
         <f>I14</f>
         <v>0.3</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="117">
         <v>0.2</v>
       </c>
-      <c r="K19" s="78">
-        <f t="shared" ref="K19" si="27">0.5*B19*10^-3</f>
+      <c r="K19" s="113">
+        <f t="shared" ref="K19" si="31">0.5*B19*10^-3</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L19" s="19">
@@ -2564,273 +2567,273 @@
         <f>(($K$19/H19)^2+($J$19*$I$19/H19^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N19" s="81">
+      <c r="N19" s="98">
         <f>(L19+L20+L21+L22+L23)/5</f>
         <v>1.711072882678167E-2</v>
       </c>
-      <c r="O19" s="54">
-        <f t="shared" ref="O19" si="28">(SUMSQ(M19:M23)/25)^(1/2)</f>
+      <c r="O19" s="85">
+        <f t="shared" ref="O19" si="32">(SUMSQ(M19:M23)/25)^(1/2)</f>
         <v>2.2754630774580575E-4</v>
       </c>
-      <c r="P19" s="54">
-        <f t="shared" ref="P19" si="29">_xlfn.STDEV.S(L19:L23)</f>
+      <c r="P19" s="85">
+        <f t="shared" ref="P19" si="33">_xlfn.STDEV.S(L19:L23)</f>
         <v>2.0964670301082701E-4</v>
       </c>
-      <c r="Q19" s="79">
+      <c r="Q19" s="94">
         <v>1.1476</v>
       </c>
-      <c r="R19" s="79">
+      <c r="R19" s="94">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S19" s="42">
-        <f t="shared" ref="S19" si="30">N19/(F19-Q19)*10^(-3)</f>
+      <c r="S19" s="88">
+        <f t="shared" ref="S19" si="34">N19/(F19-Q19)*10^(-3)</f>
         <v>7.4426832652377855E-5</v>
       </c>
-      <c r="T19" s="46">
+      <c r="T19" s="82">
         <f>((O19/(F19-Q19))^2+(N19*G19/(F19-Q19)^2)^2+(N19*R19/(F19-Q19)^2)^2)^(1/2)*10^-3</f>
         <v>1.2801762190890571E-6</v>
       </c>
-      <c r="U19" s="51">
-        <f t="shared" ref="U19" si="31">1+2.1*0.5*B19/$D$45</f>
+      <c r="U19" s="77">
+        <f t="shared" ref="U19" si="35">1+2.1*0.5*B19/$D$45</f>
         <v>1.1679999999999999</v>
       </c>
-      <c r="V19" s="51">
-        <f t="shared" ref="V19" si="32">2.1*C19*0.5/$D$45</f>
+      <c r="V19" s="77">
+        <f t="shared" ref="V19" si="36">2.1*C19*0.5/$D$45</f>
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="W19" s="42">
-        <f t="shared" ref="W19" si="33">S19*U19</f>
+      <c r="W19" s="88">
+        <f t="shared" ref="W19" si="37">S19*U19</f>
         <v>8.693054053797733E-5</v>
       </c>
-      <c r="X19" s="46">
-        <f t="shared" ref="X19" si="34">((T19*U19)^2+(S19*V19)^2)^(1/2)</f>
+      <c r="X19" s="82">
+        <f t="shared" ref="X19" si="38">((T19*U19)^2+(S19*V19)^2)^(1/2)</f>
         <v>1.5004647096707485E-6</v>
       </c>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="54">
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="85">
         <f>2/9*$D$46*(F19-Q19)*D19/$D$47*10^3</f>
         <v>2.1518640000000002E-2</v>
       </c>
-      <c r="AB19" s="54">
+      <c r="AB19" s="85">
         <f>2/9*$D$46*((F19*D19/$D$47)^2+(R19*D19/$D$47)^2+((F19-Q19)*$D$48/$D$47^2)^2+((F19-Q19)*2*(D19)^(1/2)*(E19)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960090789782316E-5</v>
       </c>
-      <c r="AC19" s="36">
+      <c r="AC19" s="74">
         <f>N19/AA19</f>
         <v>0.7951584685083104</v>
       </c>
-      <c r="AD19" s="36">
+      <c r="AD19" s="74">
         <f>((O19/AA19)^2+(N19*AB19/AA19^2)^2)^(1/2)</f>
         <v>1.1106968023727085E-2</v>
       </c>
-      <c r="AE19" s="36">
-        <f>Q19*$AA$4*B19*10^-3/$D$47*10^3</f>
-        <v>1.4341130505768076</v>
-      </c>
-      <c r="AF19" s="94">
-        <f>((AA19*R19*B19*10^-3/$D$47)^2+(Q19*AB19*B19*10^-3/$D$47)^2+(Q19*AA19*C19*10^-3/$D$47)^2+(Q19*AA19*B19*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
-        <v>2.825350160145991E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
+      <c r="AE19" s="81">
+        <f t="shared" ref="AE19:AE43" si="39">Q19*N19*B19*10^-3/$D$47*10^3</f>
+        <v>0.56207494621455523</v>
+      </c>
+      <c r="AF19" s="129">
+        <f t="shared" ref="AF19:AF43" si="40">((N19*R19*B19*10^-3/$D$47)^2+(Q19*P19*B19*10^-3/$D$47)^2+(Q19*N19*C19*10^-3/$D$47)^2+(Q19*N19*B19*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>2.3374753431119694E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B20" s="114"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
       <c r="H20" s="8">
         <v>11.62</v>
       </c>
-      <c r="I20" s="73"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="76"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="111"/>
       <c r="L20" s="17">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
       <c r="M20" s="17">
-        <f t="shared" ref="M20:M23" si="35">(($K$19/H20)^2+($J$19*$I$19/H20^2)^2)^(1/2)</f>
+        <f t="shared" ref="M20:M23" si="41">(($K$19/H20)^2+($J$19*$I$19/H20^2)^2)^(1/2)</f>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N20" s="81"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="94"/>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B21" s="59"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="75"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B21" s="114"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
       <c r="H21" s="8">
         <v>11.64</v>
       </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="76"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="111"/>
       <c r="L21" s="17">
         <f t="shared" si="0"/>
         <v>1.7182130584192441E-2</v>
       </c>
       <c r="M21" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>5.1237840142188897E-4</v>
       </c>
-      <c r="N21" s="81"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="94"/>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B22" s="59"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="75"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B22" s="114"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="8">
         <v>11.62</v>
       </c>
-      <c r="I22" s="73"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="76"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="111"/>
       <c r="L22" s="17">
         <f t="shared" si="0"/>
         <v>1.7211703958691912E-2</v>
       </c>
       <c r="M22" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>5.1392032384715012E-4</v>
       </c>
-      <c r="N22" s="81"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="94"/>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B23" s="59"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="85"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="75"/>
+    </row>
+    <row r="23" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="114"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
       <c r="H23" s="11">
         <v>11.95</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="77"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="112"/>
       <c r="L23" s="18">
         <f t="shared" si="0"/>
         <v>1.6736401673640169E-2</v>
       </c>
       <c r="M23" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>4.8944778085674683E-4</v>
       </c>
-      <c r="N23" s="81"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="94"/>
-    </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B24" s="59">
+      <c r="N23" s="98"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="85"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="75"/>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B24" s="114">
         <v>5</v>
       </c>
-      <c r="C24" s="37">
-        <f t="shared" ref="C24" si="36">B24*0.01</f>
+      <c r="C24" s="73">
+        <f t="shared" ref="C24" si="42">B24*0.01</f>
         <v>0.05</v>
       </c>
-      <c r="D24" s="42">
-        <f t="shared" ref="D24" si="37">(B24/2)^2*10^-6</f>
+      <c r="D24" s="88">
+        <f t="shared" ref="D24" si="43">(B24/2)^2*10^-6</f>
         <v>6.2499999999999995E-6</v>
       </c>
-      <c r="E24" s="42">
-        <f t="shared" ref="E24" si="38">B24*C24*10^-6</f>
+      <c r="E24" s="88">
+        <f t="shared" ref="E24" si="44">B24*C24*10^-6</f>
         <v>2.4999999999999999E-7</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="107">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="107">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H24" s="12">
         <v>15.56</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="109">
         <f>I14</f>
         <v>0.3</v>
       </c>
-      <c r="J24" s="63">
+      <c r="J24" s="118">
         <v>0.2</v>
       </c>
-      <c r="K24" s="79">
-        <f t="shared" ref="K24" si="39">0.5*B24*10^-3</f>
+      <c r="K24" s="94">
+        <f t="shared" ref="K24" si="45">0.5*B24*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L24" s="19">
@@ -2841,273 +2844,273 @@
         <f>(($K$24/H24)^2+($J$24*$I$24/H24^2)^2)^(1/2)</f>
         <v>2.9534364435364433E-4</v>
       </c>
-      <c r="N24" s="82">
+      <c r="N24" s="99">
         <f>(L24+L25+L26+L27+L28)/5</f>
         <v>1.2816144235262594E-2</v>
       </c>
-      <c r="O24" s="54">
-        <f t="shared" ref="O24" si="40">(SUMSQ(M24:M28)/25)^(1/2)</f>
+      <c r="O24" s="85">
+        <f t="shared" ref="O24" si="46">(SUMSQ(M24:M28)/25)^(1/2)</f>
         <v>1.314809588282321E-4</v>
       </c>
-      <c r="P24" s="54">
-        <f t="shared" ref="P24" si="41">_xlfn.STDEV.S(L24:L28)</f>
+      <c r="P24" s="85">
+        <f t="shared" ref="P24" si="47">_xlfn.STDEV.S(L24:L28)</f>
         <v>1.8897275186015511E-4</v>
       </c>
-      <c r="Q24" s="79">
+      <c r="Q24" s="94">
         <v>1.1476</v>
       </c>
-      <c r="R24" s="79">
+      <c r="R24" s="94">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S24" s="42">
-        <f t="shared" ref="S24" si="42">N24/(F24-Q24)*10^(-3)</f>
+      <c r="S24" s="88">
+        <f t="shared" ref="S24" si="48">N24/(F24-Q24)*10^(-3)</f>
         <v>5.5746603894139167E-5</v>
       </c>
-      <c r="T24" s="46">
+      <c r="T24" s="82">
         <f>((P24/(F24-Q24))^2+(N24*G24/(F24-Q24)^2)^2+(N24*R24/(F24-Q24)^2)^2)^(1/2)*10^-3</f>
         <v>1.022489217302807E-6</v>
       </c>
-      <c r="U24" s="51">
-        <f t="shared" ref="U24" si="43">1+2.1*0.5*B24/$D$45</f>
+      <c r="U24" s="77">
+        <f t="shared" ref="U24" si="49">1+2.1*0.5*B24/$D$45</f>
         <v>1.1400000000000001</v>
       </c>
-      <c r="V24" s="51">
-        <f t="shared" ref="V24" si="44">2.1*C24*0.5/$D$45</f>
+      <c r="V24" s="77">
+        <f t="shared" ref="V24" si="50">2.1*C24*0.5/$D$45</f>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="W24" s="42">
-        <f t="shared" ref="W24" si="45">S24*U24</f>
+      <c r="W24" s="88">
+        <f t="shared" ref="W24" si="51">S24*U24</f>
         <v>6.3551128439318658E-5</v>
       </c>
-      <c r="X24" s="46">
-        <f t="shared" ref="X24" si="46">((T24*U24)^2+(S24*V24)^2)^(1/2)</f>
+      <c r="X24" s="82">
+        <f t="shared" ref="X24" si="52">((T24*U24)^2+(S24*V24)^2)^(1/2)</f>
         <v>1.1682475448330675E-6</v>
       </c>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="54">
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="85">
         <f>2/9*$D$46*(F24-Q24)*D24/$D$47*10^3</f>
         <v>1.4943499999999998E-2</v>
       </c>
-      <c r="AB24" s="54">
+      <c r="AB24" s="85">
         <f>2/9*$D$46*((F24*D24/$D$47)^2+(R24*D24/$D$47)^2+((F24-Q24)*$D$48/$D$47^2)^2+((F24-Q24)*2*(D24)^(1/2)*(E24)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960043783663944E-5</v>
       </c>
-      <c r="AC24" s="36">
+      <c r="AC24" s="74">
         <f>N24/AA24</f>
         <v>0.85764005990983339</v>
       </c>
-      <c r="AD24" s="36">
+      <c r="AD24" s="74">
         <f>((P24/AA24)^2+(N24*AB24/AA24^2)^2)^(1/2)</f>
         <v>1.3702981571682499E-2</v>
       </c>
-      <c r="AE24" s="36">
-        <f>Q24*$AA$4*B24*10^-3/$D$47*10^3</f>
-        <v>1.1950942088140062</v>
-      </c>
-      <c r="AF24" s="94">
-        <f>((AA24*R24*B24*10^-3/$D$47)^2+(Q24*AB24*B24*10^-3/$D$47)^2+(Q24*AA24*C24*10^-3/$D$47)^2+(Q24*AA24*B24*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
-        <v>1.6450433522931684E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B25" s="59"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
+      <c r="AE24" s="81">
+        <f t="shared" ref="AE24:AE43" si="53">Q24*N24*B24*10^-3/$D$47*10^3</f>
+        <v>0.35083414888587799</v>
+      </c>
+      <c r="AF24" s="129">
+        <f t="shared" ref="AF24:AF43" si="54">((N24*R24*B24*10^-3/$D$47)^2+(Q24*P24*B24*10^-3/$D$47)^2+(Q24*N24*C24*10^-3/$D$47)^2+(Q24*N24*B24*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>1.4871115752330343E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B25" s="114"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="8">
         <v>15.24</v>
       </c>
-      <c r="I25" s="73"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="71"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="93"/>
       <c r="L25" s="17">
         <f t="shared" si="0"/>
         <v>1.3123359580052493E-2</v>
       </c>
       <c r="M25" s="17">
-        <f t="shared" ref="M25:M28" si="47">(($K$24/H25)^2+($J$24*$I$24/H25^2)^2)^(1/2)</f>
+        <f t="shared" ref="M25:M28" si="55">(($K$24/H25)^2+($J$24*$I$24/H25^2)^2)^(1/2)</f>
         <v>3.0601659121382729E-4</v>
       </c>
-      <c r="N25" s="81"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="94"/>
-    </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B26" s="59"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="75"/>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B26" s="114"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="8">
         <v>15.8</v>
       </c>
-      <c r="I26" s="73"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="71"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="93"/>
       <c r="L26" s="17">
         <f t="shared" si="0"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M26" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>2.8775388602423501E-4</v>
       </c>
-      <c r="N26" s="81"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="94"/>
-    </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B27" s="59"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="85"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="75"/>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B27" s="114"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
       <c r="H27" s="8">
         <v>15.66</v>
       </c>
-      <c r="I27" s="73"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="71"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="93"/>
       <c r="L27" s="17">
         <f t="shared" si="0"/>
         <v>1.277139208173691E-2</v>
       </c>
       <c r="M27" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>2.9213956412965739E-4</v>
       </c>
-      <c r="N27" s="81"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="94"/>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B28" s="59"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="85"/>
+      <c r="AC27" s="74"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="75"/>
+    </row>
+    <row r="28" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="114"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
       <c r="H28" s="11">
         <v>15.78</v>
       </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="50"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="87"/>
       <c r="L28" s="18">
         <f t="shared" si="0"/>
         <v>1.2674271229404311E-2</v>
       </c>
       <c r="M28" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>2.8837339882458726E-4</v>
       </c>
-      <c r="N28" s="83"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="94"/>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B29" s="59">
+      <c r="N28" s="100"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="75"/>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B29" s="114">
         <v>4</v>
       </c>
-      <c r="C29" s="37">
-        <f t="shared" ref="C29" si="48">B29*0.01</f>
+      <c r="C29" s="73">
+        <f t="shared" ref="C29" si="56">B29*0.01</f>
         <v>0.04</v>
       </c>
-      <c r="D29" s="42">
-        <f t="shared" ref="D29" si="49">(B29/2)^2*10^-6</f>
+      <c r="D29" s="88">
+        <f t="shared" ref="D29" si="57">(B29/2)^2*10^-6</f>
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="E29" s="42">
-        <f t="shared" ref="E29" si="50">B29*C29*10^-6</f>
+      <c r="E29" s="88">
+        <f t="shared" ref="E29" si="58">B29*C29*10^-6</f>
         <v>1.6E-7</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="107">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G29" s="68">
+      <c r="G29" s="107">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H29" s="12">
         <v>23.43</v>
       </c>
-      <c r="I29" s="72">
+      <c r="I29" s="109">
         <f>I14</f>
         <v>0.3</v>
       </c>
-      <c r="J29" s="63">
+      <c r="J29" s="118">
         <v>0.2</v>
       </c>
-      <c r="K29" s="79">
-        <f t="shared" ref="K29" si="51">0.5*B29*10^-3</f>
+      <c r="K29" s="94">
+        <f t="shared" ref="K29" si="59">0.5*B29*10^-3</f>
         <v>2E-3</v>
       </c>
       <c r="L29" s="13">
@@ -3118,273 +3121,273 @@
         <f>(($K$29/H29)^2+($J$29*$I$29/H29^2)^2)^(1/2)</f>
         <v>1.3868016543122825E-4</v>
       </c>
-      <c r="N29" s="81">
+      <c r="N29" s="98">
         <f>(L29+L30+L31+L32+L33)/5</f>
         <v>8.3600294043818212E-3</v>
       </c>
-      <c r="O29" s="54">
-        <f t="shared" ref="O29" si="52">(SUMSQ(M29:M33)/25)^(1/2)</f>
+      <c r="O29" s="85">
+        <f t="shared" ref="O29" si="60">(SUMSQ(M29:M33)/25)^(1/2)</f>
         <v>5.9979431293701365E-5</v>
       </c>
-      <c r="P29" s="54">
-        <f t="shared" ref="P29" si="53">_xlfn.STDEV.S(L29:L33)</f>
+      <c r="P29" s="85">
+        <f t="shared" ref="P29" si="61">_xlfn.STDEV.S(L29:L33)</f>
         <v>9.8921847583569231E-5</v>
       </c>
-      <c r="Q29" s="79">
+      <c r="Q29" s="94">
         <v>1.1476</v>
       </c>
-      <c r="R29" s="79">
+      <c r="R29" s="94">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S29" s="42">
-        <f t="shared" ref="S29" si="54">N29/(F29-Q29)*10^(-3)</f>
+      <c r="S29" s="88">
+        <f t="shared" ref="S29" si="62">N29/(F29-Q29)*10^(-3)</f>
         <v>3.6363764264383737E-5</v>
       </c>
-      <c r="T29" s="44">
+      <c r="T29" s="123">
         <f>((P29/(F29-Q29))^2+(N29*G29/(F29-Q29)^2)^2+(N29*R29/(F29-Q29)^2)^2)^(1/2)*10^-3</f>
         <v>5.8524222723986226E-7</v>
       </c>
-      <c r="U29" s="51">
-        <f t="shared" ref="U29" si="55">1+2.1*0.5*B29/$D$45</f>
+      <c r="U29" s="77">
+        <f t="shared" ref="U29" si="63">1+2.1*0.5*B29/$D$45</f>
         <v>1.1120000000000001</v>
       </c>
-      <c r="V29" s="51">
-        <f t="shared" ref="V29" si="56">2.1*C29*0.5/$D$45</f>
+      <c r="V29" s="77">
+        <f t="shared" ref="V29" si="64">2.1*C29*0.5/$D$45</f>
         <v>1.1200000000000001E-3</v>
       </c>
-      <c r="W29" s="42">
-        <f t="shared" ref="W29" si="57">S29*U29</f>
+      <c r="W29" s="88">
+        <f t="shared" ref="W29" si="65">S29*U29</f>
         <v>4.0436505861994719E-5</v>
       </c>
-      <c r="X29" s="44">
-        <f t="shared" ref="X29" si="58">((T29*U29)^2+(S29*V29)^2)^(1/2)</f>
+      <c r="X29" s="123">
+        <f t="shared" ref="X29" si="66">((T29*U29)^2+(S29*V29)^2)^(1/2)</f>
         <v>6.5206250405465057E-7</v>
       </c>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="54">
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="85">
         <f>2/9*$D$46*(F29-Q29)*D29/$D$47*10^3</f>
         <v>9.5638400000000005E-3</v>
       </c>
-      <c r="AB29" s="54">
+      <c r="AB29" s="85">
         <f>2/9*$D$46*((F29*D29/$D$47)^2+(R29*D29/$D$47)^2+((F29-Q29)*$D$48/$D$47^2)^2+((F29-Q29)*2*(D29)^(1/2)*(E29)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960017933791273E-5</v>
       </c>
-      <c r="AC29" s="36">
+      <c r="AC29" s="74">
         <f>N29/AA29</f>
         <v>0.87412894866307056</v>
       </c>
-      <c r="AD29" s="36">
+      <c r="AD29" s="74">
         <f>((P29/AA29)^2+(N29*AB29/AA29^2)^2)^(1/2)</f>
         <v>1.3327780987202983E-2</v>
       </c>
-      <c r="AE29" s="36">
-        <f>Q29*$AA$4*B29*10^-3/$D$47*10^3</f>
-        <v>0.95607536705120499</v>
-      </c>
-      <c r="AF29" s="94">
-        <f>((AA29*R29*B29*10^-3/$D$47)^2+(Q29*AB29*B29*10^-3/$D$47)^2+(Q29*AA29*C29*10^-3/$D$47)^2+(Q29*AA29*B29*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
-        <v>8.5635887138922426E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B30" s="59"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
+      <c r="AE29" s="81">
+        <f t="shared" ref="AE29:AE43" si="67">Q29*N29*B29*10^-3/$D$47*10^3</f>
+        <v>0.18308057380798443</v>
+      </c>
+      <c r="AF29" s="129">
+        <f t="shared" ref="AF29:AF43" si="68">((N29*R29*B29*10^-3/$D$47)^2+(Q29*P29*B29*10^-3/$D$47)^2+(Q29*N29*C29*10^-3/$D$47)^2+(Q29*N29*B29*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>7.5914078207288908E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B30" s="114"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
       <c r="H30" s="8">
         <v>24.06</v>
       </c>
-      <c r="I30" s="73"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="71"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="93"/>
       <c r="L30" s="14">
         <f t="shared" si="0"/>
         <v>8.3125519534497094E-3</v>
       </c>
       <c r="M30" s="14">
-        <f t="shared" ref="M30:M33" si="59">(($K$29/H30)^2+($J$29*$I$29/H30^2)^2)^(1/2)</f>
+        <f t="shared" ref="M30:M33" si="69">(($K$29/H30)^2+($J$29*$I$29/H30^2)^2)^(1/2)</f>
         <v>1.3286351752914206E-4</v>
       </c>
-      <c r="N30" s="81"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="94"/>
-    </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="59"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" s="85"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="75"/>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B31" s="114"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
       <c r="H31" s="8">
         <v>24.01</v>
       </c>
-      <c r="I31" s="73"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="71"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="93"/>
       <c r="L31" s="14">
         <f t="shared" si="0"/>
         <v>8.3298625572678052E-3</v>
       </c>
       <c r="M31" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>1.333090011901867E-4</v>
       </c>
-      <c r="N31" s="81"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="94"/>
-    </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B32" s="59"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="123"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="123"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="85"/>
+      <c r="AB31" s="85"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="75"/>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B32" s="114"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
       <c r="H32" s="8">
         <v>24.09</v>
       </c>
-      <c r="I32" s="73"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="71"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="93"/>
       <c r="L32" s="14">
         <f t="shared" si="0"/>
         <v>8.3022000830220016E-3</v>
       </c>
       <c r="M32" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>1.3259751565960446E-4</v>
       </c>
-      <c r="N32" s="81"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="94"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B33" s="59"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="123"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="85"/>
+      <c r="AB32" s="85"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="75"/>
+    </row>
+    <row r="33" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="114"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
       <c r="H33" s="11">
         <v>24.04</v>
       </c>
-      <c r="I33" s="74"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="50"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="87"/>
       <c r="L33" s="15">
         <f t="shared" si="0"/>
         <v>8.3194675540765404E-3</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>1.3304138801975253E-4</v>
       </c>
-      <c r="N33" s="81"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="94"/>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B34" s="59">
+      <c r="N33" s="98"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="123"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="85"/>
+      <c r="AB33" s="85"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="75"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B34" s="114">
         <v>3</v>
       </c>
-      <c r="C34" s="37">
-        <f t="shared" ref="C34" si="60">B34*0.01</f>
+      <c r="C34" s="73">
+        <f t="shared" ref="C34" si="70">B34*0.01</f>
         <v>0.03</v>
       </c>
-      <c r="D34" s="42">
-        <f t="shared" ref="D34" si="61">(B34/2)^2*10^-6</f>
+      <c r="D34" s="88">
+        <f t="shared" ref="D34" si="71">(B34/2)^2*10^-6</f>
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="E34" s="42">
-        <f t="shared" ref="E34" si="62">B34*C34*10^-6</f>
+      <c r="E34" s="88">
+        <f t="shared" ref="E34" si="72">B34*C34*10^-6</f>
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="F34" s="68">
+      <c r="F34" s="107">
         <v>1.3774999999999999</v>
       </c>
-      <c r="G34" s="68">
+      <c r="G34" s="107">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H34" s="12">
         <v>39.72</v>
       </c>
-      <c r="I34" s="72">
+      <c r="I34" s="109">
         <f>I29</f>
         <v>0.3</v>
       </c>
-      <c r="J34" s="63">
+      <c r="J34" s="118">
         <v>0.2</v>
       </c>
-      <c r="K34" s="79">
-        <f t="shared" ref="K34" si="63">0.5*B34*10^-3</f>
+      <c r="K34" s="94">
+        <f t="shared" ref="K34" si="73">0.5*B34*10^-3</f>
         <v>1.5E-3</v>
       </c>
       <c r="L34" s="13">
@@ -3395,275 +3398,275 @@
         <f>(($K$34/H34)^2+($J$34*$I$34/H34^2)^2)^(1/2)</f>
         <v>5.3595428853931334E-5</v>
       </c>
-      <c r="N34" s="84">
+      <c r="N34" s="101">
         <f>(L34+L35+L36+L37+L38)/5</f>
         <v>5.0126521561671706E-3</v>
       </c>
-      <c r="O34" s="88">
-        <f t="shared" ref="O34" si="64">(SUMSQ(M34:M38)/25)^(1/2)</f>
+      <c r="O34" s="95">
+        <f t="shared" ref="O34" si="74">(SUMSQ(M34:M38)/25)^(1/2)</f>
         <v>2.3808205742172807E-5</v>
       </c>
-      <c r="P34" s="88">
-        <f t="shared" ref="P34" si="65">_xlfn.STDEV.S(L34:L38)</f>
+      <c r="P34" s="95">
+        <f t="shared" ref="P34" si="75">_xlfn.STDEV.S(L34:L38)</f>
         <v>2.7520590084576011E-5</v>
       </c>
-      <c r="Q34" s="79">
+      <c r="Q34" s="94">
         <v>1.1476</v>
       </c>
-      <c r="R34" s="79">
+      <c r="R34" s="94">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S34" s="45">
-        <f t="shared" ref="S34" si="66">N34/(F34-Q34)*10^(-3)</f>
+      <c r="S34" s="89">
+        <f t="shared" ref="S34" si="76">N34/(F34-Q34)*10^(-3)</f>
         <v>2.1803619644050332E-5</v>
       </c>
-      <c r="T34" s="46">
+      <c r="T34" s="82">
         <f>((P34/(F34-Q34))^2+(N34*G34/(F34-Q34)^2)^2+(N34*R34/(F34-Q34)^2)^2)^(1/2)*10^-3</f>
         <v>2.6628069696087493E-7</v>
       </c>
-      <c r="U34" s="51">
-        <f t="shared" ref="U34" si="67">1+2.1*0.5*B34/$D$45</f>
+      <c r="U34" s="77">
+        <f t="shared" ref="U34" si="77">1+2.1*0.5*B34/$D$45</f>
         <v>1.0840000000000001</v>
       </c>
-      <c r="V34" s="51">
-        <f t="shared" ref="V34" si="68">2.1*C34*0.5/$D$45</f>
+      <c r="V34" s="77">
+        <f t="shared" ref="V34" si="78">2.1*C34*0.5/$D$45</f>
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="W34" s="45">
-        <f t="shared" ref="W34" si="69">S34*U34</f>
+      <c r="W34" s="89">
+        <f t="shared" ref="W34" si="79">S34*U34</f>
         <v>2.3635123694150561E-5</v>
       </c>
-      <c r="X34" s="46">
-        <f t="shared" ref="X34" si="70">((T34*U34)^2+(S34*V34)^2)^(1/2)</f>
+      <c r="X34" s="82">
+        <f t="shared" ref="X34" si="80">((T34*U34)^2+(S34*V34)^2)^(1/2)</f>
         <v>2.8922874625614833E-7</v>
       </c>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="54">
+      <c r="Y34" s="127"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="85">
         <f>2/9*$D$46*(F34-Q34)*D34/$D$47*10^3</f>
         <v>5.3796600000000005E-3</v>
       </c>
-      <c r="AB34" s="54">
+      <c r="AB34" s="85">
         <f>2/9*$D$46*((F34*D34/$D$47)^2+(R34*D34/$D$47)^2+((F34-Q34)*$D$48/$D$47^2)^2+((F34-Q34)*2*(D34)^(1/2)*(E34)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960005674364035E-5</v>
       </c>
-      <c r="AC34" s="36">
+      <c r="AC34" s="74">
         <f>N34/AA34</f>
         <v>0.93177861726710798</v>
       </c>
-      <c r="AD34" s="36">
+      <c r="AD34" s="74">
         <f>((P34/AA34)^2+(N34*AB34/AA34^2)^2)^(1/2)</f>
         <v>1.6729202991582419E-2</v>
       </c>
-      <c r="AE34" s="36">
-        <f>Q34*$AA$4*B34*10^-3/$D$47*10^3</f>
-        <v>0.7170565252884038</v>
-      </c>
-      <c r="AF34" s="94">
-        <f>((AA34*R34*B34*10^-3/$D$47)^2+(Q34*AB34*B34*10^-3/$D$47)^2+(Q34*AA34*C34*10^-3/$D$47)^2+(Q34*AA34*B34*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
-        <v>3.8225084817565319E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B35" s="59"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
+      <c r="AE34" s="81">
+        <f t="shared" ref="AE34:AE43" si="81">Q34*N34*B34*10^-3/$D$47*10^3</f>
+        <v>8.2330981327341679E-2</v>
+      </c>
+      <c r="AF34" s="129">
+        <f t="shared" ref="AF34:AF43" si="82">((N34*R34*B34*10^-3/$D$47)^2+(Q34*P34*B34*10^-3/$D$47)^2+(Q34*N34*C34*10^-3/$D$47)^2+(Q34*N34*B34*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>3.3029635068560484E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B35" s="114"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
       <c r="H35" s="8">
         <v>40.07</v>
       </c>
-      <c r="I35" s="73"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="71"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="93"/>
       <c r="L35" s="14">
         <f t="shared" si="0"/>
         <v>4.9912652857499375E-3</v>
       </c>
       <c r="M35" s="14">
-        <f t="shared" ref="M35:M38" si="71">(($K$34/H35)^2+($J$34*$I$34/H35^2)^2)^(1/2)</f>
+        <f t="shared" ref="M35:M38" si="83">(($K$34/H35)^2+($J$34*$I$34/H35^2)^2)^(1/2)</f>
         <v>5.2894141272690634E-5</v>
       </c>
-      <c r="N35" s="85"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="94"/>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B36" s="59"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
+      <c r="N35" s="102"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="127"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="85"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="75"/>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B36" s="114"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
       <c r="H36" s="8">
         <v>39.92</v>
       </c>
-      <c r="I36" s="73"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="71"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="93"/>
       <c r="L36" s="14">
         <f t="shared" si="0"/>
         <v>5.0100200400801601E-3</v>
       </c>
       <c r="M36" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>5.3192559591570681E-5</v>
       </c>
-      <c r="N36" s="85"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="94"/>
-    </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B37" s="59"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="77"/>
+      <c r="V36" s="77"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="127"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="85"/>
+      <c r="AC36" s="74"/>
+      <c r="AD36" s="74"/>
+      <c r="AE36" s="74"/>
+      <c r="AF36" s="75"/>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B37" s="114"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
       <c r="H37" s="8">
         <v>40.15</v>
       </c>
-      <c r="I37" s="73"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="71"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="93"/>
       <c r="L37" s="14">
         <f t="shared" si="0"/>
         <v>4.9813200498132013E-3</v>
       </c>
       <c r="M37" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>5.2736274862302553E-5</v>
       </c>
-      <c r="N37" s="85"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="94"/>
-    </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B38" s="59"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="77"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="127"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="85"/>
+      <c r="AB37" s="85"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="75"/>
+    </row>
+    <row r="38" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="114"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="11">
         <v>39.64</v>
       </c>
-      <c r="I38" s="74"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="50"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="87"/>
       <c r="L38" s="15">
         <f t="shared" si="0"/>
         <v>5.0454086781029266E-3</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>5.3758192485178142E-5</v>
       </c>
-      <c r="N38" s="86"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="94"/>
-    </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B39" s="59">
+      <c r="N38" s="103"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="89"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="127"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="85"/>
+      <c r="AB38" s="85"/>
+      <c r="AC38" s="74"/>
+      <c r="AD38" s="74"/>
+      <c r="AE38" s="74"/>
+      <c r="AF38" s="75"/>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B39" s="114">
         <v>2</v>
       </c>
-      <c r="C39" s="37">
-        <f t="shared" ref="C39" si="72">B39*0.01</f>
+      <c r="C39" s="73">
+        <f t="shared" ref="C39" si="84">B39*0.01</f>
         <v>0.02</v>
       </c>
-      <c r="D39" s="42">
-        <f t="shared" ref="D39" si="73">(B39/2)^2*10^-6</f>
+      <c r="D39" s="88">
+        <f t="shared" ref="D39" si="85">(B39/2)^2*10^-6</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E39" s="42">
-        <f t="shared" ref="E39" si="74">B39*C39*10^-6</f>
+      <c r="E39" s="88">
+        <f t="shared" ref="E39" si="86">B39*C39*10^-6</f>
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="F39" s="68">
+      <c r="F39" s="107">
         <f>F34</f>
         <v>1.3774999999999999</v>
       </c>
-      <c r="G39" s="68">
+      <c r="G39" s="107">
         <f>G34</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H39" s="12">
         <v>74.900000000000006</v>
       </c>
-      <c r="I39" s="72">
+      <c r="I39" s="109">
         <f>I34</f>
         <v>0.3</v>
       </c>
-      <c r="J39" s="63">
+      <c r="J39" s="118">
         <v>0.2</v>
       </c>
-      <c r="K39" s="79">
-        <f t="shared" ref="K39" si="75">0.5*B39*10^-3</f>
+      <c r="K39" s="94">
+        <f t="shared" ref="K39" si="87">0.5*B39*10^-3</f>
         <v>1E-3</v>
       </c>
       <c r="L39" s="13">
@@ -3674,269 +3677,270 @@
         <f>(($K$39/H39)^2+($J$39*$I$39/H39^2)^2)^(1/2)</f>
         <v>1.7106706942119941E-5</v>
       </c>
-      <c r="N39" s="84">
+      <c r="N39" s="101">
         <f>(L39+L40+L41+L42+L43)/5</f>
         <v>2.654035384232682E-3</v>
       </c>
-      <c r="O39" s="88">
-        <f t="shared" ref="O39" si="76">(SUMSQ(M39:M43)/25)^(1/2)</f>
+      <c r="O39" s="95">
+        <f t="shared" ref="O39" si="88">(SUMSQ(M39:M43)/25)^(1/2)</f>
         <v>7.5910153311779477E-6</v>
       </c>
-      <c r="P39" s="54">
-        <f t="shared" ref="P39" si="77">_xlfn.STDEV.S(L39:L43)</f>
+      <c r="P39" s="85">
+        <f t="shared" ref="P39" si="89">_xlfn.STDEV.S(L39:L43)</f>
         <v>6.3404518771783403E-5</v>
       </c>
-      <c r="Q39" s="79">
+      <c r="Q39" s="94">
         <f>Q34</f>
         <v>1.1476</v>
       </c>
-      <c r="R39" s="79">
+      <c r="R39" s="94">
         <f>R34</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S39" s="45">
-        <f t="shared" ref="S39" si="78">N39/(F39-Q39)*10^(-3)</f>
+      <c r="S39" s="89">
+        <f t="shared" ref="S39" si="90">N39/(F39-Q39)*10^(-3)</f>
         <v>1.154430354168196E-5</v>
       </c>
-      <c r="T39" s="46">
+      <c r="T39" s="82">
         <f>((O39/(F39-Q39))^2+(N39*G39/(F39-Q39)^2)^2+(N39*R39/(F39-Q39)^2)^2)^(1/2)*10^-3</f>
         <v>1.3019378482831071E-7</v>
       </c>
-      <c r="U39" s="51">
-        <f t="shared" ref="U39" si="79">1+2.1*0.5*B39/$D$45</f>
+      <c r="U39" s="77">
+        <f t="shared" ref="U39" si="91">1+2.1*0.5*B39/$D$45</f>
         <v>1.056</v>
       </c>
-      <c r="V39" s="51">
-        <f t="shared" ref="V39" si="80">2.1*C39*0.5/$D$45</f>
+      <c r="V39" s="77">
+        <f t="shared" ref="V39" si="92">2.1*C39*0.5/$D$45</f>
         <v>5.6000000000000006E-4</v>
       </c>
-      <c r="W39" s="45">
-        <f t="shared" ref="W39" si="81">S39*U39</f>
+      <c r="W39" s="89">
+        <f t="shared" ref="W39" si="93">S39*U39</f>
         <v>1.219078454001615E-5</v>
       </c>
-      <c r="X39" s="46">
-        <f t="shared" ref="X39" si="82">((T39*U39)^2+(S39*V39)^2)^(1/2)</f>
+      <c r="X39" s="82">
+        <f t="shared" ref="X39" si="94">((T39*U39)^2+(S39*V39)^2)^(1/2)</f>
         <v>1.3763654717512613E-7</v>
       </c>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="54">
+      <c r="Y39" s="127"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="85">
         <f>2/9*$D$46*(F39-Q39)*D39/$D$47*10^3</f>
         <v>2.3909600000000001E-3</v>
       </c>
-      <c r="AB39" s="54">
+      <c r="AB39" s="85">
         <f>2/9*$D$46*((F39*D39/$D$47)^2+(R39*D39/$D$47)^2+((F39-Q39)*$D$48/$D$47^2)^2+((F39-Q39)*2*(D39)^(1/2)*(E39)^(1/2)/$D$47)^2)^(1/2)*10^-3</f>
         <v>9.1960001120862077E-5</v>
       </c>
-      <c r="AC39" s="37">
+      <c r="AC39" s="73">
         <f>N39/AA39</f>
         <v>1.1100291867001881</v>
       </c>
-      <c r="AD39" s="37">
+      <c r="AD39" s="73">
         <f>((O39/AA39)^2+(N39*AB39/AA39^2)^2)^(1/2)</f>
         <v>4.2811317497756199E-2</v>
       </c>
-      <c r="AE39" s="51">
-        <f>Q39*$AA$4*B39*10^-3/$D$47*10^3</f>
-        <v>0.4780376835256025</v>
-      </c>
-      <c r="AF39" s="95">
-        <f>((AA39*R39*B39*10^-3/$D$47)^2+(Q39*AB39*B39*10^-3/$D$47)^2+(Q39*AA39*C39*10^-3/$D$47)^2+(Q39*AA39*B39*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
-        <v>1.4479009314524434E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B40" s="59"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
+      <c r="AE39" s="130">
+        <f t="shared" ref="AE39:AE43" si="95">Q39*N39*B39*10^-3/$D$47*10^3</f>
+        <v>2.9061041388044238E-2</v>
+      </c>
+      <c r="AF39" s="131">
+        <f t="shared" ref="AF39:AF43" si="96">((N39*R39*B39*10^-3/$D$47)^2+(Q39*P39*B39*10^-3/$D$47)^2+(Q39*N39*C39*10^-3/$D$47)^2+(Q39*N39*B39*10^-3*$D$48/$D$47^2)^2)^(1/2)*10^3</f>
+        <v>1.3475192986059335E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B40" s="114"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
       <c r="H40" s="8">
         <v>78.34</v>
       </c>
-      <c r="I40" s="73"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="71"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="93"/>
       <c r="L40" s="14">
         <f t="shared" si="0"/>
         <v>2.5529742149604288E-3</v>
       </c>
       <c r="M40" s="14">
-        <f t="shared" ref="M40:M43" si="83">(($K$39/H40)^2+($J$39*$I$39/H40^2)^2)^(1/2)</f>
+        <f t="shared" ref="M40:M43" si="97">(($K$39/H40)^2+($J$39*$I$39/H40^2)^2)^(1/2)</f>
         <v>1.6078625529446875E-5</v>
       </c>
-      <c r="N40" s="85"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="95"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B41" s="59"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="77"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="127"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="85"/>
+      <c r="AB40" s="85"/>
+      <c r="AC40" s="73"/>
+      <c r="AD40" s="73"/>
+      <c r="AE40" s="77"/>
+      <c r="AF40" s="79"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B41" s="114"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
       <c r="H41" s="8">
         <v>75.86</v>
       </c>
-      <c r="I41" s="73"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="71"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="93"/>
       <c r="L41" s="14">
         <f t="shared" si="0"/>
         <v>2.6364355391510679E-3</v>
       </c>
       <c r="M41" s="14">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>1.6806999019068159E-5</v>
       </c>
-      <c r="N41" s="85"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="48"/>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="51"/>
-      <c r="AF41" s="95"/>
-    </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B42" s="59"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
+      <c r="N41" s="102"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="77"/>
+      <c r="V41" s="77"/>
+      <c r="W41" s="89"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="127"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="85"/>
+      <c r="AB41" s="85"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="77"/>
+      <c r="AF41" s="79"/>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B42" s="114"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
       <c r="H42" s="8">
         <v>73.8</v>
       </c>
-      <c r="I42" s="73"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="71"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="93"/>
       <c r="L42" s="14">
         <f t="shared" si="0"/>
         <v>2.7100271002710031E-3</v>
       </c>
       <c r="M42" s="14">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>1.7463292566734726E-5</v>
       </c>
-      <c r="N42" s="85"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="51"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="39"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="37"/>
-      <c r="AE42" s="51"/>
-      <c r="AF42" s="95"/>
-    </row>
-    <row r="43" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="60"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
+      <c r="N42" s="102"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="77"/>
+      <c r="V42" s="77"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="82"/>
+      <c r="Y42" s="127"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="85"/>
+      <c r="AB42" s="85"/>
+      <c r="AC42" s="73"/>
+      <c r="AD42" s="73"/>
+      <c r="AE42" s="77"/>
+      <c r="AF42" s="79"/>
+    </row>
+    <row r="43" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="115"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
       <c r="H43" s="10">
         <v>74.06</v>
       </c>
-      <c r="I43" s="75"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="80"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="97"/>
       <c r="L43" s="16">
         <f t="shared" si="0"/>
         <v>2.7005130974885228E-3</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>1.7377698907979166E-5</v>
       </c>
-      <c r="N43" s="87"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="80"/>
-      <c r="R43" s="80"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="90"/>
-      <c r="AB43" s="90"/>
-      <c r="AC43" s="38"/>
-      <c r="AD43" s="38"/>
-      <c r="AE43" s="52"/>
-      <c r="AF43" s="96"/>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+      <c r="N43" s="104"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="86"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="83"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="78"/>
+      <c r="W43" s="90"/>
+      <c r="X43" s="83"/>
+      <c r="Y43" s="128"/>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="86"/>
+      <c r="AB43" s="86"/>
+      <c r="AC43" s="76"/>
+      <c r="AD43" s="76"/>
+      <c r="AE43" s="77"/>
+      <c r="AF43" s="79"/>
+    </row>
+    <row r="44" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="C45" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="132">
         <v>37.5</v>
       </c>
     </row>
-    <row r="46" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
+    <row r="46" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="133">
         <v>9.8098399999999994</v>
       </c>
     </row>
-    <row r="47" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
+    <row r="47" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="133">
         <f>2*$D$46/(9*10.4)</f>
         <v>0.20961196581196578</v>
       </c>
-      <c r="J47" s="119" t="s">
+      <c r="J47" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="K47" s="127">
+      <c r="K47" s="55">
         <f>(N49+N54)/2</f>
         <v>548.25</v>
       </c>
@@ -3976,347 +3980,534 @@
       <c r="Z47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AA47" s="117" t="s">
+      <c r="AA47" s="45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="C48" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="133">
         <f>2*$D$46*0.4/(9*10.4^2)</f>
         <v>8.0619986850756081E-3</v>
       </c>
-      <c r="J48" s="120" t="s">
+      <c r="J48" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K48" s="128">
+      <c r="K48" s="56">
         <f>(2*O48^2/4)^(1/2)</f>
         <v>0.35355339059327379</v>
       </c>
       <c r="N48" s="7">
         <v>550</v>
       </c>
-      <c r="O48" s="102">
+      <c r="O48" s="65">
         <v>0.5</v>
       </c>
-      <c r="P48" s="103">
+      <c r="P48" s="36">
         <v>0</v>
       </c>
-      <c r="Q48" s="104">
+      <c r="Q48" s="68">
         <v>0.25</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
       </c>
-      <c r="S48" s="39">
+      <c r="S48" s="60">
         <v>4</v>
       </c>
-      <c r="T48" s="99">
+      <c r="T48" s="62">
         <f>273.15+23.9</f>
         <v>297.04999999999995</v>
       </c>
-      <c r="V48" s="108">
-        <f>R49-R48</f>
+      <c r="V48" s="38">
+        <f t="shared" ref="V48:V53" si="98">R49-R48</f>
         <v>99</v>
       </c>
-      <c r="W48" s="109">
+      <c r="W48" s="66">
         <f>(2*4^2)^(1/2)</f>
         <v>5.6568542494923806</v>
       </c>
       <c r="X48" s="33">
-        <f>P49-P48</f>
+        <f t="shared" ref="X48:X53" si="99">P49-P48</f>
         <v>5</v>
       </c>
-      <c r="Y48" s="73">
+      <c r="Y48" s="58">
         <f>(2*0.25^2)^(1/2)</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="Z48" s="115">
-        <f>X48/V48</f>
-        <v>5.0505050505050504E-2</v>
-      </c>
-      <c r="AA48" s="113">
-        <f>(($Y$48/V48)^2+(X48*$W$48/V48^2)^2)^(1/2)</f>
-        <v>4.5915099344409835E-3</v>
-      </c>
+      <c r="Z48" s="43"/>
+      <c r="AA48" s="41"/>
       <c r="AB48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C49" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="133">
         <f>2*$D$46/(9*9.1)</f>
         <v>0.23955653235653238</v>
       </c>
-      <c r="J49" s="121" t="s">
+      <c r="J49" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="129">
+      <c r="K49" s="57">
         <v>1.1456</v>
       </c>
       <c r="N49" s="7">
         <v>549.5</v>
       </c>
-      <c r="O49" s="73"/>
-      <c r="P49" s="103">
+      <c r="O49" s="58"/>
+      <c r="P49" s="36">
         <v>5</v>
       </c>
-      <c r="Q49" s="105"/>
+      <c r="Q49" s="69"/>
       <c r="R49" s="1">
         <v>99</v>
       </c>
-      <c r="S49" s="39"/>
-      <c r="T49" s="100"/>
-      <c r="V49" s="108">
-        <f>R50-R49</f>
+      <c r="S49" s="60"/>
+      <c r="T49" s="63"/>
+      <c r="V49" s="38">
+        <f t="shared" si="98"/>
         <v>127</v>
       </c>
-      <c r="W49" s="109"/>
+      <c r="W49" s="66"/>
       <c r="X49" s="33">
-        <f>P50-P49</f>
+        <f t="shared" si="99"/>
         <v>5</v>
       </c>
-      <c r="Y49" s="73"/>
-      <c r="Z49" s="115">
-        <f>X49/V49</f>
-        <v>3.937007874015748E-2</v>
-      </c>
-      <c r="AA49" s="113">
-        <f>(($Y$48/V49)^2+(X49*$W$48/V49^2)^2)^(1/2)</f>
+      <c r="Y49" s="58"/>
+      <c r="Z49" s="43">
+        <f>ABS(X49/V49 - X48/V48)</f>
+        <v>1.1134971764893024E-2</v>
+      </c>
+      <c r="AA49" s="41">
+        <f t="shared" ref="AA48:AA53" si="100">(($Y$48/V49)^2+(X49*$W$48/V49^2)^2)^(1/2)</f>
         <v>3.2901713938437772E-3</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="50" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="134">
         <f>2*$D$46*0.5/(9*9.1^2)</f>
         <v>1.3162446832776505E-2</v>
       </c>
-      <c r="J50" s="121" t="s">
+      <c r="J50" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K50" s="129">
+      <c r="K50" s="57">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="N50" s="7">
         <v>549</v>
       </c>
-      <c r="O50" s="73"/>
-      <c r="P50" s="103">
+      <c r="O50" s="58"/>
+      <c r="P50" s="36">
         <v>10</v>
       </c>
-      <c r="Q50" s="105"/>
+      <c r="Q50" s="69"/>
       <c r="R50" s="1">
         <v>226</v>
       </c>
-      <c r="S50" s="39"/>
-      <c r="T50" s="100"/>
-      <c r="V50" s="108">
-        <f>R51-R50</f>
+      <c r="S50" s="60"/>
+      <c r="T50" s="63"/>
+      <c r="V50" s="38">
+        <f t="shared" si="98"/>
         <v>131</v>
       </c>
-      <c r="W50" s="109"/>
+      <c r="W50" s="66"/>
       <c r="X50" s="33">
-        <f>P51-P50</f>
+        <f t="shared" si="99"/>
         <v>5</v>
       </c>
-      <c r="Y50" s="73"/>
-      <c r="Z50" s="115">
-        <f>X50/V50</f>
-        <v>3.8167938931297711E-2</v>
-      </c>
-      <c r="AA50" s="113">
-        <f>(($Y$48/V50)^2+(X50*$W$48/V50^2)^2)^(1/2)</f>
+      <c r="Y50" s="58"/>
+      <c r="Z50" s="43">
+        <f t="shared" ref="Z50:Z53" si="101">ABS(X50/V50 - X49/V49)</f>
+        <v>1.2021398088597687E-3</v>
+      </c>
+      <c r="AA50" s="41">
+        <f t="shared" si="100"/>
         <v>3.1623451947636314E-3</v>
       </c>
     </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J51" s="121" t="s">
+    <row r="51" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="J51" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="K51" s="126">
+      <c r="K51" s="54">
         <f>K49*K47*Tabelle1!D46</f>
         <v>6161.3172199679993</v>
       </c>
       <c r="N51" s="7">
         <v>548.5</v>
       </c>
-      <c r="O51" s="73"/>
-      <c r="P51" s="103">
+      <c r="O51" s="58"/>
+      <c r="P51" s="36">
         <v>15</v>
       </c>
-      <c r="Q51" s="105"/>
+      <c r="Q51" s="69"/>
       <c r="R51" s="1">
         <v>357</v>
       </c>
-      <c r="S51" s="39"/>
-      <c r="T51" s="100"/>
-      <c r="V51" s="108">
-        <f>R52-R51</f>
+      <c r="S51" s="60"/>
+      <c r="T51" s="63"/>
+      <c r="V51" s="38">
+        <f t="shared" si="98"/>
         <v>128</v>
       </c>
-      <c r="W51" s="109"/>
+      <c r="W51" s="66"/>
       <c r="X51" s="33">
-        <f>P52-P51</f>
+        <f t="shared" si="99"/>
         <v>5</v>
       </c>
-      <c r="Y51" s="73"/>
-      <c r="Z51" s="115">
-        <f>X51/V51</f>
-        <v>3.90625E-2</v>
-      </c>
-      <c r="AA51" s="113">
-        <f>(($Y$48/V51)^2+(X51*$W$48/V51^2)^2)^(1/2)</f>
+      <c r="Y51" s="58"/>
+      <c r="Z51" s="43">
+        <f t="shared" si="101"/>
+        <v>8.9456106870228896E-4</v>
+      </c>
+      <c r="AA51" s="41">
+        <f t="shared" si="100"/>
         <v>3.2572422031558433E-3</v>
       </c>
     </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J52" s="120" t="s">
+    <row r="52" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="J52" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K52" s="126">
+      <c r="K52" s="54">
         <f>((K48*K49*Tabelle1!D46)^2+(K47*K50*Tabelle1!D46)^2)^(1/2)</f>
         <v>4.1163126947969708</v>
       </c>
       <c r="N52" s="7">
         <v>548</v>
       </c>
-      <c r="O52" s="73"/>
-      <c r="P52" s="103">
+      <c r="O52" s="58"/>
+      <c r="P52" s="36">
         <v>20</v>
       </c>
-      <c r="Q52" s="105"/>
+      <c r="Q52" s="69"/>
       <c r="R52" s="1">
         <v>485</v>
       </c>
-      <c r="S52" s="39"/>
-      <c r="T52" s="100"/>
-      <c r="V52" s="108">
-        <f>R53-R52</f>
+      <c r="S52" s="60"/>
+      <c r="T52" s="63"/>
+      <c r="V52" s="38">
+        <f t="shared" si="98"/>
         <v>131</v>
       </c>
-      <c r="W52" s="109"/>
+      <c r="W52" s="66"/>
       <c r="X52" s="33">
-        <f>P53-P52</f>
+        <f t="shared" si="99"/>
         <v>5</v>
       </c>
-      <c r="Y52" s="73"/>
-      <c r="Z52" s="115">
-        <f>X52/V52</f>
-        <v>3.8167938931297711E-2</v>
-      </c>
-      <c r="AA52" s="113">
-        <f>(($Y$48/V52)^2+(X52*$W$48/V52^2)^2)^(1/2)</f>
+      <c r="Y52" s="58"/>
+      <c r="Z52" s="43">
+        <f t="shared" si="101"/>
+        <v>8.9456106870228896E-4</v>
+      </c>
+      <c r="AA52" s="41">
+        <f t="shared" si="100"/>
         <v>3.1623451947636314E-3</v>
       </c>
     </row>
-    <row r="53" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J53" s="120" t="s">
+    <row r="53" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J53" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="K53" s="124">
+      <c r="K53" s="52">
         <f>25/(R54-R49)*10^-6</f>
         <v>3.8759689922480615E-8</v>
       </c>
       <c r="N53" s="7">
         <v>547.5</v>
       </c>
-      <c r="O53" s="73"/>
-      <c r="P53" s="103">
+      <c r="O53" s="58"/>
+      <c r="P53" s="36">
         <v>25</v>
       </c>
-      <c r="Q53" s="105"/>
+      <c r="Q53" s="69"/>
       <c r="R53" s="1">
         <v>616</v>
       </c>
-      <c r="S53" s="39"/>
-      <c r="T53" s="100"/>
-      <c r="V53" s="110">
-        <f>R54-R53</f>
+      <c r="S53" s="60"/>
+      <c r="T53" s="63"/>
+      <c r="V53" s="39">
+        <f t="shared" si="98"/>
         <v>128</v>
       </c>
-      <c r="W53" s="111"/>
+      <c r="W53" s="67"/>
       <c r="X53" s="34">
-        <f>P54-P53</f>
+        <f t="shared" si="99"/>
         <v>5</v>
       </c>
-      <c r="Y53" s="75"/>
-      <c r="Z53" s="116">
-        <f>X53/V53</f>
-        <v>3.90625E-2</v>
-      </c>
-      <c r="AA53" s="114">
-        <f>(($Y$48/V53)^2+(X53*$W$48/V53^2)^2)^(1/2)</f>
+      <c r="Y53" s="59"/>
+      <c r="Z53" s="44">
+        <f t="shared" si="101"/>
+        <v>8.9456106870228896E-4</v>
+      </c>
+      <c r="AA53" s="42">
+        <f t="shared" si="100"/>
         <v>3.2572422031558433E-3</v>
       </c>
     </row>
-    <row r="54" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J54" s="120" t="s">
+    <row r="54" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J54" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="K54" s="125">
+      <c r="K54" s="53">
         <f>((Q48/(R54-R49))^2+(P53*S48/(R54-R49)^2)^2)^(1/2)*10^-6</f>
         <v>4.560802286267944E-10</v>
       </c>
       <c r="N54" s="9">
         <v>547</v>
       </c>
-      <c r="O54" s="75"/>
-      <c r="P54" s="106">
+      <c r="O54" s="59"/>
+      <c r="P54" s="37">
         <v>30</v>
       </c>
-      <c r="Q54" s="107"/>
+      <c r="Q54" s="70"/>
       <c r="R54" s="2">
         <v>744</v>
       </c>
-      <c r="S54" s="40"/>
-      <c r="T54" s="101"/>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J55" s="121" t="s">
+      <c r="S54" s="61"/>
+      <c r="T54" s="64"/>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="J55" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="K55" s="122">
+      <c r="K55" s="50">
         <f>(3.1415*K51*0.00075^4)/(8*K53*0.1)</f>
         <v>0.19750832500799462</v>
       </c>
     </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J56" s="120" t="s">
+    <row r="56" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="J56" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="K56" s="122">
+      <c r="K56" s="50">
         <f>((3.1415*0.00075*K52/(8*0.1*K53))^2+(3.1415*0.00075*K51*0.0001/(8*0.1^2*K53))^2+(3.1415*0.00075*K54/(8*0.1*K53^2))^2+(3.1415*4*K51*0.00075^3*0.00005/(8*0.1*K53))^2)^(1/2)*10^-8</f>
         <v>5.6303830689297179E-3</v>
       </c>
     </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J57" s="120" t="s">
+    <row r="57" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="J57" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K57" s="122">
+      <c r="K57" s="50">
         <f>K49*K53*0.0015/(K55*3.1415*0.0015^2)*10^4</f>
         <v>0.47708918301174913</v>
       </c>
     </row>
-    <row r="58" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J58" s="112" t="s">
+    <row r="58" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J58" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="K58" s="123">
+      <c r="K58" s="51">
         <f>((K52*K53*0.1/(K55*3.1415*0.00075^2))^2+(K51*K54*0.1/(K55*3.1415*0.00075^2))^2+(K51*K53*0.0005/(K55*3.1415*0.00075))^2+(K51*K53*0.1*K56/(K55^2*3.1415*0.00075))^2+(K51*K53*0.1*0.0001/(K55*3.1415*0.00075^2)^2)^(1/2))*10^-4</f>
         <v>1.4066771375179858E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="217">
+    <mergeCell ref="X24:X28"/>
+    <mergeCell ref="X29:X33"/>
+    <mergeCell ref="X34:X38"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="U39:U43"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="S39:S43"/>
+    <mergeCell ref="T4:T8"/>
+    <mergeCell ref="T9:T13"/>
+    <mergeCell ref="T14:T18"/>
+    <mergeCell ref="T19:T23"/>
+    <mergeCell ref="T24:T28"/>
+    <mergeCell ref="T29:T33"/>
+    <mergeCell ref="T34:T38"/>
+    <mergeCell ref="T39:T43"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="R9:R13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="R34:R38"/>
+    <mergeCell ref="Q39:Q43"/>
+    <mergeCell ref="R39:R43"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="R24:R28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="R29:R33"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="N14:N18"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="N24:N28"/>
+    <mergeCell ref="N29:N33"/>
+    <mergeCell ref="N34:N38"/>
+    <mergeCell ref="N39:N43"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="P4:P8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="P14:P18"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="P34:P38"/>
+    <mergeCell ref="O39:O43"/>
+    <mergeCell ref="K39:K43"/>
+    <mergeCell ref="P39:P43"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="P24:P28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="P29:P33"/>
+    <mergeCell ref="V4:V8"/>
+    <mergeCell ref="V9:V13"/>
+    <mergeCell ref="V14:V18"/>
+    <mergeCell ref="V19:V23"/>
+    <mergeCell ref="V24:V28"/>
+    <mergeCell ref="V29:V33"/>
+    <mergeCell ref="V34:V38"/>
+    <mergeCell ref="V39:V43"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="W39:W43"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="X39:X43"/>
+    <mergeCell ref="AB4:AB8"/>
+    <mergeCell ref="AB9:AB13"/>
+    <mergeCell ref="AB14:AB18"/>
+    <mergeCell ref="AB19:AB23"/>
+    <mergeCell ref="AB24:AB28"/>
+    <mergeCell ref="AB29:AB33"/>
+    <mergeCell ref="AB34:AB38"/>
+    <mergeCell ref="AB39:AB43"/>
+    <mergeCell ref="Z4:Z43"/>
+    <mergeCell ref="X4:X8"/>
+    <mergeCell ref="X9:X13"/>
+    <mergeCell ref="X14:X18"/>
+    <mergeCell ref="X19:X23"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y43"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="AA39:AA43"/>
+    <mergeCell ref="AF34:AF38"/>
+    <mergeCell ref="AE39:AE43"/>
+    <mergeCell ref="AF39:AF43"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AD4:AD8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AD34:AD38"/>
+    <mergeCell ref="AD39:AD43"/>
     <mergeCell ref="Y48:Y53"/>
     <mergeCell ref="S48:S54"/>
     <mergeCell ref="T48:T54"/>
@@ -4341,199 +4532,6 @@
     <mergeCell ref="AD29:AD33"/>
     <mergeCell ref="AF29:AF33"/>
     <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AF34:AF38"/>
-    <mergeCell ref="AE39:AE43"/>
-    <mergeCell ref="AF39:AF43"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AD4:AD8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="X39:X43"/>
-    <mergeCell ref="AB4:AB8"/>
-    <mergeCell ref="AB9:AB13"/>
-    <mergeCell ref="AB14:AB18"/>
-    <mergeCell ref="AB19:AB23"/>
-    <mergeCell ref="AB24:AB28"/>
-    <mergeCell ref="AB29:AB33"/>
-    <mergeCell ref="AB34:AB38"/>
-    <mergeCell ref="AB39:AB43"/>
-    <mergeCell ref="V4:V8"/>
-    <mergeCell ref="V9:V13"/>
-    <mergeCell ref="V14:V18"/>
-    <mergeCell ref="V19:V23"/>
-    <mergeCell ref="V24:V28"/>
-    <mergeCell ref="V29:V33"/>
-    <mergeCell ref="V34:V38"/>
-    <mergeCell ref="V39:V43"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="W39:W43"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="P4:P8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="P9:P13"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="P14:P18"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="P34:P38"/>
-    <mergeCell ref="O39:O43"/>
-    <mergeCell ref="K39:K43"/>
-    <mergeCell ref="P39:P43"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="P19:P23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="P24:P28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="P29:P33"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="N9:N13"/>
-    <mergeCell ref="N14:N18"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="N24:N28"/>
-    <mergeCell ref="N29:N33"/>
-    <mergeCell ref="N34:N38"/>
-    <mergeCell ref="N39:N43"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="R9:R13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="R34:R38"/>
-    <mergeCell ref="Q39:Q43"/>
-    <mergeCell ref="R39:R43"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="R19:R23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="R24:R28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="R29:R33"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="S39:S43"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="T9:T13"/>
-    <mergeCell ref="T14:T18"/>
-    <mergeCell ref="T19:T23"/>
-    <mergeCell ref="T24:T28"/>
-    <mergeCell ref="T29:T33"/>
-    <mergeCell ref="T34:T38"/>
-    <mergeCell ref="T39:T43"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="U39:U43"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="AD34:AD38"/>
-    <mergeCell ref="AD39:AD43"/>
-    <mergeCell ref="Z4:Z43"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="X4:X8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="X9:X13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="X14:X18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="X19:X23"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y43"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="AA39:AA43"/>
-    <mergeCell ref="X24:X28"/>
-    <mergeCell ref="X29:X33"/>
-    <mergeCell ref="X34:X38"/>
   </mergeCells>
   <pageMargins left="0" right="0.39370078740157483" top="1.3779527559055118" bottom="0" header="0" footer="0"/>
   <pageSetup scale="31" orientation="landscape" r:id="rId1"/>
@@ -4541,41 +4539,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C24:O27"/>
+  <dimension ref="C24:C27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="118"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="118"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="118"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="118"/>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="46"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="46"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="46"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
